--- a/output.xlsx
+++ b/output.xlsx
@@ -9,10 +9,10 @@
   <sheets>
     <sheet name="Main" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ANEXOS AO EDITAL" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="APÊNDICE DO ANEXO I – ESTUDO TÉCNICO PRELIMINAR" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ANEXO II - REMUNERAÇÃO BASEADA EM SPRINTS EM METODOLOGIA ÁGIL" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ANEXO III - INFORMAÇÕES PARA DIMENSIONAMENTO DE INFRAESTRUTURA" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ANEXO IV - PROCESSO DE AMOSTRA DA FERRAMENTA" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="APÊNDICE DO ANEXO I – ESTUDO TÉ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ANEXO II - REMUNERAÇÃO BASEADA " sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ANEXO III - INFORMAÇÕES PARA DI" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ANEXO IV - PROCESSO DE AMOSTRA " sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DO OBJETO</t>
+          <t xml:space="preserve"> Av.Augusto Severo, nº 84, 7º andar - Bairro Glória, Rio de Janeiro/RJ, CEP 20021-040 Telefone: 2105-0291 - h Ʃp://www.ans.gov.br PROCESSO Nº:  33910.012598/2022-90 EDITAL Nº: 13/2023/2023/COLIC/GECOL/GGAFI/DIRAD-DIGES/DIGES RESUMO DO EDITAL PREGÃO ELETRÔNICONº 13/2023Data de Abertura : 21/08/2023  Horário: 10:00 Local:www.gov.br/compras/pt-br/ Objeto Contratação de solução para desenvolvimento e gestão de aplicações baseada em ferramenta low-code, com esteira DevOps (CI&amp;CD), que possua todas as ferramentas necessárias, integradas na plataforma, e que possa ser implantada em nuvem pública, privada e/ou on-premise. Assim como serviços para manutenção de seu funcionamento e para desenvolvimento de aplicações. Valor Global Máximo Aceitável Vigência inicial GRUPO 1 -  R$ 5.238.119,04 (cinco milhões, duzentos e trinta e oito mil cento e dezenove reais e quatro centavos) GRUPO 2  - R$1.524.224,88 (um milhão, quinhentos e vinte e quatro mil duzentos e vinte e quatro reais e oitenta e oito centavos) TOTAL: R$ 6.762.343,92 (seis milhões, setecentos e sessenta e dois mil trezentos e quarenta e três reais e noventa e dois centavos).GRUPO 1 : 60 (sessenta) meses, sem prorrogação. GRUPO 2 : 12 (doze) meses, prorrogável por até 60 (sessenta) meses. Registro de Preços? Modo de Disputa? Vistoria Instrumento Contratual Forma de Adjudicação NÃO  Aberto NÃO Contrato Por Grupo de Itens Exclusividade para ME/EPP? Intervalo entre lances Cota 25% ME/EPP Exige Amostra/Prova de Conceito? Consórcio / Coopera Ɵva?  NÃO 0,1% NÃO SIM  NÃO / NÃO PROPOSTA COMERCIAL Enviar proposta até 21/08/2023 Portal de Compras: www.gov.br/compras/pt-br/ATENÇÃO: * Encaminhar Proposta Comercial assinada em formato ".pdf" conforme ANEXO II. DOCUMENTOS DE HABILITAÇÃO   Envio concomitante com a proposta até 21/08/2023  no Portal de Compras: www.gov.br/compras/pt-br/ Cadastrais: * SICAF - www.gov.br/compras/pt-br/ (Item 9.1 a) ; * Consulta Consolidada de Pessoa Jurídica do Tribunal de Contas da União ( hƩps://cerƟdoes-apf.apps.tcu.gov.br/ ) (Item 9.1.1.) Jurídica: Veriﬁcada por meio do SICAF OU documentação encaminhada por meio do sistema eletrônico (Item 9.8 e subitens) ; Fiscal e Trabalhista : Veriﬁcada por meio do SICAF OU documentação encaminhada por meio do sistema eletrônico (Item 9.9 e subitens); Econômico-Financeira : Veriﬁcada por meio do SICAF OU documentação encaminhada por meio do sistema eletrônico (Item 9.10 e subitens): * CerƟdão Nega Ɵva de Falência; * Balanço Patrimonial e Demonstração de Resultados (2022) - Demonstrações contábeis do úl Ɵmo exercício social e registrada na Junta Comercial; * Índices de Liquidez Geral (LG), Solvência Geral (SG) e Liquidez Corrente (LC), superiores a 1 (um);  * Patrimônio Líquido de 10% (dez por cento) do  valor anual es Ɵmado da contratação:  GRUPO 1 - não inferior a R$ 104.762,38 (cento e quatro mil setecentos e sessenta e dois reais e trinta e oito centavos); GRUPO 2 - não inferior a R$ 152.422,49 (cento e cinquenta e dois mil quatrocentos e vinte e dois reais e quarenta e nove centavos). Outros: ANEXO VII - Declaração de Pleno Conhecimento dos Termos e Condições da Licitação; ANEXO VIII - Termo de Responsabilidade e Sigilo da Agência Nacional de Saúde Suplementar. QUALIFICAÇÃO TÉCNICA (ITEM 9.11 E SUBITENS) GRUPO 1: * Comprovação de que a licitante prestou serviços nos quais u Ɵlizou os conhecimentos exigidos no Termo de Referência durante, no mínimo, 50% do período de tempo da contratação es Ɵpulada (30 meses); * Comprovação de que tenha implantado e administrado em nuvem a plataforma low-code, informando do sucesso da implantação e o tempo real de execução do projeto. GRUPO 2: * Comprovação de que tenha construído aplicações na plataforma, informando da qualidade das aplicações construídas e cumprimento de prazos, com pelo menos 50% do quanƟtaƟvo de sprints executadas deﬁnido neste TR. ATENÇÃO: * Somente serão VÁLIDOS os atestados de capacidade técnica expedidos após a conclusão do contrato ou decorrido no mínimo um ano do início de sua execução , exceto se houver sido ﬁrmado para ser executado em prazo inferior a um ano; * Os atestados deverão referir-se a serviços prestados no âmbito de sua aƟvidade econômica principal ou secundária especiﬁcadas no contrato social vigente ; NOTAS - HABILITAÇÃO 1- Os documentos exigidos para habilitação indicados nos quadros acima, que não estejam contemplados no SICAF ou que não possam ser veriﬁcados pela ANS nos síƟos eletrônicos oﬁciais de órgãos e en Ɵdades emissores de cer Ɵdões, DEVERÃO SER ENCAMINHADOS, CONCOMITANTEMENTE COM A PROPOSTA, EXCLUSIVAMENTE POR MEIO DO SISTEMA ELETRÔNICO, ATÉ A DATA E HORÁRIO MARCADOS PARA A ABERTURA DA SESSÃO PÚBLICA, SOB PENA DE DESCLASSIFICAÇÃO OU INABILITAÇÃO DO LICITANTE , ressalvadas as hipóteses de apresentação de documentos complementares. 2- Conforme §9º do art. 26 do Decreto nº 10.024/2019, considera-se documentos complementares, aqueles necessários à conﬁrmação dos exigidos no edital e já apresentados concomitantemente com a proposta. PROCESSO DE AMOSTRA DA FERRAMENTA - GRUPO 1 As regras e critérios de aferição da Amostra da Ferramenta  estão disponíveis no item 12.5.4. e subitens do Termo de Referência, Anexo I do Edital  e Anexo IV do Edital .SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 1 of 46 07/08/2023 14:26 Encaminhamento de pedidos de esclarecimentos e impugnaçõesRespostas aos pedidos de esclarecimento e impugnação  Agendamento de vistoria  Até 16/08/2023 Site ANS: hƩp://www.ans.gov.br/aans/licitacoes-contratos /licitacoes-cotacoes-eletronicas-e-consultas-ao-mercado /sobre-licitacoes  OU  E-mail: licitacao@ans.gov.brAté 2 (dois) dias do recebimento do pedido Portal de Compras: www.gov.br/compras/pt-br/N/A ITEM CATSER DESCRIÇÃO / ESPECIFICAÇÃO QUANTIDADE MÉTRICA GRUPO 1 1 27502 Disponibilização, conﬁguração, manutenção e atualização da plataforma 60 meses 2 27332 Apoio especializado na u Ɵlização da plataforma 195 serviço 3 27332 Serviço de migração da plataforma e aplicações 2 serviço GRUPO 2 4 25917 Serviço de desenvolvimento de aplicações na plataforma 24sprint executada EDITAL - PREGÃO ELETRÔNICO PREGÃO ELETRÔNICO AGÊNCIA NACIONAL DE SAÚDE SUPLEMENTAR PREGÃO ELETRÔNICO Nº 13/2023 (Processo Administra Ɵvo n° 33910.012598/2022-90) Torna-se público que a Agência Nacional de Saúde Suplementar , por meio da Gerência Geral de Administração e Finanças, sediada na Av. Augusto Severo, nº 84, Edi İcio Barão de Mauá, Glória, na cidade do Rio de Janeiro/RJ, realizará licitação,na modalidade PREGÃO, na forma ELETRÔNICA, sob a forma de execução indireta, nos termos da Lei nº 10.520, de 17 de julho de 2002,da Lei nº 8.248, de 22 de outubro de 1991, do Decreto nº 10.024, de 20 de setembro de 2019, do Decreto 9.507, de 21 de setembro de 2018, do Decreto nº 7.746, de 05 de junho de 2012, do Decreto nº 7.174, de 12 de maio de 2010, da Instrução Norma Ɵva SGD/ME nº 1, de 4 de abril de 2019, das Instruções NormaƟvas SEGES/MP nº 05, de 26 de maio de 2017 e nº 03, de 26 de abril de 2018 e da Instrução Norma Ɵva SLTI/MPOG nº 01, de 19 de janeiro de 2010, da Lei Complementar n° 123, de 14 de dezembro de 2006, da Lei nº 11.488, de 15 de junho de 2007, do Decreto n° 8.538, de 06 de outubro de 2015, aplicando-se, subsidiariamente, a Lei nº 8.666, de 21 de junho de 1993 e as exigências estabelecidas neste Edital. Data da sessão: 21/08/2023 Horário: 10:00h Local: Portal de Compras do Governo Federal – www.gov.br/compras/pt-br/ Critério de julgamento: Menor preço global. Regime de Execução: Empreitada por preço unitário.</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>O objeto da presente licitação é a escolha da proposta mais vantajosa para a contratação de solução para desenvolvimento e gestão de aplicações baseada em</t>
+          <t>DO OBJETO</t>
         </is>
       </c>
     </row>
@@ -482,7 +482,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A licitação será dividida em grupos, formados por um ou mais itens, conforme tabela constante do Termo de Referência, facultando-se ao licitante a</t>
+          <t>O objeto da presente licitação é a escolha da proposta mais vantajosa para a contratação de solução para desenvolvimento e gestão de aplicações baseada em ferramenta low-code, com esteira DevOps (CI&amp;CD), que possua todas as ferramentas necessárias, integradas na plataforma, e que possa ser implantada em nuvem pública, privada e/ou on-premise. Assim como serviços para manutenção de seu funcionamento e para desenvolvimento de aplicações, conforme condições, quan Ɵdades e exigências estabelecidas neste Edital e seus anexos.</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>O critério de julgamento adotado será o menor preço GLOBAL do grupo, observadas as exigências con Ɵdas neste Edital e seus Anexos quanto às especiﬁcações</t>
+          <t>A licitação será dividida em grupos, formados por um ou mais itens, conforme tabela constante do Termo de Referência, facultando-se ao licitante a parƟcipação em quantos grupos forem de seu interesse, devendo oferecer proposta para todos os itens que os compõem.</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cada serviço ou produto do lote deverá estar discriminado em itens separados nas propostas de preços, de modo a permi Ɵr a idenƟﬁcação do seu preço</t>
+          <t>O critério de julgamento adotado será o menor preço GLOBAL do grupo, observadas as exigências con Ɵdas neste Edital e seus Anexos quanto às especiﬁcações do objeto.</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DOS RECURSOS ORÇAMENTÁRIOS</t>
+          <t>Cada serviço ou produto do lote deverá estar discriminado em itens separados nas propostas de preços, de modo a permi Ɵr a idenƟﬁcação do seu preço individual na composição do preço global, e a eventual incidência sobre cada item das margens de preferência para produtos e serviços que atendam às Normas Técnicas Brasileiras - NTB.</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>As despesas para atender a esta licitação estão programadas em dotação orçamentária própria, prevista no orçamento da União para o exercício de 2023 a</t>
+          <t>DOS RECURSOS ORÇAMENTÁRIOS</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DO CREDENCIAMENTO</t>
+          <t>As despesas para atender a esta licitação estão programadas em dotação orçamentária própria, prevista no orçamento da União para o exercício de 2023 a 2028, na classiﬁcação abaixo: Gestão/Unidade: 36213/253003 Fonte: 1003 Programa de Trabalho: 10.126.5021.8727.0001 Elementos de Despesa: 33903504, 33904001 e 33904006</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>O Credenciamento é o nível básico do registro cadastral no SICAF, que permite a par Ɵcipação dos interessados na modalidade licitatória Pregão, em sua forma</t>
+          <t>DO CREDENCIAMENTO</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>O cadastro no SICAF deverá ser feito no Portal de Compras do Governo Federal, no sí Ɵo hƩps://www.gov.br/compras/pt-br/  por meio de cer Ɵﬁcado digital</t>
+          <t>O Credenciamento é o nível básico do registro cadastral no SICAF, que permite a par Ɵcipação dos interessados na modalidade licitatória Pregão, em sua forma eletrônica.</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>O licitante responsabiliza-se exclusiva e formalmente pelas transações efetuadas em seu nome, assume como ﬁrmes e verdadeiras suas propostas e seus</t>
+          <t>O cadastro no SICAF deverá ser feito no Portal de Compras do Governo Federal, no sí Ɵo hƩps://www.gov.br/compras/pt-br/  por meio de cer Ɵﬁcado digital conferido pela Infraestrutura de Chaves Públicas Brasileira – ICP - Brasil.SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 2 of 46 07/08/2023 14:263.3. O credenciamento junto ao provedor do sistema implica a responsabilidade do licitante ou de seu representante legal e a presunção de sua capacidade técnica para realização das transações inerentes a este Pregão.</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>É de responsabilidade do cadastrado conferir a exa Ɵdão dos seus dados cadastrais no SICAF e mantê-los atualizados junto aos órgãos responsáveis pela</t>
+          <t>O licitante responsabiliza-se exclusiva e formalmente pelas transações efetuadas em seu nome, assume como ﬁrmes e verdadeiras suas propostas e seus lances, inclusive os atos pra Ɵcados diretamente ou por seu representante, excluída a responsabilidade do provedor do sistema ou do órgão ou en Ɵdade promotora da licitação por eventuais danos decorrentes de uso indevido das credenciais de acesso, ainda que por terceiros</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A não observância do disposto no subitem anterior poderá ensejar desclassiﬁcação no momento da habilitação.</t>
+          <t>É de responsabilidade do cadastrado conferir a exa Ɵdão dos seus dados cadastrais no SICAF e mantê-los atualizados junto aos órgãos responsáveis pela informação, devendo proceder, imediatamente, à correção ou à alteração dos registros tão logo iden Ɵﬁque incorreção ou aqueles se tornem desatualizados.</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DA PARTICIPAÇÃO NO PREGÃO.</t>
+          <t>A não observância do disposto no subitem anterior poderá ensejar desclassiﬁcação no momento da habilitação.</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Poderão par Ɵcipar deste Pregão interessados cujo ramo de a Ɵvidade seja compa ơvel com o objeto desta licitação, e que estejam com Credenciamento regular</t>
+          <t>DA PARTICIPAÇÃO NO PREGÃO.</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Os licitantes deverão u Ɵlizar o cer Ɵﬁcado digital para acesso ao Sistema</t>
+          <t>Poderão par Ɵcipar deste Pregão interessados cujo ramo de a Ɵvidade seja compa ơvel com o objeto desta licitação, e que estejam com Credenciamento regular no Sistema de Cadastramento Uniﬁcado de Fornecedores – SICAF, conforme disposto no art. 9º da IN SEGES/MP nº 3, de 2018.</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Será concedido tratamento favorecido para as microempresas e empresas de pequeno porte, para as sociedades coopera Ɵvas mencionadas no ar Ɵgo 34</t>
+          <t>Os licitantes deverão u Ɵlizar o cer Ɵﬁcado digital para acesso ao Sistema</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Não poderão par Ɵcipar desta licitação os interessados:</t>
+          <t>Será concedido tratamento favorecido para as microempresas e empresas de pequeno porte, para as sociedades coopera Ɵvas mencionadas no ar Ɵgo 34 da Lei nº 11.488, de 2007, para o agricultor familiar, o produtor rural pessoa İsica e para o microempreendedor individual - MEI, nos limites previstos da Lei Complementar nº 123, de 2006, bem como para bens e serviços produzidos no país e bens produzidos de acordo com processo produ Ɵvo básico, na forma do art. 3º da Lei nº 8.248, de 1991 e art. 8º do Decreto nº 7.174, de 2010.</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>proibidos de par Ɵcipar de licitações e celebrar contratos administra Ɵvos, na forma da legislação vigente;</t>
+          <t>Não poderão par Ɵcipar desta licitação os interessados:</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>que não atendam às condições deste Edital e seu(s) anexo(s);</t>
+          <t>proibidos de par Ɵcipar de licitações e celebrar contratos administra Ɵvos, na forma da legislação vigente;</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>estrangeiros que não tenham representação legal no Brasil com poderes expressos para receber citação e responder administra Ɵva ou judicialmente;</t>
+          <t>que não atendam às condições deste Edital e seu(s) anexo(s);</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>que se enquadrem nas vedações previstas no ar Ɵgo 9º da Lei nº 8.666, de 1993;</t>
+          <t>estrangeiros que não tenham representação legal no Brasil com poderes expressos para receber citação e responder administra Ɵva ou judicialmente;</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>que estejam sob falência, concurso de credores ou insolvência, em processo de dissolução ou liquidação;</t>
+          <t>que se enquadrem nas vedações previstas no ar Ɵgo 9º da Lei nº 8.666, de 1993;</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>en Ɵdades empresariais que estejam reunidas em consórcio;</t>
+          <t>que estejam sob falência, concurso de credores ou insolvência, em processo de dissolução ou liquidação;</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>organizações da Sociedade Civil de Interesse Público - OSCIP, atuando nessa condição (Acórdão nº 746/2014-TCU-Plenário);</t>
+          <t>en Ɵdades empresariais que estejam reunidas em consórcio;</t>
         </is>
       </c>
     </row>
@@ -758,7 +758,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>sociedades coopera Ɵvas, considerando a vedação con Ɵda no art. 10 da Instrução Norma Ɵva SEGES/MP nº 5, de 2017.</t>
+          <t>organizações da Sociedade Civil de Interesse Público - OSCIP, atuando nessa condição (Acórdão nº 746/2014-TCU-Plenário);</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nos termos do art. 5º do Decreto nº 9.507, de 2018, é vedada a contratação de pessoa jurídica na qual haja administrador ou sócio com poder de direção,</t>
+          <t>sociedades coopera Ɵvas, considerando a vedação con Ɵda no art. 10 da Instrução Norma Ɵva SEGES/MP nº 5, de 2017.</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Para os ﬁns do disposto neste item , considera-se familiar o cônjuge, o companheiro ou o parente em linha reta ou colateral, por consanguinidade ou</t>
+          <t>Nos termos do art. 5º do Decreto nº 9.507, de 2018, é vedada a contratação de pessoa jurídica na qual haja administrador ou sócio com poder de direção, familiar de: a) detentor de cargo em comissão ou função de conﬁança que atue na área responsável pela demanda ou contratação; ou b) de autoridade hierarquicamente superior no âmbito do órgão contratante.</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nos termos do art. 7° do Decreto n° 7.203, de 2010, é vedada, ainda, a u Ɵlização, na execução dos serviços contratados, de empregado da futura Contratada</t>
+          <t>Para os ﬁns do disposto neste item , considera-se familiar o cônjuge, o companheiro ou o parente em linha reta ou colateral, por consanguinidade ou aﬁnidade, até o terceiro grau (Súmula Vinculante/STF nº 13, art. 5º, inciso V, da Lei nº 12.813, de 16 de maio de 2013 e art. 2º, inciso III, do Decreto n.º 7.203, de 04 de junho de 2010);</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Como condição para par Ɵcipação no Pregão, o licitante assinalará “sim” ou “não” em campo próprio do sistema eletrônico, rela Ɵvo às seguintes declarações:</t>
+          <t>Nos termos do art. 7° do Decreto n° 7.203, de 2010, é vedada, ainda, a u Ɵlização, na execução dos serviços contratados, de empregado da futura Contratada que seja familiar de agente público ocupante de cargo em comissão ou função de conﬁança neste órgão contratante.</t>
         </is>
       </c>
     </row>
@@ -818,7 +818,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>que cumpre os requisitos estabelecidos no ar Ɵgo 3° da Lei Complementar nº 123, de 2006, estando apto a usufruir do tratamento favorecido estabelecido</t>
+          <t>Como condição para par Ɵcipação no Pregão, o licitante assinalará “sim” ou “não” em campo próprio do sistema eletrônico, rela Ɵvo às seguintes declarações:</t>
         </is>
       </c>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>nos itens exclusivos para par Ɵcipação de microempresas e empresas de pequeno porte, a assinalação do campo “não” impedirá o prosseguimento</t>
+          <t>que cumpre os requisitos estabelecidos no ar Ɵgo 3° da Lei Complementar nº 123, de 2006, estando apto a usufruir do tratamento favorecido estabelecido em seus arts. 42 a 49.</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>nos itens em que a par Ɵcipação não for exclusiva para microempresas e empresas de pequeno porte, a assinalação do campo “não” apenas</t>
+          <t>nos itens exclusivos para par Ɵcipação de microempresas e empresas de pequeno porte, a assinalação do campo “não” impedirá o prosseguimento no certame;</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>que está ciente e concorda com as condições con Ɵdas no Edital e seus anexos;</t>
+          <t>nos itens em que a par Ɵcipação não for exclusiva para microempresas e empresas de pequeno porte, a assinalação do campo “não” apenas produzirá o efeito de o licitante não ter direito ao tratamento favorecido previsto na Lei Complementar nº 123, de 2006, mesmo que microempresa, empresa de pequeno porte ou sociedade coopera Ɵva.</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>que cumpre os requisitos para a habilitação deﬁnidos no Edital e que a proposta apresentada está em conformidade com as exigências editalícias;</t>
+          <t>que está ciente e concorda com as condições con Ɵdas no Edital e seus anexos;</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>que inexistem fatos impedi Ɵvos para sua habilitação no certame, ciente da obrigatoriedade de declarar ocorrências posteriores;</t>
+          <t>que cumpre os requisitos para a habilitação deﬁnidos no Edital e que a proposta apresentada está em conformidade com as exigências editalícias;</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>que não emprega menor de 18 anos em trabalho noturno, perigoso ou insalubre e não emprega menor de 16 anos, salvo menor, a par Ɵr de 14 anos, na</t>
+          <t>que inexistem fatos impedi Ɵvos para sua habilitação no certame, ciente da obrigatoriedade de declarar ocorrências posteriores;</t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>que a proposta foi elaborada de forma independente;</t>
+          <t>que não emprega menor de 18 anos em trabalho noturno, perigoso ou insalubre e não emprega menor de 16 anos, salvo menor, a par Ɵr de 14 anos, na condição de aprendiz, nos termos do ar Ɵgo 7°, XXXIII, da Cons Ɵtuição;</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>que não possui, em sua cadeia produ Ɵva, empregados executando trabalho degradante ou forçado, observando o disposto nos incisos III e IV do art. 1º e</t>
+          <t>que a proposta foi elaborada de forma independente;</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>que a solução é fornecida por empresas que comprovem cumprimento de reserva de cargos prevista em lei para pessoa com deﬁciência ou para</t>
+          <t>que não possui, em sua cadeia produ Ɵva, empregados executando trabalho degradante ou forçado, observando o disposto nos incisos III e IV do art. 1º e no inciso III do art. 5º da Cons Ɵtuição Federal;</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>que cumpre os requisitos do Decreto n. 7.174, de 2010, estando apto a usufruir dos critérios de preferência.</t>
+          <t>que a solução é fornecida por empresas que comprovem cumprimento de reserva de cargos prevista em lei para pessoa com deﬁciência ou para reabilitado da Previdência Social e que atendam às regras de acessibilidade previstas na legislação, conforme disposto no art. 93 da Lei nº 8.213, de 24 de julho de 1991.</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>a assinalação do campo “não” apenas produzirá o efeito de o licitante não ter direito ao tratamento favorecido previsto no Decreto nº 7.174, de</t>
+          <t>que cumpre os requisitos do Decreto n. 7.174, de 2010, estando apto a usufruir dos critérios de preferência.</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>A declaração falsa rela Ɵva ao cumprimento de qualquer condição sujeitará o licitante às sanções previstas em lei e neste Edital.</t>
+          <t>a assinalação do campo “não” apenas produzirá o efeito de o licitante não ter direito ao tratamento favorecido previsto no Decreto nº 7.174, de 2010.</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DA APRESENTAÇÃO DA PROPOSTA E DOS DOCUMENTOS DE HABILITAÇÃO</t>
+          <t>A declaração falsa rela Ɵva ao cumprimento de qualquer condição sujeitará o licitante às sanções previstas em lei e neste Edital.</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Os licitantes encaminharão, exclusivamente por meio do sistema, concomitantemente com os documentos de habilitação exigidos no edital, proposta com a</t>
+          <t>DA APRESENTAÇÃO DA PROPOSTA E DOS DOCUMENTOS DE HABILITAÇÃO</t>
         </is>
       </c>
     </row>
@@ -998,7 +998,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>O envio da proposta, acompanhada dos documentos de habilitação exigidos neste Edital, ocorrerá por meio de chave de acesso e senha.</t>
+          <t>Os licitantes encaminharão, exclusivamente por meio do sistema, concomitantemente com os documentos de habilitação exigidos no edital, proposta com a descrição do objeto ofertado e o preço, até a data e o horário estabelecidos para abertura da sessão pública, quando, então, encerrar-se-á automa Ɵcamente a etapa de envio dessa documentação.</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Os licitantes poderão deixar de apresentar os documentos de habilitação que constem do SICAF, assegurado aos demais licitantes o direito de acesso aos dados</t>
+          <t>O envio da proposta, acompanhada dos documentos de habilitação exigidos neste Edital, ocorrerá por meio de chave de acesso e senha.</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>As Microempresas e Empresas de Pequeno Porte deverão encaminhar a documentação de habilitação, ainda que haja alguma restrição de regularidade ﬁscal e</t>
+          <t>Os licitantes poderão deixar de apresentar os documentos de habilitação que constem do SICAF, assegurado aos demais licitantes o direito de acesso aos dados constantes dos sistemas.</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Incumbirá ao licitante acompanhar as operações no sistema eletrônico durante a sessão pública do Pregão, ﬁcando responsável pelo ônus decorrente da perda</t>
+          <t>As Microempresas e Empresas de Pequeno Porte deverão encaminhar a documentação de habilitação, ainda que haja alguma restrição de regularidade ﬁscal e trabalhista, nos termos do art. 43, § 1º da LC nº 123, de 2006.</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Não será estabelecida, nessa etapa do certame, ordem de classiﬁcação entre as propostas apresentadas, o que somente ocorrerá após a realização dos</t>
+          <t>Incumbirá ao licitante acompanhar as operações no sistema eletrônico durante a sessão pública do Pregão, ﬁcando responsável pelo ônus decorrente da perda de negócios, diante da inobservância de quaisquer mensagens emi Ɵdas pelo sistema ou de sua desconexão.SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 3 of 46 07/08/2023 14:265.6. Até a abertura da sessão pública, os licitantes poderão re Ɵrar ou subs Ɵtuir a proposta e os documentos de habilitação anteriormente inseridos no sistema.</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Os documentos que compõem a proposta e a habilitação do licitante melhor classiﬁcado somente serão disponibilizados para avaliação do pregoeiro e para</t>
+          <t>Não será estabelecida, nessa etapa do certame, ordem de classiﬁcação entre as propostas apresentadas, o que somente ocorrerá após a realização dos procedimentos de negociação e julgamento da proposta.</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DO PREENCHIMENTO DA PROPOSTA</t>
+          <t>Os documentos que compõem a proposta e a habilitação do licitante melhor classiﬁcado somente serão disponibilizados para avaliação do pregoeiro e para acesso público após o encerramento do envio de lances.</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>O licitante deverá enviar sua proposta mediante o preenchimento, no sistema eletrônico, dos seguintes campos:</t>
+          <t>DO PREENCHIMENTO DA PROPOSTA</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Valor unitário e global de cada item do grupo;</t>
+          <t>O licitante deverá enviar sua proposta mediante o preenchimento, no sistema eletrônico, dos seguintes campos:</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Descriçãodo objeto, contendo as informações similares à especiﬁcação do Termo de Referência.</t>
+          <t>Valor unitário e global de cada item do grupo;</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Todas as especiﬁcações do objeto con Ɵdas na proposta vinculam a Contratada.</t>
+          <t>Descriçãodo objeto, contendo as informações similares à especiﬁcação do Termo de Referência.</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Nos valores propostos estarão inclusos todos os custos operacionais, encargos previdenciários, trabalhistas, tributários, comerciais e quaisquer outros que</t>
+          <t>Todas as especiﬁcações do objeto con Ɵdas na proposta vinculam a Contratada.</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>A Contratada deverá arcar com o ônus decorrente de eventual equívoco no dimensionamento dos quan ƟtaƟvos de sua proposta, inclusive quanto aos</t>
+          <t>Nos valores propostos estarão inclusos todos os custos operacionais, encargos previdenciários, trabalhistas, tributários, comerciais e quaisquer outros que incidam direta ou indiretamente na prestação dos serviços, apurados mediante o preenchimento do modelo de Planilha de Custos e Formação de Preços, conforme anexo deste Edital;</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Caso o eventual equívoco no dimensionamento dos quan ƟtaƟvos se revele superior às necessidades da contratante, a Administração deverá efetuar o</t>
+          <t>A Contratada deverá arcar com o ônus decorrente de eventual equívoco no dimensionamento dos quan ƟtaƟvos de sua proposta, inclusive quanto aos custos variáveis decorrentes de fatores futuros e incertos, tais como os valores providos com o quan ƟtaƟvo de vale transporte, devendo complementá-los, caso o previsto inicialmente em sua proposta não seja sa Ɵsfatório para o atendimento do objeto da licitação, exceto quando ocorrer algum dos eventos arrolados nos incisos do §1° do arƟgo 57 da Lei n° 8.666, de 1993.</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>A empresa é a única responsável pela cotação correta dos encargos tributários. Em caso de erro ou cotação incompa ơvel com o regime tributário a que se</t>
+          <t>Caso o eventual equívoco no dimensionamento dos quan ƟtaƟvos se revele superior às necessidades da contratante, a Administração deverá efetuar o pagamento seguindo estritamente as regras contratuais de faturamento dos serviços demandados e executados, concomitantemente com a realização, se necessário e cabível, de adequação contratual do quan ƟtaƟvo necessário, com base na alínea "b" do inciso I do art. 65 da Lei n. 8.666/93 e nos termos do art. 63, §2° da IN SEGES/MP n.5/2017.</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>cotação de percentual menor que o adequado: o percentual será man Ɵdo durante toda a execução contratual;</t>
+          <t>A empresa é a única responsável pela cotação correta dos encargos tributários. Em caso de erro ou cotação incompa ơvel com o regime tributário a que se submete, serão adotadas as orientações a seguir:</t>
         </is>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>cotação de percentual maior que o adequado: o excesso será suprimido, unilateralmente, da planilha e haverá glosa, quando do pagamento, e/ou</t>
+          <t>cotação de percentual menor que o adequado: o percentual será man Ɵdo durante toda a execução contratual;</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Se o regime tributário da empresa implicar o recolhimento de tributos em percentuais variáveis, a cotação adequada será a que corresponde à média dos</t>
+          <t>cotação de percentual maior que o adequado: o excesso será suprimido, unilateralmente, da planilha e haverá glosa, quando do pagamento, e/ou redução, quando da repactuação, para ﬁns de total ressarcimento do débito.</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Independentemente do percentual de tributo inserido na planilha, no pagamento dos serviços, serão re Ɵdos na fonte os percentuais estabelecidos na</t>
+          <t>Se o regime tributário da empresa implicar o recolhimento de tributos em percentuais variáveis, a cotação adequada será a que corresponde à média dos efeƟvos recolhimentos da empresa nos úl Ɵmos doze meses, devendo o licitante ou contratada apresentar ao pregoeiro ou à ﬁscalização, a qualquer tempo, comprovação da adequação dos recolhimentos, para os ﬁns do previsto no subitem anterior.</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>A apresentação das propostas implica obrigatoriedade do cumprimento das disposições nelas con Ɵdas, em conformidade com o que dispõe o Termo de</t>
+          <t>Independentemente do percentual de tributo inserido na planilha, no pagamento dos serviços, serão re Ɵdos na fonte os percentuais estabelecidos na legislação vigente.</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Os preços ofertados, tanto na proposta inicial, quanto na etapa de lances, serão de exclusiva responsabilidade do licitante, não lhe assis Ɵndo o direito de</t>
+          <t>A apresentação das propostas implica obrigatoriedade do cumprimento das disposições nelas con Ɵdas, em conformidade com o que dispõe o Termo de Referência, assumindo o proponente o compromisso de executar os serviços nos seus termos, bem como de fornecer os materiais, equipamentos, ferramentas e utensílios necessários, em quan Ɵdades e qualidades adequadas à perfeita execução contratual, promovendo, quando requerido, sua subs Ɵtuição.</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>O prazo de validade da proposta não será inferior a 60 (sessenta) dias, a contar da data de sua apresentação.</t>
+          <t>Os preços ofertados, tanto na proposta inicial, quanto na etapa de lances, serão de exclusiva responsabilidade do licitante, não lhe assis Ɵndo o direito de pleitear qualquer alteração, sob alegação de erro, omissão ou qualquer outro pretexto.</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Os licitantes devem respeitar os preços máximos estabelecidos nas normas de regência de contratações públicas federais, quando par Ɵciparem de licitações</t>
+          <t>O prazo de validade da proposta não será inferior a 60 (sessenta) dias, a contar da data de sua apresentação.</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>O descumprimento das regras supramencionadas pela Administração por parte dos contratados pode ensejar a responsabilização pelo Tribunal de Contas</t>
+          <t>Os licitantes devem respeitar os preços máximos estabelecidos nas normas de regência de contratações públicas federais, quando par Ɵciparem de licitações públicas.</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ABERTURA DA SESSÃO, CLASSIFICAÇÃO DAS PROPOSTAS E FORMULAÇÃO DE LANCES</t>
+          <t>O descumprimento das regras supramencionadas pela Administração por parte dos contratados pode ensejar a responsabilização pelo Tribunal de Contas da União e, após o devido processo legal, gerar as seguintes consequências: assinatura de prazo para a adoção das medidas necessárias ao exato cumprimento da lei, nos termos do art. 71, inciso IX, da Cons Ɵtuição; ou condenação dos agentes públicos responsáveis e da empresa contratada ao pagamento dos prejuízos ao erário, caso veriﬁcada a ocorrência de superfaturamento por sobrepreço na execução do contrato.</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>A abertura da presente licitação dar-se-á em sessão pública, por meio de sistema eletrônico, na data, horário e local indicados neste Edital.</t>
+          <t>ABERTURA DA SESSÃO, CLASSIFICAÇÃO DAS PROPOSTAS E FORMULAÇÃO DE LANCES</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>O Pregoeiro veriﬁcará as propostas apresentadas, desclassiﬁcando desde logo aquelas que não estejam em conformidade com os requisitos estabelecidos</t>
+          <t>A abertura da presente licitação dar-se-á em sessão pública, por meio de sistema eletrônico, na data, horário e local indicados neste Edital.</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Também será desclassiﬁcada a proposta que idenƟﬁque o licitante.</t>
+          <t>O Pregoeiro veriﬁcará as propostas apresentadas, desclassiﬁcando desde logo aquelas que não estejam em conformidade com os requisitos estabelecidos neste Edital, contenham vícios insanáveis, ilegalidades, ou não apresentem as especiﬁcações exigidas no Termo de Referência.</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>A desclassiﬁcação será sempre fundamentada e registrada no sistema, com acompanhamento em tempo real por todos os par Ɵcipantes.</t>
+          <t>Também será desclassiﬁcada a proposta que idenƟﬁque o licitante.</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>A não desclassiﬁcação da proposta não impede o seu julgamento deﬁni Ɵvo em sen Ɵdo contrário, levado a efeito na fase de aceitação.</t>
+          <t>A desclassiﬁcação será sempre fundamentada e registrada no sistema, com acompanhamento em tempo real por todos os par Ɵcipantes.</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>O sistema ordenará automa Ɵcamente as propostas classiﬁcadas, sendo que somente estas par Ɵciparão da fase de lances.</t>
+          <t>A não desclassiﬁcação da proposta não impede o seu julgamento deﬁni Ɵvo em sen Ɵdo contrário, levado a efeito na fase de aceitação.</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>O sistema disponibilizará campo próprio para troca de mensagens entre o Pregoeiro e os licitantes.</t>
+          <t>O sistema ordenará automa Ɵcamente as propostas classiﬁcadas, sendo que somente estas par Ɵciparão da fase de lances.</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Iniciada a etapa compe ƟƟva, os licitantes deverão encaminhar lances exclusivamente por meio de sistema eletrônico, sendo imediatamente informados do seu</t>
+          <t>O sistema disponibilizará campo próprio para troca de mensagens entre o Pregoeiro e os licitantes.</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>O lance deverá ser ofertado pelo valor total de cada grupo de itens.</t>
+          <t>Iniciada a etapa compe ƟƟva, os licitantes deverão encaminhar lances exclusivamente por meio de sistema eletrônico, sendo imediatamente informados do seu recebimento e do valor consignado no registro.</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Os licitantes poderão oferecer lances sucessivos, observando o horário ﬁxado para abertura da sessão e as regras estabelecidas no Edital.</t>
+          <t>O lance deverá ser ofertado pelo valor total de cada grupo de itens.</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>O licitante somente poderá oferecer lance de valor inferior ou percentual de desconto superior ao úl Ɵmo por ele ofertado e registrado pelo sistema.</t>
+          <t>Os licitantes poderão oferecer lances sucessivos, observando o horário ﬁxado para abertura da sessão e as regras estabelecidas no Edital.</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>O intervalo mínimo de diferença de valores ou percentuais entre os lances, que incidirá tanto em relação aos lances intermediários quanto em relação à</t>
+          <t>O licitante somente poderá oferecer lance de valor inferior ou percentual de desconto superior ao úl Ɵmo por ele ofertado e registrado pelo sistema.</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Será adotado para o envio de lances no pregão eletrônico o modo de disputa “aberto”, em que os licitantes apresentarão lances públicos e sucessivos, com</t>
+          <t>O intervalo mínimo de diferença de valores ou percentuais entre os lances, que incidirá tanto em relação aos lances intermediários quanto em relação à proposta que cobrir a melhor oferta deverá ser de 0,1% (um décimo por cento).</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>A etapa de lances da sessão pública terá duração de dez minutos e, após isso, será prorrogada automa Ɵcamente pelo sistema quando houver lance ofertado</t>
+          <t>Será adotado para o envio de lances no pregão eletrônico o modo de disputa “aberto”, em que os licitantes apresentarão lances públicos e sucessivos, com prorrogações.</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>A prorrogação automá Ɵca da etapa de lances, de que trata o item anterior, será de dois minutos e ocorrerá sucessivamente sempre que houver lances</t>
+          <t>A etapa de lances da sessão pública terá duração de dez minutos e, após isso, será prorrogada automa Ɵcamente pelo sistema quando houver lance ofertado nos úlƟmos dois minutos do período de duração da sessão pública.</t>
         </is>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Não havendo novos lances na forma estabelecida nos itens anteriores, a sessão pública encerrar-se-á automa Ɵcamente.</t>
+          <t>A prorrogação automá Ɵca da etapa de lances, de que trata o item anterior, será de dois minutos e ocorrerá sucessivamente sempre que houver lances enviados nesse período de prorrogação, inclusive no caso de lances intermediários.</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Encerrada a fase compe ƟƟva sem que haja a prorrogação automá Ɵca pelo sistema, poderá o pregoeiro, assessorado pela equipe de apoio, jus Ɵﬁcadamente,</t>
+          <t>Não havendo novos lances na forma estabelecida nos itens anteriores, a sessão pública encerrar-se-á automa Ɵcamente.</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Não serão aceitos dois ou mais lances de mesmo valor, prevalecendo aquele que for recebido e registrado em primeiro lugar.SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w...</t>
+          <t>Encerrada a fase compe ƟƟva sem que haja a prorrogação automá Ɵca pelo sistema, poderá o pregoeiro, assessorado pela equipe de apoio, jus Ɵﬁcadamente, admiƟr o reinício da sessão pública de lances, em prol da consecução do melhor preço.</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>No caso de desconexão com o Pregoeiro, no decorrer da etapa compe ƟƟva do Pregão, o sistema eletrônico poderá permanecer acessível aos licitantes para a</t>
+          <t>Não serão aceitos dois ou mais lances de mesmo valor, prevalecendo aquele que for recebido e registrado em primeiro lugar.SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 4 of 46 07/08/2023 14:267.15. Durante o transcurso da sessão pública, os licitantes serão informados, em tempo real, do valor do menor lance registrado, vedada a iden Ɵﬁcação do licitante.</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Quando a desconexão do sistema eletrônico para o pregoeiro persis Ɵr por tempo superior a dez minutos, a sessão pública será suspensa e reiniciada somente</t>
+          <t>No caso de desconexão com o Pregoeiro, no decorrer da etapa compe ƟƟva do Pregão, o sistema eletrônico poderá permanecer acessível aos licitantes para a recepção dos lances.</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>O critério de julgamento adotado será o menor preço, conforme deﬁnido neste Edital e seus anexos.</t>
+          <t>Quando a desconexão do sistema eletrônico para o pregoeiro persis Ɵr por tempo superior a dez minutos, a sessão pública será suspensa e reiniciada somente após decorridas vinte e quatro horas da comunicação do fato pelo Pregoeiro aos par Ɵcipantes, no sí Ɵo eletrônico u Ɵlizado para divulgação.</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Caso o licitante não apresente lances, concorrerá com o valor de sua proposta.</t>
+          <t>O critério de julgamento adotado será o menor preço, conforme deﬁnido neste Edital e seus anexos.</t>
         </is>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Em relação a itens não exclusivos para par Ɵcipação de microempresas e empresas de pequeno porte, uma vez encerrada a etapa de lances, será efe Ɵvada a</t>
+          <t>Caso o licitante não apresente lances, concorrerá com o valor de sua proposta.</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Nessas condições, as propostas de microempresas e empresas de pequeno porte que se encontrarem na faixa de até 5% (cinco por cento) acima da melhor</t>
+          <t>Em relação a itens não exclusivos para par Ɵcipação de microempresas e empresas de pequeno porte, uma vez encerrada a etapa de lances, será efe Ɵvada a veriﬁcação automá Ɵca, junto à Receita Federal, do porte da en Ɵdade empresarial. O sistema iden Ɵﬁcará em coluna própria as microempresas e empresas de pequeno porte parƟcipantes, procedendo à comparação com os valores da primeira colocada, se esta for empresa de maior porte, assim como das demais classiﬁcadas, para o ﬁm de aplicar-se o disposto nos arts. 44 e 45 da LC nº 123, de 2006, regulamentada pelo Decreto nº 8.538, de 2015.</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>A melhor classiﬁcada nos termos do item anterior terá o direito de encaminhar uma úl Ɵma oferta para desempate, obrigatoriamente em valor inferior ao da</t>
+          <t>Nessas condições, as propostas de microempresas e empresas de pequeno porte que se encontrarem na faixa de até 5% (cinco por cento) acima da melhor proposta ou melhor lance serão consideradas empatadas com a primeira colocada.</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Caso a microempresa ou a empresa de pequeno porte melhor classiﬁcada desista ou não se manifeste no prazo estabelecido, serão convocadas as demais</t>
+          <t>A melhor classiﬁcada nos termos do item anterior terá o direito de encaminhar uma úl Ɵma oferta para desempate, obrigatoriamente em valor inferior ao da primeira colocada, no prazo de 5 (cinco) minutos controlados pelo sistema, contados após a comunicação automá Ɵca para tanto.</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>No caso de equivalência dos valores apresentados pelas microempresas e empresas de pequeno porte que se encontrem nos intervalos estabelecidos nos</t>
+          <t>Caso a microempresa ou a empresa de pequeno porte melhor classiﬁcada desista ou não se manifeste no prazo estabelecido, serão convocadas as demais licitantes microempresa e empresa de pequeno porte que se encontrem naquele intervalo de 5% (cinco por cento), na ordem de classiﬁcação, para o exercício do mesmo direito, no prazo estabelecido no subitem anterior.</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Só poderá haver empate entre propostas iguais (não seguidas de lances), ou entre lances ﬁnais da fase fechada do modo de disputa aberto e fechado.</t>
+          <t>No caso de equivalência dos valores apresentados pelas microempresas e empresas de pequeno porte que se encontrem nos intervalos estabelecidos nos subitens anteriores, será realizado sorteio entre elas para que se iden Ɵﬁque aquela que primeiro poderá apresentar melhor oferta.</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Havendo eventual empate entre propostas ou lances, o critério de desempate será aquele previsto no art. 3º, § 2º, da Lei nº 8.666, de 1993, assegurando-se a</t>
+          <t>Só poderá haver empate entre propostas iguais (não seguidas de lances), ou entre lances ﬁnais da fase fechada do modo de disputa aberto e fechado.</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>por empresas brasileiras;</t>
+          <t>Havendo eventual empate entre propostas ou lances, o critério de desempate será aquele previsto no art. 3º, § 2º, da Lei nº 8.666, de 1993, assegurando-se a preferência, sucessivamente, ao objeto executado:</t>
         </is>
       </c>
     </row>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>por empresas que invistam em pesquisa e no desenvolvimento de tecnologia no País;</t>
+          <t>por empresas brasileiras;</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>por empresas que comprovem cumprimento de reserva de cargos prevista em lei para pessoa com deﬁciência ou para reabilitado da Previdência Social e</t>
+          <t>por empresas que invistam em pesquisa e no desenvolvimento de tecnologia no País;</t>
         </is>
       </c>
     </row>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Persis Ɵndo o empate, a proposta vencedora será sorteada pelo sistema eletrônico dentre as propostas ou os lances empatados.</t>
+          <t>por empresas que comprovem cumprimento de reserva de cargos prevista em lei para pessoa com deﬁciência ou para reabilitado da Previdência Social e que atendam às regras de acessibilidade previstas na legislação.</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Encerrada a etapa de envio de lances da sessão pública, o pregoeiro deverá encaminhar, pelo sistema eletrônico, contraproposta ao licitante que tenha</t>
+          <t>Persis Ɵndo o empate, a proposta vencedora será sorteada pelo sistema eletrônico dentre as propostas ou os lances empatados.</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>A negociação será realizada por meio do sistema, podendo ser acompanhada pelos demais licitantes.</t>
+          <t>Encerrada a etapa de envio de lances da sessão pública, o pregoeiro deverá encaminhar, pelo sistema eletrônico, contraproposta ao licitante que tenha apresentado o melhor preço, para que seja ob Ɵda melhor proposta, vedada a negociação em condições diferentes das previstas neste Edital.</t>
         </is>
       </c>
     </row>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>O pregoeiro solicitará ao licitante melhor classiﬁcado que, no prazo de 2 (duas) horas, envie a proposta adequada ao úl Ɵmo lance ofertado após a</t>
+          <t>A negociação será realizada por meio do sistema, podendo ser acompanhada pelos demais licitantes.</t>
         </is>
       </c>
     </row>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>É facultado ao pregoeiro prorrogar o prazo estabelecido, a par Ɵr de solicitação fundamentada feita no chat pelo licitante, antes de ﬁndo o prazo.</t>
+          <t>O pregoeiro solicitará ao licitante melhor classiﬁcado que, no prazo de 2 (duas) horas, envie a proposta adequada ao úl Ɵmo lance ofertado após a negociação realizada, acompanhada, se for o caso, dos documentos complementares, quando necessários à conﬁrmação daqueles exigidos neste Edital e já apresentados.</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Após a negociação do preço, o Pregoeiro iniciará a fase de aceitação e julgamento da proposta.</t>
+          <t>É facultado ao pregoeiro prorrogar o prazo estabelecido, a par Ɵr de solicitação fundamentada feita no chat pelo licitante, antes de ﬁndo o prazo.</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DA ACEITABILIDADE DA PROPOSTA VENCEDORA.</t>
+          <t>Após a negociação do preço, o Pregoeiro iniciará a fase de aceitação e julgamento da proposta.</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Encerrada a etapa de negociação, o pregoeiro examinará a proposta classiﬁcada em primeiro lugar quanto à adequação ao objeto e à compa Ɵbilidade do preço</t>
+          <t>DA ACEITABILIDADE DA PROPOSTA VENCEDORA.</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>A análise da exequibilidade da proposta de preços deverá ser realizada com o auxílio da Planilha de Custos e Formação de Preços, a ser preenchida pelo</t>
+          <t xml:space="preserve">Encerrada a etapa de negociação, o pregoeiro examinará a proposta classiﬁcada em primeiro lugar quanto à adequação ao objeto e à compa Ɵbilidade do preço em relação ao máximo es Ɵpulado para contratação neste Edital e em seus anexos, observado o disposto no parágrafo único do art. 7º e no § 9º do art. 26 do Decreto n.º 10.024/2019. </t>
         </is>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>A Planilha de Custos e Formação de Preços deverá ser encaminhada pelo licitante exclusivamente via sistema, no prazo de 2 (duas) horas, contado da</t>
+          <t>A análise da exequibilidade da proposta de preços deverá ser realizada com o auxílio da Planilha de Custos e Formação de Preços, a ser preenchida pelo licitante em relação à sua proposta ﬁnal, conforme anexo deste Edital.</t>
         </is>
       </c>
     </row>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>A inexequibilidade dos valores referentes a itens isolados da Planilha de Custos e Formação de Preços não caracteriza mo Ɵvo suﬁciente para a desclassiﬁcação</t>
+          <t>A Planilha de Custos e Formação de Preços deverá ser encaminhada pelo licitante exclusivamente via sistema, no prazo de 2 (duas) horas, contado da solicitação do Pregoeiro, com os respec Ɵvos valores adequados ao lance vencedor e será analisada pelo Pregoeiro no momento da aceitação do lance vencedor.</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Será desclassiﬁcada a proposta ou o lance vencedor, nos termos do item 9.1 do Anexo VII-A da In SEGES/MP n. 5/2017, que:</t>
+          <t>A inexequibilidade dos valores referentes a itens isolados da Planilha de Custos e Formação de Preços não caracteriza mo Ɵvo suﬁciente para a desclassiﬁcação da proposta, desde que não contrariem exigências legais.</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>não es Ɵver em conformidade com os requisitos estabelecidos neste edital;</t>
+          <t>Será desclassiﬁcada a proposta ou o lance vencedor, nos termos do item 9.1 do Anexo VII-A da In SEGES/MP n. 5/2017, que:</t>
         </is>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>contenha vício insanável ou ilegalidade;</t>
+          <t>não es Ɵver em conformidade com os requisitos estabelecidos neste edital;</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>não apresente as especiﬁcações técnicas exigidas pelo Termo de Referência;</t>
+          <t>contenha vício insanável ou ilegalidade;</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>apresentar preço ﬁnal superior ao preço máximo ﬁxado (Acórdão nº 1455/2018 -TCU - Plenário), percentual de desconto inferior ao mínimo exigido, ou</t>
+          <t>não apresente as especiﬁcações técnicas exigidas pelo Termo de Referência;</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Quando o licitante não conseguir comprovar que possui ou possuirá recursos suﬁcientes para executar a contento o objeto, será considerada</t>
+          <t>apresentar preço ﬁnal superior ao preço máximo ﬁxado (Acórdão nº 1455/2018 -TCU - Plenário), percentual de desconto inferior ao mínimo exigido, ou que apresentar preço manifestamente inexequível.</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>for insuﬁciente para a cobertura dos custos da contratação, apresente preços global ou unitários simbólicos, irrisórios ou de valor zero,</t>
+          <t>Quando o licitante não conseguir comprovar que possui ou possuirá recursos suﬁcientes para executar a contento o objeto, será considerada inexequível a proposta de preços ou menor lance que:</t>
         </is>
       </c>
     </row>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>um ou mais valores da planilha de custo que sejam inferiores àqueles ﬁxados em instrumentos de caráter norma Ɵvo obrigatório, tais como</t>
+          <t>for insuﬁciente para a cobertura dos custos da contratação, apresente preços global ou unitários simbólicos, irrisórios ou de valor zero, incompaơveis com os preços dos insumos e salários de mercado, acrescidos dos respec Ɵvos encargos, ainda que o ato convocatório da licitação não tenha estabelecido limites mínimos, exceto quando se referirem a materiais e instalações de propriedade do próprio licitante, para os quais ele renuncie a parcela ou à totalidade da remuneração.</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Se houver indícios de inexequibilidade da proposta de preço, ou em caso da necessidade de esclarecimentos complementares, poderão ser efetuadas</t>
+          <t>um ou mais valores da planilha de custo que sejam inferiores àqueles ﬁxados em instrumentos de caráter norma Ɵvo obrigatório, tais como leis, medidas provisórias e convenções cole Ɵvas de trabalho vigentes.</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Quando o licitante apresentar preço ﬁnal inferior a 30% (trinta por cento) da média dos preços ofertados para o mesmo item, e a inexequibilidade da proposta</t>
+          <t>Se houver indícios de inexequibilidade da proposta de preço, ou em caso da necessidade de esclarecimentos complementares, poderão ser efetuadas diligências, na forma do § 3° do ar Ɵgo 43 da Lei n° 8.666, de 1993 e a exemplo das enumeradas no item 9.4 do Anexo VII-A da IN SEGES/MP N. 5, de 2017, para que a empresa comprove a exequibilidade da proposta.</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Qualquer interessado poderá requerer que se realizem diligências para aferir a exequibilidade e a legalidade das propostas, devendo apresentar as provas ou</t>
+          <t>Quando o licitante apresentar preço ﬁnal inferior a 30% (trinta por cento) da média dos preços ofertados para o mesmo item, e a inexequibilidade da proposta não for ﬂagrante e evidente pela análise da planilha de custos, não sendo possível a sua imediata desclassiﬁcação, será obrigatória a realização de diligências para aferir a legalidade e exequibilidade da proposta.</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Na hipótese de necessidade de suspensão da sessão pública para a realização de diligências, com vistas ao saneamento das propostas, a sessão pública</t>
+          <t>Qualquer interessado poderá requerer que se realizem diligências para aferir a exequibilidade e a legalidade das propostas, devendo apresentar as provas ou os indícios que fundamentam a suspeita.</t>
         </is>
       </c>
     </row>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>É facultado ao pregoeiro prorrogar o prazo estabelecido, a par Ɵr de solicitação fundamentada feita no chat pelo licitante, antes de ﬁndo o prazo</t>
+          <t>Na hipótese de necessidade de suspensão da sessão pública para a realização de diligências, com vistas ao saneamento das propostas, a sessão pública somente poderá ser reiniciada mediante aviso prévio no sistema com, no mínimo, vinte e quatro horas de antecedência, e a ocorrência será registrada em ata.SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 5 of 46 07/08/2023 14:268.9. O Pregoeiro poderá convocar o licitante para enviar documento digital complementar, por meio de funcionalidade disponível no sistema, no prazo de 2 (duas) horas, sob pena de não aceitação da proposta.</t>
         </is>
       </c>
     </row>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Dentre os documentos passíveis de solicitação pelo Pregoeiro, destacam-se as planilhas de custo readequadas com o valor ﬁnal ofertado.</t>
+          <t>É facultado ao pregoeiro prorrogar o prazo estabelecido, a par Ɵr de solicitação fundamentada feita no chat pelo licitante, antes de ﬁndo o prazo</t>
         </is>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Todos os dados informados pelo licitante em sua planilha deverão reﬂe Ɵr com ﬁdelidade os custos especiﬁcados e a margem de lucro pretendida.</t>
+          <t>Dentre os documentos passíveis de solicitação pelo Pregoeiro, destacam-se as planilhas de custo readequadas com o valor ﬁnal ofertado.</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>O Pregoeiro analisará a compa Ɵbilidade dos preços unitários apresentados na Planilha de Custos e Formação de Preços com aqueles pra Ɵcados no mercado em</t>
+          <t>Todos os dados informados pelo licitante em sua planilha deverão reﬂe Ɵr com ﬁdelidade os custos especiﬁcados e a margem de lucro pretendida.</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Erros no preenchimento da planilha não cons Ɵtuem moƟvo para a desclassiﬁcação da proposta. A planilha poderá ser ajustada pelo licitante, no prazo indicado</t>
+          <t>O Pregoeiro analisará a compa Ɵbilidade dos preços unitários apresentados na Planilha de Custos e Formação de Preços com aqueles pra Ɵcados no mercado em relação aos insumos e também quanto aos salários das categorias envolvidas na contratação;</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>O ajuste de que trata este disposi Ɵvo se limita a sanar erros ou falhas que não alterem a substância das propostas;</t>
+          <t>Erros no preenchimento da planilha não cons Ɵtuem moƟvo para a desclassiﬁcação da proposta. A planilha poderá ser ajustada pelo licitante, no prazo indicado pelo Pregoeiro, desde que não haja majoração do preço.</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Considera-se erro no preenchimento da planilha passível de correção a indicação de recolhimento de impostos e contribuições na forma do Simples</t>
+          <t>O ajuste de que trata este disposi Ɵvo se limita a sanar erros ou falhas que não alterem a substância das propostas;</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Para ﬁns de análise da proposta quanto ao cumprimento das especiﬁcações do objeto, poderá ser colhida a manifestação escrita do setor requisitante do</t>
+          <t>Considera-se erro no preenchimento da planilha passível de correção a indicação de recolhimento de impostos e contribuições na forma do Simples Nacional, quando não cabível esse regime.</t>
         </is>
       </c>
     </row>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Se a proposta ou lance vencedor for desclassiﬁcado, o Pregoeiro examinará a proposta ou lance subsequente, e, assim sucessivamente, na ordem de</t>
+          <t>Para ﬁns de análise da proposta quanto ao cumprimento das especiﬁcações do objeto, poderá ser colhida a manifestação escrita do setor requisitante do serviço ou da área especializada no objeto.</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Havendo necessidade, o Pregoeiro suspenderá a sessão, informando no “chat” a nova data e horário para sua con Ɵnuidade.</t>
+          <t>Se a proposta ou lance vencedor for desclassiﬁcado, o Pregoeiro examinará a proposta ou lance subsequente, e, assim sucessivamente, na ordem de classiﬁcação.</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Nos itens não exclusivos para a par Ɵcipação de microempresas e empresas de pequeno porte, sempre que a proposta não for aceita, e antes de o Pregoeiro</t>
+          <t>Havendo necessidade, o Pregoeiro suspenderá a sessão, informando no “chat” a nova data e horário para sua con Ɵnuidade.</t>
         </is>
       </c>
     </row>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Encerrada a análise quanto à aceitação da proposta, o pregoeiro veriﬁcará a habilitação do licitante, observado o disposto neste Edital.</t>
+          <t>Nos itens não exclusivos para a par Ɵcipação de microempresas e empresas de pequeno porte, sempre que a proposta não for aceita, e antes de o Pregoeiro passar à subsequente, haverá nova veriﬁcação, pelo sistema, da eventual ocorrência do empate ﬁcto, previsto nos ar Ɵgos 44 e 45 da LC nº 123, de 2006, seguindo-se a disciplina antes estabelecida, se for o caso.</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DA HABILITAÇÃO</t>
+          <t>Encerrada a análise quanto à aceitação da proposta, o pregoeiro veriﬁcará a habilitação do licitante, observado o disposto neste Edital.</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Como condição prévia ao exame da documentação de habilitação do licitante detentor da proposta classiﬁcada em primeiro lugar, o Pregoeiro veriﬁcará o</t>
+          <t>DA HABILITAÇÃO</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Para a consulta de licitantes pessoa jurídica poderá haver a subs Ɵtuição das consultas das alíneas “b”, “c” e “d” acima pela Consulta Consolidada de</t>
+          <t>Como condição prévia ao exame da documentação de habilitação do licitante detentor da proposta classiﬁcada em primeiro lugar, o Pregoeiro veriﬁcará o eventual descumprimento das condições de par Ɵcipação, especialmente quanto à existência de sanção que impeça a par Ɵcipação no certame ou a futura contratação, mediante a consulta aos seguintes cadastros: a) SICAF; b) Cadastro Nacional de Empresas Inidôneas e Suspensas - CEIS, man Ɵdo pela Controladoria-Geral da União ( www.portaldatransparencia.gov.br/ceis );  c) Cadastro Nacional de Condenações Cíveis por Atos de Improbidade Administra Ɵva, manƟdo pelo Conselho Nacional de Jus Ɵça (www.cnj.jus.br/improbidade_adm /consultar_requerido.php ).  d) Lista de Inidôneos man Ɵda pelo Tribunal de Contas da União - TCU ( hƩps://contas.tcu.gov.br/ords/f?p=INABILITADO:CERTIDAO:0 :);</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>A consulta aos cadastros será realizada em nome da empresa licitante e também de seu sócio majoritário, por força do ar Ɵgo 12 da Lei n° 8.429, de</t>
+          <t>Para a consulta de licitantes pessoa jurídica poderá haver a subs Ɵtuição das consultas das alíneas “b”, “c” e “d” acima pela Consulta Consolidada de Pessoa Jurídica do TCU (h Ʃps://cerƟdoesapf.apps.tcu.gov.br/).</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Caso conste na Consulta de Situação do Fornecedor a existência de Ocorrências Impedi Ɵvas Indiretas, o gestor diligenciará para veriﬁcar se</t>
+          <t>A consulta aos cadastros será realizada em nome da empresa licitante e também de seu sócio majoritário, por força do ar Ɵgo 12 da Lei n° 8.429, de 1992, que prevê, dentre as sanções impostas ao responsável pela prá Ɵca de ato de improbidade administra Ɵva, a proibição de contratar com o Poder Público, inclusive por intermédio de pessoa jurídica da qual seja sócio majoritário.</t>
         </is>
       </c>
     </row>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>A tenta Ɵva de burla será veriﬁcada por meio dos vínculos societários, linhas de fornecimento similares, dentre outros.</t>
+          <t>Caso conste na Consulta de Situação do Fornecedor a existência de Ocorrências Impedi Ɵvas Indiretas, o gestor diligenciará para veriﬁcar se houve fraude por parte das empresas apontadas no Relatório de Ocorrências Impedi Ɵvas Indiretas.</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>O licitante será convocado para manifestação previamente à sua desclassiﬁcação.</t>
+          <t>A tenta Ɵva de burla será veriﬁcada por meio dos vínculos societários, linhas de fornecimento similares, dentre outros.</t>
         </is>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Constatada a existência de sanção, o Pregoeiro reputará o licitante inabilitado, por falta de condição de par Ɵcipação.</t>
+          <t>O licitante será convocado para manifestação previamente à sua desclassiﬁcação.</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>No caso de inabilitação, haverá nova veriﬁcação, pelo sistema, da eventual ocorrência do empate ﬁcto, previsto nos arts. 44 e 45 da Lei Complementar nº 123,</t>
+          <t>Constatada a existência de sanção, o Pregoeiro reputará o licitante inabilitado, por falta de condição de par Ɵcipação.</t>
         </is>
       </c>
     </row>
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Caso atendidas as condições de par Ɵcipação, a habilitação dos licitantes será veriﬁcada por meio do SICAF, nos documentos por ele abrangidos, em relação à</t>
+          <t>No caso de inabilitação, haverá nova veriﬁcação, pelo sistema, da eventual ocorrência do empate ﬁcto, previsto nos arts. 44 e 45 da Lei Complementar nº 123, de 2006, seguindo-se a disciplina antes estabelecida para aceitação da proposta subsequente.</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>O interessado, para efeitos de habilitação prevista na Instrução Norma Ɵva SEGES/MP nº 03, de 2018 mediante u Ɵlização do sistema, deverá atender às</t>
+          <t>Caso atendidas as condições de par Ɵcipação, a habilitação dos licitantes será veriﬁcada por meio do SICAF, nos documentos por ele abrangidos, em relação à habilitação jurídica, à regularidade ﬁscal e trabalhista, à qualiﬁcação econômico-ﬁnanceira e habilitação técnica, conforme o disposto na Instrução Norma Ɵva SEGES/MP nº 03, de 2018.</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>É dever do licitante atualizar previamente as comprovações constantes do SICAF para que estejam vigentes na data da abertura da sessão pública, ou</t>
+          <t>O interessado, para efeitos de habilitação prevista na Instrução Norma Ɵva SEGES/MP nº 03, de 2018 mediante u Ɵlização do sistema, deverá atender às condições exigidas no cadastramento no SICAF até o terceiro dia ú Ɵl anterior à data prevista para recebimento das propostas;</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>O descumprimento do subitem acima implicará a inabilitação do licitante, exceto se a consulta aos sí Ɵos eletrônicos oﬁciais emissores de cer Ɵdões feita</t>
+          <t>É dever do licitante atualizar previamente as comprovações constantes do SICAF para que estejam vigentes na data da abertura da sessão pública, ou encaminhar, em conjunto com a apresentação da proposta, a respec Ɵva documentação atualizada.</t>
         </is>
       </c>
     </row>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Havendo a necessidade de envio de documentos de habilitação complementares, necessários à conﬁrmação daqueles exigidos neste Edital e já</t>
+          <t>O descumprimento do subitem acima implicará a inabilitação do licitante, exceto se a consulta aos sí Ɵos eletrônicos oﬁciais emissores de cer Ɵdões feita pelo Pregoeiro lograr êxito em encontrar a(s) cer Ɵdão(ões) válida(s), conforme art. 43, §3º, do Decreto 10.024, de 2019.</t>
         </is>
       </c>
     </row>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Somente haverá a necessidade de comprovação do preenchimento de requisitos mediante apresentação dos documentos originais não-digitais quando houver</t>
+          <t>Havendo a necessidade de envio de documentos de habilitação complementares, necessários à conﬁrmação daqueles exigidos neste Edital e já apresentados, o licitante será convocado a encaminhá-los, em formato digital, via sistema, no prazo de 02 (duas) horas, sob pena de inabilitação.</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Não serão aceitos documentos de habilitação com indicação de CNPJ/CPF diferentes, salvo aqueles legalmente permi Ɵdos.</t>
+          <t>Somente haverá a necessidade de comprovação do preenchimento de requisitos mediante apresentação dos documentos originais não-digitais quando houver dúvida em relação à integridade do documento digital.</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Se o licitante for a matriz, todos os documentos deverão estar em nome da matriz, e se o licitante for a ﬁlial, todos os documentos deverão estar em nome da</t>
+          <t>Não serão aceitos documentos de habilitação com indicação de CNPJ/CPF diferentes, salvo aqueles legalmente permi Ɵdos.</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Serão aceitos registros de CNPJ de licitante matriz e ﬁlial com diferenças de números de documentos per Ɵnentes ao CND e ao CRF/FGTS, quando for</t>
+          <t>Se o licitante for a matriz, todos os documentos deverão estar em nome da matriz, e se o licitante for a ﬁlial, todos os documentos deverão estar em nome da ﬁlial, exceto para atestados de capacidade técnica, e no caso daqueles documentos que, pela própria natureza, comprovadamente, forem emi Ɵdos somente em nome da matriz.</t>
         </is>
       </c>
     </row>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Ressalvado o disposto no item 5.3, os licitantes deverão encaminhar, nos termos deste Edital, a documentação relacionada nos itens a seguir, para ﬁns de</t>
+          <t>Serão aceitos registros de CNPJ de licitante matriz e ﬁlial com diferenças de números de documentos per Ɵnentes ao CND e ao CRF/FGTS, quando for comprovada a centralização do recolhimento dessas contribuições.</t>
         </is>
       </c>
     </row>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Habilitação jurídica:</t>
+          <t>Ressalvado o disposto no item 5.3, os licitantes deverão encaminhar, nos termos deste Edital, a documentação relacionada nos itens a seguir, para ﬁns de habilitação.</t>
         </is>
       </c>
     </row>
@@ -2342,7 +2342,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>no caso de empresário individual, inscrição no Registro Público de Empresas Mercan Ɵs, a cargo da Junta Comercial da respec Ɵva sede;</t>
+          <t>Habilitação jurídica:</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Em se tratando de Microempreendedor Individual – MEI: Cer Ɵﬁcado da Condição de Microempreendedor Individual - CCMEI, cuja aceitação ﬁcará</t>
+          <t>no caso de empresário individual, inscrição no Registro Público de Empresas Mercan Ɵs, a cargo da Junta Comercial da respec Ɵva sede;</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>No caso de sociedade empresária ou empresa individual de responsabilidade limitada - EIRELI: ato cons ƟtuƟvo, estatuto ou contrato social em vigor,</t>
+          <t>Em se tratando de Microempreendedor Individual – MEI: Cer Ɵﬁcado da Condição de Microempreendedor Individual - CCMEI, cuja aceitação ﬁcará condicionada à veriﬁcação da auten Ɵcidade no sí Ɵo www.portaldoempreendedor.gov.br;</t>
         </is>
       </c>
     </row>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>inscrição no Registro Público de Empresas Mercan Ɵs onde opera, com averbação no Registro onde tem sede a matriz, no caso de ser o par ƟcipanteSEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w...</t>
+          <t>No caso de sociedade empresária ou empresa individual de responsabilidade limitada - EIRELI: ato cons ƟtuƟvo, estatuto ou contrato social em vigor, devidamente registrado na Junta Comercial da respec Ɵva sede, acompanhado de documento comprobatório de seus administradores;</t>
         </is>
       </c>
     </row>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>No caso de sociedade simples: inscrição do ato cons ƟtuƟvo no Registro Civil das Pessoas Jurídicas do local de sua sede, acompanhada de prova da</t>
+          <t>inscrição no Registro Público de Empresas Mercan Ɵs onde opera, com averbação no Registro onde tem sede a matriz, no caso de ser o par ƟcipanteSEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 6 of 46 07/08/2023 14:26sucursal, ﬁlial ou agência;</t>
         </is>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>decreto de autorização, em se tratando de sociedade empresária estrangeira em funcionamento no País;</t>
+          <t>No caso de sociedade simples: inscrição do ato cons ƟtuƟvo no Registro Civil das Pessoas Jurídicas do local de sua sede, acompanhada de prova da indicação dos seus administradores;</t>
         </is>
       </c>
     </row>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Os documentos acima deverão estar acompanhados de todas as alterações ou da consolidação respec Ɵva.</t>
+          <t>decreto de autorização, em se tratando de sociedade empresária estrangeira em funcionamento no País;</t>
         </is>
       </c>
     </row>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Regularidade ﬁscal e trabalhista:</t>
+          <t>Os documentos acima deverão estar acompanhados de todas as alterações ou da consolidação respec Ɵva.</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>prova de inscrição no Cadastro Nacional de Pessoas Jurídicas ou no Cadastro de Pessoas Físicas, conforme o caso;</t>
+          <t>Regularidade ﬁscal e trabalhista:</t>
         </is>
       </c>
     </row>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>prova de regularidade ﬁscal perante a Fazenda Nacional, mediante apresentação de cer Ɵdão expedida conjuntamente pela Secretaria da Receita Federal</t>
+          <t>prova de inscrição no Cadastro Nacional de Pessoas Jurídicas ou no Cadastro de Pessoas Físicas, conforme o caso;</t>
         </is>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>prova de regularidade com o Fundo de Garan Ɵa do Tempo de Serviço (FGTS);</t>
+          <t>prova de regularidade ﬁscal perante a Fazenda Nacional, mediante apresentação de cer Ɵdão expedida conjuntamente pela Secretaria da Receita Federal do Brasil (RFB) e pela Procuradoria-Geral da Fazenda Nacional (PGFN), referente a todos os créditos tributários federais e à Dívida A Ɵva da União (DAU) por elas administrados, inclusive aqueles rela Ɵvos à Seguridade Social, nos termos da Portaria Conjunta nº 1.751, de 02/10/2014, do Secretário da Receita Federal do Brasil e da Procuradora-Geral da Fazenda Nacional.</t>
         </is>
       </c>
     </row>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>prova de inexistência de débitos inadimplidos perante a Jus Ɵça do Trabalho, mediante a apresentação de cer Ɵdão nega Ɵva ou posi Ɵva com efeito de</t>
+          <t>prova de regularidade com o Fundo de Garan Ɵa do Tempo de Serviço (FGTS);</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>prova de inscrição no cadastro de contribuintes municipal, rela Ɵvo ao domicílio ou sede do licitante, per Ɵnente ao seu ramo de a Ɵvidade e compa ơvel</t>
+          <t>prova de inexistência de débitos inadimplidos perante a Jus Ɵça do Trabalho, mediante a apresentação de cer Ɵdão nega Ɵva ou posi Ɵva com efeito de negaƟva, nos termos do Título VII-A da Consolidação das Leis do Trabalho, aprovada pelo Decreto-Lei nº 5.452, de 1º de maio de 1943;</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>prova de regularidade com a Fazenda Estadual do domicílio ou sede do licitante, rela Ɵva à aƟvidade em cujo exercício contrata ou concorre;</t>
+          <t>prova de inscrição no cadastro de contribuintes municipal, rela Ɵvo ao domicílio ou sede do licitante, per Ɵnente ao seu ramo de a Ɵvidade e compa ơvel com o objeto contratual;</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>caso o licitante seja considerado isento dos tributos estaduais relacionados ao objeto licitatório, deverá comprovar tal condição mediante a apresentação</t>
+          <t>prova de regularidade com a Fazenda Estadual do domicílio ou sede do licitante, rela Ɵva à aƟvidade em cujo exercício contrata ou concorre;</t>
         </is>
       </c>
     </row>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Quando se tratar da subcontratação prevista no art. 48, II, da Lei Complementar n. 123, de 2006, a licitante melhor classiﬁcada deverá, também,</t>
+          <t>caso o licitante seja considerado isento dos tributos estaduais relacionados ao objeto licitatório, deverá comprovar tal condição mediante a apresentação de declaração da Fazenda Estadual do seu domicílio ou sede, ou outra equivalente, na forma da lei;</t>
         </is>
       </c>
     </row>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Qualiﬁcação Econômico-Financeira:</t>
+          <t>Quando se tratar da subcontratação prevista no art. 48, II, da Lei Complementar n. 123, de 2006, a licitante melhor classiﬁcada deverá, também, apresentar a documentação de regularidade ﬁscal e trabalhista das microempresas e/ou empresas de pequeno porte que serão subcontratadas no decorrer da execução do contrato, ainda que exista alguma restrição, aplicando-se o prazo de regularização previsto no art. 4º, §1º do Decreto nº 8.538, de 2015.</t>
         </is>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>cer Ɵdão negaƟva de falência expedida pelo distribuidor da sede do licitante;</t>
+          <t>Qualiﬁcação Econômico-Financeira:</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>balanço patrimonial e demonstrações contábeis do úl Ɵmo exercício social, já exigíveis e apresentados na forma da lei, que comprovem a boa situação</t>
+          <t>cer Ɵdão negaƟva de falência expedida pelo distribuidor da sede do licitante;</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>no caso de empresa cons Ɵtuída no exercício social vigente, admite-se a apresentação de balanço patrimonial e demonstrações contábeis referentes</t>
+          <t>balanço patrimonial e demonstrações contábeis do úl Ɵmo exercício social, já exigíveis e apresentados na forma da lei, que comprovem a boa situação ﬁnanceira da empresa, vedada a sua subs Ɵtuição por balancetes ou balanços provisórios, podendo ser atualizados por índices oﬁciais quando encerrado há mais de 3 (três) meses da data de apresentação da proposta;</t>
         </is>
       </c>
     </row>
@@ -2582,7 +2582,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>é admissível o balanço intermediário, se decorrer de lei ou contrato/estatuto social.</t>
+          <t>no caso de empresa cons Ɵtuída no exercício social vigente, admite-se a apresentação de balanço patrimonial e demonstrações contábeis referentes ao período de existência da sociedade;</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>comprovação da boa situação ﬁnanceira da empresa mediante obtenção de índices de Liquidez Geral (LG), Solvência Geral (SG) e Liquidez Corrente (LC),</t>
+          <t>é admissível o balanço intermediário, se decorrer de lei ou contrato/estatuto social.</t>
         </is>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>As empresas que apresentarem resultado inferior ou igual a 1 (um) em qualquer dos índices de Liquidez Geral (LG), Solvência Geral (SG) e Liquidez Corrente</t>
+          <t>comprovação da boa situação ﬁnanceira da empresa mediante obtenção de índices de Liquidez Geral (LG), Solvência Geral (SG) e Liquidez Corrente (LC), superiores a 1 (um), ob Ɵdos pela aplicação das seguintes fórmulas: LG =AƟvo Circulante + Realizável a Longo Prazo Passivo Circulante + Passivo Não Circulante SG =AƟvo Total Passivo Circulante + Passivo Não Circulante LC =AƟvo Circulante Passivo Circulante</t>
         </is>
       </c>
     </row>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Qualiﬁcação Técnica:</t>
+          <t>As empresas que apresentarem resultado inferior ou igual a 1 (um) em qualquer dos índices de Liquidez Geral (LG), Solvência Geral (SG) e Liquidez Corrente (LC), deverão comprovar patrimônio líquido de 10% (dez por cento) do valor anual es Ɵmado da contratação ou do grupo per Ɵnente.</t>
         </is>
       </c>
     </row>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Comprovação de ap Ɵdão para a prestação dos serviços em caracterís Ɵcas, quan Ɵdades e prazos compa ơveis com o objeto desta licitação, mediante a</t>
+          <t>Qualiﬁcação Técnica:</t>
         </is>
       </c>
     </row>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Para ﬁns da comprovação de que trata este subitem, os atestados deverão dizer respeito a serviços executados com as seguintes caracterís Ɵcas</t>
+          <t>Comprovação de ap Ɵdão para a prestação dos serviços em caracterís Ɵcas, quan Ɵdades e prazos compa ơveis com o objeto desta licitação, mediante a apresentação de atestado(s) fornecido(s) por pessoas jurídicas de direito público ou privado.</t>
         </is>
       </c>
     </row>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Grupo 1: Atestados de capacidade técnica emi Ɵdos por pessoa jurídica de direito público ou privado, nacionais ou internacionais (em</t>
+          <t>Para ﬁns da comprovação de que trata este subitem, os atestados deverão dizer respeito a serviços executados com as seguintes caracterís Ɵcas mínimas:</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Grupo 1: Atestados de capacidade técnica emi Ɵdos por pessoas jurídicas de direito público ou privado, nacionais ou internacionais (em</t>
+          <t>Grupo 1: Atestados de capacidade técnica emi Ɵdos por pessoa jurídica de direito público ou privado, nacionais ou internacionais (em português brasileiro), informando que a licitante prestou serviços nos quais u Ɵlizou os conhecimentos exigidos no Termo de Referência, Anexo I do Edital, durante, no mínimo 50% do período de tempo da contratação es Ɵpulada neste instrumento (30 meses);</t>
         </is>
       </c>
     </row>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Grupo 2: Atestados de capacidade técnica emi Ɵdos por pessoa jurídica de direito público ou privado, nacionais ou internacionais (em</t>
+          <t>Grupo 1: Atestados de capacidade técnica emi Ɵdos por pessoas jurídicas de direito público ou privado, nacionais ou internacionais (em português brasileiro), no qual conste que a licitante tenha implantado e administrado em nuvem a plataforma low-code, informando do sucesso da implantação e o tempo real de execução do projeto;</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Os atestados deverão referir-se a serviços prestados no âmbito de sua a Ɵvidade econômica principal ou secundária especiﬁcadas no contrato social</t>
+          <t>Grupo 2: Atestados de capacidade técnica emi Ɵdos por pessoa jurídica de direito público ou privado, nacionais ou internacionais (em português brasileiro), no qual tenha construído aplicações na plataforma, informando da qualidade das aplicações construídas e cumprimento de prazos, com pelo menos 50% do quan ƟtaƟvo de sprints executadas deﬁnido no Termo de Referência, Anexo I do Edital (12 sprints executadas).</t>
         </is>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Os atestados de capacidade técnica podem ser apresentados em nome da matriz ou da ﬁlial da empresa licitante.</t>
+          <t>Os atestados deverão referir-se a serviços prestados no âmbito de sua a Ɵvidade econômica principal ou secundária especiﬁcadas no contrato social vigente;</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Somente serão aceitos atestados expedidos após a conclusão do contrato ou se decorrido, pelo menos, um ano do início de sua execução, exceto se</t>
+          <t>Os atestados de capacidade técnica podem ser apresentados em nome da matriz ou da ﬁlial da empresa licitante.</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Poderá ser admi Ɵda, para ﬁns de comprovação de quan ƟtaƟvo mínimo do serviço, a apresentação de diferentes atestados de serviços executados de</t>
+          <t xml:space="preserve">Somente serão aceitos atestados expedidos após a conclusão do contrato ou se decorrido, pelo menos, um ano do início de sua execução, exceto se ﬁrmado para ser executado em prazo inferior, conforme item 10.8 do Anexo VII-A da IN SEGES/MPDG n. 5, de 2017. </t>
         </is>
       </c>
     </row>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>O licitante disponibilizará todas as informações necessárias à comprovação da legi Ɵmidade dos atestados apresentados, apresentando, dentre outros</t>
+          <t>Poderá ser admi Ɵda, para ﬁns de comprovação de quan ƟtaƟvo mínimo do serviço, a apresentação de diferentes atestados de serviços executados de forma concomitante, pois essa situação se equivale, para ﬁns de comprovação de capacidade técnico-operacional, a uma única contratação, nos termos do item 10.9 do Anexo VII-A da IN SEGES/MPDG n. 5/2017.</t>
         </is>
       </c>
     </row>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>O licitante enquadrado como microempreendedor individual que pretenda auferir os bene İcios do tratamento diferenciado previstos na Lei Complementar n.</t>
+          <t>O licitante disponibilizará todas as informações necessárias à comprovação da legi Ɵmidade dos atestados apresentados, apresentando, dentre outros documentos, cópia do contrato que deu suporte à contratação, endereço atual da contratante e local em que foram prestados os serviços, consoante o disposto no item 10.10 do Anexo VII-A da IN SEGES/MPDG n. 5/2017.</t>
         </is>
       </c>
     </row>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>A declaração do vencedor acontecerá no momento imediatamente posterior à fase de habilitação.</t>
+          <t>O licitante enquadrado como microempreendedor individual que pretenda auferir os bene İcios do tratamento diferenciado previstos na Lei Complementar n. 123, de 2006, estará dispensado da prova de inscrição nos cadastros de contribuintes estadual e municipal.SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 7 of 46 07/08/2023 14:269.13. A existência de restrição rela Ɵvamente à regularidade ﬁscal e trabalhista não impede que a licitante qualiﬁcada como microempresa ou empresa de pequeno porte seja declarada vencedora, uma vez que atenda a todas as demais exigências do edital.</t>
         </is>
       </c>
     </row>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Caso a proposta mais vantajosa seja ofertada por licitante qualiﬁcada como microempresa, empresa de pequeno porte ou sociedade coopera Ɵva equiparada, e</t>
+          <t>A declaração do vencedor acontecerá no momento imediatamente posterior à fase de habilitação.</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>A não regularização ﬁscal e trabalhista no prazo previsto no subitem anterior acarretará a inabilitação do licitante, sem prejuízo das sanções previstas neste</t>
+          <t>Caso a proposta mais vantajosa seja ofertada por licitante qualiﬁcada como microempresa, empresa de pequeno porte ou sociedade coopera Ɵva equiparada, e uma vez constatada a existência de alguma restrição no que tange à regularidade ﬁscal e trabalhista, a mesma será convocada para, no prazo de 5 (cinco) dias úteis, após a declaração do vencedor, comprovar a regularização. O prazo poderá ser prorrogado por igual período, a critério da administração pública, quando requerida pelo licitante, mediante apresentação de jus ƟﬁcaƟva.</t>
         </is>
       </c>
     </row>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Havendo necessidade de analisar minuciosamente os documentos exigidos, o Pregoeiro suspenderá a sessão, informando no “chat” a nova data e horário para</t>
+          <t>A não regularização ﬁscal e trabalhista no prazo previsto no subitem anterior acarretará a inabilitação do licitante, sem prejuízo das sanções previstas neste Edital, sendo facultada a convocação dos licitantes remanescentes, na ordem de classiﬁcação. Se, na ordem de classiﬁcação, seguir-se outra microempresa, empresa de pequeno porte ou sociedade coopera Ɵva com alguma restrição na documentação ﬁscal e trabalhista, será concedido o mesmo prazo para regularização.</t>
         </is>
       </c>
     </row>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Será inabilitado o licitante que não comprovar sua habilitação, seja por não apresentar quaisquer dos documentos exigidos para tanto, ou apresentá-los em</t>
+          <t>Havendo necessidade de analisar minuciosamente os documentos exigidos, o Pregoeiro suspenderá a sessão, informando no “chat” a nova data e horário para a conƟnuidade da mesma.</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Nos itens não exclusivos a microempresas e empresas de pequeno porte, em havendo inabilitação, haverá nova veriﬁcação, pelo sistema, da eventual</t>
+          <t>Será inabilitado o licitante que não comprovar sua habilitação, seja por não apresentar quaisquer dos documentos exigidos para tanto, ou apresentá-los em desacordo com o estabelecido neste Edital.</t>
         </is>
       </c>
     </row>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Constatado o atendimento às exigências de habilitação ﬁxadas no Edital, o licitante será declarado vencedor.</t>
+          <t>Nos itens não exclusivos a microempresas e empresas de pequeno porte, em havendo inabilitação, haverá nova veriﬁcação, pelo sistema, da eventual ocorrência do empate ﬁcto, previsto nos ar Ɵgos 44 e 45 da LC nº 123, de 2006, seguindo-se a disciplina antes estabelecida para aceitação da proposta subsequente.</t>
         </is>
       </c>
     </row>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>DA AMOSTRA DO OBJETO</t>
+          <t>Constatado o atendimento às exigências de habilitação ﬁxadas no Edital, o licitante será declarado vencedor.</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>O licitante detentor da proposta classiﬁcada em primeiro lugar, que atender a todos os requisitos de habilitação, será convocado para apresentar a amostra do</t>
+          <t>DA AMOSTRA DO OBJETO</t>
         </is>
       </c>
     </row>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Após a convocação, o licitante provisoriamente classiﬁcado em primeiro lugar, no prazo de 48 (quarenta e oito) horas, deverá acessar reunião via</t>
+          <t>O licitante detentor da proposta classiﬁcada em primeiro lugar, que atender a todos os requisitos de habilitação, será convocado para apresentar a amostra do objeto, para veriﬁcação.</t>
         </is>
       </c>
     </row>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Todo o processo será gravado para posterior análise, se necessário, e no prazo de até 3 (três) dias úteis será apresentado no chat breve resumo do resultado da</t>
+          <t>Após a convocação, o licitante provisoriamente classiﬁcado em primeiro lugar, no prazo de 48 (quarenta e oito) horas, deverá acessar reunião via ferramenta TEAMS, através do link informado no chat pelo pregoeiro, e dispor da plataforma em funcionamento em sua própria nuvem, e mostrar via ferramenta TEAMS a sua uƟlização em tempo real compar Ɵlhando a tela do computador em que a ferramenta estará sendo executada, nos termos do Anexo IV do Edital.</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>A veriﬁcação da amostra do objeto visa à aferição da real capacidade da Solução Tecnológica ofertada pelo licitante e será realizada conforme descrito no</t>
+          <t>Todo o processo será gravado para posterior análise, se necessário, e no prazo de até 3 (três) dias úteis será apresentado no chat breve resumo do resultado da avaliação exarada pelo setor técnico responsável, com intuito de resguardar a necessária transparência ao certame.</t>
         </is>
       </c>
     </row>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>No caso de se veriﬁcar que a amostra apresentada pelo licitante ofertante do melhor lance não atende às especiﬁcações técnicas deﬁnidas no Termo de</t>
+          <t>A veriﬁcação da amostra do objeto visa à aferição da real capacidade da Solução Tecnológica ofertada pelo licitante e será realizada conforme descrito no Termo de Referência, Anexo I e Anexo IV do presente Edital.</t>
         </is>
       </c>
     </row>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>DO ENCAMINHAMENTO DA PROPOSTA VENCEDORA</t>
+          <t>No caso de se veriﬁcar que a amostra apresentada pelo licitante ofertante do melhor lance não atende às especiﬁcações técnicas deﬁnidas no Termo de Referência, o pregoeiro convocará o próximo licitante detentor de proposta válida, obedecida a classiﬁcação na etapa de lances, até que um licitante cumpra os requisitos previstos neste Edital e no Termo de Referência e seja declarado vencedor.</t>
         </is>
       </c>
     </row>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>A proposta ﬁnal do licitante declarado vencedor deverá ser encaminhada no prazo de 02 (duas) horas, a contar da solicitação do Pregoeiro no sistema</t>
+          <t>DO ENCAMINHAMENTO DA PROPOSTA VENCEDORA</t>
         </is>
       </c>
     </row>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ser redigida em língua portuguesa, da Ɵlografada ou digitada, em uma via, sem emendas, rasuras, entrelinhas ou ressalvas, devendo a úl Ɵma folha ser</t>
+          <t>A proposta ﬁnal do licitante declarado vencedor deverá ser encaminhada no prazo de 02 (duas) horas, a contar da solicitação do Pregoeiro no sistema eletrônico e deverá:</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>apresentar a planilha de custos e formação de preços, devidamente ajustada ao lance vencedor, em conformidade com o modelo anexo a este</t>
+          <t>ser redigida em língua portuguesa, da Ɵlografada ou digitada, em uma via, sem emendas, rasuras, entrelinhas ou ressalvas, devendo a úl Ɵma folha ser assinada e as demais rubricadas pelo licitante ou seu representante legal.</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>conter a indicação do banco, número da conta e agência do licitante vencedor, para ﬁns de pagamento.</t>
+          <t>apresentar a planilha de custos e formação de preços, devidamente ajustada ao lance vencedor, em conformidade com o modelo anexo a este instrumento convocatório;</t>
         </is>
       </c>
     </row>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>A proposta ﬁnal deverá ser documentada nos autos e será levada em consideração no decorrer da execução do contrato e aplicação de eventual sanção à</t>
+          <t>conter a indicação do banco, número da conta e agência do licitante vencedor, para ﬁns de pagamento.</t>
         </is>
       </c>
     </row>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Todas as especiﬁcações do objeto con Ɵdas na proposta vinculam a Contratada.</t>
+          <t>A proposta ﬁnal deverá ser documentada nos autos e será levada em consideração no decorrer da execução do contrato e aplicação de eventual sanção à Contratada, se for o caso.</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Os preços deverão ser expressos em moeda corrente nacional, o valor unitário em algarismos e o valor global em algarismos e por extenso (art. 5º da Lei nº</t>
+          <t>Todas as especiﬁcações do objeto con Ɵdas na proposta vinculam a Contratada.</t>
         </is>
       </c>
     </row>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Ocorrendo divergência entre os preços unitários e o preço global, prevalecerão os primeiros; no caso de divergência entre os valores numéricos e os</t>
+          <t>Os preços deverão ser expressos em moeda corrente nacional, o valor unitário em algarismos e o valor global em algarismos e por extenso (art. 5º da Lei nº 8.666/93).</t>
         </is>
       </c>
     </row>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>A oferta deverá ser ﬁrme e precisa, limitada, rigorosamente, ao objeto deste Edital, sem conter alterna Ɵvas de preço ou de qualquer outra condição que induza</t>
+          <t>Ocorrendo divergência entre os preços unitários e o preço global, prevalecerão os primeiros; no caso de divergência entre os valores numéricos e os valores expressos por extenso, prevalecerão estes úl Ɵmos.</t>
         </is>
       </c>
     </row>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>A proposta deverá obedecer aos termos deste Edital e seus Anexos, não sendo considerada aquela que não corresponda às especiﬁcações ali con Ɵdas ou que</t>
+          <t>A oferta deverá ser ﬁrme e precisa, limitada, rigorosamente, ao objeto deste Edital, sem conter alterna Ɵvas de preço ou de qualquer outra condição que induza o julgamento a mais de um resultado, sob pena de desclassiﬁcação.</t>
         </is>
       </c>
     </row>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>As propostas que contenham a descrição do objeto, o valor e os documentos complementares estarão disponíveis na internet, após a homologação.</t>
+          <t>A proposta deverá obedecer aos termos deste Edital e seus Anexos, não sendo considerada aquela que não corresponda às especiﬁcações ali con Ɵdas ou que estabeleça vínculo à proposta de outro licitante.</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>DOS RECURSOS</t>
+          <t>As propostas que contenham a descrição do objeto, o valor e os documentos complementares estarão disponíveis na internet, após a homologação.</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>O Pregoeiro declarará o vencedor e, depois de decorrida a fase de regularização ﬁscal e trabalhista de microempresa ou empresa de pequeno porte, se for o</t>
+          <t>DOS RECURSOS</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Havendo quem se manifeste, caberá ao Pregoeiro veriﬁcar a tempes Ɵvidade e a existência de mo Ɵvação da intenção de recorrer, para decidir se admite ou não</t>
+          <t>O Pregoeiro declarará o vencedor e, depois de decorrida a fase de regularização ﬁscal e trabalhista de microempresa ou empresa de pequeno porte, se for o caso, concederá o prazo de no mínimo trinta minutos, para que qualquer licitante manifeste a intenção de recorrer, de forma mo Ɵvada, isto é, indicando contra qual(is) decisão(ões) pretende recorrer e por quais mo Ɵvos, em campo próprio do sistema.</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Nesse momento o Pregoeiro não adentrará no mérito recursal, mas apenas veriﬁcará as condições de admissibilidade do recurso.</t>
+          <t>Havendo quem se manifeste, caberá ao Pregoeiro veriﬁcar a tempes Ɵvidade e a existência de mo Ɵvação da intenção de recorrer, para decidir se admite ou não o recurso, fundamentadamente.</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>A falta de manifestação mo Ɵvada do licitante quanto à intenção de recorrer importará a decadência desse direito.</t>
+          <t>Nesse momento o Pregoeiro não adentrará no mérito recursal, mas apenas veriﬁcará as condições de admissibilidade do recurso.</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Uma vez admi Ɵdo o recurso, o recorrente terá, a par Ɵr de então, o prazo de três dias para apresentar as razões, pelo sistema eletrônico, ﬁcando os demais</t>
+          <t>A falta de manifestação mo Ɵvada do licitante quanto à intenção de recorrer importará a decadência desse direito.</t>
         </is>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>O acolhimento do recurso invalida tão somente os atos insusce ơveis de aproveitamento.</t>
+          <t>Uma vez admi Ɵdo o recurso, o recorrente terá, a par Ɵr de então, o prazo de três dias para apresentar as razões, pelo sistema eletrônico, ﬁcando os demais licitantes, desde logo, in Ɵmados para, querendo, apresentarem contrarrazões também pelo sistema eletrônico, em outros três dias, que começarão a contar do término do prazo do recorrente, sendo-lhes assegurada vista imediata dos elementos indispensáveis à defesa de seus interesses.</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Os autos do processo permanecerão com vista franqueada aos interessados, no endereço constante neste Edital.</t>
+          <t>O acolhimento do recurso invalida tão somente os atos insusce ơveis de aproveitamento.</t>
         </is>
       </c>
     </row>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>DA REABERTURA DA SESSÃO PÚBLICA</t>
+          <t>Os autos do processo permanecerão com vista franqueada aos interessados, no endereço constante neste Edital.</t>
         </is>
       </c>
     </row>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>A sessão pública poderá ser reaberta:</t>
+          <t>DA REABERTURA DA SESSÃO PÚBLICA</t>
         </is>
       </c>
     </row>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Nas hipóteses de provimento de recurso que leve à anulação de atos anteriores à realização da sessão pública precedente ou em que seja anulada a</t>
+          <t>A sessão pública poderá ser reaberta:</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Todos os licitantes remanescentes deverão ser convocados para acompanhar a sessão reaberta.</t>
+          <t>Nas hipóteses de provimento de recurso que leve à anulação de atos anteriores à realização da sessão pública precedente ou em que seja anulada a própria sessão pública, situação em que serão repe Ɵdos os atos anulados e os que dele dependam.SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 8 of 46 07/08/2023 14:2613.1.2. Quando houver erro na aceitação do preço melhor classiﬁcado ou quando o licitante declarado vencedor não assinar o contrato, não re Ɵrar o instrumento equivalente ou não comprovar a regularização ﬁscal e trabalhista, nos termos do art. 43, §1º da LC nº 123/2006, serão adotados os procedimentos imediatamente posteriores ao encerramento da etapa de lances.</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>A convocação se dará por meio do sistema eletrônico (“chat”) ou e-mail de acordo com a fase do procedimento licitatório.</t>
+          <t>Todos os licitantes remanescentes deverão ser convocados para acompanhar a sessão reaberta.</t>
         </is>
       </c>
     </row>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>A convocação feita por e-mail dar-se-á de acordo com os dados con Ɵdos no SICAF, sendo responsabilidade do licitante manter seus dados cadastrais</t>
+          <t>A convocação se dará por meio do sistema eletrônico (“chat”) ou e-mail de acordo com a fase do procedimento licitatório.</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>DA ADJUDICAÇÃO E HOMOLOGAÇÃO</t>
+          <t>A convocação feita por e-mail dar-se-á de acordo com os dados con Ɵdos no SICAF, sendo responsabilidade do licitante manter seus dados cadastrais atualizados.</t>
         </is>
       </c>
     </row>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>O objeto da licitação será adjudicado ao licitante declarado vencedor  em cada grupo, por ato do Pregoeiro, caso não haja interposição de recurso, ou pela</t>
+          <t>DA ADJUDICAÇÃO E HOMOLOGAÇÃO</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Após a fase recursal, constatada a regularidade dos atos pra Ɵcados, a autoridade competente homologará o procedimento licitatório.</t>
+          <t>O objeto da licitação será adjudicado ao licitante declarado vencedor  em cada grupo, por ato do Pregoeiro, caso não haja interposição de recurso, ou pela autoridade competente, após a regular decisão dos recursos apresentados.</t>
         </is>
       </c>
     </row>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>DA GARANTIA DE EXECUÇÃO</t>
+          <t>Após a fase recursal, constatada a regularidade dos atos pra Ɵcados, a autoridade competente homologará o procedimento licitatório.</t>
         </is>
       </c>
     </row>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Será exigida a prestação de garan Ɵa na presente contratação, conforme regras constantes do Termo de Referência.</t>
+          <t>DA GARANTIA DE EXECUÇÃO</t>
         </is>
       </c>
     </row>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>DO TERMO DE CONTRATO OU INSTRUMENTO EQUIVALENTE</t>
+          <t>Será exigida a prestação de garan Ɵa na presente contratação, conforme regras constantes do Termo de Referência.</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Após a homologação da licitação, em sendo realizada a contratação, será ﬁrmado Termo de Contrato.</t>
+          <t>DO TERMO DE CONTRATO OU INSTRUMENTO EQUIVALENTE</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>O adjudicatário terá o prazo de 05 (cinco) dias úteis, contados a par Ɵr da data de sua convocação, para assinar o Termo de Contrato ou aceitar instrumento</t>
+          <t>Após a homologação da licitação, em sendo realizada a contratação, será ﬁrmado Termo de Contrato.</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Alterna Ɵvamente à convocação para comparecer perante o órgão ou en Ɵdade para a assinatura do Termo de Contrato, a Administração poderá</t>
+          <t>O adjudicatário terá o prazo de 05 (cinco) dias úteis, contados a par Ɵr da data de sua convocação, para assinar o Termo de Contrato ou aceitar instrumento equivalente, conforme o caso (Nota de Empenho/Carta Contrato/Autorização), sob pena de decair do direito à contratação, sem prejuízo das sanções previstas neste Edital.</t>
         </is>
       </c>
     </row>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>O prazo previsto no subitem anterior poderá ser prorrogado, por igual período, por solicitação jus Ɵﬁcada do adjudicatário e aceita pela Administração.</t>
+          <t>Alterna Ɵvamente à convocação para comparecer perante o órgão ou en Ɵdade para a assinatura do Termo de Contrato, a Administração poderá encaminhá-lo para assinatura, mediante correspondência postal com aviso de recebimento (AR), disponibilização de acesso a sistema de processo eletrônico para esse ﬁm ou outro meio eletrônico, para que seja assinado e devolvido no prazo de 5 (cinco) dias, a contar da data de seu recebimento ou da disponibilização do acesso ao sistema de processo eletrônico.</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>O prazo de vigência da contratação é o estabelecido no instrumento contratual.</t>
+          <t>O prazo previsto no subitem anterior poderá ser prorrogado, por igual período, por solicitação jus Ɵﬁcada do adjudicatário e aceita pela Administração.</t>
         </is>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Previamente à contratação a Administração realizará consulta ao SICAF para iden Ɵﬁcar possível suspensão temporária de par Ɵcipação em licitação, no âmbito</t>
+          <t>O prazo de vigência da contratação é o estabelecido no instrumento contratual.</t>
         </is>
       </c>
     </row>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Nos casos em que houver necessidade de assinatura do instrumento de contrato, e o fornecedor não es Ɵver inscrito no SICAF, este deverá proceder ao</t>
+          <t>Previamente à contratação a Administração realizará consulta ao SICAF para iden Ɵﬁcar possível suspensão temporária de par Ɵcipação em licitação, no âmbito do órgão ou en Ɵdade, proibição de contratar com o Poder Público, bem como ocorrências impedi Ɵvas indiretas, observado o disposto no art. 29, da Instrução Norma Ɵva nº 3, de 26 de abril de 2018, e nos termos do art. 6º, III, da Lei nº 10.522, de 19 de julho de 2002, consulta prévia ao CADIN.</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Na hipótese de irregularidade do registro no SICAF, o contratado deverá regularizar a sua situação perante o cadastro no prazo de até 05 (cinco) dias úteis,</t>
+          <t>Nos casos em que houver necessidade de assinatura do instrumento de contrato, e o fornecedor não es Ɵver inscrito no SICAF, este deverá proceder ao seu cadastramento, sem ônus, antes da contratação.</t>
         </is>
       </c>
     </row>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Na assinatura do contrato ou da ata de registro de preços, será exigida a comprovação das condições de habilitação consignadas no edital, que deverão ser</t>
+          <t>Na hipótese de irregularidade do registro no SICAF, o contratado deverá regularizar a sua situação perante o cadastro no prazo de até 05 (cinco) dias úteis, sob pena de aplicação das penalidades previstas no edital e anexos.</t>
         </is>
       </c>
     </row>
@@ -3410,7 +3410,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Na hipótese de o vencedor da licitação não comprovar as condições de habilitação consignadas no edital ou se recusar a assinar o contrato ou a ata de registro</t>
+          <t>Na assinatura do contrato ou da ata de registro de preços, será exigida a comprovação das condições de habilitação consignadas no edital, que deverão ser manƟdas pelo licitante durante a vigência do contrato ou da ata de registro de preços.</t>
         </is>
       </c>
     </row>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>DO REAJUSTAMENTO EM SENTIDO GERAL</t>
+          <t>Na hipótese de o vencedor da licitação não comprovar as condições de habilitação consignadas no edital ou se recusar a assinar o contrato ou a ata de registro de preços, a Administração, sem prejuízo da aplicação das sanções das demais cominações legais cabíveis a esse licitante, poderá convocar outro licitante, respeitada a ordem de classiﬁcação, para, após a comprovação dos requisitos para habilitação, analisada a proposta e eventuais documentos complementares e, feita a negociação, assinar o contrato ou a ata de registro de preços.</t>
         </is>
       </c>
     </row>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>As regras acerca do reajustamento em sen Ɵdo geral do valor contratual são as estabelecidas no Termo de Referência, anexo a este Edital.</t>
+          <t>DO REAJUSTAMENTO EM SENTIDO GERAL</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>DO MODELO DE GESTÃO DO CONTRATO</t>
+          <t>As regras acerca do reajustamento em sen Ɵdo geral do valor contratual são as estabelecidas no Termo de Referência, anexo a este Edital.</t>
         </is>
       </c>
     </row>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>O modelo de gestão do contrato, contemplando os critérios de recebimento e aceitação do objeto, os procedimentos de testes e inspeção e os critérios de</t>
+          <t>DO MODELO DE GESTÃO DO CONTRATO</t>
         </is>
       </c>
     </row>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>DAS OBRIGAÇÕES DA CONTRATANTE E DA CONTRATADA</t>
+          <t>O modelo de gestão do contrato, contemplando os critérios de recebimento e aceitação do objeto, os procedimentos de testes e inspeção e os critérios de ﬁscalização, com base nos níveis mínimos de serviço, estão previstos no Termo de Referência.</t>
         </is>
       </c>
     </row>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>As obrigações da Contratante e da Contratada são as estabelecidas no Termo de Referência.</t>
+          <t>DAS OBRIGAÇÕES DA CONTRATANTE E DA CONTRATADA</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>DO PAGAMENTO</t>
+          <t>As obrigações da Contratante e da Contratada são as estabelecidas no Termo de Referência.</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>As regras acerca do pagamento são as estabelecidas no Termo de Referência, anexo a este Edital.</t>
+          <t>DO PAGAMENTO</t>
         </is>
       </c>
     </row>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>É admi Ɵda a cessão de crédito decorrente da contratação de que trata este Instrumento Convocatório, nos termos do previsto na minuta contratual anexa</t>
+          <t>As regras acerca do pagamento são as estabelecidas no Termo de Referência, anexo a este Edital.</t>
         </is>
       </c>
     </row>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>DAS SANÇÕES ADMINISTRATIVAS.</t>
+          <t xml:space="preserve">É admi Ɵda a cessão de crédito decorrente da contratação de que trata este Instrumento Convocatório, nos termos do previsto na minuta contratual anexa a este Edital. </t>
         </is>
       </c>
     </row>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Comete infração administra Ɵva, nos termos da Lei nº 10.520, de 2002, o licitante/adjudicatário que:</t>
+          <t>DAS SANÇÕES ADMINISTRATIVAS.</t>
         </is>
       </c>
     </row>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>não assinar o termo de contrato ou aceitar/re Ɵrar o instrumento equivalente, quando convocado dentro do prazo de validade da proposta;</t>
+          <t>Comete infração administra Ɵva, nos termos da Lei nº 10.520, de 2002, o licitante/adjudicatário que:</t>
         </is>
       </c>
     </row>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>não assinar a ata de registro de preços, quando cabível;</t>
+          <t>não assinar o termo de contrato ou aceitar/re Ɵrar o instrumento equivalente, quando convocado dentro do prazo de validade da proposta;</t>
         </is>
       </c>
     </row>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>apresentar documentação falsa;</t>
+          <t>não assinar a ata de registro de preços, quando cabível;</t>
         </is>
       </c>
     </row>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>deixar de entregar os documentos exigidos no certame;</t>
+          <t>apresentar documentação falsa;</t>
         </is>
       </c>
     </row>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ensejar o retardamento da execução do objeto;</t>
+          <t>deixar de entregar os documentos exigidos no certame;</t>
         </is>
       </c>
     </row>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>não man Ɵver a proposta;</t>
+          <t>ensejar o retardamento da execução do objeto;</t>
         </is>
       </c>
     </row>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>cometer fraude ﬁscal;</t>
+          <t>não man Ɵver a proposta;</t>
         </is>
       </c>
     </row>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>comportar-se de modo inidôneo;</t>
+          <t>cometer fraude ﬁscal;</t>
         </is>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>As sanções do item acima também se aplicam aos integrantes do cadastro de reserva, em pregão para registro de preços, que, convocados, não honrarem o</t>
+          <t>comportar-se de modo inidôneo;</t>
         </is>
       </c>
     </row>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Considera-se comportamento inidôneo, entre outros, a declaração falsa quanto às condições de par Ɵcipação, quanto ao enquadramento como ME/EPP ou oSEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w...</t>
+          <t>As sanções do item acima também se aplicam aos integrantes do cadastro de reserva, em pregão para registro de preços, que, convocados, não honrarem o compromisso assumido injus Ɵﬁcadamente.</t>
         </is>
       </c>
     </row>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>O licitante/adjudicatário que cometer qualquer das infrações discriminadas nos subitens anteriores ﬁcará sujeito, sem prejuízo da responsabilidade civil e</t>
+          <t>Considera-se comportamento inidôneo, entre outros, a declaração falsa quanto às condições de par Ɵcipação, quanto ao enquadramento como ME/EPP ou oSEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 9 of 46 07/08/2023 14:26conluio entre os licitantes, em qualquer momento da licitação, mesmo após o encerramento da fase de lances.</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Advertência por faltas leves, assim entendidas como aquelas que não acarretarem prejuízos signiﬁca Ɵvos ao objeto da contratação;</t>
+          <t>O licitante/adjudicatário que cometer qualquer das infrações discriminadas nos subitens anteriores ﬁcará sujeito, sem prejuízo da responsabilidade civil e criminal, e quando não houver disposição especíﬁca no Termo de Referência, às seguintes sanções:</t>
         </is>
       </c>
     </row>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Multa de 10% (dez por cento) sobre o valor es Ɵmado do(s) item(s) prejudicado(s) pela conduta do licitante;</t>
+          <t>Advertência por faltas leves, assim entendidas como aquelas que não acarretarem prejuízos signiﬁca Ɵvos ao objeto da contratação;</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Suspensão de licitar e impedimento de contratar com o órgão, en Ɵdade ou unidade administra Ɵva pela qual a Administração Pública opera e atua</t>
+          <t>Multa de 10% (dez por cento) sobre o valor es Ɵmado do(s) item(s) prejudicado(s) pela conduta do licitante;</t>
         </is>
       </c>
     </row>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Impedimento de licitar e de contratar com a União e descredenciamento no SICAF, pelo prazo de até cinco anos;</t>
+          <t>Suspensão de licitar e impedimento de contratar com o órgão, en Ɵdade ou unidade administra Ɵva pela qual a Administração Pública opera e atua concretamente, pelo prazo de até dois anos;</t>
         </is>
       </c>
     </row>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>A Sanção de impedimento de licitar e contratar prevista neste subitem também é aplicável em quaisquer das hipóteses previstas como infração</t>
+          <t>Impedimento de licitar e de contratar com a União e descredenciamento no SICAF, pelo prazo de até cinco anos;</t>
         </is>
       </c>
     </row>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Declaração de inidoneidade para licitar ou contratar com a Administração Pública, enquanto perdurarem os mo Ɵvos determinantes da punição ou até que</t>
+          <t>A Sanção de impedimento de licitar e contratar prevista neste subitem também é aplicável em quaisquer das hipóteses previstas como infração administra Ɵva neste Edital.</t>
         </is>
       </c>
     </row>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>A penalidade de multa pode ser aplicada cumula Ɵvamente com as demais sanções.</t>
+          <t>Declaração de inidoneidade para licitar ou contratar com a Administração Pública, enquanto perdurarem os mo Ɵvos determinantes da punição ou até que seja promovida a reabilitação perante a própria autoridade que aplicou a penalidade, que será concedida sempre que a Contratada ressarcir a Contratante pelos prejuízos causados;</t>
         </is>
       </c>
     </row>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Se, durante o processo de aplicação de penalidade, houver indícios de prá Ɵca de infração administra Ɵva Ɵpiﬁcada pela Lei nº 12.846, de 1º de agosto de 2013,</t>
+          <t>A penalidade de multa pode ser aplicada cumula Ɵvamente com as demais sanções.</t>
         </is>
       </c>
     </row>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>A apuração e o julgamento das demais infrações administra Ɵvas não consideradas como ato lesivo à Administração Pública nacional ou estrangeira nos termos</t>
+          <t>Se, durante o processo de aplicação de penalidade, houver indícios de prá Ɵca de infração administra Ɵva Ɵpiﬁcada pela Lei nº 12.846, de 1º de agosto de 2013, como ato lesivo à administração pública nacional ou estrangeira, cópias do processo administra Ɵvo necessárias à apuração da responsabilidade da empresa deverão ser remeƟdas à autoridade competente, com despacho fundamentado, para ciência e decisão sobre a eventual instauração de inves Ɵgação preliminar ou Processo Administra Ɵvo de Responsabilização – PAR.</t>
         </is>
       </c>
     </row>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>O processamento do PAR não interfere no seguimento regular dos processos administra Ɵvos especíﬁcos para apuração da ocorrência de danos e prejuízos à</t>
+          <t>A apuração e o julgamento das demais infrações administra Ɵvas não consideradas como ato lesivo à Administração Pública nacional ou estrangeira nos termos da Lei nº 12.846, de 1º de agosto de 2013, seguirão seu rito normal na unidade administra Ɵva.</t>
         </is>
       </c>
     </row>
@@ -3806,7 +3806,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Caso o valor da multa não seja suﬁciente para cobrir os prejuízos causados pela conduta do licitante, a União ou En Ɵdade poderá cobrar o valor remanescente</t>
+          <t>O processamento do PAR não interfere no seguimento regular dos processos administra Ɵvos especíﬁcos para apuração da ocorrência de danos e prejuízos à Administração Pública Federal resultantes de ato lesivo come Ɵdo por pessoa jurídica, com ou sem a par Ɵcipação de agente público.</t>
         </is>
       </c>
     </row>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>A aplicação de qualquer das penalidades previstas realizar-se-á em processo administra Ɵvo que assegurará o contraditório e a ampla defesa ao</t>
+          <t>Caso o valor da multa não seja suﬁciente para cobrir os prejuízos causados pela conduta do licitante, a União ou En Ɵdade poderá cobrar o valor remanescente judicialmente, conforme ar Ɵgo 419 do Código Civil.</t>
         </is>
       </c>
     </row>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>A autoridade competente, na aplicação das sanções, levará em consideração a gravidade da conduta do infrator, o caráter educa Ɵvo da pena, bem como o</t>
+          <t>A aplicação de qualquer das penalidades previstas realizar-se-á em processo administra Ɵvo que assegurará o contraditório e a ampla defesa ao licitante/adjudicatário, observando-se o procedimento previsto na Lei nº 8.666, de 1993, e subsidiariamente na Lei nº 9.784, de 1999.</t>
         </is>
       </c>
     </row>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>As penalidades serão obrigatoriamente registradas no SICAF.</t>
+          <t>A autoridade competente, na aplicação das sanções, levará em consideração a gravidade da conduta do infrator, o caráter educa Ɵvo da pena, bem como o dano causado à Administração, observado o princípio da proporcionalidade.</t>
         </is>
       </c>
     </row>
@@ -3854,7 +3854,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>As sanções por atos pra Ɵcados no decorrer da contratação estão previstas no Termo de Referência.</t>
+          <t>As penalidades serão obrigatoriamente registradas no SICAF.</t>
         </is>
       </c>
     </row>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>DA IMPUGNAÇÃO AO EDITAL E DO PEDIDO DE ESCLARECIMENTO</t>
+          <t>As sanções por atos pra Ɵcados no decorrer da contratação estão previstas no Termo de Referência.</t>
         </is>
       </c>
     </row>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Até 03 (três) dias úteis antes da data designada para a abertura da sessão pública, qualquer pessoa poderá impugnar este Edital.</t>
+          <t>DA IMPUGNAÇÃO AO EDITAL E DO PEDIDO DE ESCLARECIMENTO</t>
         </is>
       </c>
     </row>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>A impugnação poderá ser realizada por forma eletrônica, pelo link  hƩp://www.ans.gov.br/aans/licitacoes-contratos/licitacoes-cotacoes-eletronicas-</t>
+          <t>Até 03 (três) dias úteis antes da data designada para a abertura da sessão pública, qualquer pessoa poderá impugnar este Edital.</t>
         </is>
       </c>
     </row>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Caberá ao Pregoeiro, auxiliado pelos responsáveis pela elaboração deste Edital e seus anexos, decidir sobre a impugnação no prazo de até 2 (dois) dias úteis</t>
+          <t>A impugnação poderá ser realizada por forma eletrônica, pelo link  hƩp://www.ans.gov.br/aans/licitacoes-contratos/licitacoes-cotacoes-eletronicas- e-consultas-ao-mercado/sobre-licitacoes , ou por pe Ɵção dirigida ou protocolada no endereço Av. Augusto Severo, nº 84, 7º andar – Gerência de Contratos e Licitações.</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Acolhida a impugnação, será deﬁnida e publicada nova data para a realização do certame.</t>
+          <t>Caberá ao Pregoeiro, auxiliado pelos responsáveis pela elaboração deste Edital e seus anexos, decidir sobre a impugnação no prazo de até 2 (dois) dias úteis contados da data de recebimento da impugnação.</t>
         </is>
       </c>
     </row>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Os pedidos de esclarecimentos referentes a este processo licitatório deverão ser enviados ao Pregoeiro, até 03 (três) dias úteis anteriores à data designada</t>
+          <t>Acolhida a impugnação, será deﬁnida e publicada nova data para a realização do certame.</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>O Pregoeiro responderá aos pedidos de esclarecimentos no prazo de 2 (dois) dias úteis, contado da data de recebimento do pedido, e poderá requisitar</t>
+          <t>Os pedidos de esclarecimentos referentes a este processo licitatório deverão ser enviados ao Pregoeiro, até 03 (três) dias úteis anteriores à data designada para abertura da sessão pública, exclusivamente por meio eletrônico via internet, no endereço indicado no Edital.</t>
         </is>
       </c>
     </row>
@@ -3950,7 +3950,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>As impugnações e pedidos de esclarecimentos não suspendem os prazos previstos no certame.</t>
+          <t>O Pregoeiro responderá aos pedidos de esclarecimentos no prazo de 2 (dois) dias úteis, contado da data de recebimento do pedido, e poderá requisitar subsídios formais aos responsáveis pela elaboração do Edital e dos anexos.</t>
         </is>
       </c>
     </row>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>A concessão de efeito suspensivo à impugnação é medida excepcional e deverá ser mo Ɵvada pelo pregoeiro, nos autos do processo de licitação.</t>
+          <t>As impugnações e pedidos de esclarecimentos não suspendem os prazos previstos no certame.</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>As respostas aos pedidos de esclarecimentos serão divulgadas pelo sistema e vincularão os par Ɵcipantes e a Administração.</t>
+          <t>A concessão de efeito suspensivo à impugnação é medida excepcional e deverá ser mo Ɵvada pelo pregoeiro, nos autos do processo de licitação.</t>
         </is>
       </c>
     </row>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>DAS DISPOSIÇÕES GERAIS</t>
+          <t>As respostas aos pedidos de esclarecimentos serão divulgadas pelo sistema e vincularão os par Ɵcipantes e a Administração.</t>
         </is>
       </c>
     </row>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Da sessão pública do Pregão divulgar-se-á Ata no sistema eletrônico.</t>
+          <t>DAS DISPOSIÇÕES GERAIS</t>
         </is>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Não havendo expediente ou ocorrendo qualquer fato superveniente que impeça a realização do certame na data marcada, a sessão será automa Ɵcamente</t>
+          <t>Da sessão pública do Pregão divulgar-se-á Ata no sistema eletrônico.</t>
         </is>
       </c>
     </row>
@@ -4022,7 +4022,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Todas as referências de tempo no Edital, no aviso e durante a sessão pública observarão o horário de Brasília – DF.</t>
+          <t>Não havendo expediente ou ocorrendo qualquer fato superveniente que impeça a realização do certame na data marcada, a sessão será automa Ɵcamente transferida para o primeiro dia ú Ɵl subsequente, no mesmo horário anteriormente estabelecido, desde que não haja comunicação em contrário, pelo Pregoeiro.</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>No julgamento das propostas e da habilitação, o Pregoeiro poderá sanar erros ou falhas que não alterem a substância das propostas, dos documentos e sua</t>
+          <t>Todas as referências de tempo no Edital, no aviso e durante a sessão pública observarão o horário de Brasília – DF.</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>A homologação do resultado desta licitação não implicará direito à contratação.</t>
+          <t>No julgamento das propostas e da habilitação, o Pregoeiro poderá sanar erros ou falhas que não alterem a substância das propostas, dos documentos e sua validade jurídica, mediante despacho fundamentado, registrado em ata e acessível a todos, atribuindo-lhes validade e eﬁcácia para ﬁns de habilitação e classiﬁcação.</t>
         </is>
       </c>
     </row>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>As normas disciplinadoras da licitação serão sempre interpretadas em favor da ampliação da disputa entre os interessados, desde que não comprometam o</t>
+          <t>A homologação do resultado desta licitação não implicará direito à contratação.</t>
         </is>
       </c>
     </row>
@@ -4070,7 +4070,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Os licitantes assumem todos os custos de preparação e apresentação de suas propostas e a Administração não será, em nenhum caso, responsável por esses</t>
+          <t>As normas disciplinadoras da licitação serão sempre interpretadas em favor da ampliação da disputa entre os interessados, desde que não comprometam o interesse da Administração, o princípio da isonomia, a ﬁnalidade e a segurança da contratação.</t>
         </is>
       </c>
     </row>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Na contagem dos prazos estabelecidos neste Edital e seus Anexos, excluir-se-á o dia do início e incluir-se-á o do vencimento. Só se iniciam e vencem os prazos</t>
+          <t>Os licitantes assumem todos os custos de preparação e apresentação de suas propostas e a Administração não será, em nenhum caso, responsável por esses custos, independentemente da condução ou do resultado do processo licitatório.</t>
         </is>
       </c>
     </row>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>O desatendimento de exigências formais não essenciais não importará o afastamento do licitante, desde que seja possível o aproveitamento do ato,</t>
+          <t>Na contagem dos prazos estabelecidos neste Edital e seus Anexos, excluir-se-á o dia do início e incluir-se-á o do vencimento. Só se iniciam e vencem os prazos em dias de expediente na Administração.</t>
         </is>
       </c>
     </row>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Em caso de divergência entre disposições deste Edital e de seus anexos ou demais peças que compõem o processo, prevalecerá as deste Edital.</t>
+          <t>O desatendimento de exigências formais não essenciais não importará o afastamento do licitante, desde que seja possível o aproveitamento do ato, observados os princípios da isonomia e do interesse público.</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>O Edital está disponibilizado, na íntegra, no endereço eletrônico www.gov.br/compras/pt-br/  e no www.ans.gov.br, e também poderão ser lidos e/ou ob Ɵdos</t>
+          <t>Em caso de divergência entre disposições deste Edital e de seus anexos ou demais peças que compõem o processo, prevalecerá as deste Edital.</t>
         </is>
       </c>
     </row>
@@ -4130,7 +4130,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Integram este Edital, para todos os ﬁns e efeitos, os seguintes anexos:</t>
+          <t>O Edital está disponibilizado, na íntegra, no endereço eletrônico www.gov.br/compras/pt-br/  e no www.ans.gov.br, e também poderão ser lidos e/ou ob Ɵdos no endereço à Av. Augusto Severo, nº 84 – Glória – Rio de Janeiro/RJ,  nos dias úteis, no horário das 08:00 horas às 17:00 horas, mesmo endereço e período no qual os autos do processo administra Ɵvo permanecerão com vista franqueada aos interessados.</t>
         </is>
       </c>
     </row>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>ANEXO I - Termo de Referência;</t>
+          <t>Integram este Edital, para todos os ﬁns e efeitos, os seguintes anexos:</t>
         </is>
       </c>
     </row>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Apêndice do Anexo I - Estudo Técnico Preliminar;SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w...</t>
+          <t>ANEXO I - Termo de Referência;</t>
         </is>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>ANEXO III - Informações para Dimensionamento de Infraestrutura;</t>
+          <t>Apêndice do Anexo I - Estudo Técnico Preliminar;SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 10 of 46 07/08/2023 14:2623.12.3. ANEXO II - Remuneração Baseada em Sprints em Metodologia Ágil;</t>
         </is>
       </c>
     </row>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>ANEXO IV - Processo de Amostra da Ferramenta;</t>
+          <t>ANEXO III - Informações para Dimensionamento de Infraestrutura;</t>
         </is>
       </c>
     </row>
@@ -4190,7 +4190,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>ANEXO V - Modelo de Proposta de Preço (Grupo 1);</t>
+          <t>ANEXO IV - Processo de Amostra da Ferramenta;</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4202,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>ANEXO VI - Modelo de Proposta de Preço (Grupo 2);</t>
+          <t>ANEXO V - Modelo de Proposta de Preço (Grupo 1);</t>
         </is>
       </c>
     </row>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>ANEXO VII - Declaração de Pleno Conhecimento dos Termos e Condições da Licitação;</t>
+          <t>ANEXO VI - Modelo de Proposta de Preço (Grupo 2);</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>ANEXO VIII - Termo de Responsabilidade e Sigilo da Agência Nacional de Saúde Suplementar;</t>
+          <t>ANEXO VII - Declaração de Pleno Conhecimento dos Termos e Condições da Licitação;</t>
         </is>
       </c>
     </row>
@@ -4238,7 +4238,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>ANEXO IX - Termo de Recebimento Provisório;</t>
+          <t>ANEXO VIII - Termo de Responsabilidade e Sigilo da Agência Nacional de Saúde Suplementar;</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>ANEXO X - Termo de Recebimento Deﬁni Ɵvo;</t>
+          <t>ANEXO IX - Termo de Recebimento Provisório;</t>
         </is>
       </c>
     </row>
@@ -4262,7 +4262,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>ANEXO XI - Termo de Compromisso;</t>
+          <t>ANEXO X - Termo de Recebimento Deﬁni Ɵvo;</t>
         </is>
       </c>
     </row>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>ANEXO XII - Termo de Ciência;</t>
+          <t>ANEXO XI - Termo de Compromisso;</t>
         </is>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>ANEXO XIII - Minuta de Termo de Contrato (Grupo 1);</t>
+          <t>ANEXO XII - Termo de Ciência;</t>
         </is>
       </c>
     </row>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>ANEXO VIV - Minuta de Termo de Contrato (Grupo 2)</t>
+          <t>ANEXO XIII - Minuta de Termo de Contrato (Grupo 1);</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DO OBJETO DA CONTRATAÇÃO</t>
+          <t>ANEXO VIV - Minuta de Termo de Contrato (Grupo 2) Rio de Janeiro, 03 de Agosto de 2023 WASHINGTON PEREIRA DA CUNHA Gerente-Geral de Administração e Finanças Documento assinado eletronicamente por Washington Pereira da Cunha , Gerente-Geral de Administração e Finanças , em 04/08/2023, às 12:21, conforme horário oﬁcial de Brasília, com fundamento no § 3ºdo art. 4º, do Decreto nº 10.543, de 13 de novembro de 2020. A autenƟcidade deste documento pode ser conferida no site h Ʃps://www.ans.gov.br/sei/auten Ɵcidade, informando o código veriﬁcador 27143694  e o código CRC D764337D . ANEXOS AO EDITAL ANEXO I - TERMO DE REFERÊNCIA</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cons Ɵtui objeto deste Termo de Referência a disponibilização de solução para desenvolvimento e gestão de aplicações baseada em ferramenta low-code, com esteira</t>
+          <t>DO OBJETO DA CONTRATAÇÃO</t>
         </is>
       </c>
     </row>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Os serviços do Grupo 1 devem ser prestados por um período de 5 anos (60 meses) sem prorrogação, enquanto os serviços do Grupo 2 pelo período de 1 ano (12 meses)</t>
+          <t>Cons Ɵtui objeto deste Termo de Referência a disponibilização de solução para desenvolvimento e gestão de aplicações baseada em ferramenta low-code, com esteira DevOps (CI&amp;CD), que possua todas as ferramentas necessárias, integradas na plataforma, e que possa ser implantada em nuvem pública, privada e/ou on-premise. Assim como serviços para manutenção de seu funcionamento e para desenvolvimento de aplicações, conforme a divisão por grupos e itens descrita na tabela abaixo. ITEM CATSER DESCRIÇÃO / ESPECIFICAÇÃO QUANTIDADE MÉTRICA GRUPO 1 1 27502 Disponibilização, conﬁguração, manutenção e atualização da plataforma. 60 meses 2 27332 Apoio especializado na u Ɵlização da plataforma. 195 serviço 3 27332 Serviço de migração da plataforma e aplicações. 2 serviço GRUPO 2 4 25917 Serviço de desenvolvimento de aplicações na plataforma. 24 sprint executada</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Os grupos podem ser arrematados por empresas diferentes, ou pela mesma empresa, estando condicionado o Grupo 2 à plataforma vencedora do Grupo 1.</t>
+          <t>Os serviços do Grupo 1 devem ser prestados por um período de 5 anos (60 meses) sem prorrogação, enquanto os serviços do Grupo 2 pelo período de 1 ano (12 meses) podendo ser prorrogado. As quan Ɵdades referentes ao Grupo 1 são para o período de 5 anos, e do Grupo 2 para o período de 1 ano.</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A presente contratação adotará regime de execução por menor preço unitário e a adjudicação será por grupo.</t>
+          <t>Os grupos podem ser arrematados por empresas diferentes, ou pela mesma empresa, estando condicionado o Grupo 2 à plataforma vencedora do Grupo 1.</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DESCRIÇÃO DA SOLUÇÃO DE TIC</t>
+          <t>A presente contratação adotará regime de execução por menor preço unitário e a adjudicação será por grupo.</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bens e serviços que compõem a solução</t>
+          <t>DESCRIÇÃO DA SOLUÇÃO DE TIC</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Esta contratação visa a disponibilização, por meio de subscrição, de ferramenta low-code que agilize o desenvolvimento de aplicações e a implantação das mesmas até o</t>
+          <t>Bens e serviços que compõem a solução</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A subscrição da plataforma deve possibilitar o acesso de usuários, tanto internos, quanto externos, de acordo com os quan ƟtaƟvos esƟmados no APÊNDICE II deste</t>
+          <t>Esta contratação visa a disponibilização, por meio de subscrição, de ferramenta low-code que agilize o desenvolvimento de aplicações e a implantação das mesmas até o ambiente de produção.</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A subscrição da plataforma não deve impor limites de quan Ɵdade de aplicações em desenvolvimento ou em execução.</t>
+          <t>A subscrição da plataforma deve possibilitar o acesso de usuários, tanto internos, quanto externos, de acordo com os quan ƟtaƟvos esƟmados no APÊNDICE II deste TR, e sem limitação para perﬁl de desenvolvedor. Independente das es ƟmaƟvas de usuário daquele apêndice, a forma de licenciamento não pode limitar o uso da plataforma, devendo considerar a possibilidade de aumento.</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Informações para dimensionamento de infraestrutura são encontradas no APÊNDICE II deste TR.</t>
+          <t>A subscrição da plataforma não deve impor limites de quan Ɵdade de aplicações em desenvolvimento ou em execução.</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A tabela com a divisão dos serviços em grupos e itens, assim como métrica u Ɵlizada e quan Ɵdades previstas, encontra-se na seção "OBJETO DA CONTRATAÇÃO".</t>
+          <t>Informações para dimensionamento de infraestrutura são encontradas no APÊNDICE II deste TR.</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Grupo 1:</t>
+          <t>A tabela com a divisão dos serviços em grupos e itens, assim como métrica u Ɵlizada e quan Ɵdades previstas, encontra-se na seção "OBJETO DA CONTRATAÇÃO".</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[Grupo 1 - Item 1] Disponibilização, conﬁguração, manutenção e atualização da plataforma:</t>
+          <t>Grupo 1: Quadro resumo GRUPO 1 Item 1Consiste nos serviços de implantação, conﬁguração e entrega do acesso à plataforma para a ANS poder u Ɵlizá-la, além da manutenção da mesma em funcionamento e implantação das atualizações conforme são lançadas. Serviço con ơnuo, pagamento ﬁxo, sendo que alguns requerem solicitação para execução. Item 2Consiste em a Ɵvidades que apoiem as equipes técnicas da ANS na u Ɵlização das ferramentas da plataforma, no desenvolvimento das aplicações e no monitoramento do funcionamento de todo o conjunto, visando as melhores prá Ɵcas. Apoia as a Ɵvidades das equipes de desenvolvimento e infraestrutura no que couber. Solicitação e pagamento por OS (ordem de serviço). Item 3Consiste em executar todos os procedimentos necessários para transportar a plataforma de uma infraestrutura para outra, seja nuvem ou on-premise, e entregar, tanto a plataforma, quanto as aplicações funcionando. Solicitação e pagamento por OS (ordem de serviço). Os serviços deste grupo devem integrar um contrato com prazo de vigência de 5 anos.</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A plataforma deve ser implantada na nuvem, conforme especiﬁcado na seção "Considerações Gerais", acima.</t>
+          <t>[Grupo 1 - Item 1] Disponibilização, conﬁguração, manutenção e atualização da plataforma:</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A plataforma deve ser entregue funcionando, de forma que a contratante possa u Ɵlizá-la em todo seu potencial, no prazo deﬁnido na tabela abaixo para o serviçoSEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w...</t>
+          <t>A plataforma deve ser implantada na nuvem, conforme especiﬁcado na seção "Considerações Gerais", acima.</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A plataforma só será considerada entregue se todas as ferramentas e dependências es Ɵverem em pleno funcionamento, acessível à contratada por meio de login</t>
+          <t>A plataforma deve ser entregue funcionando, de forma que a contratante possa u Ɵlizá-la em todo seu potencial, no prazo deﬁnido na tabela abaixo para o serviçoSEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 11 of 46 07/08/2023 14:26Tipo 01, contados a par Ɵr da data de assinatura do contrato.</t>
         </is>
       </c>
     </row>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A plataforma deve ser man Ɵda acessível para a ANS com um nível de disponibilidade de, pelo menos, 99,95%.</t>
+          <t>A plataforma só será considerada entregue se todas as ferramentas e dependências es Ɵverem em pleno funcionamento, acessível à contratada por meio de login de usuário, e qualquer carga inicial de dados necessária es Ɵver sido concre Ɵzada.</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Suporte 24x7 para manutenção do funcionamento da plataforma e dos serviços que ela propicia, incluindo fornecimento de informação sobre qualquer ocorrência</t>
+          <t>A plataforma deve ser man Ɵda acessível para a ANS com um nível de disponibilidade de, pelo menos, 99,95%.</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A plataforma deve ser man Ɵda atualizada sem impactar a ro Ɵna de trabalho da contratante, de forma transparente; e qualquer problema deve ser comunicado</t>
+          <t>Suporte 24x7 para manutenção do funcionamento da plataforma e dos serviços que ela propicia, incluindo fornecimento de informação sobre qualquer ocorrência que possa impactar o funcionamento das ferramentas da plataforma e/ou das aplicações implantadas nela.</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>As atualizações compreendem liberação de novas versões da plataforma, releases, patchs de correção e segurança etc.</t>
+          <t>A plataforma deve ser man Ɵda atualizada sem impactar a ro Ɵna de trabalho da contratante, de forma transparente; e qualquer problema deve ser comunicado imediatamente à EGC.</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>A implantação das atualizações deve ser realizada até 30 dias corridos após seu lançamento. Qualquer impossibilidade, ou impacto, deve ser relatado à EGC, que</t>
+          <t>As atualizações compreendem liberação de novas versões da plataforma, releases, patchs de correção e segurança etc.</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A plataforma deve ser man Ɵda segura de acessos indevidos, de qualquer Ɵpo de malware ou ataques vindos da internet. 2.2.3.1.6.1. Qualquer ocorrência de</t>
+          <t>A implantação das atualizações deve ser realizada até 30 dias corridos após seu lançamento. Qualquer impossibilidade, ou impacto, deve ser relatado à EGC, que decidirá sobre a questão.</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A contratada deve prover, junto à equipe técnica de TI da contratante, o acesso da plataforma ao banco de dados corpora Ɵvo e ao MS Ac Ɵve Directory, conforme</t>
+          <t>A plataforma deve ser man Ɵda segura de acessos indevidos, de qualquer Ɵpo de malware ou ataques vindos da internet. 2.2.3.1.6.1. Qualquer ocorrência de segurança deve ser imediatamente informada à contratante.</t>
         </is>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A contratante fará a solicitação, por intermédio da EGC, quando for conveniente, indicando a data de execução do serviço.</t>
+          <t>A contratada deve prover, junto à equipe técnica de TI da contratante, o acesso da plataforma ao banco de dados corpora Ɵvo e ao MS Ac Ɵve Directory, conforme necessidade e decisão da contratante.</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>No caso de não serem executados na implantação da plataforma, a solicitação para conﬁguração do acesso, tanto ao banco de dados, quanto ao Ac Ɵve Directory,</t>
+          <t>A contratante fará a solicitação, por intermédio da EGC, quando for conveniente, indicando a data de execução do serviço.</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A tabela abaixo relaciona alguns serviços, o início de contagem do prazo e o prazo para conclusão:</t>
+          <t>No caso de não serem executados na implantação da plataforma, a solicitação para conﬁguração do acesso, tanto ao banco de dados, quanto ao Ac Ɵve Directory, poderá ser feita por e-mail, ou através de sistema, seguindo- se as mesmas orientações descritas para abertura de OS na seção "Considerações Gerais", acima.</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Se houver algum serviço, no escopo desta contratação, que não esteja listado na tabela acima, o início da execução e o prazo deverão ser ﬁxados na OS, pela EGC,</t>
+          <t>A tabela abaixo relaciona alguns serviços, o início de contagem do prazo e o prazo para conclusão: Tipo Serviço Início do Prazo Prazo 01 Implantação e disponibilização da plataforma Data de assinatura do contrato 5 dias corridos 02 Atualização da plataforma Data de disponibilização 30 dias corridos 03 Manutenção da plataforma em funcionamento - Con ơnuo 04 Acesso ao banco de dados corpora Ɵvo Data deﬁnida na solicitação 2 dias úteis 05 Acesso ao MS Ac Ɵve Directory Data deﬁnida na solicitação 2 dias úteis 06 Resolução de problemas de instabilidade ou queda da plataforma Até 30 minutos após solicitação 1 hora 07Fornecimento de informações sobre problemas ou estado de funcionamento da plataforma e/ou do ambiente em que ela se encontraAté 30 minutos após solicitação 1 hora</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[Grupo 1 - Item 2] Apoio especializado na u Ɵlização da plataforma:</t>
+          <t>Se houver algum serviço, no escopo desta contratação, que não esteja listado na tabela acima, o início da execução e o prazo deverão ser ﬁxados na OS, pela EGC, que poderá consultar a contratada para melhor deﬁnição.</t>
         </is>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>O serviço deve estar disponível para a contratante requisitar em até 5 dias após a assinatura do contrato.</t>
+          <t>[Grupo 1 - Item 2] Apoio especializado na u Ɵlização da plataforma:</t>
         </is>
       </c>
     </row>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Serviço de fornecimento de informações sobre funcionalidades e u Ɵlização das ferramentas da plataforma.</t>
+          <t>O serviço deve estar disponível para a contratante requisitar em até 5 dias após a assinatura do contrato.</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Serviço de fornecimento de informações sobre o desenvolvimento de aplicações (desenvolvimento de forma visual, edição de código fonte, criação de processos de</t>
+          <t>Serviço de fornecimento de informações sobre funcionalidades e u Ɵlização das ferramentas da plataforma.</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Serviço de fornecimento de informações sobre forma de integrar a plataforma a outras plataformas, em especial às plataformas de governo.</t>
+          <t>Serviço de fornecimento de informações sobre o desenvolvimento de aplicações (desenvolvimento de forma visual, edição de código fonte, criação de processos de negócio, webservices etc.) e a publicação nos diversos ambientes deﬁnidos na plataforma.</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Executar, ou auxiliar a execução, da exportação de aplicações para código fonte, podendo ser uma ou mais aplicações.</t>
+          <t>Serviço de fornecimento de informações sobre forma de integrar a plataforma a outras plataformas, em especial às plataformas de governo.</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Poderá ser solicitada, a qualquer momento, a exportação de aplicações para código fonte, conforme decisão estratégica ou necessidade da contratante, devendo</t>
+          <t>Executar, ou auxiliar a execução, da exportação de aplicações para código fonte, podendo ser uma ou mais aplicações.</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>A tabela abaixo relaciona os serviços, quan ƟtaƟvo e tempo es Ɵmado de duração em horas ou minutos corridos :</t>
+          <t>Poderá ser solicitada, a qualquer momento, a exportação de aplicações para código fonte, conforme decisão estratégica ou necessidade da contratante, devendo o prazo ser deﬁnido na solicitação, sem que isso enseje o encerramento dos serviços contratados.</t>
         </is>
       </c>
     </row>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Os serviços de Tipo 01 e 02  podem ser prestados em formato de apresentação, acompanhamento prá Ɵco (junto aos técnicos da contratante, fornecendo</t>
+          <t>A tabela abaixo relaciona os serviços, quan ƟtaƟvo e tempo es Ɵmado de duração em horas ou minutos corridos : Tipo Serviço Quan Ɵdade Duração 01 Informações pontuais sobre u Ɵlização da plataforma e desenvolvimento de aplicações 120 30 a 120 minutos 02 Informações detalhadas sobre u Ɵlização da plataforma e desenvolvimento de aplicações 60 4 a 8 horas 03 Exportação de aplicação para código fonte 15 Deﬁnida na OS</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>O tempo de duração das demandas, descrito na tabela acima, não é necessariamente con Ɵnuo, ou seja, pode haver intervalo de tempo, não podendo ultrapassar 2</t>
+          <t>Os serviços de Tipo 01 e 02  podem ser prestados em formato de apresentação, acompanhamento prá Ɵco (junto aos técnicos da contratante, fornecendo informações e respondendo a dúvidas) e/ou aula, conforme deﬁnido na OS.</t>
         </is>
       </c>
     </row>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>O fato de uma a Ɵvidade ultrapassar o tempo de duração deﬁnido na tabela acima, não signiﬁca que mude o seu Tipo, essa avaliação deverá ser feita pela EGC</t>
+          <t>O tempo de duração das demandas, descrito na tabela acima, não é necessariamente con Ɵnuo, ou seja, pode haver intervalo de tempo, não podendo ultrapassar 2 dias úteis. Depende de aprovação e controle pela EGC. 2.2.3.2.8.1. Nas demandas cuja duração es Ɵmada seja de 6 horas ou mais, executadas em um mesmo dia, será obrigatória uma descon Ɵnuidade no tempo de execução devido a horário de almoço dos funcionários da contratante. 2.2.3.2.8.2. A EGC deve ser criteriosa ao u Ɵlizar a desconƟnuidade da duração da demanda, a ﬁm de evitar causar prejuízos à contratada ou à contratante.</t>
         </is>
       </c>
     </row>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>A quan Ɵdade de serviços de Exportação de aplicações, serviço Tipo 03, depende da quan Ɵdade de aplicações desenvolvidas na plataforma, podendo ser uma ou</t>
+          <t>O fato de uma a Ɵvidade ultrapassar o tempo de duração deﬁnido na tabela acima, não signiﬁca que mude o seu Tipo, essa avaliação deverá ser feita pela EGC mediante solicitação da contratada, e cabe a esta acatar a decisão daquela.</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cada solicitação de exportação poderá conter produtos desenvolvidos em até 24 sprints (produção média anual de um Ɵme ágil), não havendo uma quan Ɵdade</t>
+          <t>A quan Ɵdade de serviços de Exportação de aplicações, serviço Tipo 03, depende da quan Ɵdade de aplicações desenvolvidas na plataforma, podendo ser uma ou mais, ou até todas elas. A duração deverá ser deﬁnida na OS, não podendo ultrapassar 1 dia ú Ɵl por aplicação.</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Caso considere necessário a EGC levantará, junto à contratada, a melhor forma de deﬁnir os prazos de exportação para colocar nas OSs, seja por tempo médio</t>
+          <t>Cada solicitação de exportação poderá conter produtos desenvolvidos em até 24 sprints (produção média anual de um Ɵme ágil), não havendo uma quan Ɵdade mínima. Depende das necessidades da contratante.</t>
         </is>
       </c>
     </row>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Em caso de término de contrato este serviço não será contabilizado, pois será considerada obrigatória a exportação das aplicações para que con Ɵnuem</t>
+          <t>Caso considere necessário a EGC levantará, junto à contratada, a melhor forma de deﬁnir os prazos de exportação para colocar nas OSs, seja por tempo médio de exportação de aplicação, seja por tamanho de aplicação etc. 2.2.3.2.10.3. Não há previsão real de uso deste Ɵpo de serviço durante a vigência do contrato, pois depende de necessidade e/ou decisão estratégica.</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[Grupo 1 - Item 3] Serviço de migração da plataforma e aplicações:</t>
+          <t>Em caso de término de contrato este serviço não será contabilizado, pois será considerada obrigatória a exportação das aplicações para que con Ɵnuem funcionando e possam ser man Ɵdas pela contratante a ﬁm de garan Ɵa de conƟnuidade dos seus serviços, não sendo permi Ɵdo qualquer ônus ou limitação neste processo.</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>A possibilidade de migração da plataforma para outra infraestrutura visa atender à necessidade de con Ɵnuidade dos serviços e a possíveis interesses estratégicos</t>
+          <t>[Grupo 1 - Item 3] Serviço de migração da plataforma e aplicações:</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>A contratada deve, a qualquer momento, dentro do período de vigência do contrato, apoiar e/ou realizar por completo (conforme deﬁnição da contratante) a</t>
+          <t>A possibilidade de migração da plataforma para outra infraestrutura visa atender à necessidade de con Ɵnuidade dos serviços e a possíveis interesses estratégicos da contratante.</t>
         </is>
       </c>
     </row>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Se a migração for para infraestrutura on-premise ou para uma nuvem a que a contratada não dê suporte, ou que a contratante já possua o controle, o valor</t>
+          <t>A contratada deve, a qualquer momento, dentro do período de vigência do contrato, apoiar e/ou realizar por completo (conforme deﬁnição da contratante) a migração da plataforma para uma outra infraestrutura, seja nuvem ou on-premise, indicada pela contratante.</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Se a migração for para uma nuvem a que a contratada dê suporte, e não sendo caso elencado no subitem anterior, a empresa poderá manter as condições</t>
+          <t>Se a migração for para infraestrutura on-premise ou para uma nuvem a que a contratada não dê suporte, ou que a contratante já possua o controle, o valor cotado para serviço de nuvem (se houver) deverá ser descontado do pagamento da contratada e esta não terá mais responsabilidade sobre a infraestrutura.</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Após a migração todas as ferramentas integradas à plataforma devem estar funcionando corretamente, assim como as aplicações da contratante em execução nela,</t>
+          <t>Se a migração for para uma nuvem a que a contratada dê suporte, e não sendo caso elencado no subitem anterior, a empresa poderá manter as condições contratuais de valor. Se a empresa não desejar manter as condições, a contratante deverá descontar do pagamento da contratada o valor cotado para a nuvem, assumir a contratação, e a contratada não terá mais responsabilidade sobre a nuvem.</t>
         </is>
       </c>
     </row>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Para o serviço de Tipo 01, entende-se como serviço de nuvem comercial aquele comumente fornecido por provedores na internet, seja nuvem privada ou pública.</t>
+          <t>Após a migração todas as ferramentas integradas à plataforma devem estar funcionando corretamente, assim como as aplicações da contratante em execução nela, e os projetos em desenvolvimento.SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 12 of 46 07/08/2023 14:262.2.3.3.4. A tabela abaixo relaciona os serviços, quan ƟtaƟvo e prazo para conclusão em dias úteis : Tipo Serviço Quan Ɵdade Prazo 01 Migração para serviço de nuvem comercial (na internet) 1 5 dias 02 Migração para serviço de nuvem em infraestrutura própria da contratante (no datacenter) ou on-premise 1 10 dias</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Para o serviço de Tipo 02, considera-se a infraestrutura que se encontra no datacenter İsico da contratante.</t>
+          <t>Para o serviço de Tipo 01, entende-se como serviço de nuvem comercial aquele comumente fornecido por provedores na internet, seja nuvem privada ou pública.</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Grupo 2:</t>
+          <t>Para o serviço de Tipo 02, considera-se a infraestrutura que se encontra no datacenter İsico da contratante.</t>
         </is>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[Grupo 2 - Item 4] Serviço de desenvolvimento de aplicações na plataforma:</t>
+          <t>Grupo 2: Quadro resumo GRUPO 2 Item 4Consiste nas a Ɵvidades de projeto de desenvolvimento e manutenção das aplicações na plataforma selecionada, desde o levantamento dos requisitos, passando pela construção da aplicação, testes e homologação, e ﬁnalmente chegando à publicação em produção. A métrica é baseada no modelo de Sprints executadas, conforme APÊNDICE I. Os serviços deste grupo devem integrar um contrato com prazo de vigência de 1 ano prorrogáveis até 5 anos.</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Consiste no desenvolvimento de aplicações na plataforma low-code contratada no Grupo 1.</t>
+          <t>[Grupo 2 - Item 4] Serviço de desenvolvimento de aplicações na plataforma:</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>As demandas de projeto serão solicitadas através de Ordens de Serviço (OS), conforme os critérios deﬁnidos na seção "Condições Gerais".</t>
+          <t>Consiste no desenvolvimento de aplicações na plataforma low-code contratada no Grupo 1.</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>As demandas de projeto serão pagas pelo método de remuneração por sprints executadas, conforme a portaria 2.561/2022 SGD/ME e descrição do APÊNDICE I</t>
+          <t>As demandas de projeto serão solicitadas através de Ordens de Serviço (OS), conforme os critérios deﬁnidos na seção "Condições Gerais".</t>
         </is>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Aplica-se a esta contratação os requisitos para metodologias ágeis deﬁnidos na portaria 2.561/2022 SGD/ME e a metodologia de desenvolvimento de so Ōware da</t>
+          <t>As demandas de projeto serão pagas pelo método de remuneração por sprints executadas, conforme a portaria 2.561/2022 SGD/ME e descrição do APÊNDICE I deste documento. 2.2.4.1.3.1. Qualquer dúvida ou discordância sobre a mensuração será decidida pela EGC e a decisão deverá ser aceita pela contratada.</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>As a Ɵvidades macro dos projetos de desenvolvimento são: levantamento de requisitos, construção da aplicação, teste, homologação e implantação.</t>
+          <t>Aplica-se a esta contratação os requisitos para metodologias ágeis deﬁnidos na portaria 2.561/2022 SGD/ME e a metodologia de desenvolvimento de so Ōware da ANS.</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>As reais a Ɵvidades são deﬁnidas conforme as necessidades de cada demanda, e devem ser elencadas pela contratada e aprovadas pela EGC, podendo esta se</t>
+          <t>As a Ɵvidades macro dos projetos de desenvolvimento são: levantamento de requisitos, construção da aplicação, teste, homologação e implantação. AƟvidade Descrição Levantamento de requisitosConsiste em deﬁnir junto ao usuário os requisitos funcionais, e junto à TI os requisitos não funcionais da aplicação. Construção da aplicação Consiste no desenvolvimento do so Ōware produto do projeto. Teste Consiste em testar a aplicação para encontrar e solucionar possíveis erros. Homologação Consiste em um período para teste do usuário da aplicação para aprovação, com acompanhamento realizado pela contratada. ImplantaçãoConsiste em colocar a aplicação em ambiente de produção, independente do Ɵpo de disposi Ɵvo para o qual a aplicação foi desenvolvida, podendo inclusive ser mais de um. Operação assis ƟdaConsiste em um período de 60 dias corridos após a implantação em que a contratada ensinará e apoiará o usuário da aplicação e a área de TI da contratante, no que couber, sobre o funcionamento da aplicação ou módulo entregue.</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Para execução destes serviços a contratada deve dispor de:</t>
+          <t>As reais a Ɵvidades são deﬁnidas conforme as necessidades de cada demanda, e devem ser elencadas pela contratada e aprovadas pela EGC, podendo esta se incumbir de deﬁnir as a Ɵvidades se assim achar conveniente. 2.2.4.1.6.1. As a Ɵvidades deverão ser executadas conforme metodologia ágil e as deﬁnições do APÊNDICE I.</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Proﬁssionais com experiência em desenvolvimento ágil e desenvolvimento na plataforma. 2.2.4.1.7.2. Proﬁssionais com experiência em levantamento de</t>
+          <t>Para execução destes serviços a contratada deve dispor de:</t>
         </is>
       </c>
     </row>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Proﬁssional com experiência em gerência de projetos u Ɵlizando metodologia ágil.</t>
+          <t>Proﬁssionais com experiência em desenvolvimento ágil e desenvolvimento na plataforma. 2.2.4.1.7.2. Proﬁssionais com experiência em levantamento de requisitos em metodologia ágil.</t>
         </is>
       </c>
     </row>
@@ -5085,7 +5085,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>A contratada deve apresentar para a EGC, a cada demanda, os proﬁssionais envolvidos, conforme descrito no APÊNDICE I.</t>
+          <t>Proﬁssional com experiência em gerência de projetos u Ɵlizando metodologia ágil.</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>A contratante, por intermédio da EGC, poderá, a qualquer momento, solicitar a troca de proﬁssionais, em qualquer demanda, no caso de perceber problemas na</t>
+          <t>A contratada deve apresentar para a EGC, a cada demanda, os proﬁssionais envolvidos, conforme descrito no APÊNDICE I.</t>
         </is>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>A avaliação de qualidade dos serviços deve levar em conta, entre outras coisas:</t>
+          <t>A contratante, por intermédio da EGC, poderá, a qualquer momento, solicitar a troca de proﬁssionais, em qualquer demanda, no caso de perceber problemas na execução do projeto ou na qualidade dos produtos. 2.2.4.1.9.1. No caso de ser solicitada a troca de proﬁssional, a EGC deﬁnirá o prazo para troca, não podendo exceder 30 dias corridos. Caso o prazo seja excedido, a jus ƟﬁcaƟva deverá ser avaliada pela EGC, que pode aceitar ou não. 2.2.4.1.9.2. A troca de proﬁssionais não enseja em redeﬁnição de prazo da demanda (ou sprint). Em casos excepcionais a EGC poderá aprovar revisão de prazo mediante solicitação da contratada.</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>a visão do requisitante da aplicação, que pode aceitar ou considerar que a aplicação não cumpre o que foi solicitado, tanto em relação ao atendimento das</t>
+          <t>A avaliação de qualidade dos serviços deve levar em conta, entre outras coisas:</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>a visão da informá Ɵca da contratante, principalmente na modelagem de dados e deﬁnição de serviços web, além de adequação de padrões técnicos conhecidos</t>
+          <t>a visão do requisitante da aplicação, que pode aceitar ou considerar que a aplicação não cumpre o que foi solicitado, tanto em relação ao atendimento das funcionalidades, requisitos funcionais e regras de negócio, como em usabilidade;</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>havendo elaboração de artefatos, a capacidade de reconhecimento de cada elemento (requisito técnico, funcional, regra de negócio etc.) e a compreensão</t>
+          <t>a visão da informá Ɵca da contratante, principalmente na modelagem de dados e deﬁnição de serviços web, além de adequação de padrões técnicos conhecidos no mercado e aplicáveis a sistemas web e a disposi Ɵvos móveis;</t>
         </is>
       </c>
     </row>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>A composição de Ɵmes ágeis e a previsão dos custos por sprint está explicitado no item 4 do APÊNDICE I deste TR.</t>
+          <t>havendo elaboração de artefatos, a capacidade de reconhecimento de cada elemento (requisito técnico, funcional, regra de negócio etc.) e a compreensão textual (considerando a pontuação e a coerência do texto escrito). Este úl Ɵmo não possui conotação didá Ɵca, mas a intenção de garan Ɵr que os textos dos documentos sejam compreensíveis.</t>
         </is>
       </c>
     </row>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Especiﬁcações Técnicas</t>
+          <t>A composição de Ɵmes ágeis e a previsão dos custos por sprint está explicitado no item 4 do APÊNDICE I deste TR.</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Considerações Gerais</t>
+          <t>Especiﬁcações Técnicas</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>A contratada é responsável pela boa prestação dos serviços aqui descritos, devendo empregar os recursos de pessoal no quan ƟtaƟvo necessário, e com a qualiﬁcação</t>
+          <t>Considerações Gerais</t>
         </is>
       </c>
     </row>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>A plataforma, inicialmente, deverá funcionar em uma infraestrutura de nuvem dedicada e controlada pela contratada na forma de PaaS (Paltaform as a Service).</t>
+          <t>A contratada é responsável pela boa prestação dos serviços aqui descritos, devendo empregar os recursos de pessoal no quan ƟtaƟvo necessário, e com a qualiﬁcação adequada, à boa execução das tarefas.</t>
         </is>
       </c>
     </row>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>A implantação em infraestrutura de nuvem deve ser de tal forma que a ANS possa contratar o serviço da nuvem, para manter a plataforma em funcionamento, no</t>
+          <t>A plataforma, inicialmente, deverá funcionar em uma infraestrutura de nuvem dedicada e controlada pela contratada na forma de PaaS (Paltaform as a Service).</t>
         </is>
       </c>
     </row>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ao ﬁm da relação contratual deve ser possível con Ɵnuar uƟlizando todas as aplicações que foram desenvolvidas na plataforma. Deverá ser possível a execução e a</t>
+          <t>A implantação em infraestrutura de nuvem deve ser de tal forma que a ANS possa contratar o serviço da nuvem, para manter a plataforma em funcionamento, no caso da não con Ɵnuidade dos serviços como PaaS, ou não con Ɵnuidade dos serviços de atualização e manutenção da plataforma.</t>
         </is>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Em geral, os serviços deverão ser prestados de forma remota, podendo ser necessário, em alguns casos, a prestação presencial na sede da ANS, conforme indicado</t>
+          <t>Ao ﬁm da relação contratual deve ser possível con Ɵnuar uƟlizando todas as aplicações que foram desenvolvidas na plataforma. Deverá ser possível a execução e a manutenção dessas aplicações, sem dependências técnicas com bibliotecas ou componentes proprietários ou interpretadores de exclusividade do fornecedor, ou seja, não deve haver vendor lock-in.</t>
         </is>
       </c>
     </row>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Para o contato a distância dos proﬁssionais da contratada com os proﬁssionais da contratante, deverá ser u Ɵlizada a ferramenta de comunicação on-line deﬁnida</t>
+          <t>Em geral, os serviços deverão ser prestados de forma remota, podendo ser necessário, em alguns casos, a prestação presencial na sede da ANS, conforme indicado pela contratante na solicitação.</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>A responsabilidade pela disponibilização de ferramenta de comunicação aos proﬁssionais da contratada, conforme citado acima, é da própria contratada.</t>
+          <t>Para o contato a distância dos proﬁssionais da contratada com os proﬁssionais da contratante, deverá ser u Ɵlizada a ferramenta de comunicação on-line deﬁnida pela contratante. Atualmente a ANS u Ɵliza o TEAMS, podendo alterar a ferramenta a qualquer momento.</t>
         </is>
       </c>
     </row>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>A solução deve ter suporte a plataforma no território brasileiro através de meios próprios ou de parceiros.</t>
+          <t>A responsabilidade pela disponibilização de ferramenta de comunicação aos proﬁssionais da contratada, conforme citado acima, é da própria contratada.</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Excetuando-se alguns dos serviços do Item 1 do Grupo 1 os demais são solicitados por ordens de serviço (OS), e considera-se a mensagem eletrônica (e-mail) como</t>
+          <t>A solução deve ter suporte a plataforma no território brasileiro através de meios próprios ou de parceiros.</t>
         </is>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Em geral, os serviços do Item 1 do Grupo 1 não requerem OS, pois são de execução única, con Ɵnuada ou dependente de evento externo acompanhado pela própria</t>
+          <t>Excetuando-se alguns dos serviços do Item 1 do Grupo 1 os demais são solicitados por ordens de serviço (OS), e considera-se a mensagem eletrônica (e-mail) como OS, desde que contenha as seguintes caracterís Ɵcas: . Ter como remetente um dos membros da EGC (equipe de gestão do contrato), ou sistema de apoio à gestão de contratos da contratante; Ter sido encaminhado para o e-mail padrão da empresa, conforme deﬁnido neste TR (Termo de Referência); . Especiﬁcar o item de serviço: Apoio especializado, Migração, Desenvolvimento de aplicações; . Informar o Tipo da demanda, conforme as tabelas abaixo, exceto para o Desenvolvimento de aplicações; Informar o prazo previsto, conforme as tabelas e deﬁnições abaixo;SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 13 of 46 07/08/2023 14:26. Informar a data e hora (quando esta for relevante) em que se deve dar o início da execução; . Para os serviços de Desenvolvimento de aplicações, deve constar: composição do Ɵme ágil (perﬁl, quan Ɵdade e taxa de alocação) e os produtos/resultados a serem entregues.</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>O descumprimento dos prazos previstos abaixo, assim como a má qualidade dos serviços prestados, poderão acarretar em penalidades e glosas conforme deﬁnidos</t>
+          <t>Em geral, os serviços do Item 1 do Grupo 1 não requerem OS, pois são de execução única, con Ɵnuada ou dependente de evento externo acompanhado pela própria contratada. Porém, alguns requerem solicitação, conforme mostram as subseções abaixo.</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>O início da execução dos serviços é considerado a par Ɵr do momento em que efe Ɵvamente começa o trabalho dos técnicos da contratada junto aos técnicos ou</t>
+          <t>O descumprimento dos prazos previstos abaixo, assim como a má qualidade dos serviços prestados, poderão acarretar em penalidades e glosas conforme deﬁnidos neste TR.</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Caracterís Ɵcas da Plataforma, Infraestrutura e Segurança</t>
+          <t>O início da execução dos serviços é considerado a par Ɵr do momento em que efe Ɵvamente começa o trabalho dos técnicos da contratada junto aos técnicos ou usuários da contratante, ou quando iniciam as alterações nas ferramentas.</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>A plataforma deve ser capaz de funcionar em nuvem pública, privada e on-premise, e também de trabalhar de forma híbrida.</t>
+          <t>Caracterís Ɵcas da Plataforma, Infraestrutura e Segurança</t>
         </is>
       </c>
     </row>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>A ferramenta pode ser uma plataforma completa, com todas as funcionalidades na Ɵvas, ou ser composta por diversas ferramentas integradas para fornecer todas as</t>
+          <t>A plataforma deve ser capaz de funcionar em nuvem pública, privada e on-premise, e também de trabalhar de forma híbrida.</t>
         </is>
       </c>
     </row>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>No caso de ferramentas integradas, elas deverão ser livres de licença, ou garan Ɵdas pela distribuição da contratada, não sendo a contratante responsável por</t>
+          <t>A ferramenta pode ser uma plataforma completa, com todas as funcionalidades na Ɵvas, ou ser composta por diversas ferramentas integradas para fornecer todas as funcionalidades descritas neste documento. Mas, deve possuir uma interface única para desenvolvimento de aplicações com Camada de Dados, Lógica, Front End, Workﬂows, serviços web e com as facilidades de CI&amp;CD (DevOps) e testes automa Ɵzados suportando todo o ciclo de vida da aplicação.</t>
         </is>
       </c>
     </row>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Além disso, deve estar claro que a integração tem de ser transparente para os usuários, como se fosse uma única ferramenta. Havendo qualquer necessidade de</t>
+          <t>No caso de ferramentas integradas, elas deverão ser livres de licença, ou garan Ɵdas pela distribuição da contratada, não sendo a contratante responsável por qualquer ônus a mais do que os deﬁnidos neste TR.</t>
         </is>
       </c>
     </row>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Capacidade de desenvolvimento, disponibilização e administração de aplicações de forma simples e totalmente integrada.</t>
+          <t>Além disso, deve estar claro que a integração tem de ser transparente para os usuários, como se fosse uma única ferramenta. Havendo qualquer necessidade de disƟnção entre ferramentas por qualquer mo Ɵvo, a plataforma será considerada inadequada para a contratante.</t>
         </is>
       </c>
     </row>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Possibilidade de ter diversos ambiente como, por exemplo, Desenvolvimento, Homologação, Teste e Produção na mesma plataforma e de criar outros ambientes,</t>
+          <t>Capacidade de desenvolvimento, disponibilização e administração de aplicações de forma simples e totalmente integrada.</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Gestão de usuários com diferentes perﬁs como desenvolvedor, administrador e usuário ﬁnal, permi Ɵndo restringir ou fornecer acessos conforme o perﬁl.</t>
+          <t>Possibilidade de ter diversos ambiente como, por exemplo, Desenvolvimento, Homologação, Teste e Produção na mesma plataforma e de criar outros ambientes, conforme necessidade, sem custos adicionais para a contratante.</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Possibilidade de restringir acesso a projetos por equipe, ou seja, um desenvolvedor, ou equipe de desenvolvedores, pode ter acesso a alguns projetos e aplicações e</t>
+          <t>Gestão de usuários com diferentes perﬁs como desenvolvedor, administrador e usuário ﬁnal, permi Ɵndo restringir ou fornecer acessos conforme o perﬁl.</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Possibilidade de restringir acesso para execução de deploys nos diversos ambientes (desenvolvimento, homologação, produção etc.).</t>
+          <t>Possibilidade de restringir acesso a projetos por equipe, ou seja, um desenvolvedor, ou equipe de desenvolvedores, pode ter acesso a alguns projetos e aplicações e não ter a outros.</t>
         </is>
       </c>
     </row>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Gerenciamento do por ƞólio de aplicações em todos os ambientes de forma a facilitar a análise de impactos e dependências.</t>
+          <t>Possibilidade de restringir acesso para execução de deploys nos diversos ambientes (desenvolvimento, homologação, produção etc.).</t>
         </is>
       </c>
     </row>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Controle automa Ɵzado de todas as fases de desenvolvimento de aplicações (DevOps), incluindo os testes e até a publicação em ambiente de produção.</t>
+          <t>Gerenciamento do por ƞólio de aplicações em todos os ambientes de forma a facilitar a análise de impactos e dependências.</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Gestão de processos e regras de negócio (BPM) de forma visual e integrada ao ambiente de desenvolvimento e com rastreabilidade.</t>
+          <t>Controle automa Ɵzado de todas as fases de desenvolvimento de aplicações (DevOps), incluindo os testes e até a publicação em ambiente de produção.</t>
         </is>
       </c>
     </row>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Possibilidade de desenvolvimento de aplicações por pessoas que não sejam proﬁssionais técnicos (ci Ɵzen developer), de forma visual (drag and drop) e sem</t>
+          <t>Gestão de processos e regras de negócio (BPM) de forma visual e integrada ao ambiente de desenvolvimento e com rastreabilidade.</t>
         </is>
       </c>
     </row>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Possibilidade de implementação de layouts visando a usabilidade e experiência do usuário através de técnicas e modelos conhecidos e fornecidos na ferramenta.</t>
+          <t>Possibilidade de desenvolvimento de aplicações por pessoas que não sejam proﬁssionais técnicos (ci Ɵzen developer), de forma visual (drag and drop) e sem necessidade de alterações em código fonte (no-code).</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Facilidade para criação de aplicações web e móveis, e aplicações PWA (“Progressive Web Applica Ɵon”), que sejam responsivas e se adaptem aos diversos Ɵpos de</t>
+          <t>Possibilidade de implementação de layouts visando a usabilidade e experiência do usuário através de técnicas e modelos conhecidos e fornecidos na ferramenta.</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Capacidade de desenvolver aplicações que trabalhem oﬀ-line no disposi Ɵvo, uƟlizando banco de dados local, e que sejam capazes de sincronizar automa Ɵcamente</t>
+          <t>Facilidade para criação de aplicações web e móveis, e aplicações PWA (“Progressive Web Applica Ɵon”), que sejam responsivas e se adaptem aos diversos Ɵpos de disposiƟvos (computadores, tablets, smartphones etc.), além de serem compa Ɵveis, no mínimo, com os navegadores Google Chrome, Mozilla Firefox e Microso Ō Edge, e disposiƟvos Android e iOS em suas versões estáveis mais recentes, com capacidade de u Ɵlizar os recursos na Ɵvos dos disposi Ɵvos como câmera, geolocalização, microfone etc.</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Facilitar a distribuição das aplicações móveis nas principais lojas do mercado de disposi Ɵvos, atualmente Android e iOS.</t>
+          <t>Capacidade de desenvolver aplicações que trabalhem oﬀ-line no disposi Ɵvo, uƟlizando banco de dados local, e que sejam capazes de sincronizar automa Ɵcamente com o servidor quando o disposi Ɵvo esƟver on-line.</t>
         </is>
       </c>
     </row>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>U Ɵlizar tecnologias atuais para desenvolvimento web e móvel com layout responsivo como HTML5/REACT JS, CSS3/SASS etc. (mantendo a plataforma sempre</t>
+          <t>Facilitar a distribuição das aplicações móveis nas principais lojas do mercado de disposi Ɵvos, atualmente Android e iOS.</t>
         </is>
       </c>
     </row>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Geração de aplica Ɵvos usando tecnologia padronizada pelo W3C, sem depender de plug-ins ou extensões proprietárias como Java Applets, Java Web Start, Flash,</t>
+          <t>U Ɵlizar tecnologias atuais para desenvolvimento web e móvel com layout responsivo como HTML5/REACT JS, CSS3/SASS etc. (mantendo a plataforma sempre atualizada a novas versões) sem necessidade de codiﬁcação, u Ɵlizando-se de modelos e aceleradores.</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Possuir ferramenta visual para criação e manipulação de bases de dados, permi Ɵndo criar e alterar as estruturas de objetos do banco (tabelas, views, campos,</t>
+          <t>Geração de aplica Ɵvos usando tecnologia padronizada pelo W3C, sem depender de plug-ins ou extensões proprietárias como Java Applets, Java Web Start, Flash, Shockwave ou Silverlight.</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Possibilitar criação de consultas dinâmicas e o Ɵmizadas sem a necessidade de escrever código SQL, contendo os recursos de agrupamento, ordenação, contagem e</t>
+          <t>Possuir ferramenta visual para criação e manipulação de bases de dados, permi Ɵndo criar e alterar as estruturas de objetos do banco (tabelas, views, campos, chaves, índices etc.), relacionamentos etc., além de permi Ɵr a manipulação dos dados.</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Possibilitar visualização prévia das consultas a banco de dados em tempo de desenvolvimento permi Ɵndo ao desenvolvedor aferir, tanto a consulta, quanto o</t>
+          <t>Possibilitar criação de consultas dinâmicas e o Ɵmizadas sem a necessidade de escrever código SQL, contendo os recursos de agrupamento, ordenação, contagem e realização de ﬁltros.</t>
         </is>
       </c>
     </row>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Possibilitar criação de aplicação com base de dados criada através de exportação de arquivos de planilha ou .CSV criando e executando automa Ɵcamente a lógica</t>
+          <t>Possibilitar visualização prévia das consultas a banco de dados em tempo de desenvolvimento permi Ɵndo ao desenvolvedor aferir, tanto a consulta, quanto o funcionamento da aplicação que está sendo desenvolvida.</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Permi Ɵr a simulação da execução do aplica Ɵvo móvel desenvolvido por meio da plataforma em um navegador de internet com a possibilidade de simular os gestos e</t>
+          <t>Possibilitar criação de aplicação com base de dados criada através de exportação de arquivos de planilha ou .CSV criando e executando automa Ɵcamente a lógica necessária para a importação dos dados e u Ɵlizando-se de aceleradores que agilizem o desenvolvimento das telas e seus componentes visuais.</t>
         </is>
       </c>
     </row>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Facilidade para criação, consumo e exposição de serviços web nos padrões REST e SOAP, sem necessidade de alteração em código fonte (no-code). Mas, também,</t>
+          <t>Permi Ɵr a simulação da execução do aplica Ɵvo móvel desenvolvido por meio da plataforma em um navegador de internet com a possibilidade de simular os gestos e ações realizadas no disposi Ɵvo, de forma que seja possível realizar testes no aplica Ɵvo e validar a experiência de uso junto aos usuários.</t>
         </is>
       </c>
     </row>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Facilidade na reu Ɵlização de componentes de aplicações (telas, tabelas de banco de dados, serviços web etc.) e catalogação dos mesmos na plataforma por</t>
+          <t>Facilidade para criação, consumo e exposição de serviços web nos padrões REST e SOAP, sem necessidade de alteração em código fonte (no-code). Mas, também, ter a possibilidade de alteração de código fonte (low-code). 2.3.2.18.1.  Devem ser obedecidos os padrões de notação das tecnologias e documentações envolvidas neste Ɵpo de aplicação, tais como WSDL, JSON, Swagger etc.</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Criação, manutenção e versionamento de códigos fonte e artefatos de projetos, aplicações e componentes sem necessidade de ferramentas externas à plataforma.</t>
+          <t>Facilidade na reu Ɵlização de componentes de aplicações (telas, tabelas de banco de dados, serviços web etc.) e catalogação dos mesmos na plataforma por aplicação, indicando seus quan ƟtaƟvos.</t>
         </is>
       </c>
     </row>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Ferramenta para geração de documentação das aplicações e projeto, inclusive descri Ɵvos de processos de negócio, en Ɵdades de banco de dados e seus</t>
+          <t>Criação, manutenção e versionamento de códigos fonte e artefatos de projetos, aplicações e componentes sem necessidade de ferramentas externas à plataforma. PermiƟndo aos usuários o acesso a seus próprios artefatos (fontes, telas, ﬂuxos etc.), mas também a objetos criados por outros usuários. Devendo possibilitar a navegação pelas diversas versões, com informação de data, hora e usuário que publicou, e também a reversão de publicação de versões de artefatos e aplicações em execução (rollback, inclusive do banco de dados).</t>
         </is>
       </c>
     </row>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Possibilidade de trabalho em equipe nos projetos, permi Ɵndo que dois ou mais desenvolvedores acessem e façam alterações, em aplicações e outros artefatos do</t>
+          <t>Ferramenta para geração de documentação das aplicações e projeto, inclusive descri Ɵvos de processos de negócio, en Ɵdades de banco de dados e seus relacionamentos, mantendo a devida rastreabilidade entre documentação, aplicações e negócio.</t>
         </is>
       </c>
     </row>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Permi Ɵr a depuração das aplicações de forma visual e independente para cada usuário da plataforma poder acompanhar o passo a passo de execução de sua</t>
+          <t>Possibilidade de trabalho em equipe nos projetos, permi Ɵndo que dois ou mais desenvolvedores acessem e façam alterações, em aplicações e outros artefatos do projeto, ao mesmo tempo.</t>
         </is>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Funcionalidade de desenvolvimento assis Ɵdo (Inteligência Ar Ɵﬁcial) que avalia a aplicação em tempo de desenvolvimento, com o obje Ɵvo de detectar desvios das</t>
+          <t>Permi Ɵr a depuração das aplicações de forma visual e independente para cada usuário da plataforma poder acompanhar o passo a passo de execução de sua aplicação dentro dos modelos visuais e ﬂuxogramas desenvolvidos, possibilitando a concorrência, ou seja, mais de um usuário pode depurar a mesma aplicação ao mesmo tempo. Permi Ɵndo acompanhar o passo a passo de execução das variáveis das aplicações, tanto web, quanto móveis.</t>
         </is>
       </c>
     </row>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Possibilidade de criar, de forma rápida e fácil, aplicações que u Ɵlizem cer Ɵﬁcação digital, enviem e-mail e sms, além de aplicações com controle de acesso,</t>
+          <t>Funcionalidade de desenvolvimento assis Ɵdo (Inteligência Ar Ɵﬁcial) que avalia a aplicação em tempo de desenvolvimento, com o obje Ɵvo de detectar desvios das boas práƟcas e os corrigindo, agilizando assim o processo de desenvolvimento e melhorando a qualidade das aplicações.</t>
         </is>
       </c>
     </row>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Execução automá Ɵca de testes unitários, funcionais e de segurança (baseado em padrões internacionalmente reconhecidos como OWASP) de forma integrada à</t>
+          <t>Possibilidade de criar, de forma rápida e fácil, aplicações que u Ɵlizem cer Ɵﬁcação digital, enviem e-mail e sms, além de aplicações com controle de acesso, autenƟcação e autorização centralizados.SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 14 of 46 07/08/2023 14:262.3.2.26. Permi Ɵr a criação e execução na plataforma de regras de negócio agendadas de forma assíncrona e processamento batch u Ɵlizando-se de recursos de processamento paralelo para garan Ɵr performance.</t>
         </is>
       </c>
     </row>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Realização constante de validações sintá Ɵcas e semân Ɵcas, informando o desenvolvedor de possíveis erros e vulnerabilidades na aplicação em desenvolvimento,</t>
+          <t>Execução automá Ɵca de testes unitários, funcionais e de segurança (baseado em padrões internacionalmente reconhecidos como OWASP) de forma integrada à plataforma, a ﬁm de prevenir possíveis erros do desenvolvedor, tanto em relação a codiﬁcação, quanto à lógica de negócio, integridade de dados e segurança.</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Ambiente fácil e intui Ɵvo para o desenvolvedor programar em código fonte, high code, se necessário.</t>
+          <t>Realização constante de validações sintá Ɵcas e semân Ɵcas, informando o desenvolvedor de possíveis erros e vulnerabilidades na aplicação em desenvolvimento, corrigindo automa Ɵcamente ou informando ao usuário para realizar as correções em qualquer parte, seja em interface, lógica de negócio, processo de negócio, base de dados etc. Além de prevenir ameaças de segurança out-of-the-box, como SQL injec Ɵon, cross-site scrip Ɵng e demais ameaças listadas na lista da OWASP, tanto para web, quanto para disposi Ɵvos móveis, bloqueando a publicação de aplicações que contenham problemas.</t>
         </is>
       </c>
     </row>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Capacidade de exportar os códigos fontes das aplicações, sem componentes proprietários, organizados e o Ɵmizados, em linguagem de programação Java ou uma</t>
+          <t>Ambiente fácil e intui Ɵvo para o desenvolvedor programar em código fonte, high code, se necessário.</t>
         </is>
       </c>
     </row>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Administração de aplicações em ambiente de produção de forma a minimizar ao máximo o risco de indisponibilidade.</t>
+          <t>Capacidade de exportar os códigos fontes das aplicações, sem componentes proprietários, organizados e o Ɵmizados, em linguagem de programação Java ou uma das uƟlizadas no framework .NET, podendo ser compilado e executado nos servidores de aplicação do órgão.</t>
         </is>
       </c>
     </row>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Fornecimento de relatórios de execução e desempenho, tanto da plataforma, quanto das aplicações que estão rodando nos diversos ambientes, principalmente em</t>
+          <t>Administração de aplicações em ambiente de produção de forma a minimizar ao máximo o risco de indisponibilidade.</t>
         </is>
       </c>
     </row>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Permi Ɵr o monitoramento das aplicações desenvolvidas, de maneira que seja possível veriﬁcar a ocorrência de erros, o desempenho de telas, consultas a banco de</t>
+          <t>Fornecimento de relatórios de execução e desempenho, tanto da plataforma, quanto das aplicações que estão rodando nos diversos ambientes, principalmente em produção.</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Prover um dashboard centralizado que permite a análise visual do nível de performance do por ƞólio das aplicações web responsivas ao longo do tempo. Deve</t>
+          <t>Permi Ɵr o monitoramento das aplicações desenvolvidas, de maneira que seja possível veriﬁcar a ocorrência de erros, o desempenho de telas, consultas a banco de dados, chamadas a serviços SOAP e REST, envios de mensagens de e-mail e SMS, entre outras funções, por meio de relatórios gerados automa Ɵcamente sem que seja necessário o desenvolvimento destas funções de monitoramento.</t>
         </is>
       </c>
     </row>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Possibilidade de desenvolvimento de aplicações fora das dependências do órgão de forma segura, sem necessidade de VPN.</t>
+          <t>Prover um dashboard centralizado que permite a análise visual do nível de performance do por ƞólio das aplicações web responsivas ao longo do tempo. Deve permiƟr o drill down (detalhamento) da análise para uma aplicação ou página em par Ɵcular.</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Integração com os serviços do Ac Ɵve Directory para auten Ɵcação e autorização de aplicações e compa Ɵbilidade com os padrões Oauth 2.0 e OpenID-connect.</t>
+          <t>Possibilidade de desenvolvimento de aplicações fora das dependências do órgão de forma segura, sem necessidade de VPN.</t>
         </is>
       </c>
     </row>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Compa Ɵbilidade com diversos gerenciadores de banco de dados, sendo obrigatória com Oracle e MySQL, para uso das aplicações criadas na plataforma.</t>
+          <t>Integração com os serviços do Ac Ɵve Directory para auten Ɵcação e autorização de aplicações e compa Ɵbilidade com os padrões Oauth 2.0 e OpenID-connect.</t>
         </is>
       </c>
     </row>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>A plataforma deve ser independente de tecnologias proprietárias de terceiros, tais como, servidores de aplicações ou interpretadores.</t>
+          <t>Compa Ɵbilidade com diversos gerenciadores de banco de dados, sendo obrigatória com Oracle e MySQL, para uso das aplicações criadas na plataforma.</t>
         </is>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Prover um mecanismo de feedback, permi Ɵndo que usuários de negócio possam fazer comentários e anotações na aplicação, possibilitando aos desenvolvedores</t>
+          <t>A plataforma deve ser independente de tecnologias proprietárias de terceiros, tais como, servidores de aplicações ou interpretadores.</t>
         </is>
       </c>
     </row>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Prevenção de segurança, tanto para a plataforma, quanto para as aplicações nela desenvolvidas, contra acessos indevidos e ameaças, como ﬁshing, ataques DDoS,</t>
+          <t>Prover um mecanismo de feedback, permi Ɵndo que usuários de negócio possam fazer comentários e anotações na aplicação, possibilitando aos desenvolvedores acompanharem.</t>
         </is>
       </c>
     </row>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Permi Ɵr a deﬁnição do nível de segurança de páginas por meio do uso de HTTPS e SSL, com ou sem cer Ɵﬁcado do cliente, assim como alertar sobre possíveis</t>
+          <t>Prevenção de segurança, tanto para a plataforma, quanto para as aplicações nela desenvolvidas, contra acessos indevidos e ameaças, como ﬁshing, ataques DDoS, diversos Ɵpos de malwares, e qualquer outro Ɵpo de perigo que possa colocar em risco o bom funcionamento dos sistemas da contratante, conforme deﬁnições OWASP, cerƟﬁcações ISO e CSA, tanto para web, quanto para aplica Ɵvos móveis.</t>
         </is>
       </c>
     </row>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Disponibilizar repositório de componentes, conectores, widgets, no modelo de Marketplace, sem a necessidade de duplicação de código, contendo objetos</t>
+          <t>Permi Ɵr a deﬁnição do nível de segurança de páginas por meio do uso de HTTPS e SSL, com ou sem cer Ɵﬁcado do cliente, assim como alertar sobre possíveis vulnerabilidades em relação a injeção de código (SQL, HTML e JavaScript), possuir mecanismos de proteção dos aplica Ɵvos contra ataques de força bruta na auten Ɵcação, gerenciar a auten Ɵcação no disposi Ɵvo móvel para garan Ɵr a segurança das transações com o servidor, entre outros recursos.</t>
         </is>
       </c>
     </row>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Todos os elementos que forem u Ɵlizados nos aplica Ɵvos da contratante devem ser livres de licença, ser de propriedade da contratante ou ter permissão para uso</t>
+          <t>Disponibilizar repositório de componentes, conectores, widgets, no modelo de Marketplace, sem a necessidade de duplicação de código, contendo objetos desenvolvidos pela comunidade, objetos desenvolvidos pela contratada e objetos que a contratante criar (de forma segura) com controle de versionamento para reuso e aceleração do desenvolvimento de aplicações para a contratante.</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>O provedor do serviço deve possuir as seguintes cer Ɵﬁcações ISO 27001, 27017 e 27018.</t>
+          <t>Todos os elementos que forem u Ɵlizados nos aplica Ɵvos da contratante devem ser livres de licença, ser de propriedade da contratante ou ter permissão para uso permanente sem qualquer ônus, salvo componentes que, para funcionar, requeiram contratação de serviço de terceiros (como push no ƟﬁcaƟon ou outros serviços de nuvem, por exemplo). Apenas estes serviços, caso haja interesse da contratante, podem ser contratados de seus respec Ɵvos fornecedores.</t>
         </is>
       </c>
     </row>
@@ -5949,7 +5949,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>O provedor do serviço deve ser membro da CSA (Cloud Security Alliance) ou possuir cer Ɵﬁcação CSA STAR.</t>
+          <t>O provedor do serviço deve possuir as seguintes cer Ɵﬁcações ISO 27001, 27017 e 27018.</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>JUSTIFICATIVA PARA A CONTRATAÇÃO</t>
+          <t>O provedor do serviço deve ser membro da CSA (Cloud Security Alliance) ou possuir cer Ɵﬁcação CSA STAR.</t>
         </is>
       </c>
     </row>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Contextualização e Jus ƟﬁcaƟva da Contratação</t>
+          <t>JUSTIFICATIVA PARA A CONTRATAÇÃO</t>
         </is>
       </c>
     </row>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Atualmente toda ins Ɵtuição no mundo requer, para servir bem aos propósitos a que foram criadas, soluções de so Ōware que automa Ɵzem suas a Ɵvidades e propiciem</t>
+          <t>Contextualização e Jus ƟﬁcaƟva da Contratação</t>
         </is>
       </c>
     </row>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>A ANS vem, desde 2011, buscando melhorias no processo de desenvolvimento de sistemas, em vista a adequar-se às legislações e normas per Ɵnentes, reduzir o prazo</t>
+          <t>Atualmente toda ins Ɵtuição no mundo requer, para servir bem aos propósitos a que foram criadas, soluções de so Ōware que automa Ɵzem suas a Ɵvidades e propiciem a melhor forma para o acesso e gestão da informação. Seguindo os avanços tecnológicos é possível agregar mais valor e tornar os serviços das organizações mais eﬁcientes.</t>
         </is>
       </c>
     </row>
@@ -6009,7 +6009,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Em vista disso, adotou-se há alguns anos a metodologia de desenvolvimento ágil, que cumpriu seu papel e ajudou a reduzir prazos de entrega e algumas outras</t>
+          <t>A ANS vem, desde 2011, buscando melhorias no processo de desenvolvimento de sistemas, em vista a adequar-se às legislações e normas per Ɵnentes, reduzir o prazo de entrega dos projetos e garan Ɵr a qualidade das aplicações construídas.</t>
         </is>
       </c>
     </row>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Neste contexto que entram as plataformas low-code, com sua capacidade de tornar mais célere a construção do so Ōware e sua entrada em produção, u Ɵlizando-se de</t>
+          <t>Em vista disso, adotou-se há alguns anos a metodologia de desenvolvimento ágil, que cumpriu seu papel e ajudou a reduzir prazos de entrega e algumas outras melhorias, até chegar a um limite em que a metodologia por si só não consegue mais avançar.</t>
         </is>
       </c>
     </row>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Devido aos riscos levantados no estudo técnico preliminar elaborado no planejamento desta contratação, e com base nos princípios da Economicidade e Eﬁciência,</t>
+          <t>Neste contexto que entram as plataformas low-code, com sua capacidade de tornar mais célere a construção do so Ōware e sua entrada em produção, u Ɵlizando-se de ferramentas visuais para fácil desenvolvimento das aplicações e de esteira DevOps (CI&amp;CD) que automa Ɵza a implantação destas nos diversos ambientes (desenvolvimento, homologação, produção etc.).</t>
         </is>
       </c>
     </row>
@@ -6045,7 +6045,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Devido às diﬁculdades encontradas no passado com contratações mensuradas em pontos de função e aos acórdãos 2.037/2019 e 1.508/2020 do Plenário do TCU, que</t>
+          <t>Devido aos riscos levantados no estudo técnico preliminar elaborado no planejamento desta contratação, e com base nos princípios da Economicidade e Eﬁciência, constatou-se a necessidade de obtenção de uso não limitado da plataforma, de capacidade de migração da plataforma e das aplicações desenvolvidas, e de manter serviços de manutenção e atualização da mesma por um período de 5 anos (60 meses), a ﬁm de garan Ɵr a conƟnuidade dos serviços do órgão. Esta decisão tem amparo legal no art. 57 da lei 8.666/1993 e no item 12 do ANEXO IX da IN 05/2017.</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Alinhamento aos Instrumentos de Planejamento Ins Ɵtucionais</t>
+          <t>Devido às diﬁculdades encontradas no passado com contratações mensuradas em pontos de função e aos acórdãos 2.037/2019 e 1.508/2020 do Plenário do TCU, que evidenciaram problemas na u Ɵlização de UST e suas variantes em outras en Ɵdades da administração pública, a ANS decidiu não u Ɵlizá-las. A portaria 5.651/2022 da SGD/ME, em seu ar Ɵgo 5.1.2, deﬁniu algumas das possíveis formas de mensuração de so Ōware para ﬁns de pagamento, dentre elas a agência escolheu a de sprint executada.</t>
         </is>
       </c>
     </row>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Esta contratação está alinhada aos seguintes instrumentos de planejamento ins Ɵtucional:</t>
+          <t>Alinhamento aos Instrumentos de Planejamento Ins Ɵtucionais</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>EsƟmaƟva de demanda</t>
+          <t>Esta contratação está alinhada aos seguintes instrumentos de planejamento ins Ɵtucional: Planejamento Estratégico 2021/2024 Dimensão Obje Ɵvo Estratégico Processos Internos Aprimorar os processos crí Ɵcos de trabalho Infraestrutura e Aprendizagem Modernizar e ampliar os recursos de TIC com foco na transformação digital PDTIC 2020/2021 ObjeƟvoAprimorar a eﬁciência das entregas de desenvolvimento e interoperabilidade com os sistemas GovBr e os regulados Ação Elaboração de nova contratação de desenvolvimento: Estudo, planejamento e contratação Meta GaranƟr a eﬁciência das entregas do desenvolvimento</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>A esƟmaƟva de demanda está descrita no APÊNDICE II do TR.</t>
+          <t>EsƟmaƟva de demanda</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Parcelamento da Solução de TICSEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w...</t>
+          <t>A esƟmaƟva de demanda está descrita no APÊNDICE II do TR.</t>
         </is>
       </c>
     </row>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Resultados e Bene İcios a Serem Alcançados</t>
+          <t>Parcelamento da Solução de TICSEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 15 of 46 07/08/2023 14:263.6. A solução desta contratação está parcelada em dois grupos, pois veriﬁcou-se através do Estudo Técnico Preliminar que é técnica e economicamente viável, tendo vistas ao melhor aproveitamento dos recursos disponíveis, e a ampliação da compe ƟƟvidade sem perda da economia de escala,  sendo mais vantajosa para a Administração.</t>
         </is>
       </c>
     </row>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Espera-se com essa contratação, que a ANS seja capaz de agilizar seu processo de transição digital, melhorando a automação dos processos existentes com o</t>
+          <t>Resultados e Bene İcios a Serem Alcançados</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ESPECIFICAÇÃO DOS REQUISITOS DA CONTRATAÇÃO</t>
+          <t>Espera-se com essa contratação, que a ANS seja capaz de agilizar seu processo de transição digital, melhorando a automação dos processos existentes com o desenvolvimento rápido de aplicações novas e também com a capacidade de refazer rapidamente sistemas existentes que não se adequam mais às necessidades das áreas de negócio. Além disso, visa-se também a melhoria na comunicação entre a agência, os entes regulados e a sociedade em geral. Em termos de TI, espera-se que essa agilidade melhore sua imagem frente às demais áreas do órgão e que daqui há alguns anos a manutenção dos sistemas e toda a infraestrutura que os suporta se torne mais simples e mais bem controlada. Estas são metas ambiciosas, mas que são possíveis de a Ɵngir se forem planejados, realizados e executados projetos especíﬁcos para este propósito. Isto, é claro, depende do apoio de toda a administração do órgão e do empenho da TI. Além disso, espera-se também conseguir demonstrar a viabilidade de uma forma mais simples de mensurar o desenvolvimento de aplicações, a ser u Ɵlizada em contratações de desenvolvimento e manutenção de sistemas. Talvez a metodologia possa ser, no futuro, extrapolada para desenvolvimento em ambientes não low-code.</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Requisitos de Negócio</t>
+          <t>ESPECIFICAÇÃO DOS REQUISITOS DA CONTRATAÇÃO</t>
         </is>
       </c>
     </row>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Necessidade de automação e/ou melhoria na automação dos processo de trabalho das diversas áreas.</t>
+          <t>Requisitos de Negócio</t>
         </is>
       </c>
     </row>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Necessidade de melhoria na troca de informações com os entes regulados e a sociedade em geral u Ɵlizando-se de sistemas de informação.</t>
+          <t>Necessidade de automação e/ou melhoria na automação dos processo de trabalho das diversas áreas.</t>
         </is>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Desenvolvimento de diversas aplicações novas, além de manutenções evolu Ɵvas, corre Ɵvas e adapta Ɵvas para adequação aos processos das áreas de negócio e da TI.</t>
+          <t>Necessidade de melhoria na troca de informações com os entes regulados e a sociedade em geral u Ɵlizando-se de sistemas de informação.</t>
         </is>
       </c>
     </row>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Requisitos de capacitação</t>
+          <t>Desenvolvimento de diversas aplicações novas, além de manutenções evolu Ɵvas, corre Ɵvas e adapta Ɵvas para adequação aos processos das áreas de negócio e da TI.</t>
         </is>
       </c>
     </row>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Em face da natureza dos serviços a serem contratados, que exige rápida e permanente atualização frente às novas tecnologias de informação, e visando manter a</t>
+          <t>Requisitos de capacitação</t>
         </is>
       </c>
     </row>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>A CONTRATANTE deverá informar à CONTRATADA qualquer subs Ɵtuição de ferramenta, so Ōware básico, sistemas operacionais, metodologias e outros com</t>
+          <t>Em face da natureza dos serviços a serem contratados, que exige rápida e permanente atualização frente às novas tecnologias de informação, e visando manter a qualidade da sua prestação durante o período de vigência contratual, a CONTRATADA deverá manter o seu pessoal atualizado por meio de treinamento e reciclagem, de acordo com os serviços, programas computacionais, sistemas operacional, so Ōwares básicos e/ou metodologias/melhores prá Ɵcas que sejam de u Ɵlização da ANS.</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>A contratada poderá solicitar adequação dos proﬁssionais quanto a u Ɵlização de novas tecnologias, ferramentas de apoio, gerenciamento de projeto, desenvolvimento</t>
+          <t>A CONTRATANTE deverá informar à CONTRATADA qualquer subs Ɵtuição de ferramenta, so Ōware básico, sistemas operacionais, metodologias e outros com antecedência de 30 (trinta) dias corridos.</t>
         </is>
       </c>
     </row>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Uma lista exemplo seria: metodologia ágil, análise de ponto de função, suporte à requisitos, controle de versionamento, ferramentas de apoio e automa Ɵzação de</t>
+          <t>A contratada poderá solicitar adequação dos proﬁssionais quanto a u Ɵlização de novas tecnologias, ferramentas de apoio, gerenciamento de projeto, desenvolvimento de sistemas, aplicações, sistemas operacionais, monitoramento ou servidores de aplicação, que a CONTRATANTE julgar per Ɵnente à qualidade de execução dos serviços.</t>
         </is>
       </c>
     </row>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>As ações de treinamento/reciclagem serão de responsabilidade da Contratada, e não deverá constar em sua planilha de custos, uma vez que existe vedação legal ao</t>
+          <t>Uma lista exemplo seria: metodologia ágil, análise de ponto de função, suporte à requisitos, controle de versionamento, ferramentas de apoio e automa Ɵzação de testes de qualidade e performance. Sendo esta, uma lista exemplo e não exaus Ɵva.</t>
         </is>
       </c>
     </row>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Requisitos Legais</t>
+          <t>As ações de treinamento/reciclagem serão de responsabilidade da Contratada, e não deverá constar em sua planilha de custos, uma vez que existe vedação legal ao pagamento de cursos e treinamentos para terceirizados pela Administração Pública, não podendo haver, portanto, qualquer ônus adicional à Contratante.</t>
         </is>
       </c>
     </row>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Lei de licitações e contratos administra Ɵvos 8.666 de 21 de junho de 1993. 4.3.2. Lei nº 10.520/2002.</t>
+          <t>Requisitos Legais</t>
         </is>
       </c>
     </row>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Instrução norma Ɵva nº 1 de 4 de abril de 2019 do Ministério da Economia (ME).</t>
+          <t>Lei de licitações e contratos administra Ɵvos 8.666 de 21 de junho de 1993. 4.3.2. Lei nº 10.520/2002.</t>
         </is>
       </c>
     </row>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Decreto nº 7.174 de 12 de maio de 2010.</t>
+          <t>Instrução norma Ɵva nº 1 de 4 de abril de 2019 do Ministério da Economia (ME).</t>
         </is>
       </c>
     </row>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Decreto nº 9.507, de 2018.</t>
+          <t>Decreto nº 7.174 de 12 de maio de 2010.</t>
         </is>
       </c>
     </row>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Portaria nº 5.651 de 28 de junho de 2022 da SGD/ME.</t>
+          <t>Decreto nº 9.507, de 2018.</t>
         </is>
       </c>
     </row>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Instrução Norma Ɵva nº 5 de 26 de maio de 2017 do Ministério do Planejamento, Desenvolvimento e Gestão.</t>
+          <t>Portaria nº 5.651 de 28 de junho de 2022 da SGD/ME.</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Requisitos de Manutenção</t>
+          <t>Instrução Norma Ɵva nº 5 de 26 de maio de 2017 do Ministério do Planejamento, Desenvolvimento e Gestão.</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Buscando con Ɵnuidade no fornecimento da solução de TIC em caso de falha, a ANS possui um contrato para a Sustentação dos Sistemas Corpora Ɵvos para realização</t>
+          <t>Requisitos de Manutenção</t>
         </is>
       </c>
     </row>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Requisitos Temporais</t>
+          <t>Buscando con Ɵnuidade no fornecimento da solução de TIC em caso de falha, a ANS possui um contrato para a Sustentação dos Sistemas Corpora Ɵvos para realização dos serviços de manutenção preven Ɵva, correƟva, evolu Ɵva e adapta Ɵva. Estes serviços são para realizar a detecção de erros e correções necessárias que impactam o ambiente de produção da ANS, realizar ajustes pontuais e pequenas manutenções, além de registros e documentações que a ANS julgar necessárias de forma a garan Ɵr o funcionamento das soluções de TI e os sistemas corpora Ɵvos, incluindo as Plataformas Digitais, garan Ɵndo sua manutenção de forma segura e eﬁcaz.</t>
         </is>
       </c>
     </row>
@@ -6393,7 +6393,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Horários</t>
+          <t>Requisitos Temporais</t>
         </is>
       </c>
     </row>
@@ -6405,7 +6405,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>As a Ɵvidades que forem executadas nas dependências da contratante, ou que necessitem de interação direta com a mesma, deverão ocorrer dentro do horário de</t>
+          <t>Horários</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6417,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>A interação da contratada com determinada equipe ou ﬁscal da contratante deverá respeitar o horário de trabalho dos mesmos, cabendo à contratada planejar-se de</t>
+          <t>As a Ɵvidades que forem executadas nas dependências da contratante, ou que necessitem de interação direta com a mesma, deverão ocorrer dentro do horário de funcionamento da contratante, ou seja, em dias úteis das 7:00h às 19:00h.</t>
         </is>
       </c>
     </row>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Em casos especiais, principalmente nas a Ɵvidades de apoio ao ambiente de produção, poderão ser executadas ações fora do horário de funcionamento normal da</t>
+          <t>A interação da contratada com determinada equipe ou ﬁscal da contratante deverá respeitar o horário de trabalho dos mesmos, cabendo à contratada planejar-se de forma a respeitar tais horários.</t>
         </is>
       </c>
     </row>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Em relação às a Ɵvidades que ocorrem fora das dependências da contratante, e que não envolvam contato com funcionários desta, cabe à contratada deﬁnir seus</t>
+          <t>Em casos especiais, principalmente nas a Ɵvidades de apoio ao ambiente de produção, poderão ser executadas ações fora do horário de funcionamento normal da contratante. Até mesmo nos ﬁns de semana e feriados, não cabendo nenhum ônus adicional à contratante.</t>
         </is>
       </c>
     </row>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Prazos</t>
+          <t>Em relação às a Ɵvidades que ocorrem fora das dependências da contratante, e que não envolvam contato com funcionários desta, cabe à contratada deﬁnir seus horários e arcar com todo o ônus.</t>
         </is>
       </c>
     </row>
@@ -6465,7 +6465,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Os prazos rela Ɵvos às aƟvidades desta contratação estão elencados na seção "ESPECIFICAÇÕES TÉCNICAS" deste TR.</t>
+          <t>Prazos</t>
         </is>
       </c>
     </row>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>O início das a Ɵvidades da contratada deverá ocorrer em até 5 dias corridos da assinatura do contrato.</t>
+          <t>Os prazos rela Ɵvos às aƟvidades desta contratação estão elencados na seção "ESPECIFICAÇÕES TÉCNICAS" deste TR.</t>
         </is>
       </c>
     </row>
@@ -6489,7 +6489,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>A contratada deve apresentar o preposto para a contratante em até 2 dias úteis da assinatura do contrato.</t>
+          <t>O início das a Ɵvidades da contratada deverá ocorrer em até 5 dias corridos da assinatura do contrato.</t>
         </is>
       </c>
     </row>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>A vigência do contrato será de:</t>
+          <t>A contratada deve apresentar o preposto para a contratante em até 2 dias úteis da assinatura do contrato.</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Requisitos de Segurança e Privacidade</t>
+          <t>A vigência do contrato será de: a) 5 anos (60 sessenta) meses, sem prorrogação, para o Grupo 1; b) 1 ano (12 doze) meses, com possibilidade de prorrogação, por iguais períodos, para o Grupo 2, até o total de 60 (sessenta) meses.</t>
         </is>
       </c>
     </row>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>A CONTRATADA deverá seguir os requisitos de segurança da informação listados abaixo:</t>
+          <t>Requisitos de Segurança e Privacidade</t>
         </is>
       </c>
     </row>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Cumprir o que se dispõe na Lei Geral de Proteção de Dados Pessoais (LGPD) nº 13.853/2019, realizando o tratamento de informações classiﬁcadas e proteção de</t>
+          <t>A CONTRATADA deverá seguir os requisitos de segurança da informação listados abaixo:</t>
         </is>
       </c>
     </row>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>A CONTRATADA também deverá seguir as orientações da RESOLUÇÃO ADMINISTRATIVA – RA Nº 62, DE 2 DE JUNHO DE 2015, ou versões atualizadas posteriormente,</t>
+          <t>Cumprir o que se dispõe na Lei Geral de Proteção de Dados Pessoais (LGPD) nº 13.853/2019, realizando o tratamento de informações classiﬁcadas e proteção de dados pessoais, por parte dos colaboradores na execução deste serviço;</t>
         </is>
       </c>
     </row>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>A CONTRATANTE se reserva o direito de realizar auditoria de Segurança da Informação e Privacidade (SIP) rela Ɵva à conformidade dos requisitos de segurança da</t>
+          <t>A CONTRATADA também deverá seguir as orientações da RESOLUÇÃO ADMINISTRATIVA – RA Nº 62, DE 2 DE JUNHO DE 2015, ou versões atualizadas posteriormente, referente à Polí Ɵca de Segurança da Informação da ANS;</t>
         </is>
       </c>
     </row>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Evitar vazamento de informações mantendo sigilo e privacidade, sob pena de responsabilidade civil, penal e administra Ɵva, sobre todo e qualquer assunto de</t>
+          <t>A CONTRATANTE se reserva o direito de realizar auditoria de Segurança da Informação e Privacidade (SIP) rela Ɵva à conformidade dos requisitos de segurança da informação e privacidade previstos pela contratação;</t>
         </is>
       </c>
     </row>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Fornecer as soluções de acordo com as polí Ɵcas de segurança da informação da CONTRATANTE inclusive no que cerne a registros de log e controles criptográﬁcos,SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w...</t>
+          <t>Evitar vazamento de informações mantendo sigilo e privacidade, sob pena de responsabilidade civil, penal e administra Ɵva, sobre todo e qualquer assunto de interesse da ANS ou de terceiros de que tomar conhecimento em razão da execução do contrato, respeitando todos os critérios estabelecidos neste termo, aplicáveis aos dados, informações, regras de negócios, documentos, entre outros per Ɵnentes;</t>
         </is>
       </c>
     </row>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>No que tange as obrigações da SIP, a CONTRATADA deve propiciar a disponibilidade da solução de TIC e garan Ɵr a conƟnuidade da solução implementada.</t>
+          <t>Fornecer as soluções de acordo com as polí Ɵcas de segurança da informação da CONTRATANTE inclusive no que cerne a registros de log e controles criptográﬁcos,SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 16 of 46 07/08/2023 14:26possibilitar a rastreabilidade de forma a manter trilha de auditoria de SIP. Deverá também deﬁnir um processo de gestão de riscos de SIP que envolvam a solução de TIC.</t>
         </is>
       </c>
     </row>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Seguir a Polí Ɵca de Segurança da Informação (POSIN) da CONTRATANTE, ou equivalente, aderente ao disposto na IN GSI/PR nº 1, de 27 de maio de 2020, incluindo</t>
+          <t>No que tange as obrigações da SIP, a CONTRATADA deve propiciar a disponibilidade da solução de TIC e garan Ɵr a conƟnuidade da solução implementada.</t>
         </is>
       </c>
     </row>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Realizar, em conjunto com a CONTRATANTE, análise de impacto na privacidade dos dados pessoais relacionada à Solução de TIC, considerando o descrito pelo</t>
+          <t>Seguir a Polí Ɵca de Segurança da Informação (POSIN) da CONTRATANTE, ou equivalente, aderente ao disposto na IN GSI/PR nº 1, de 27 de maio de 2020, incluindo políƟcas ou normas para proteção de dados pessoais vigentes e atualizadas.</t>
         </is>
       </c>
     </row>
@@ -6633,7 +6633,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>No processo referente a migração dos dados do sistema legado para o novo sistema, deverá possuir e implementar processo de gestão de mudanças adequado para</t>
+          <t>Realizar, em conjunto com a CONTRATANTE, análise de impacto na privacidade dos dados pessoais relacionada à Solução de TIC, considerando o descrito pelo relatório de impacto à proteção de dados pessoais, conforme previsto na Lei nº 13.709/2018 e alterações posteriores, quando da concepção de qualquer novo projeto, produto ou serviço.</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Possuir e manter trilhas de qualidade e teste de so Ōware, e realizar desenvolvimento seguro, aderente ao disposto em disposi Ɵvo legal correlato publicado pelo</t>
+          <t>No processo referente a migração dos dados do sistema legado para o novo sistema, deverá possuir e implementar processo de gestão de mudanças adequado para que mudanças na organização, nos processos de negócio e nos recursos de processamento da informação sejam controlados e não afetem a segurança da informação e privacidade, reduzindo o nível de risco ao qual o objeto do contrato e/ou a CONTRATANTE está exposta, considerando os critérios de aceitabilidade de riscos deﬁnidos pela CONTRATANTE.</t>
         </is>
       </c>
     </row>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Os dados pessoais u Ɵlizados em ambiente de TDH (teste, desenvolvimento e homologação) devem passar por um processo de anonimização.</t>
+          <t>Possuir e manter trilhas de qualidade e teste de so Ōware, e realizar desenvolvimento seguro, aderente ao disposto em disposi Ɵvo legal correlato publicado pelo GSI/PR.</t>
         </is>
       </c>
     </row>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>A u Ɵlização dos dados pessoais em ambiente de TDH (teste, desenvolvimento e homologação), não anonimizados, deve ser autorizada pelo proprietário do a Ɵvo de</t>
+          <t>Os dados pessoais u Ɵlizados em ambiente de TDH (teste, desenvolvimento e homologação) devem passar por um processo de anonimização.</t>
         </is>
       </c>
     </row>
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>U Ɵlizar técnicas ou métodos apropriados para garan Ɵr exclusão ou destruição segura de dados pessoais (incluindo originais, cópias e registros arquivados), de modo</t>
+          <t>A u Ɵlização dos dados pessoais em ambiente de TDH (teste, desenvolvimento e homologação), não anonimizados, deve ser autorizada pelo proprietário do a Ɵvo de informação.</t>
         </is>
       </c>
     </row>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>A aplicação desenvolvida pela CONTRATADA deverá ter funcionalidade para, ao fornecer a base de informações para órgãos de pesquisa, os dados pessoais sejam</t>
+          <t>U Ɵlizar técnicas ou métodos apropriados para garan Ɵr exclusão ou destruição segura de dados pessoais (incluindo originais, cópias e registros arquivados), de modo a impedir sua recuperação no processo.</t>
         </is>
       </c>
     </row>
@@ -6705,7 +6705,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Possuir e implementar polí Ɵca de privacidade que atenda aos princípios da Lei Geral de Proteção de Dados Pessoais (LGPD), a ser homologada pelo órgão</t>
+          <t>A aplicação desenvolvida pela CONTRATADA deverá ter funcionalidade para, ao fornecer a base de informações para órgãos de pesquisa, os dados pessoais sejam anonimizados ou pseudo anonimizados.</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Implementar controles de acesso baseados em uma polí Ɵca de controle de acesso para o objeto contratado, elaborada pela CONTRATANTE em conjunto com a</t>
+          <t>Possuir e implementar polí Ɵca de privacidade que atenda aos princípios da Lei Geral de Proteção de Dados Pessoais (LGPD), a ser homologada pelo órgão CONTRATANTE, assegurando o adequado tratamento dos dados pessoais e principalmente sua classiﬁcação em sensíveis e não sensíveis, incluindo categorias de informações pessoais de saúde e informações pessoais ﬁnanceiras.</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>A polí Ɵca deve estabelecer, dentre outros critérios, que se deve conceder autorizações de acesso apenas quando realmente sejam necessárias para o desempenho</t>
+          <t>Implementar controles de acesso baseados em uma polí Ɵca de controle de acesso para o objeto contratado, elaborada pela CONTRATANTE em conjunto com a CONTRATADA, tendo em vista o princípio do menor privilégio, a segurança da informação e a privacidade, de forma a reduzir o nível de risco ao qual o objeto e a CONTRATANTE estão expostos, considerando os critérios de aceitabilidade de riscos deﬁnidos pela CONTRATANTE.</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>A polí Ɵca também deve deﬁnir situações e protocolos para acesso a informações sensíveis, necessidades de não repúdio, situações que requerem auten Ɵcação via</t>
+          <t>A polí Ɵca deve estabelecer, dentre outros critérios, que se deve conceder autorizações de acesso apenas quando realmente sejam necessárias para o desempenho de uma a Ɵvidade especíﬁca, deﬁnindo também protocolos para cadastramento, mecanismo de controle de acesso (como, por exemplo, validação de formulário), habilitação, inabilitação, atualização de direitos de acesso e exclusão de usuário, além de revisões periódicas da polí Ɵca.</t>
         </is>
       </c>
     </row>
@@ -6753,7 +6753,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>U Ɵlizar recursos de segurança da informação e de tecnologia da informação de qualidade, eﬁciência e eﬁcácia reconhecidas e em versões comprovadamente</t>
+          <t>A polí Ɵca também deve deﬁnir situações e protocolos para acesso a informações sensíveis, necessidades de não repúdio, situações que requerem auten Ɵcação via duplo fator e acesso via cer Ɵﬁcado digital, nos casos em que a CONTRATANTE julgar necessário.</t>
         </is>
       </c>
     </row>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Reportar de imediato à CONTRATANTE incidentes que envolvam vazamento de dados, indisponibilidade ou comprome Ɵmento da informação relacionados à Solução</t>
+          <t>U Ɵlizar recursos de segurança da informação e de tecnologia da informação de qualidade, eﬁciência e eﬁcácia reconhecidas e em versões comprovadamente seguras e atualizadas, de forma reduzir o nível de risco ao qual o objeto do contrato e/ou a CONTRATANTE está exposta, considerando os critérios de aceitabilidade de riscos deﬁnidos pela CONTRATANTE.</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>O tratamento de incidentes de segurança da informação será realizado através da ferramenta de gestão de incidentes da ANS.</t>
+          <t>Reportar de imediato à CONTRATANTE incidentes que envolvam vazamento de dados, indisponibilidade ou comprome Ɵmento da informação relacionados à Solução de TIC, processamento não autorizado ou outro não cumprimento dos termos e condições contratuais.</t>
         </is>
       </c>
     </row>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Implementar e manter controles e procedimentos especíﬁcos para assegurar completo e absoluto sigilo quanto a todos os dados e informações de que o preposto</t>
+          <t>O tratamento de incidentes de segurança da informação será realizado através da ferramenta de gestão de incidentes da ANS.</t>
         </is>
       </c>
     </row>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Deﬁnir e executar procedimento de descarte seguro dos dados pessoais ou sigilosos da CONTRATANTE ao encerrar a execução do contrato.</t>
+          <t>Implementar e manter controles e procedimentos especíﬁcos para assegurar completo e absoluto sigilo quanto a todos os dados e informações de que o preposto ou os demais empregados da CONTRATADA venham a tomar conhecimento em razão da execução do contrato, de forma a assegurar que seus empregados e outros proﬁssionais sob sua direção e/ou controle respeitem o uso dos dados somente para as ﬁnalidades previstas em contrato e as restrições de uso dos a Ɵvos uƟlizado para desenvolvimento e/ou operação da Solução de TIC, cumprindo e fazendo cumprir o disposto nos Termo de Compromisso e Ciência e Termo de responsabilidade e sigilo ﬁrmados respec Ɵvamente, pelo representante legal e pelo(s) empregado(s) da CONTRATADA.</t>
         </is>
       </c>
     </row>
@@ -6813,7 +6813,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Comunicar à CONTRATANTE, de imediato, a ocorrência de transferência, promoção, remanejamento ou demissão de funcionário, para que seja providenciada a</t>
+          <t>Deﬁnir e executar procedimento de descarte seguro dos dados pessoais ou sigilosos da CONTRATANTE ao encerrar a execução do contrato.</t>
         </is>
       </c>
     </row>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Informar e obter a anuência do órgão CONTRATANTE sobre a u Ɵlização de serviços de terceiros para sustentar ou viabilizar o funcionamento da Solução de TIC.</t>
+          <t>Comunicar à CONTRATANTE, de imediato, a ocorrência de transferência, promoção, remanejamento ou demissão de funcionário, para que seja providenciada a revogação de todos os privilégios de acesso aos sistemas, informações e recursos da CONTRATANTE, porventura colocados à disposição para realização dos serviços contratados.</t>
         </is>
       </c>
     </row>
@@ -6837,7 +6837,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Implementar e manter, em conjunto com a CONTRATANTE, controles e procedimentos especíﬁcos para assegurar a segurança İsica e do ambiente de acesso às</t>
+          <t>Informar e obter a anuência do órgão CONTRATANTE sobre a u Ɵlização de serviços de terceiros para sustentar ou viabilizar o funcionamento da Solução de TIC.</t>
         </is>
       </c>
     </row>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Apresentar à CONTRATANTE, sempre que solicitado, toda e qualquer informação e documentação que comprovem a implementação dos requisitos de SIP</t>
+          <t>Implementar e manter, em conjunto com a CONTRATANTE, controles e procedimentos especíﬁcos para assegurar a segurança İsica e do ambiente de acesso às bases, informações, sistemas e demais a Ɵvos que compõem a Solução de TIC, de forma a prevenir qualquer Ɵpo de ocorrência de evento de efeitos danosos ou prejudiciais ao funcionamento dos recursos de processamento das informações relacionadas à Solução de TIC, reduzindo assim o nível de risco ao qual o objeto do contrato e/ou a CONTRATANTE estão expostos, considerando os critérios de aceitabilidade de riscos deﬁnidos pela CONTRATANTE.</t>
         </is>
       </c>
     </row>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Realizar, em conjunto com a CONTRATANTE, ou com outros órgãos por ela indicados, ações de tratamento de incidentes de SIP relacionados ao objeto do contrato,</t>
+          <t>Apresentar à CONTRATANTE, sempre que solicitado, toda e qualquer informação e documentação que comprovem a implementação dos requisitos de SIP especiﬁcados na contratação, de forma a assegurar a auditabilidade con Ɵnuada do objeto contratado, bem como demais disposi Ɵvos legais aplicáveis.</t>
         </is>
       </c>
     </row>
@@ -6873,7 +6873,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>A CONTRATADA deverá res Ɵtuir imediatamente à CONTRATANTE, quando do término do serviço ou quando for solicitada, qualquer informação conﬁdencial</t>
+          <t>Realizar, em conjunto com a CONTRATANTE, ou com outros órgãos por ela indicados, ações de tratamento de incidentes de SIP relacionados ao objeto do contrato, bem como apoiar essas ações com o monitoramento e o envio de informações tempes Ɵvos.</t>
         </is>
       </c>
     </row>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Indicar as diretrizes que deverão ser seguidas pela CONTRATADA para o desenvolvimento de so Ōware seguro.</t>
+          <t>A CONTRATADA deverá res Ɵtuir imediatamente à CONTRATANTE, quando do término do serviço ou quando for solicitada, qualquer informação conﬁdencial provinda da prestação dos serviços. Em caso de perda de quaisquer dessas informações, a CONTRATADA deverá no Ɵﬁcar imediatamente por escrito;</t>
         </is>
       </c>
     </row>
@@ -6897,7 +6897,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>O CONTRATANTE e a CONTRATADA realizarão a análise de impacto na proteção dos dados pessoais relacionada à Solução de TIC, devendo considerar as informações</t>
+          <t>Indicar as diretrizes que deverão ser seguidas pela CONTRATADA para o desenvolvimento de so Ōware seguro.</t>
         </is>
       </c>
     </row>
@@ -6909,7 +6909,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>A não observância do disposto sobre conﬁdencialidade torna a PARTE infratora sujeita às penalidades cabíveis previstas em lei.</t>
+          <t>O CONTRATANTE e a CONTRATADA realizarão a análise de impacto na proteção dos dados pessoais relacionada à Solução de TIC, devendo considerar as informações levantadas pelo relatório de impacto da CONTRATADA.</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Requisitos Sociais, Ambientais e Culturais</t>
+          <t>A não observância do disposto sobre conﬁdencialidade torna a PARTE infratora sujeita às penalidades cabíveis previstas em lei.</t>
         </is>
       </c>
     </row>
@@ -6933,7 +6933,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>A Contratada deverá atender, no que couber, o critério de sustentabilidade ambiental previsto na Instrução Norma Ɵva SLTI/MPOG nº 01, de 19 de janeiro de 2010.</t>
+          <t>Requisitos Sociais, Ambientais e Culturais</t>
         </is>
       </c>
     </row>
@@ -6945,7 +6945,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Requisitos de Arquitetura Tecnológica</t>
+          <t>A Contratada deverá atender, no que couber, o critério de sustentabilidade ambiental previsto na Instrução Norma Ɵva SLTI/MPOG nº 01, de 19 de janeiro de 2010.</t>
         </is>
       </c>
     </row>
@@ -6957,7 +6957,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Nos casos em que, por conveniência e oportunidade desta Autarquia, venha a ocorrer ajustes nos serviços executados de forma remota para a forma de execução</t>
+          <t>Requisitos de Arquitetura Tecnológica</t>
         </is>
       </c>
     </row>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Requisitos de Projeto e de Implementação</t>
+          <t>Nos casos em que, por conveniência e oportunidade desta Autarquia, venha a ocorrer ajustes nos serviços executados de forma remota para a forma de execução presencialmente, ou vice-versa, a empresa terceirizada deverá atender a recomendação mínima para a adequação dos trabalhos com a devida interação com o ambiente da ANS.</t>
         </is>
       </c>
     </row>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>As a Ɵvidades deverão ser executadas conforme metodologia ágil e as deﬁnições do APÊNDICE I.</t>
+          <t>Requisitos de Projeto e de Implementação</t>
         </is>
       </c>
     </row>
@@ -6993,7 +6993,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Requisitos de Implantação</t>
+          <t>As a Ɵvidades deverão ser executadas conforme metodologia ágil e as deﬁnições do APÊNDICE I.</t>
         </is>
       </c>
     </row>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>É parte do objeto da contratação em tela a implantação do novo serviço/tecnologia de TIC, que traz inovação para a Agência. Os requisitos serão deﬁnidos</t>
+          <t>Requisitos de Implantação</t>
         </is>
       </c>
     </row>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Requisitos de Garan Ɵa e ManutençãoSEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w...</t>
+          <t>É parte do objeto da contratação em tela a implantação do novo serviço/tecnologia de TIC, que traz inovação para a Agência. Os requisitos serão deﬁnidos oportunamente durante a execução contratual.</t>
         </is>
       </c>
     </row>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>A garan Ɵa dos produtos entregues nos contratos originados por este documento dá-se por até 90 dias corridos após o ﬁm da vigência do contrato.</t>
+          <t>Requisitos de Garan Ɵa e ManutençãoSEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 17 of 46 07/08/2023 14:264.11.1. GaranƟa técnica</t>
         </is>
       </c>
     </row>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>A garan Ɵa técnica cobre erros ou falhas de funcionamento nos produtos desenvolvidos, não atendimento à visão do usuário, problemas de usabilidade, além do</t>
+          <t>A garan Ɵa dos produtos entregues nos contratos originados por este documento dá-se por até 90 dias corridos após o ﬁm da vigência do contrato.</t>
         </is>
       </c>
     </row>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>As a Ɵvidades necessárias para a execução da garan Ɵa não geram custo para a contratante, sendo executadas totalmente às expensas da contratada.</t>
+          <t>A garan Ɵa técnica cobre erros ou falhas de funcionamento nos produtos desenvolvidos, não atendimento à visão do usuário, problemas de usabilidade, além do bom funcionamento da plataforma.</t>
         </is>
       </c>
     </row>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Os chamados para execução de garan Ɵa técnica devem ser atendidos de imediato pela contratada, sendo considerado o prazo de 1 dia ú Ɵl para conhecimento da</t>
+          <t>As a Ɵvidades necessárias para a execução da garan Ɵa não geram custo para a contratante, sendo executadas totalmente às expensas da contratada.</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>O não atendimento das condições da garan Ɵa técnica poderão incidir nos indicadores de nível de serviço, conforme avaliação da EGC, sem prejuízo das sanções</t>
+          <t>Os chamados para execução de garan Ɵa técnica devem ser atendidos de imediato pela contratada, sendo considerado o prazo de 1 dia ú Ɵl para conhecimento da contratada e início da execução. 4.11.1.4.1. O prazo para ﬁnalização deve ser deﬁnido pela EGC ou acordado entre esta e a contratada, não podendo ser maior do que 50% do prazo de entrega do serviço que originou o problema.</t>
         </is>
       </c>
     </row>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>GaranƟa da execução</t>
+          <t>O não atendimento das condições da garan Ɵa técnica poderão incidir nos indicadores de nível de serviço, conforme avaliação da EGC, sem prejuízo das sanções administra Ɵvas e legais cabíveis.</t>
         </is>
       </c>
     </row>
@@ -7101,7 +7101,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>A Contratada apresentará, no prazo máximo de 10 (dez) dias úteis, prorrogáveis por igual período, a critério do Contratante, contado da assinatura do contrato,</t>
+          <t>GaranƟa da execução</t>
         </is>
       </c>
     </row>
@@ -7113,7 +7113,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>A inobservância do prazo ﬁxado para apresentação da garan Ɵa acarretará a aplicação de multa de 0,07% (sete centésimos por cento) do valor total do contrato por</t>
+          <t>A Contratada apresentará, no prazo máximo de 10 (dez) dias úteis, prorrogáveis por igual período, a critério do Contratante, contado da assinatura do contrato, comprovante de prestação de garan Ɵa, podendo optar por caução em dinheiro ou Ɵtulos da dívida pública, seguro-garan Ɵa ou ﬁança bancária, em valor correspondente a 5 % (cinco por cento) do valor total do contrato, com validade durante a execução do contrato e 90 (noventa) dias após término da vigência contratual, devendo ser renovada a cada prorrogação.</t>
         </is>
       </c>
     </row>
@@ -7125,7 +7125,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>O atraso superior a 25 (vinte e cinco) dias autoriza a Administração a promover a rescisão do contrato por descumprimento ou cumprimento irregular de suas</t>
+          <t>A inobservância do prazo ﬁxado para apresentação da garan Ɵa acarretará a aplicação de multa de 0,07% (sete centésimos por cento) do valor total do contrato por dia de atraso, até o máximo de 2% (dois por cento).</t>
         </is>
       </c>
     </row>
@@ -7137,7 +7137,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>A garan Ɵa assegurará, qualquer que seja a modalidade escolhida, o pagamento de:</t>
+          <t>O atraso superior a 25 (vinte e cinco) dias autoriza a Administração a promover a rescisão do contrato por descumprimento ou cumprimento irregular de suas cláusulas, conforme dispõem os incisos I e II do art. 78 da Lei n. 8.666 de 1993.</t>
         </is>
       </c>
     </row>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>prejuízos advindos do não cumprimento do objeto do contrato e do não adimplemento das demais obrigações nele previstas; 4.11.2.4.2. prejuízos diretos</t>
+          <t>A garan Ɵa assegurará, qualquer que seja a modalidade escolhida, o pagamento de:</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>multas moratórias e puni Ɵvas aplicadas pela Administração à contratada; e</t>
+          <t>prejuízos advindos do não cumprimento do objeto do contrato e do não adimplemento das demais obrigações nele previstas; 4.11.2.4.2. prejuízos diretos causados à Administração decorrentes de culpa ou dolo durante a execução do contrato;</t>
         </is>
       </c>
     </row>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>obrigações trabalhistas e previdenciárias de qualquer natureza e para com o FGTS, não adimplidas pela contratada, quando couber.</t>
+          <t>multas moratórias e puni Ɵvas aplicadas pela Administração à contratada; e</t>
         </is>
       </c>
     </row>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>A modalidade seguro-garan Ɵa somente será aceita se contemplar todos os eventos indicados no item anterior, observada a legislação que rege a matéria.</t>
+          <t>obrigações trabalhistas e previdenciárias de qualquer natureza e para com o FGTS, não adimplidas pela contratada, quando couber.</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>A garan Ɵa em dinheiro deverá ser efetuada em favor da Contratante, em conta especíﬁca na Caixa Econômica Federal, com correção monetária.</t>
+          <t>A modalidade seguro-garan Ɵa somente será aceita se contemplar todos os eventos indicados no item anterior, observada a legislação que rege a matéria.</t>
         </is>
       </c>
     </row>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Caso a opção seja por u Ɵlizar ơtulos da dívida pública, estes devem ter sido emi Ɵdos sob a forma escritural, mediante registro em sistema centralizado de liquidação</t>
+          <t>A garan Ɵa em dinheiro deverá ser efetuada em favor da Contratante, em conta especíﬁca na Caixa Econômica Federal, com correção monetária.</t>
         </is>
       </c>
     </row>
@@ -7221,7 +7221,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>No caso de garan Ɵa na modalidade de ﬁança bancária, deverá constar expressa renúncia do ﬁador aos bene İcios do ar Ɵgo 827 do Código Civil.</t>
+          <t>Caso a opção seja por u Ɵlizar ơtulos da dívida pública, estes devem ter sido emi Ɵdos sob a forma escritural, mediante registro em sistema centralizado de liquidação e de custódia autorizado pelo Banco Central do Brasil, e avaliados pelos seus valores econômicos, conforme deﬁnido pelo Ministério da Economia.</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>No caso de alteração do valor do contrato, ou prorrogação de sua vigência, a garan Ɵa deverá ser ajustada à nova situação ou renovada, seguindo os mesmos</t>
+          <t>No caso de garan Ɵa na modalidade de ﬁança bancária, deverá constar expressa renúncia do ﬁador aos bene İcios do ar Ɵgo 827 do Código Civil.</t>
         </is>
       </c>
     </row>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Se o valor da garan Ɵa for uƟlizado total ou parcialmente em pagamento de qualquer obrigação, a Contratada obriga-se a fazer a respec Ɵva reposição no prazo</t>
+          <t>No caso de alteração do valor do contrato, ou prorrogação de sua vigência, a garan Ɵa deverá ser ajustada à nova situação ou renovada, seguindo os mesmos parâmetros u Ɵlizados quando da contratação.</t>
         </is>
       </c>
     </row>
@@ -7257,7 +7257,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>A Contratante executará a garan Ɵa na forma prevista na legislação que rege a matéria.</t>
+          <t>Se o valor da garan Ɵa for uƟlizado total ou parcialmente em pagamento de qualquer obrigação, a Contratada obriga-se a fazer a respec Ɵva reposição no prazo máximo de 10 (dez) dias úteis, contados da data em que for no Ɵﬁcada.</t>
         </is>
       </c>
     </row>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Será considerada ex Ɵnta a garan Ɵa:</t>
+          <t>A Contratante executará a garan Ɵa na forma prevista na legislação que rege a matéria.</t>
         </is>
       </c>
     </row>
@@ -7281,7 +7281,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>com a devolução da apólice, carta ﬁança ou autorização para o levantamento de importâncias depositadas em dinheiro a Ɵtulo de garan Ɵa, acompanhada de</t>
+          <t>Será considerada ex Ɵnta a garan Ɵa:</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>no prazo de 90 (noventa) dias após o término da vigência do contrato, caso a Administração não comunique a ocorrência de sinistros, quando o prazo será</t>
+          <t>com a devolução da apólice, carta ﬁança ou autorização para o levantamento de importâncias depositadas em dinheiro a Ɵtulo de garan Ɵa, acompanhada de declaração da Contratante, mediante termo circunstanciado, de que a Contratada cumpriu todas as cláusulas do contrato;</t>
         </is>
       </c>
     </row>
@@ -7305,7 +7305,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>O garan Ɵdor não é parte para ﬁgurar em processo administra Ɵvo instaurado pela contratante com o obje Ɵvo de apurar prejuízos e/ou aplicar sanções à</t>
+          <t>no prazo de 90 (noventa) dias após o término da vigência do contrato, caso a Administração não comunique a ocorrência de sinistros, quando o prazo será ampliado, nos termos da comunicação, conforme estabelecido na alínea "h2" do item 3.1 do Anexo  VII-F da IN SEGES/MP n. 05/2017.</t>
         </is>
       </c>
     </row>
@@ -7317,7 +7317,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>A contratada autoriza a contratante a reter, a qualquer tempo, a garan Ɵa, na forma prevista no neste Edital e no Contrato.</t>
+          <t>O garan Ɵdor não é parte para ﬁgurar em processo administra Ɵvo instaurado pela contratante com o obje Ɵvo de apurar prejuízos e/ou aplicar sanções à contratada.</t>
         </is>
       </c>
     </row>
@@ -7329,7 +7329,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Requisitos de Experiência Proﬁssional</t>
+          <t>A contratada autoriza a contratante a reter, a qualquer tempo, a garan Ɵa, na forma prevista no neste Edital e no Contrato.</t>
         </is>
       </c>
     </row>
@@ -7341,7 +7341,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Será de responsabilidade da CONTRATADA a seleção de recursos humanos, conforme qualiﬁcação e necessidade apresentada pela CONTRATANTE, para a execução de</t>
+          <t>Requisitos de Experiência Proﬁssional</t>
         </is>
       </c>
     </row>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Requisitos de Formação da Equipe</t>
+          <t>Será de responsabilidade da CONTRATADA a seleção de recursos humanos, conforme qualiﬁcação e necessidade apresentada pela CONTRATANTE, para a execução de serviço durante a vigência do contrato. Os requisitos estão descritos no APÊNDICE I deste TR.</t>
         </is>
       </c>
     </row>
@@ -7365,7 +7365,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Será exigida a u Ɵlização, nos serviços contratados pela ANS, somente de pessoal capacitado para as a Ɵvidades conforme requisitos explicitados no APÊNDICE I deste</t>
+          <t>Requisitos de Formação da Equipe</t>
         </is>
       </c>
     </row>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Dado a natureza desta contratação ser de execução remota podendo tornar-se presencial e vice-versa, torna-se obrigatório que todos os proﬁssionais tenham ﬂuência</t>
+          <t>Será exigida a u Ɵlização, nos serviços contratados pela ANS, somente de pessoal capacitado para as a Ɵvidades conforme requisitos explicitados no APÊNDICE I deste TR.</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Requisitos de Metodologia de Trabalho</t>
+          <t>Dado a natureza desta contratação ser de execução remota podendo tornar-se presencial e vice-versa, torna-se obrigatório que todos os proﬁssionais tenham ﬂuência na língua portuguesa do Brasil (fala, leitura e escrita), pois estas habilidades são fundamentais para comunicação entre equipes, área da TI e toda a ANS.</t>
         </is>
       </c>
     </row>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Os requisitos estão descritos no APÊNDICE I e II deste TR.</t>
+          <t>Requisitos de Metodologia de Trabalho</t>
         </is>
       </c>
     </row>
@@ -7413,7 +7413,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Requisitos de Segurança da Informação e Privacidade</t>
+          <t>Os requisitos estão descritos no APÊNDICE I e II deste TR.</t>
         </is>
       </c>
     </row>
@@ -7425,7 +7425,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Os requisitos estão descritos no item 4.6.</t>
+          <t>Requisitos de Segurança da Informação e Privacidade</t>
         </is>
       </c>
     </row>
@@ -7437,7 +7437,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>RESPONSABILIDADES</t>
+          <t>Os requisitos estão descritos no item 4.6.</t>
         </is>
       </c>
     </row>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Deveres e responsabilidades da CONTRATANTE</t>
+          <t>RESPONSABILIDADES</t>
         </is>
       </c>
     </row>
@@ -7461,7 +7461,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>São responsabilidades da contratante aquelas descritas no art. 17, inc. I, da IN 01/2019/ME, adequadas ao Ɵpo de contratação aqui descrito.</t>
+          <t>Deveres e responsabilidades da CONTRATANTE</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Resolver quaisquer conﬂitos de entendimento sobre o contrato, através da equipe de gestão do contrato.</t>
+          <t>São responsabilidades da contratante aquelas descritas no art. 17, inc. I, da IN 01/2019/ME, adequadas ao Ɵpo de contratação aqui descrito.</t>
         </is>
       </c>
     </row>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Deﬁnir a ação a ser executada em casos de ocorrências não previstas no contrato, mas que façam parte, ou impactem, a execução dos serviços ora contratados.</t>
+          <t>Resolver quaisquer conﬂitos de entendimento sobre o contrato, através da equipe de gestão do contrato.</t>
         </is>
       </c>
     </row>
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Garan Ɵr à contratada o acesso às informações necessárias ao serviço, e os meios necessários quando este for executado nas dependências da contratante.</t>
+          <t>Deﬁnir a ação a ser executada em casos de ocorrências não previstas no contrato, mas que façam parte, ou impactem, a execução dos serviços ora contratados.</t>
         </is>
       </c>
     </row>
@@ -7509,7 +7509,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Nomear Gestor e Fiscais Técnico, Administra Ɵvo e Requisitante do contrato para acompanhar e ﬁscalizar a execução dos contratos, conforme o disposto no art. 29 da</t>
+          <t>Garan Ɵr à contratada o acesso às informações necessárias ao serviço, e os meios necessários quando este for executado nas dependências da contratante.</t>
         </is>
       </c>
     </row>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Encaminhar formalmente as demandas para a contratada através de ordem de serviço ou outra forma de comunicação formal deﬁnida no Termo de Referência (TR).</t>
+          <t>Nomear Gestor e Fiscais Técnico, Administra Ɵvo e Requisitante do contrato para acompanhar e ﬁscalizar a execução dos contratos, conforme o disposto no art. 29 da IN 01/2019/ME.</t>
         </is>
       </c>
     </row>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Receber o objeto fornecido pela contratada que esteja em conformidade com este TR observando o disposto nos arts. 17 e 33 da IN 01/2019/ME.</t>
+          <t>Encaminhar formalmente as demandas para a contratada através de ordem de serviço ou outra forma de comunicação formal deﬁnida no Termo de Referência (TR).</t>
         </is>
       </c>
     </row>
@@ -7545,7 +7545,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Aplicar à contratada as sanções administra Ɵvas regulamentares e contratuais cabíveis.</t>
+          <t>Receber o objeto fornecido pela contratada que esteja em conformidade com este TR observando o disposto nos arts. 17 e 33 da IN 01/2019/ME.</t>
         </is>
       </c>
     </row>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Liquidar o empenho e efetuar o pagamento à contratada, dentro dos prazos preestabelecidos em Contrato.</t>
+          <t>Aplicar à contratada as sanções administra Ɵvas regulamentares e contratuais cabíveis.</t>
         </is>
       </c>
     </row>
@@ -7569,7 +7569,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Comunicar à contratada todas e quaisquer ocorrências relacionadas com o fornecimento da Solução de Tecnologia da Informação.SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w...</t>
+          <t>Liquidar o empenho e efetuar o pagamento à contratada, dentro dos prazos preestabelecidos em Contrato.</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Exigir o cumprimento de todas as obrigações assumidas pela Contratada, de acordo com as cláusulas contratuais e os termos de sua proposta.</t>
+          <t>Comunicar à contratada todas e quaisquer ocorrências relacionadas com o fornecimento da Solução de Tecnologia da Informação.SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 18 of 46 07/08/2023 14:265.1.1.10. Realizar, no momento da licitação e sempre que possível, diligências ao licitante classiﬁcado provisoriamente em primeiro lugar, para ﬁns de comprovação de atendimento das especiﬁcações técnicas.</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>No Ɵﬁcar a Contratada por escrito da ocorrência de eventuais imperfeições no curso da execução dos serviços, ﬁxando prazo para a sua correção.</t>
+          <t>Exigir o cumprimento de todas as obrigações assumidas pela Contratada, de acordo com as cláusulas contratuais e os termos de sua proposta.</t>
         </is>
       </c>
     </row>
@@ -7605,7 +7605,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Pagar à Contratada o valor resultante da prestação do serviço, no prazo e condições estabelecidas no Edital e seus anexos.</t>
+          <t>No Ɵﬁcar a Contratada por escrito da ocorrência de eventuais imperfeições no curso da execução dos serviços, ﬁxando prazo para a sua correção.</t>
         </is>
       </c>
     </row>
@@ -7617,7 +7617,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Efetuar as retenções tributárias devidas sobre o valor da Nota Fiscal/Fatura fornecida pela contratada, no que couber, em conformidade com o item 6 do Anexo XI</t>
+          <t>Pagar à Contratada o valor resultante da prestação do serviço, no prazo e condições estabelecidas no Edital e seus anexos.</t>
         </is>
       </c>
     </row>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Deveres e responsabilidades da CONTRATADA</t>
+          <t>Efetuar as retenções tributárias devidas sobre o valor da Nota Fiscal/Fatura fornecida pela contratada, no que couber, em conformidade com o item 6 do Anexo XI da IN SEGES/MP nº 5/2017.</t>
         </is>
       </c>
     </row>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>São responsabilidades da contratada aquelas descritas no art. 17, inc. II, da IN 01/2019/ME, adequadas ao Ɵpo de contratação aqui descrito.</t>
+          <t>Deveres e responsabilidades da CONTRATADA</t>
         </is>
       </c>
     </row>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Indicar formalmente e manter durante toda a vigência do contrato preposto com experiência comprovada em gerência de projeto e na plataforma.</t>
+          <t>São responsabilidades da contratada aquelas descritas no art. 17, inc. II, da IN 01/2019/ME, adequadas ao Ɵpo de contratação aqui descrito.</t>
         </is>
       </c>
     </row>
@@ -7665,7 +7665,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Indicar formalmente, na ausência do preposto, subs Ɵtuto com mesma qualiﬁcação.</t>
+          <t>Indicar formalmente e manter durante toda a vigência do contrato preposto com experiência comprovada em gerência de projeto e na plataforma.</t>
         </is>
       </c>
     </row>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Atender prontamente quaisquer orientações e exigências da EGC, inerentes à execução do objeto contratual.</t>
+          <t>Indicar formalmente, na ausência do preposto, subs Ɵtuto com mesma qualiﬁcação.</t>
         </is>
       </c>
     </row>
@@ -7689,7 +7689,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Reparar quaisquer danos diretamente causados à contratante ou a terceiros por culpa ou dolo de seus representantes legais, prepostos ou empregados, em decorrência</t>
+          <t>Atender prontamente quaisquer orientações e exigências da EGC, inerentes à execução do objeto contratual.</t>
         </is>
       </c>
     </row>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Propiciar todos os meios necessários à ﬁscalização do contrato pela contratante, cujo representante terá poderes para sustar o fornecimento, total ou parcial, em</t>
+          <t>Reparar quaisquer danos diretamente causados à contratante ou a terceiros por culpa ou dolo de seus representantes legais, prepostos ou empregados, em decorrência da relação contratual, não excluindo ou reduzindo a responsabilidade da ﬁscalização ou o acompanhamento da execução dos serviços pela contratante.</t>
         </is>
       </c>
     </row>
@@ -7713,7 +7713,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Manter, durante toda a execução do contrato, as mesmas condições da habilitação.</t>
+          <t>Propiciar todos os meios necessários à ﬁscalização do contrato pela contratante, cujo representante terá poderes para sustar o fornecimento, total ou parcial, em qualquer tempo, desde que mo Ɵvadas as causas e jus ƟﬁcaƟvas desta decisão. (Alterado pela Instrução Norma Ɵva nº 31, de 23 de março de 2021)</t>
         </is>
       </c>
     </row>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Manter, durante a execução do Contrato, equipe técnica composta por proﬁssionais devidamente habilitados, treinados e qualiﬁcados para a execução dos serviços</t>
+          <t>Manter, durante toda a execução do contrato, as mesmas condições da habilitação.</t>
         </is>
       </c>
     </row>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Fornecer, quando solicitado, comprovação de qualiﬁcação técnica de seus proﬁssionais, por meio de cer Ɵﬁcações nas ferramentas, e de forma complementar, quando</t>
+          <t>Manter, durante a execução do Contrato, equipe técnica composta por proﬁssionais devidamente habilitados, treinados e qualiﬁcados para a execução dos serviços conforme especiﬁcações deste termo de referência.</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Os cer Ɵﬁcados citados no subitem anterior podem ser aqueles fornecidos pelo fabricante da plataforma ou aqueles relacionados à gerência de projetos ou</t>
+          <t>Fornecer, quando solicitado, comprovação de qualiﬁcação técnica de seus proﬁssionais, por meio de cer Ɵﬁcações nas ferramentas, e de forma complementar, quando solicitado, por meio de currículo no qual conste informações de contato do empregador para conferência.</t>
         </is>
       </c>
     </row>
@@ -7761,7 +7761,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Não será abonado no "Indicador de prazo de início de execução de serviço" a demora da contratada em apresentar proﬁssional com a devida comprovação de</t>
+          <t>Os cer Ɵﬁcados citados no subitem anterior podem ser aqueles fornecidos pelo fabricante da plataforma ou aqueles relacionados à gerência de projetos ou desenvolvimento de so Ōware, conforme o perﬁl do proﬁssional.</t>
         </is>
       </c>
     </row>
@@ -7773,7 +7773,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Manter a capacidade necessária para a execução das a Ɵvidades contratuais, nos níveis deﬁnidos neste termo de referência, durante toda a vigência do contrato.</t>
+          <t>Não será abonado no "Indicador de prazo de início de execução de serviço" a demora da contratada em apresentar proﬁssional com a devida comprovação de qualiﬁcação (cer Ɵﬁcação, currículo etc.) para executar a demanda, sendo contado o prazo normalmente conforme deﬁnido no TR.</t>
         </is>
       </c>
     </row>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Ceder os direitos de propriedade intelectual e direitos autorais da Solução de Tecnologia da Informação sobre os diversos artefatos e produtos produzidos ao longo do</t>
+          <t>Manter a capacidade necessária para a execução das a Ɵvidades contratuais, nos níveis deﬁnidos neste termo de referência, durante toda a vigência do contrato.</t>
         </is>
       </c>
     </row>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Propiciar o acesso às suas dependências a representante da contratante designado para executar diligência nas mesmas.</t>
+          <t>Ceder os direitos de propriedade intelectual e direitos autorais da Solução de Tecnologia da Informação sobre os diversos artefatos e produtos produzidos ao longo do contrato, incluindo a documentação, os modelos de dados e as bases de dados, à Administração.</t>
         </is>
       </c>
     </row>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Manter sigilo sobre toda e qualquer informação a que Ɵver acesso em relação à contratante e todos que se relacionam com a mesma.</t>
+          <t>Propiciar o acesso às suas dependências a representante da contratante designado para executar diligência nas mesmas.</t>
         </is>
       </c>
     </row>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Reparar, corrigir, remover ou subs Ɵtuir, às suas expensas, no total ou em parte, no prazo ﬁxado pelo ﬁscal do contrato, os serviços efetuados em que se veriﬁcarem</t>
+          <t>Manter sigilo sobre toda e qualquer informação a que Ɵver acesso em relação à contratante e todos que se relacionam com a mesma.</t>
         </is>
       </c>
     </row>
@@ -7833,7 +7833,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Responsabilizar-se por todas as obrigações trabalhistas, sociais, previdenciárias, tributárias e as demais previstas na legislação especíﬁca, cuja inadimplência não</t>
+          <t>Reparar, corrigir, remover ou subs Ɵtuir, às suas expensas, no total ou em parte, no prazo ﬁxado pelo ﬁscal do contrato, os serviços efetuados em que se veriﬁcarem vícios, defeitos ou incorreções.</t>
         </is>
       </c>
     </row>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Apresentar à Contratante, quando for o caso, a relação nominal dos empregados que adentrarão o órgão para a execução do serviço.</t>
+          <t>Responsabilizar-se por todas as obrigações trabalhistas, sociais, previdenciárias, tributárias e as demais previstas na legislação especíﬁca, cuja inadimplência não transfere responsabilidade à Contratante.</t>
         </is>
       </c>
     </row>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Atender às solicitações da Contratante quanto à subs Ɵtuição de proﬁssionais que atendem aos serviços do contrato, no prazo ﬁxado pelo ﬁscal do contrato, nos casos</t>
+          <t>Apresentar à Contratante, quando for o caso, a relação nominal dos empregados que adentrarão o órgão para a execução do serviço.</t>
         </is>
       </c>
     </row>
@@ -7869,7 +7869,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Instruir seus empregados quanto à necessidade de acatar as normas internas da Administração.</t>
+          <t>Atender às solicitações da Contratante quanto à subs Ɵtuição de proﬁssionais que atendem aos serviços do contrato, no prazo ﬁxado pelo ﬁscal do contrato, nos casos em que ﬁcar constatado descumprimento das obrigações rela Ɵvas à execução do serviço, conforme descrito neste Termo de Referência.</t>
         </is>
       </c>
     </row>
@@ -7881,7 +7881,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Instruir seus empregados a respeito das a Ɵvidades a serem desempenhadas, alertando-os a não executar a Ɵvidades não abrangidas pelo contrato, devendo a</t>
+          <t>Instruir seus empregados quanto à necessidade de acatar as normas internas da Administração.</t>
         </is>
       </c>
     </row>
@@ -7893,7 +7893,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Relatar à Contratante toda e qualquer irregularidade veriﬁcada no decorrer da prestação dos serviços.</t>
+          <t>Instruir seus empregados a respeito das a Ɵvidades a serem desempenhadas, alertando-os a não executar a Ɵvidades não abrangidas pelo contrato, devendo a Contratada relatar à Contratante toda e qualquer ocorrência neste sen Ɵdo, a ﬁm de evitar desvio de função.</t>
         </is>
       </c>
     </row>
@@ -7905,7 +7905,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Não permi Ɵr a uƟlização de qualquer trabalho do menor de dezesseis anos, exceto na condição de aprendiz para os maiores de quatorze anos; nem permi Ɵr a uƟlização</t>
+          <t>Relatar à Contratante toda e qualquer irregularidade veriﬁcada no decorrer da prestação dos serviços.</t>
         </is>
       </c>
     </row>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Executar os serviços conforme especiﬁcações deste Termo de Referência e de sua proposta, com a alocação dos empregados necessários ao perfeito cumprimento das</t>
+          <t>Não permi Ɵr a uƟlização de qualquer trabalho do menor de dezesseis anos, exceto na condição de aprendiz para os maiores de quatorze anos; nem permi Ɵr a uƟlização do trabalho do menor de dezoito anos em trabalho noturno, perigoso ou insalubre.</t>
         </is>
       </c>
     </row>
@@ -7929,7 +7929,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Responsabilizar-se pelos vícios e danos decorrentes da execução do objeto, de acordo com os ar Ɵgos 14 e 17 a 27, do Código de Defesa do Consumidor (Lei nº 8.078, de</t>
+          <t>Executar os serviços conforme especiﬁcações deste Termo de Referência e de sua proposta, com a alocação dos empregados necessários ao perfeito cumprimento das cláusulas contratuais, além de fornecer os materiais e equipamentos, ferramentas e utensílios necessários, na qualidade e quan Ɵdade especiﬁcadas neste Termo de Referência e em sua proposta.</t>
         </is>
       </c>
     </row>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>MODELO DE EXECUÇÃO DO CONTRATO</t>
+          <t>Responsabilizar-se pelos vícios e danos decorrentes da execução do objeto, de acordo com os ar Ɵgos 14 e 17 a 27, do Código de Defesa do Consumidor (Lei nº 8.078, de 1990), ﬁcando a Contratante autorizada a descontar da garan Ɵa, caso exigida no edital, ou dos pagamentos devidos à Contratada, o valor correspondente aos danos sofridos.</t>
         </is>
       </c>
     </row>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>RoƟnas de Execução</t>
+          <t>MODELO DE EXECUÇÃO DO CONTRATO</t>
         </is>
       </c>
     </row>
@@ -7965,7 +7965,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>A execução dos contratos originados por este TR é regida pelo rito da Instrução norma Ɵva nº 1 de 4 de abril de 2019 do Ministério da Economia.</t>
+          <t>RoƟnas de Execução</t>
         </is>
       </c>
     </row>
@@ -7977,7 +7977,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>O modelo para a prestação dos serviços desta contratação é baseado no conceito de delegação de responsabilidade. Esse conceito deﬁne:</t>
+          <t>A execução dos contratos originados por este TR é regida pelo rito da Instrução norma Ɵva nº 1 de 4 de abril de 2019 do Ministério da Economia.</t>
         </is>
       </c>
     </row>
@@ -7989,7 +7989,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>A Contratante como responsável pela gestão do contrato, e pelo ateste de resultados a Ɵngidos através da sua aderência quanto aos bene İcios esperados pelos</t>
+          <t>O modelo para a prestação dos serviços desta contratação é baseado no conceito de delegação de responsabilidade. Esse conceito deﬁne:</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>A Contratada como responsável pela execução dos serviços, dentro dos padrões mínimos de qualidade, e de acordo com os requisitos dos usuários, e gestão dos</t>
+          <t>A Contratante como responsável pela gestão do contrato, e pelo ateste de resultados a Ɵngidos através da sua aderência quanto aos bene İcios esperados pelos usuários, além de veriﬁcação quanto aos padrões mínimos de qualidade exigidos dos produtos e serviços entregues (indicadores de nível mínimo de serviços – INS),</t>
         </is>
       </c>
     </row>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>A ﬁm de garan Ɵr a segregação de funções para a correta execução do contrato é vedada a alocação de um mesmo proﬁssional para a prestação de serviços em mais de</t>
+          <t>A Contratada como responsável pela execução dos serviços, dentro dos padrões mínimos de qualidade, e de acordo com os requisitos dos usuários, e gestão dos recursos humanos necessários.</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Vale ressaltar que a natureza dos serviços requer o atendimento tempes Ɵvo as diversas demandas de sistemas de TI da ANS. Por esse mo Ɵvo, será exigida da</t>
+          <t>A ﬁm de garan Ɵr a segregação de funções para a correta execução do contrato é vedada a alocação de um mesmo proﬁssional para a prestação de serviços em mais de um perﬁl.</t>
         </is>
       </c>
     </row>
@@ -8037,7 +8037,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Resumo do ﬂuxo de execução - Contrato</t>
+          <t>Vale ressaltar que a natureza dos serviços requer o atendimento tempes Ɵvo as diversas demandas de sistemas de TI da ANS. Por esse mo Ɵvo, será exigida da Contratada a disponibilidade das equipes qualiﬁcadas, de forma compa Ɵvel e possível à realidade de TI da Agência.</t>
         </is>
       </c>
     </row>
@@ -8049,7 +8049,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Quanto aos papéis e responsabilidades, a equipe responsável pela ﬁscalização do contrato será composta por:</t>
+          <t>Resumo do ﬂuxo de execução - Contrato</t>
         </is>
       </c>
     </row>
@@ -8061,7 +8061,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>QuanƟdade mínima de bens ou serviços para comparação e controle</t>
+          <t>Quanto aos papéis e responsabilidades, a equipe responsável pela ﬁscalização do contrato será composta por: . Gestor do Contrato: servidor com atribuições gerenciais, preferencialmente da Área Requisitante da solução, designado para coordenar e comandar o processo de gestão e ﬁscalização da execução contratual, indicado por autoridade competente; . Fiscal Técnico do Contrato: servidor representante da Área de TIC, indicado pela autoridade competente dessa área para ﬁscalizar tecnicamente o contrato; . Fiscal Administra Ɵvo do Contrato: servidor representante da Área Administra Ɵva, indicado pela autoridade competente dessa área para ﬁscalizar o contrato quanto aos aspectos administra Ɵvos; e . Fiscal Requisitante do Contrato: servidor representante da Área Requisitante da solução, indicado pela autoridade competente dessa área para ﬁscalizar o contrato do pontoSEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 19 of 46 07/08/2023 14:26de vista de negócio e funcional da solução de TIC . Cabe à contratada a nomeação do Preposto: representante da contratada, responsável por acompanhar a execução do contrato e atuar como interlocutor principal junto à contratante, incumbido de receber, diligenciar, encaminhar e responder as principais questões técnicas, legais e administra Ɵvas referentes ao andamento.</t>
         </is>
       </c>
     </row>
@@ -8073,7 +8073,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>O Item 1 do Grupo 1, descreve serviços de execução única ou con Ɵnuada.</t>
+          <t>QuanƟdade mínima de bens ou serviços para comparação e controle</t>
         </is>
       </c>
     </row>
@@ -8085,7 +8085,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Para o Item 2 do Grupo 1, acredita-se que pelo menos 50% das solicitações serão geradas durante a vigência do contrato.</t>
+          <t>O Item 1 do Grupo 1, descreve serviços de execução única ou con Ɵnuada.</t>
         </is>
       </c>
     </row>
@@ -8097,7 +8097,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Para o Item 3 do Grupo 1, acredita-se que poderá ser gerada uma solicitação durante a vigência do contrato, havendo chance de nenhuma ser gerada.</t>
+          <t>Para o Item 2 do Grupo 1, acredita-se que pelo menos 50% das solicitações serão geradas durante a vigência do contrato.</t>
         </is>
       </c>
     </row>
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Para o Item 4 do Grupo 2, acredita-se que deverá ser u Ɵlizado, pelo menos, 70% do quan ƟtaƟvo de sprints durante a vigência do contrato.</t>
+          <t>Para o Item 3 do Grupo 1, acredita-se que poderá ser gerada uma solicitação durante a vigência do contrato, havendo chance de nenhuma ser gerada.</t>
         </is>
       </c>
     </row>
@@ -8121,7 +8121,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Os quan ƟtaƟvos de cada item encontram-se na tabela da seção "DO OBJETO DA CONTRATAÇÃO".</t>
+          <t>Para o Item 4 do Grupo 2, acredita-se que deverá ser u Ɵlizado, pelo menos, 70% do quan ƟtaƟvo de sprints durante a vigência do contrato.</t>
         </is>
       </c>
     </row>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Mecanismos formais de comunicação</t>
+          <t>Os quan ƟtaƟvos de cada item encontram-se na tabela da seção "DO OBJETO DA CONTRATAÇÃO".</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>São meios formais de comunicação, além daqueles deﬁnidos no âmbito da administração pública (o İcio, carta etc.), mensagens de correio eletrônico (e-mail) e, se</t>
+          <t>Mecanismos formais de comunicação</t>
         </is>
       </c>
     </row>
@@ -8157,7 +8157,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>A contratada deverá fornecer um endereço de e-mail para a contratante poder contactá-la, no seguinte padrão: contrato-low-code@dominio, ou conforme acordado</t>
+          <t>São meios formais de comunicação, além daqueles deﬁnidos no âmbito da administração pública (o İcio, carta etc.), mensagens de correio eletrônico (e-mail) e, se houver, sistema de informação homologado pela equipe de gestão do contrato (EGC) para tal ﬁm.</t>
         </is>
       </c>
     </row>
@@ -8169,7 +8169,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Manutenção de Sigilo e Normas de Segurança</t>
+          <t>A contratada deverá fornecer um endereço de e-mail para a contratante poder contactá-la, no seguinte padrão: contrato-low-code@dominio, ou conforme acordado com a EGC. Sendo “dominio” o domínio u Ɵlizado pela empresa na internet.</t>
         </is>
       </c>
     </row>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>A CONTRATADA deverá manter sigilo absoluto sobre quaisquer dados e informações con Ɵdos em quaisquer documentos e mídias, incluindo os equipamentos e seus</t>
+          <t>Manutenção de Sigilo e Normas de Segurança</t>
         </is>
       </c>
     </row>
@@ -8193,7 +8193,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>O Termo de Compromisso, contendo declaração de manutenção de sigilo e respeito às normas de segurança vigentes na en Ɵdade , a ser assinado pelo representante</t>
+          <t>A CONTRATADA deverá manter sigilo absoluto sobre quaisquer dados e informações con Ɵdos em quaisquer documentos e mídias, incluindo os equipamentos e seus meios de armazenamento, de que venha a ter conhecimento durante a execução dos serviços, não podendo, sob qualquer pretexto, divulgar, reproduzir ou u Ɵlizar, sob pena de lei, independentemente da classiﬁcação de sigilo conferida pelo CONTRATANTE a tais documentos.</t>
         </is>
       </c>
     </row>
@@ -8205,7 +8205,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Nas renovações ou prorrogações contratuais, a Contratante poderá reavaliar os requisitos de segurança da informação e privacidade previstos no contrato e, caso</t>
+          <t>O Termo de Compromisso, contendo declaração de manutenção de sigilo e respeito às normas de segurança vigentes na en Ɵdade , a ser assinado pelo representante legal da CONTRATADA, e Termo de Responsabilidade e Sigilo, a ser assinado por todos os empregados da CONTRATADA diretamente envolvidos na contratação.</t>
         </is>
       </c>
     </row>
@@ -8217,7 +8217,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Local de Execução dos serviços</t>
+          <t>Nas renovações ou prorrogações contratuais, a Contratante poderá reavaliar os requisitos de segurança da informação e privacidade previstos no contrato e, caso sejam considerados insuﬁcientes, serão adequados ou estabelecidos de acordo com o objeto do contrato, observando o disposto na Seção 7 do Anexo da Instrução NormaƟva nº 1, de 4 de abril de 2019, e no inciso I do ar Ɵgo 58 da Lei nº 8.666, de 1993.</t>
         </is>
       </c>
     </row>
@@ -8229,7 +8229,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Em geral os serviços serão realizados e entregues à distância, na própria plataforma contratada, ou através de ferramenta on-line, conforme descrito na seção</t>
+          <t>Local de Execução dos serviços</t>
         </is>
       </c>
     </row>
@@ -8241,7 +8241,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Havendo necessidade de execução de serviços nas dependências da contratante, este deverá ocorrer no endereço da sede no rio de janeiro, ou nas instalações da</t>
+          <t>Em geral os serviços serão realizados e entregues à distância, na própria plataforma contratada, ou através de ferramenta on-line, conforme descrito na seção "ESPECIFICAÇÕES TÉCNICAS" deste TR.</t>
         </is>
       </c>
     </row>
@@ -8253,7 +8253,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Sede da ANS: Av. Augusto Severo, 84, Glória – Rio de Janeiro/RJ.</t>
+          <t>Havendo necessidade de execução de serviços nas dependências da contratante, este deverá ocorrer no endereço da sede no rio de janeiro, ou nas instalações da mesma nos arredores da sede.</t>
         </is>
       </c>
     </row>
@@ -8265,7 +8265,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Subcontratação</t>
+          <t>Sede da ANS: Av. Augusto Severo, 84, Glória – Rio de Janeiro/RJ.</t>
         </is>
       </c>
     </row>
@@ -8277,7 +8277,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Não será admi Ɵda subcontratação do objeto licitatório, a não ser para o serviço de nuvem, conforme as deﬁnições deste Termo de Referência.</t>
+          <t>Subcontratação</t>
         </is>
       </c>
     </row>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Encerramento dos serviços - Término do contrato</t>
+          <t>Não será admi Ɵda subcontratação do objeto licitatório, a não ser para o serviço de nuvem, conforme as deﬁnições deste Termo de Referência.</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Em razão da natureza estratégica destas contratações, as CONTRATADAS são obrigadas, nos úl Ɵmos 60 dias de vigência contratual, a promover a transição contratual</t>
+          <t>Encerramento dos serviços - Término do contrato</t>
         </is>
       </c>
     </row>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>No caso da aplicação do subitem anterior, a CONTRATADA deverá ser no Ɵﬁcada do início do período de transição com pelo menos 30 (trinta) dias corridos de</t>
+          <t>Em razão da natureza estratégica destas contratações, as CONTRATADAS são obrigadas, nos úl Ɵmos 60 dias de vigência contratual, a promover a transição contratual com transferência de tecnologia e técnicas empregadas, sem perda de informações, exigida, inclusive, a capacitação dos servidores da CONTRATANTE e/ou dos colaboradores da nova empresa que con Ɵnuará a execução dos serviços ou providenciando toda a documentação necessária para a devida passagem do conhecimento, nos termos do Art. 12, da IN SG/MPDG nº 5/2017.</t>
         </is>
       </c>
     </row>
@@ -8325,7 +8325,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Vale ressaltar que todos os projetos entregues e recém-implantados, no momento desta transição dos serviços, estarão sujeitos à garan Ɵa dos serviços. Ou seja, as</t>
+          <t>No caso da aplicação do subitem anterior, a CONTRATADA deverá ser no Ɵﬁcada do início do período de transição com pelo menos 30 (trinta) dias corridos de antecedência.</t>
         </is>
       </c>
     </row>
@@ -8337,7 +8337,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>MODELO DE GESTÃO DO CONTRATO</t>
+          <t>Vale ressaltar que todos os projetos entregues e recém-implantados, no momento desta transição dos serviços, estarão sujeitos à garan Ɵa dos serviços. Ou seja, as garanƟas dos serviços dos projetos abrangerão, minimamente, todas suas operações assis Ɵdas.</t>
         </is>
       </c>
     </row>
@@ -8349,7 +8349,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Critérios de Aceitação</t>
+          <t>MODELO DE GESTÃO DO CONTRATO</t>
         </is>
       </c>
     </row>
@@ -8361,7 +8361,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Os serviços serão recebidos provisoriamente no prazo de 15 (quinze) dias, pelo(s) responsável(is) pelo acompanhamento e ﬁscalização do contrato, para efeito de</t>
+          <t>Critérios de Aceitação</t>
         </is>
       </c>
     </row>
@@ -8373,7 +8373,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Os serviços poderão ser rejeitados, no todo ou em parte, quando em desacordo com as especiﬁcações constantes neste Termo de Referência e na proposta, devendo</t>
+          <t>Os serviços serão recebidos provisoriamente no prazo de 15 (quinze) dias, pelo(s) responsável(is) pelo acompanhamento e ﬁscalização do contrato, para efeito de posterior veriﬁcação de sua conformidade com as especiﬁcações constantes neste Termo de Referência e na proposta, devendo ser elaborado relatório circunstanciado, contendo o registro, a análise e a conclusão acerca das ocorrências na execução do contrato e demais documentos que julgarem necessários.</t>
         </is>
       </c>
     </row>
@@ -8385,7 +8385,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Os serviços serão recebidos deﬁni Ɵvamente no prazo de 15 (quinze) dias, contados do recebimento provisório, após a veriﬁcação da qualidade e quan Ɵdade do serviço</t>
+          <t>Os serviços poderão ser rejeitados, no todo ou em parte, quando em desacordo com as especiﬁcações constantes neste Termo de Referência e na proposta, devendo ser corrigidos/refeitos/subs Ɵtuídos no prazo ﬁxado pelo ﬁscal do contrato, às custas da Contratada, sem prejuízo da aplicação de penalidades.</t>
         </is>
       </c>
     </row>
@@ -8397,7 +8397,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Na hipótese de a veriﬁcação a que se refere o subitem anterior não ser procedida dentro do prazo ﬁxado, reputar-se-á como realizada, consumando-se o recebimento</t>
+          <t>Os serviços serão recebidos deﬁni Ɵvamente no prazo de 15 (quinze) dias, contados do recebimento provisório, após a veriﬁcação da qualidade e quan Ɵdade do serviço executado e materiais empregados, com a consequente aceitação mediante termo circunstanciado. A não ser em casos especíﬁcos deﬁnidos neste TR em que haja necessidade de um tempo de avaliação maior.</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>O serviço poderá ser avaliado posteriormente, e, sendo constatadas falhas que incidam nos indicadores previstos no TR, deverá ser realizada a cobrança através do</t>
+          <t>Na hipótese de a veriﬁcação a que se refere o subitem anterior não ser procedida dentro do prazo ﬁxado, reputar-se-á como realizada, consumando-se o recebimento deﬁniƟvo no dia do esgotamento do prazo.</t>
         </is>
       </c>
     </row>
@@ -8421,7 +8421,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Para efeito de recebimento provisório, ao ﬁnal de cada período mensal, os ﬁscais técnico e requisitante do contrato irão apurar o resultado das avaliações da execução</t>
+          <t>O serviço poderá ser avaliado posteriormente, e, sendo constatadas falhas que incidam nos indicadores previstos no TR, deverá ser realizada a cobrança através do redimensionamento em fatura seguinte ao mês em que foram constatadas as falhas.</t>
         </is>
       </c>
     </row>
@@ -8433,7 +8433,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>O recebimento deﬁni Ɵvo, ato que concre Ɵza o ateste da execução dos serviços, será realizado pelos ﬁscais requisitante e técnico do contrato.</t>
+          <t>Para efeito de recebimento provisório, ao ﬁnal de cada período mensal, os ﬁscais técnico e requisitante do contrato irão apurar o resultado das avaliações da execução do objeto e, se for o caso, a análise do desempenho e qualidade da prestação dos serviços realizados em consonância com os indicadores previstos, que poderá resultar no redimensionamento de valores a serem pagos à contratada, registrando em relatório a ser encaminhado ao gestor do contrato.</t>
         </is>
       </c>
     </row>
@@ -8445,7 +8445,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>O gestor do contrato analisará os relatórios e toda documentação apresentada pela ﬁscalização técnica, requisitante e administra Ɵva; caso haja irregularidades que</t>
+          <t>O recebimento deﬁni Ɵvo, ato que concre Ɵza o ateste da execução dos serviços, será realizado pelos ﬁscais requisitante e técnico do contrato.</t>
         </is>
       </c>
     </row>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>O gestor emi Ɵrá termo circunstanciado para efeito de autorização de faturamento dos serviços prestados, com base nos relatórios e documentação apresentados, e</t>
+          <t>O gestor do contrato analisará os relatórios e toda documentação apresentada pela ﬁscalização técnica, requisitante e administra Ɵva; caso haja irregularidades que impeçam a liquidação e o pagamento da despesa, indicará as cláusulas contratuais per Ɵnentes, solicitando à contratada, por escrito, as respec Ɵvas correções.</t>
         </is>
       </c>
     </row>
@@ -8469,7 +8469,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>O recebimento provisório ou deﬁni Ɵvo do objeto não exclui a responsabilidade da Contratada pelos prejuízos resultantes da incorreta execução do contrato.</t>
+          <t>O gestor emi Ɵrá termo circunstanciado para efeito de autorização de faturamento dos serviços prestados, com base nos relatórios e documentação apresentados, e comunicará a contratada para que emita a Nota Fiscal ou Fatura com o valor exato dimensionado pela ﬁscalização com base nos critérios deﬁnidos neste termo de referência.</t>
         </is>
       </c>
     </row>
@@ -8481,7 +8481,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>A gestão dos contratos originados por este TR é regida pelo rito da Instrução norma Ɵva nº 1 de 4 de abril de 2019 do Ministério da Economia.</t>
+          <t>O recebimento provisório ou deﬁni Ɵvo do objeto não exclui a responsabilidade da Contratada pelos prejuízos resultantes da incorreta execução do contrato.</t>
         </is>
       </c>
     </row>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>O acompanhamento do contrato, de seus indicadores e informações de ﬁscalização será feito através de sistema informa Ɵzado especíﬁco da contratante.</t>
+          <t>A gestão dos contratos originados por este TR é regida pelo rito da Instrução norma Ɵva nº 1 de 4 de abril de 2019 do Ministério da Economia.</t>
         </is>
       </c>
     </row>
@@ -8505,7 +8505,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Procedimentos de Teste e Inspeção</t>
+          <t>O acompanhamento do contrato, de seus indicadores e informações de ﬁscalização será feito através de sistema informa Ɵzado especíﬁco da contratante.</t>
         </is>
       </c>
     </row>
@@ -8517,7 +8517,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Será realizada análise da qualidade através da aferição dos respec Ɵvos indicadores de níveis de serviço (INS) .</t>
+          <t>Procedimentos de Teste e Inspeção</t>
         </is>
       </c>
     </row>
@@ -8529,7 +8529,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Níveis Mínimos de Serviço Exigidos</t>
+          <t>Será realizada análise da qualidade através da aferição dos respec Ɵvos indicadores de níveis de serviço (INS) .</t>
         </is>
       </c>
     </row>
@@ -8541,7 +8541,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Para todos os grupos:SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w...</t>
+          <t>Níveis Mínimos de Serviço Exigidos</t>
         </is>
       </c>
     </row>
@@ -8553,7 +8553,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Para o Grupo 1:</t>
+          <t>Para todos os grupos:SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 20 of 46 07/08/2023 14:26Indicador 1 Nome Atraso no início do serviço DescriçãoMede atrasos para iniciar os serviços demandados ou aqueles de execução con Ɵnuada, conforme os prazos de início esƟpulados neste TR. Fórmula de CálculoX = (Tr - Tp) / Tp Se X &gt; 0 então houve atraso Y = Abs(X)  -&gt;  Valor absoluto de X Sendo: Tr = quanƟdade de tempo real que o serviço levou para ser iniciado. Tp = quanƟdade de tempo previsto para o início do serviço. Observação: Os tempos são medidos a par Ɵr de uma referência, que pode ser a abertura da solicitação ou um determinado evento, podendo dar-se em dias, horas ou minutos. Caso a referência não esteja explícita no TR ela deverá ser deﬁnida pela EGC. Nível Mínimo ExigidoAceitável: X &lt;= 0 Inaceitável: X &gt; 0 DescontosGlosa de (20 * Y)% sobre o valor da OS, para serviços solicitados via OS, ou sobre o valor da fatura do mês em que ocorreu, para serviços sem OS. Aplicado a Cada solicitação de serviço, dependente ou não de OS, conforme critérios deste TR. Aferição Mensal, pela EGC, através de acompanhamento próprio e/ou sistema. Indicador 2 Nome Atraso na entrega de serviço DescriçãoMede os atrasos para entregar os serviços conforme os prazos es Ɵpulados neste TR. Os prazos de entrega começam a contar a par Ɵr do momento em que a demanda deveria ser iniciada, conforme as deﬁnições deste TR. Fórmula de CálculoX = (Te - P)/P Se X &gt; 0 então houve atraso Y = Abs(X) Sendo: Te = tempo que levou para o serviço ser entregue. P = prazo de entrega conforme deﬁnido neste TR. Observação: As variáveis devem estar em uma mesma unidade de tempo, seja dia, hora ou minuto. Nível Mínimo ExigidoAceitável: X &lt;= 0 Inaceitável: X &gt; 0 DescontosGlosa de (20 * Y)% sobre o valor da OS, para serviços solicitados via OS, ou sobre o valor da fatura do mês de ocorrência, para serviços sem OS. Aplicado a Cada solicitação de serviço, dependente ou não de OS, conforme critérios deste TR. Aferição Mensal, pela EGC, através de acompanhamento próprio e/ou sistema. Indicador 3 Nome Inconformidades na execução dos serviços DescriçãoMede os problemas encontrados nos serviços entregues, sejam erros nas aplicações, problemas na conﬁguração ou atualização de ferramentas da plataforma, defeitos em artefatos de projeto ou aplicação desenvolvida etc. Fórmula de Cálculo Y = Qp (quanƟdade de problemas encontrados no serviço, que podem ser de qualquer Ɵpo, conforme critérios deste TR) Nível Mínimo ExigidoDesejável: Y = 0 Aceitável: Y = 1 Inaceitável: Y &gt; 1 DescontosGlosa de Y% sobre o valor da OS, para serviços solicitados via OS. Glosa de (Y / 2)% sobre o valor da fatura do mês de ocorrência, para serviços sem OS. Aplicado a Cada serviço executado, dependente ou não de OS ou solicitação, conforme critérios deste TR. Aferição Mensal, pela EGC, através de acompanhamento próprio e/ou sistema. Indicador 4 Nome Reincidência de problemas após solicitação de reparo do serviço DescriçãoMede quantas vezes houve necessidade de solicitar a correção de um serviço. Ou seja, mede a reincidência de erros em um serviço. Fórmula de Cálculo Y = Qr (quanƟdade de vezes que o serviço teve que ser reparado) Nível Mínimo ExigidoAceitável: Y = 1 (na primeira ocorrência incidirá apenas o indicador de erro) Inaceitável: Y &gt; 1 (passa a contar como reincidência a par Ɵr da segunda vez que precisar reparar o serviço) DescontosGlosa de (Y * 5)% sobre o valor da OS, para serviços solicitados via OS. Glosa de (Y * 5 / 2)% sobre o valor da fatura do mês em que o serviço foi considerado aceito pela EGC, para serviços sem OS. Aplicado a Cada serviço corrigido, dependente ou não de OS ou solicitação, conforme critérios deste TR. Aferição Mensal, pela EGC, através de acompanhamento próprio e/ou sistema. Indicador 5 Nome Não correção de serviço Descrição Mede a recusa ou a incapacidade da contratada em consertar um serviço que apresenta não conformidade. Fórmula de Cálculo Y = Qr (quanƟdade de serviços não corrigidos) Nível Mínimo ExigidoAceitável: Y = 0 Inaceitável: Y &gt; 0 Descontos Glosa de (Y * 20)% sobre o valor da fatura do mês de ocorrência. Aplicado a Cada serviço que a contratada não corrigir, ou falhar ao corrigir. Aferição Mensal, pela EGC, através de acompanhamento próprio e/ou sistema. Indicador 6 Nome Fornecimento de informações incorretasSEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 21 of 46 07/08/2023 14:26DescriçãoMede a capacidade de asser Ɵvidade da contratada ao fornecer as informações solicitadas, que podem estar relacionadas com o funcionamento da plataforma, da infraestrutura, da construção de aplicação, da u Ɵlização de alguma ferramenta ou qualquer outra referente aos serviços relacionados neste TR ou às questões de contrato. Fórmula de CálculoY = Qi (quanƟdade de informações incorretas fornecidas no mês) Nível Mínimo ExigidoAceitável: Y = 0 Inaceitável: Y &gt; 0 Descontos Glosa de (10 * Y)% sobre o valor da fatura do mês de ocorrência. Aplicado a Cada informação prestada pela contratada, dependente ou não de OS, conforme critérios deste TR. Aferição Mensal, pela EGC, através de acompanhamento próprio e/ou sistema.</t>
         </is>
       </c>
     </row>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Para o Grupo 2:</t>
+          <t>Para o Grupo 1: Indicador 7 Nome Indisponibilidade da plataforma Descrição Mede se a plataforma ﬁcou indisponível por mais tempo do que o exigido neste TR no mês. Fórmula de CálculoPd = 100 * (T t - Ti)/Tt X = Pd - Pe Se X &lt; 0 , o período de indisponibilidade excedeu o permi Ɵdo. Y = Abs(X) - Valor absoluto de X Sendo: Ti = quanƟdade de tempo que a plataforma ﬁcou indisponível em minutos. Tt = quanƟdade de tempo total do mês de ocorrência medido em minutos. Pd = percentual de disponibilidade da plataforma no mês. Pe = percentual de disponibilidade da plataforma exigido no TR. Nível Mínimo ExigidoAceitável: X &gt;= 0 Inaceitável: X &lt; 0 Descontos Glosa no percentual de (10 * Y) sobre o valor da fatura do mês de ocorrência. Aplicado a Execução do serviço de manter a disponibilidade da plataforma conforme critérios deste TR. Aferição Mensal, pela EGC, através de acompanhamento próprio e/ou sistema.</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Orientações de U Ɵlização dos Indicadores</t>
+          <t>Para o Grupo 2: Indicador 8 Nome Indicador de Aceitação da Sprint/Entrega (IAS) Descrição Afere se as demandas planejadas nas sprints foram executadas no Ɵmebox e com qualidade. Fórmula de CálculoY = (Qi + Qp/3) * 100 / Qt Sendo: Qi = Quan Ɵdade de sprints aceitas integralmente. Qp = Quan Ɵdade de sprints aceitas parcialmente. Qt = Quan Ɵdade total de sprints enviadas para aceite. Observação: O peso das sprints aceitas integralmente deve ser maior que o das aceitas parcialmente. Nessa fórmula especíﬁca, o peso das sprints aceitas integralmente é três vezes maior que o das aceitas parcialmente. Para efeitos desse indicador, não são contabilizadas sprints rejeitadas, pois não atendem aos critérios mínimos de aceitação previamente estabelecidos. Nível Mínimo ExigidoAceitável: Y &gt;= 75% Inaceitável: X &lt; 75% DescontosY &gt;= 65% e Y &lt; 75% : 10% de desconto no valor da OS. Y &gt;= 55% e Y &lt; 65% : 20% de desconto no valor da OS. Y &lt; 55% : 30% de desconto no valor da OS. Aplicado a Cada sprint de cada OS, conforme critérios deste TR. AferiçãoMensal, pela EGC, através de acompanhamento próprio e/ou sistema. São apuradas a quan Ɵdade total de sprints entregues no período, a quan Ɵdade de sprints que foram aceitas integralmente e a quan Ɵdade de sprints aceitas parcialmente. Indicador 9 Nome Indicador de Produ Ɵvidade Ágil (IPA) DescriçãoAfere a produ Ɵvidade das equipes ágeis, em termos do alcance de metas aferidas por meio da métrica de so Ōware deﬁnida neste TR (APÊNDICE I). Fórmula de CálculoY = 100 * soma (Pr / Pp) Sendo: Pr = Produ Ɵvidade realizada no período, em função da métrica de so Ōware previamente estabelecida. Pp = Produ Ɵvidade prevista no período, em função da métrica de so Ōware previamente estabelecida. Nível Mínimo ExigidoAceitável: Y &gt;= 75% Inaceitável: X &lt; 75% DescontosY &gt;= 65% e Y &lt; 75% : 10% de desconto no valor da OS. Y &gt;= 55% e Y &lt; 65% : 20% de desconto no valor da OS. Y &lt; 55% : 30% de desconto no valor da OS. Aplicado a Cada sprint de cada OS, conforme critérios deste TR. AferiçãoMensal, pela EGC, através de acompanhamento próprio e/ou sistema. Deve ser deﬁnida uma meta de produ Ɵvidade mensal, através da métrica de so Ōware, para possibilitar a aferição deste indicador. Indicador 10 Nome Indicador de desmobilização de equipe (IDE) DescriçãoMonitora a manutenção da equipe alocada na execução da sprint, na tenta Ɵva de evitar impactos ao projeto, incen Ɵvando que a contratada, ao necessitar trocar recursos, crie mecanismos e estratégias para que isso ocorra de forma transparente (sem prejuízos à execução da sprint). Fórmula de CálculoO índice total é o somatório de todos os fatores parciais levantados por projeto: Para Sprints rejeitadas: 0,005% para cada desligamento. Para Sprints aceitas parcialmente: 0,002% para cada desligamento.SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 22 of 46 07/08/2023 14:26Y = soma(Qsr * 0,005) + soma(Qsp * 0,002) Sendo: Qsr = Número de desligamentos de pessoal (por projeto) da respec Ɵva equipe ágil nas úl Ɵmas 2 Sprints, anteriores à sprint atual rejeitada. Qsp = Número de desligamentos de pessoal (por projeto) da respec Ɵva equipe ágil nas úl Ɵmas 2 Sprints, anteriores à sprint atual aceita parcialmente. Observação: Para cada insucesso parcial ou total de Sprint, será observado se houve desligamento de algum membro da equipe em até 2 (duas) Sprints imediatamente anteriores (independente da aceitação ou não dessas Sprints prévias). Não é considerado o número de desligamentos da Sprint corrente. ExemploProjeto 1: Sprint rejeitada - 1 desligamento (1 x 0,005) em sprint anterior. Projeto 2: Sprint rejeitada - 2 desligamentos (2 x 0,005) em sprints anteriores. Projeto 3: Sprint aceita parcial - 3 desligamentos (3 x 0,002) em sprints anteriores. Y = (1 x 0,005) + (2 x 0,005) + (3 x 0,002) = 1,5% + 0,6% = 2,1% de redução no faturamento do mês de aferição. Nível Mínimo ExigidoAceitável: Y = 0 Inaceitável: X &gt; 0 Descontos Glosa de Y sobre o valor da OS. Aplicado a Cada sprint de cada OS, conforme critérios deste TR. AferiçãoMensal, pela EGC, através de acompanhamento próprio e/ou sistema. Para cada projeto que teve uma sprint rejeitada ou aceita parcialmente, é apurado o somatório de desligamento de pessoas das equipes ágeis nas 2 Sprints anteriores.</t>
         </is>
       </c>
     </row>
@@ -8589,7 +8589,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Os serviços descritos neste TR deverão cumprir os prazos deﬁnidos. Em caso de não cumprimento serão executadas glosas conforme deﬁnido nos Indicadores 1 e 2 .</t>
+          <t>Orientações de U Ɵlização dos Indicadores</t>
         </is>
       </c>
     </row>
@@ -8601,7 +8601,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Nos serviços em que forem elaboradas documentações, as mesmas devem seguir os padrões deﬁnidos pela contratante. Caso um documento esteja fora dos padrões,</t>
+          <t>Os serviços descritos neste TR deverão cumprir os prazos deﬁnidos. Em caso de não cumprimento serão executadas glosas conforme deﬁnido nos Indicadores 1 e 2 .</t>
         </is>
       </c>
     </row>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Os padrões de documentos serão repassados pela contratante durante a execução do contrato, e deverão ser solicitados sempre que for iniciado o serviço. Caso não</t>
+          <t>Nos serviços em que forem elaboradas documentações, as mesmas devem seguir os padrões deﬁnidos pela contratante. Caso um documento esteja fora dos padrões, possua problemas de português, ou conste falta de informação, deverá ser corrigido, será contado como não conformidade e deverá ser aplicado o Indicador 3 .</t>
         </is>
       </c>
     </row>
@@ -8625,7 +8625,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Os serviços deﬁnidos neste TR devem ser executados com qualidade compa Ɵvel com as melhores prá Ɵcas de mercado, caso haja falha, ou seja percebido que um</t>
+          <t>Os padrões de documentos serão repassados pela contratante durante a execução do contrato, e deverão ser solicitados sempre que for iniciado o serviço. Caso não haja padrão deﬁnido para algum documento, a contratada deverá propor um modelo a ser avaliado pela contratante.</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Caso um serviço que foi reexecutado, conforme descrito nos subitens anteriores, con Ɵnue apresentando problemas, deverá ser aplicado o Indicador 4 , contando a</t>
+          <t>Os serviços deﬁnidos neste TR devem ser executados com qualidade compa Ɵvel com as melhores prá Ɵcas de mercado, caso haja falha, ou seja percebido que um serviço não está em conformidade com as melhores prá Ɵcas, o mesmo deverá ser reexecutado e será aplicado o Indicador 3 .</t>
         </is>
       </c>
     </row>
@@ -8649,7 +8649,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Caso a contratada se recuse a consertar determinada demanda, ou seja considerada sua incapacidade após algumas tenta Ɵvas, cuja quan Ɵdade ﬁcará a critério da EGC,</t>
+          <t>Caso um serviço que foi reexecutado, conforme descrito nos subitens anteriores, con Ɵnue apresentando problemas, deverá ser aplicado o Indicador 4 , contando a quanƟdade de vezes até que o serviço esteja em conformidade com a qualidade exigida no TR. Deverá ser aplicado no mês em que o serviço for aceito, caso nunca haja o aceite, no mês em que a EGC considerar sua úl Ɵma avaliação da demanda.</t>
         </is>
       </c>
     </row>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>É obrigação da contratada passar sempre informações corretas sobre os serviços constantes neste TR, tanto em relação às caracterís Ɵcas das ferramentas, plataforma,</t>
+          <t>Caso a contratada se recuse a consertar determinada demanda, ou seja considerada sua incapacidade após algumas tenta Ɵvas, cuja quan Ɵdade ﬁcará a critério da EGC, não podendo ser menor que uma, haverá incidência do Indicador 5 .</t>
         </is>
       </c>
     </row>
@@ -8673,7 +8673,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>A plataforma deve ser disponibilizada na arquitetura de infraestrutura deﬁnida e manter-se em funcionamento de acordo com o nível de disponibilidade exigido neste</t>
+          <t>É obrigação da contratada passar sempre informações corretas sobre os serviços constantes neste TR, tanto em relação às caracterís Ɵcas das ferramentas, plataforma, boas práƟcas, quanto sobre as questões contratuais. Qualquer informação que for considerada incorreta pela EGC será mo Ɵvo de aferição pelo Indicador 6 .</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Os indicadores 8, 9 e 10  foram baseados naqueles deﬁnidos na portaria 5.651/2022 da SGD/ME, e se aplicam exclusivamente ao acompanhamento da execução das</t>
+          <t>A plataforma deve ser disponibilizada na arquitetura de infraestrutura deﬁnida e manter-se em funcionamento de acordo com o nível de disponibilidade exigido neste TR. Caso haja indisponibilidade maior do que a permi Ɵda, deverá ser aplicado o Indicador 7 .</t>
         </is>
       </c>
     </row>
@@ -8697,7 +8697,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Todo serviço que con Ɵver vícios, ou erros, deverá ser refeito, independente de ter a Ɵngido os níveis dos indicadores de qualidade, a qualquer momento, conforme</t>
+          <t>Os indicadores 8, 9 e 10  foram baseados naqueles deﬁnidos na portaria 5.651/2022 da SGD/ME, e se aplicam exclusivamente ao acompanhamento da execução das sprints de projetos, e avaliam critérios de qualidade, produ Ɵvidade e manutenção da equipe técnica.</t>
         </is>
       </c>
     </row>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Os indicadores aqui descritos são aplicados cumula Ɵvamente, a não ser que esteja explícita a impossibilidade neste TR.</t>
+          <t>Todo serviço que con Ɵver vícios, ou erros, deverá ser refeito, independente de ter a Ɵngido os níveis dos indicadores de qualidade, a qualquer momento, conforme solicitação de algum dos ﬁscais do contrato, que deverá ser atendida prontamente, não cabendo nenhum ônus adicional à contratante.</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Cabe somente à EGC decidir sobre a não aplicação de determinado indicador conforme avaliação de jus ƟﬁcaƟva da contratada, nos casos em que couber.</t>
+          <t>Os indicadores aqui descritos são aplicados cumula Ɵvamente, a não ser que esteja explícita a impossibilidade neste TR.</t>
         </is>
       </c>
     </row>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Nenhuma das ações deﬁnidas nos indicadores e nas cláusulas acima isenta a contratada das sanções previstas neste TR, no contrato e na legislação per Ɵnente.</t>
+          <t>Cabe somente à EGC decidir sobre a não aplicação de determinado indicador conforme avaliação de jus ƟﬁcaƟva da contratada, nos casos em que couber.</t>
         </is>
       </c>
     </row>
@@ -8745,7 +8745,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Sanções Administra Ɵvas e Procedimentos para retenção ou glosa no pagamento</t>
+          <t>Nenhuma das ações deﬁnidas nos indicadores e nas cláusulas acima isenta a contratada das sanções previstas neste TR, no contrato e na legislação per Ɵnente.</t>
         </is>
       </c>
     </row>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>A contratada poderá sofrer retenções e glosas conforme os critérios e procedimentos descritos no item "MODELO DE GESTÃO DO CONTRATO" deste documento, sem</t>
+          <t>Sanções Administra Ɵvas e Procedimentos para retenção ou glosa no pagamento</t>
         </is>
       </c>
     </row>
@@ -8769,7 +8769,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Além disso, comete infração administra Ɵva nos termos da Lei nº 8.666, de 1993 e da Lei nº 10.520, de 2002, a Contratada que:</t>
+          <t>A contratada poderá sofrer retenções e glosas conforme os critérios e procedimentos descritos no item "MODELO DE GESTÃO DO CONTRATO" deste documento, sem prejuízo das demais sanções cabíveis a cada caso.</t>
         </is>
       </c>
     </row>
@@ -8781,7 +8781,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>inexecutar total ou parcialmente qualquer das obrigações assumidas em decorrência da contratação;</t>
+          <t>Além disso, comete infração administra Ɵva nos termos da Lei nº 8.666, de 1993 e da Lei nº 10.520, de 2002, a Contratada que:</t>
         </is>
       </c>
     </row>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>ensejar o retardamento da execução do objeto;</t>
+          <t>inexecutar total ou parcialmente qualquer das obrigações assumidas em decorrência da contratação;</t>
         </is>
       </c>
     </row>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>fraudar na execução do contrato;</t>
+          <t>ensejar o retardamento da execução do objeto;</t>
         </is>
       </c>
     </row>
@@ -8817,7 +8817,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>comportar-se de modo inidôneo;</t>
+          <t>fraudar na execução do contrato;</t>
         </is>
       </c>
     </row>
@@ -8829,7 +8829,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>cometer fraude ﬁscal;</t>
+          <t>comportar-se de modo inidôneo;</t>
         </is>
       </c>
     </row>
@@ -8841,7 +8841,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>não man Ɵver a proposta.</t>
+          <t>cometer fraude ﬁscal;</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>A Contratada que cometer qualquer das infrações citadas no subitem acima ﬁcará sujeita, sem prejuízo da responsabilidade civil e criminal, às seguintes sanções:</t>
+          <t>não man Ɵver a proposta.</t>
         </is>
       </c>
     </row>
@@ -8865,7 +8865,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>advertência por faltas leves, assim entendidas aquelas que não acarretem prejuízos signiﬁca Ɵvos para a Contratante;</t>
+          <t>A Contratada que cometer qualquer das infrações citadas no subitem acima ﬁcará sujeita, sem prejuízo da responsabilidade civil e criminal, às seguintes sanções:</t>
         </is>
       </c>
     </row>
@@ -8877,7 +8877,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>multa moratória de 0,5% (zero vírgula cinco por cento) por dia de atraso injus Ɵﬁcado sobre o valor da parcela inadimplida, até o limite de 30 (trinta) dias;</t>
+          <t>advertência por faltas leves, assim entendidas aquelas que não acarretem prejuízos signiﬁca Ɵvos para a Contratante;</t>
         </is>
       </c>
     </row>
@@ -8889,7 +8889,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>em se tratando de inobservância do prazo ﬁxado para apresentação da garan Ɵa, ainda que seja para reforço, aplicar-se-á multa de 0,07% (sete centésimos por cento)</t>
+          <t>multa moratória de 0,5% (zero vírgula cinco por cento) por dia de atraso injus Ɵﬁcado sobre o valor da parcela inadimplida, até o limite de 30 (trinta) dias;</t>
         </is>
       </c>
     </row>
@@ -8901,7 +8901,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>as penalidades de multa decorrentes de fatos diversos serão consideradas independentes entre si;</t>
+          <t>em se tratando de inobservância do prazo ﬁxado para apresentação da garan Ɵa, ainda que seja para reforço, aplicar-se-á multa de 0,07% (sete centésimos por cento) do valor do contrato por dia de atraso, observado o máximo de 2% (dois por cento), de modo que o atraso superior a 25 (vinte e cinco) dias autorizará a Administração contratante a promover a rescisão do contrato;</t>
         </is>
       </c>
     </row>
@@ -8913,7 +8913,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>multa compensatória de 20% (vinte por cento) sobre o valor total do contrato, no caso de inexecução total do objeto;</t>
+          <t>as penalidades de multa decorrentes de fatos diversos serão consideradas independentes entre si;</t>
         </is>
       </c>
     </row>
@@ -8925,7 +8925,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>em caso de inexecução parcial, a multa compensatória, no mesmo percentual do subitem acima, será aplicada de forma proporcional à obrigação inadimplida;</t>
+          <t>multa compensatória de 20% (vinte por cento) sobre o valor total do contrato, no caso de inexecução total do objeto;</t>
         </is>
       </c>
     </row>
@@ -8937,7 +8937,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>suspensão de licitar e impedimento de contratar com o órgão, en Ɵdade ou unidade administra Ɵva pela qual a Administração Pública opera e atua concretamente,</t>
+          <t>em caso de inexecução parcial, a multa compensatória, no mesmo percentual do subitem acima, será aplicada de forma proporcional à obrigação inadimplida;</t>
         </is>
       </c>
     </row>
@@ -8949,7 +8949,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>impedimento de licitar e contratar com a União com o consequente descredenciamento no SICAF pelo prazo de até cinco anos;</t>
+          <t>suspensão de licitar e impedimento de contratar com o órgão, en Ɵdade ou unidade administra Ɵva pela qual a Administração Pública opera e atua concretamente, pelo prazo de até dois anos;</t>
         </is>
       </c>
     </row>
@@ -8961,7 +8961,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>declaração de inidoneidade para licitar ou contratar com a Administração Pública, enquanto perdurarem os mo Ɵvos determinantes da punição ou até que seja</t>
+          <t>impedimento de licitar e contratar com a União com o consequente descredenciamento no SICAF pelo prazo de até cinco anos;</t>
         </is>
       </c>
     </row>
@@ -8973,7 +8973,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Também ﬁcam sujeitas às penalidades do art. 87, III e IV da Lei nº 8.666, de 1993, a Contratada que:SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w...</t>
+          <t>declaração de inidoneidade para licitar ou contratar com a Administração Pública, enquanto perdurarem os mo Ɵvos determinantes da punição ou até que seja promovida a reabilitação perante a própria autoridade que aplicou a penalidade, que será concedida sempre que a Contratada ressarcir a Contratante pelos prejuízos causados;</t>
         </is>
       </c>
     </row>
@@ -8985,7 +8985,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>tenha pra Ɵcado atos ilícitos visando a frustrar os obje Ɵvos da licitação;</t>
+          <t>Também ﬁcam sujeitas às penalidades do art. 87, III e IV da Lei nº 8.666, de 1993, a Contratada que:SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 23 of 46 07/08/2023 14:267.5.4.1. tenha sofrido condenação deﬁni Ɵva por pra Ɵcar, por meio dolosos, fraude ﬁscal no recolhimento de quaisquer tributos;</t>
         </is>
       </c>
     </row>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>demonstre não possuir idoneidade para contratar com a Administração em virtude de atos ilícitos pra Ɵcados.</t>
+          <t>tenha pra Ɵcado atos ilícitos visando a frustrar os obje Ɵvos da licitação;</t>
         </is>
       </c>
     </row>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>A Contratada também ﬁca sujeita a penalidades nos casos de reincidência de glosa nos indicadores de qualidade deﬁnidos neste termo de referência, da seguinte</t>
+          <t>demonstre não possuir idoneidade para contratar com a Administração em virtude de atos ilícitos pra Ɵcados.</t>
         </is>
       </c>
     </row>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>advertência - na primeira ocorrência.</t>
+          <t>A Contratada também ﬁca sujeita a penalidades nos casos de reincidência de glosa nos indicadores de qualidade deﬁnidos neste termo de referência, da seguinte forma:</t>
         </is>
       </c>
     </row>
@@ -9033,7 +9033,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>multa de 0,5% do valor do contrato - na segunda ocorrência.</t>
+          <t>advertência - na primeira ocorrência.</t>
         </is>
       </c>
     </row>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>dobro do valor da multa a cada nova incidência, e/ou rescisão contratual - a par Ɵr da terceira ocorrência.</t>
+          <t>multa de 0,5% do valor do contrato - na segunda ocorrência.</t>
         </is>
       </c>
     </row>
@@ -9057,7 +9057,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Sujeita-se a Contratada à multa de 10% do valor do contrato nos casos de não cumprimento dos prazos descritos nos itens 4.5.2.2 e 4.5.2.3.</t>
+          <t>dobro do valor da multa a cada nova incidência, e/ou rescisão contratual - a par Ɵr da terceira ocorrência.</t>
         </is>
       </c>
     </row>
@@ -9069,7 +9069,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>A aplicação de qualquer das penalidades previstas realizar-se-á em processo administra Ɵvo que assegurará o contraditório e a ampla defesa à Contratada, observando-</t>
+          <t>Sujeita-se a Contratada à multa de 10% do valor do contrato nos casos de não cumprimento dos prazos descritos nos itens 4.5.2.2 e 4.5.2.3.</t>
         </is>
       </c>
     </row>
@@ -9081,7 +9081,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>A autoridade competente, na aplicação das sanções, levará em consideração a gravidade da conduta do infrator, o caráter educa Ɵvo da pena, bem como o dano</t>
+          <t>A aplicação de qualquer das penalidades previstas realizar-se-á em processo administra Ɵvo que assegurará o contraditório e a ampla defesa à Contratada, observando- se o procedimento previsto na Lei nº 8.666 de 1993, e subsidiariamente a Lei nº 9.784 de 1999.</t>
         </is>
       </c>
     </row>
@@ -9093,7 +9093,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>As penalidades serão obrigatoriamente registradas no SICAF.</t>
+          <t>A autoridade competente, na aplicação das sanções, levará em consideração a gravidade da conduta do infrator, o caráter educa Ɵvo da pena, bem como o dano causado à Contratante, observado o princípio da proporcionalidade.</t>
         </is>
       </c>
     </row>
@@ -9105,7 +9105,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Forma de Pagamento em Função dos Resultados</t>
+          <t>As penalidades serão obrigatoriamente registradas no SICAF.</t>
         </is>
       </c>
     </row>
@@ -9117,7 +9117,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Para o Item 1 do Grupo 1, os serviços serão pagos mensalmente, e o valor será dado pela divisão por 60 meses do valor global do item, condicionado a não haver</t>
+          <t>Forma de Pagamento em Função dos Resultados</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Não cabe ressarcimento em mês posterior do que não foi pago por questões de serviço não executado.</t>
+          <t>Para o Item 1 do Grupo 1, os serviços serão pagos mensalmente, e o valor será dado pela divisão por 60 meses do valor global do item, condicionado a não haver serviço solicitado e não realizado, ou serviço, que não requer solicitação e que deveria ter sido realizado mas não foi.</t>
         </is>
       </c>
     </row>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>No caso de ser executada a migração da plataforma, o valor a ser pago neste Item poderá ser recalculado conforme descrito na seção "ESPECIFICAÇÕES TÉCNICAS"</t>
+          <t>Não cabe ressarcimento em mês posterior do que não foi pago por questões de serviço não executado.</t>
         </is>
       </c>
     </row>
@@ -9153,7 +9153,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Para os Itens 2 e 3 do Grupo 1, cada serviço será pago conforme o aceite da ordem de serviço (OS) relacionada no mês subsequente ao do aceite.</t>
+          <t>No caso de ser executada a migração da plataforma, o valor a ser pago neste Item poderá ser recalculado conforme descrito na seção "ESPECIFICAÇÕES TÉCNICAS" (Grupo 1 - Item 3) deste TR para contemplar o desconto do serviço de nuvem.</t>
         </is>
       </c>
     </row>
@@ -9165,7 +9165,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Para o Item 1 do Grupo 2, o pagamento será realizado por sprints completadas e aprovadas a cada mês, que são aquelas que ob Ɵveram a aprovação ﬁnal do usuário</t>
+          <t>Para os Itens 2 e 3 do Grupo 1, cada serviço será pago conforme o aceite da ordem de serviço (OS) relacionada no mês subsequente ao do aceite.</t>
         </is>
       </c>
     </row>
@@ -9177,7 +9177,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>O valor do produto poderá sofrer glosas conforme o não a Ɵngimento das condições previstas, como atrasos no início da execução, ultrapassagem de prazos, má</t>
+          <t>Para o Item 1 do Grupo 2, o pagamento será realizado por sprints completadas e aprovadas a cada mês, que são aquelas que ob Ɵveram a aprovação ﬁnal do usuário requisitante e da EGC. O valor real das sprints dependerá dos perﬁs proﬁssionais efe Ɵvamente empregados na mesma, podendo diferir por Ɵpo de sprint, mais detalhes no APÊNDICE I.</t>
         </is>
       </c>
     </row>
@@ -9189,7 +9189,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Os serviços são pagos conforme fechamento mensal, no mês subsequente ao aceite, em um único pagamento, no valor deﬁnido em contrato, obedecendo-se aos</t>
+          <t>O valor do produto poderá sofrer glosas conforme o não a Ɵngimento das condições previstas, como atrasos no início da execução, ultrapassagem de prazos, má qualidade do serviço prestado etc. de acordo com os critérios deﬁnidos no Termo de Referência.</t>
         </is>
       </c>
     </row>
@@ -9201,7 +9201,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Do Pagamento</t>
+          <t>Os serviços são pagos conforme fechamento mensal, no mês subsequente ao aceite, em um único pagamento, no valor deﬁnido em contrato, obedecendo-se aos critérios descritos no Termo de Referência.</t>
         </is>
       </c>
     </row>
@@ -9213,7 +9213,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>O pagamento será efetuado mensalmente pela contratante no prazo de até 10 (dez) dias úteis, contados da apresentação da Nota Fiscal/Fatura contendo o</t>
+          <t>Do Pagamento</t>
         </is>
       </c>
     </row>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>O pagamento somente será autorizado depois de efetuado o "atesto" pelo servidor competente, condicionado este ato à veriﬁcação da conformidade da Nota</t>
+          <t>O pagamento será efetuado mensalmente pela contratante no prazo de até 10 (dez) dias úteis, contados da apresentação da Nota Fiscal/Fatura contendo o detalhamento dos serviços executados, através de ordem bancária, para crédito em banco, agência e conta corrente indicados pela contratada.</t>
         </is>
       </c>
     </row>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Alteração subje Ɵva</t>
+          <t>O pagamento somente será autorizado depois de efetuado o "atesto" pelo servidor competente, condicionado este ato à veriﬁcação da conformidade da Nota Fiscal/Fatura apresentada em relação aos serviços efe Ɵvamente prestados e aos materiais empregados.</t>
         </is>
       </c>
     </row>
@@ -9249,7 +9249,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>É admissível a fusão, cisão ou incorporação da contratada com/em outra pessoa jurídica, desde que sejam observados pela nova pessoa jurídica todos os requisitos de</t>
+          <t>Alteração subje Ɵva</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>ESTIMATIVA DE PREÇOS DA CONTRATAÇÃO</t>
+          <t>É admissível a fusão, cisão ou incorporação da contratada com/em outra pessoa jurídica, desde que sejam observados pela nova pessoa jurídica todos os requisitos de habilitação exigidos na licitação original; sejam man Ɵdas as demais cláusulas e condições do contrato; não haja prejuízo à execução do objeto pactuado e haja a anuência expressa da Administração à con Ɵnuidade do contrato.</t>
         </is>
       </c>
     </row>
@@ -9273,7 +9273,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>[Grupo 1 - Item 1] Disponibilização, conﬁguração, manutenção e atualização da plataforma.</t>
+          <t>ESTIMATIVA DE PREÇOS DA CONTRATAÇÃO</t>
         </is>
       </c>
     </row>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>[Grupo 1 - Item 2] Apoio especializado na u Ɵlização da plataforma.</t>
+          <t>[Grupo 1 - Item 1] Disponibilização, conﬁguração, manutenção e atualização da plataforma. Descrição Valor Unitário Qtd. (meses) Valor Disponibilização e manutenção da plataforma R$ 81.805,50 60 R$ 4.908.329,79 Disponibilização e administração da nuvem R$ 0,00 60 R$ 0,00 Total R$ 4.908.329,79</t>
         </is>
       </c>
     </row>
@@ -9297,7 +9297,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>[Grupo 1 - Item 3] Serviço de migração da plataforma e aplicações.</t>
+          <t>[Grupo 1 - Item 2] Apoio especializado na u Ɵlização da plataforma. Tipo Descrição Valor Unitário Qtde. (OS) Valor Total 1 Informações pontuais sobre u Ɵlização da plataforma e desenvolvimento de aplicações R$ 568,67 120 R$ 68.240,00 2 Informações detalhadas sobre u Ɵlização da plataforma e desenvolvimento de aplicações R$ 1.778,67 60 R$ 106.720,00 3 Exportação de aplicação para código fonte R$ 7.098,33 15 R$ 106.475,00 Total - - 195 R$ 281.435,00</t>
         </is>
       </c>
     </row>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>[Grupo 2 - Item 4] Serviço de desenvolvimento de aplicações na plataforma (vide APÊNDICE I).</t>
+          <t>[Grupo 1 - Item 3] Serviço de migração da plataforma e aplicações. Tipo Descrição Valor Unitário Qtde (unidade) Valor Total 1 Migração para serviço de nuvem comercial (na internet) R$ 30.327,58 1 R$ 30.327,58 2 Migração para serviço de nuvem em infraestrutura própria da contratante (no datacenter) ou on-premise R$ 18.026,67 1 R$ 18.026,67 Total - - 2 R$ 48.354,25</t>
         </is>
       </c>
     </row>
@@ -9321,7 +9321,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Valor total da contratação (soma do total das tabelas acima):  R$ 6.762.343,92 (Seis milhões , setecentos e sessenta e dois mil , trezentos e quarenta e três reais e</t>
+          <t>[Grupo 2 - Item 4] Serviço de desenvolvimento de aplicações na plataforma (vide APÊNDICE I). Descrição Valor Unitário Qtde (Meses) Valor Total Custo Mensal de um Time R$ 127.018,74 12 R$ 1.524.224,88 Total - 12 R$ 1.524.224,88</t>
         </is>
       </c>
     </row>
@@ -9333,7 +9333,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>ADEQUAÇÃO ORÇAMENTÁRIA E CRONOGRAMA FÍSICO-FINANCEIRO</t>
+          <t>Valor total da contratação (soma do total das tabelas acima):  R$ 6.762.343,92 (Seis milhões , setecentos e sessenta e dois mil , trezentos e quarenta e três reais e noventa e dois centavos).</t>
         </is>
       </c>
     </row>
@@ -9345,7 +9345,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>DA VIGÊNCIA DO CONTRATO</t>
+          <t>ADEQUAÇÃO ORÇAMENTÁRIA E CRONOGRAMA FÍSICO-FINANCEIRO ID Valor (R$) Fonte (Programa / Ação)SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 24 of 46 07/08/2023 14:261 R$ 6.762.343,92A fonte de recursos a ser u Ɵlizada na contratação da solução de tecnologia de informação é o orçamento da Agência Nacional de Saúde Suplementar, previsto no Programa “Aperfeiçoamento do Sistema Único de Saúde (SUS)”, especiﬁcamente na Ação “Sistema de Informação para a Saúde Suplementar”, de código localizador 10.126.5021.8727.0001 .</t>
         </is>
       </c>
     </row>
@@ -9357,7 +9357,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Os serviços do Grupo 1 devem ser prestados por um período de 5 anos (60 meses) sem prorrogação, enquanto os serviços do Grupo 2 pelo período de 1 ano (12 meses)</t>
+          <t>DA VIGÊNCIA DO CONTRATO</t>
         </is>
       </c>
     </row>
@@ -9369,7 +9369,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Os grupos podem ser arrematados por empresas diferentes, ou pela mesma empresa, estando condicionado o Grupo 2 à plataforma vencedora do Grupo 1.</t>
+          <t>Os serviços do Grupo 1 devem ser prestados por um período de 5 anos (60 meses) sem prorrogação, enquanto os serviços do Grupo 2 pelo período de 1 ano (12 meses) podendo ser prorrogado. As quan Ɵdades referentes ao Grupo 1 são para o período de 5 anos, e do Grupo 2 para o período de 1 ano.</t>
         </is>
       </c>
     </row>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>DO REAJUSTE DE PREÇOS (QUANDO APLICÁVEL)</t>
+          <t>Os grupos podem ser arrematados por empresas diferentes, ou pela mesma empresa, estando condicionado o Grupo 2 à plataforma vencedora do Grupo 1.</t>
         </is>
       </c>
     </row>
@@ -9393,7 +9393,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Os preços são ﬁxos e irreajustáveis no prazo de um ano contado da data limite para a apresentação das propostas.</t>
+          <t>DO REAJUSTE DE PREÇOS (QUANDO APLICÁVEL)</t>
         </is>
       </c>
     </row>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Os preços contratados poderão sofrer reajuste após o interregno de um ano, aplicando-se o Índice de Custos de Tecnologia da Informação - ICTI - exclusivamente para</t>
+          <t>Os preços são ﬁxos e irreajustáveis no prazo de um ano contado da data limite para a apresentação das propostas.</t>
         </is>
       </c>
     </row>
@@ -9417,7 +9417,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Nos reajustes subsequentes ao primeiro, o interregno mínimo de um ano será contado a par Ɵr dos efeitos ﬁnanceiros do úl Ɵmo reajuste.</t>
+          <t>Os preços contratados poderão sofrer reajuste após o interregno de um ano, aplicando-se o Índice de Custos de Tecnologia da Informação - ICTI - exclusivamente para as obrigações iniciadas e concluídas após a ocorrência da anualidade.</t>
         </is>
       </c>
     </row>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>No caso de atraso ou não divulgação do índice de reajustamento, o CONTRATANTE pagará à CONTRATADA a importância calculada pela úl Ɵma variação conhecida,</t>
+          <t>Nos reajustes subsequentes ao primeiro, o interregno mínimo de um ano será contado a par Ɵr dos efeitos ﬁnanceiros do úl Ɵmo reajuste.</t>
         </is>
       </c>
     </row>
@@ -9441,7 +9441,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Nas aferições ﬁnais, o índice u Ɵlizado para reajuste será, obrigatoriamente, o deﬁni Ɵvo.</t>
+          <t>No caso de atraso ou não divulgação do índice de reajustamento, o CONTRATANTE pagará à CONTRATADA a importância calculada pela úl Ɵma variação conhecida, liquidando a diferença correspondente tão logo seja divulgado o índice deﬁni Ɵvo. Fica a CONTRATADA obrigada a apresentar memória de cálculo referente ao reajustamento de preços do valor remanescente, sempre que este ocorrer.</t>
         </is>
       </c>
     </row>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Caso o índice estabelecido para reajustamento venha a ser ex Ɵnto ou de qualquer forma não possa mais ser u Ɵlizado, será adotado, em subs Ɵtuição, o que vier a ser</t>
+          <t>Nas aferições ﬁnais, o índice u Ɵlizado para reajuste será, obrigatoriamente, o deﬁni Ɵvo.</t>
         </is>
       </c>
     </row>
@@ -9465,7 +9465,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Na ausência de previsão legal quanto ao índice subs Ɵtuto, as partes elegerão novo índice oﬁcial, para reajustamento do preço do valor remanescente, por meio de</t>
+          <t>Caso o índice estabelecido para reajustamento venha a ser ex Ɵnto ou de qualquer forma não possa mais ser u Ɵlizado, será adotado, em subs Ɵtuição, o que vier a ser determinado pela legislação então em vigor.</t>
         </is>
       </c>
     </row>
@@ -9477,7 +9477,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>O reajuste será realizado por apos Ɵlamento.</t>
+          <t>Na ausência de previsão legal quanto ao índice subs Ɵtuto, as partes elegerão novo índice oﬁcial, para reajustamento do preço do valor remanescente, por meio de termo adi Ɵvo.</t>
         </is>
       </c>
     </row>
@@ -9489,7 +9489,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>CRITÉRIOS DE SELEÇÃO DO FORNECEDOR</t>
+          <t>O reajuste será realizado por apos Ɵlamento.</t>
         </is>
       </c>
     </row>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Regime, Tipo e Modalidade da Licitação</t>
+          <t>CRITÉRIOS DE SELEÇÃO DO FORNECEDOR</t>
         </is>
       </c>
     </row>
@@ -9513,7 +9513,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>O regime de execução contratual será por preço unitário e a adjudicação será por grupo, conforme lei 8.666.</t>
+          <t>Regime, Tipo e Modalidade da Licitação</t>
         </is>
       </c>
     </row>
@@ -9525,7 +9525,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>A licitação será realizada na modalidade de Pregão Eletrônico, com julgamento pelo critério de menor valor por grupos, conforme valores apurados na planilha de</t>
+          <t>O regime de execução contratual será por preço unitário e a adjudicação será por grupo, conforme lei 8.666.</t>
         </is>
       </c>
     </row>
@@ -9537,7 +9537,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Para evitar conﬂitos de interesses, devido à separação das a Ɵvidades essenciais e crí Ɵcas de TI e em atenção ao art. 4º da IN nº 1 SGD/ME de 2019, segue abaixo</t>
+          <t>A licitação será realizada na modalidade de Pregão Eletrônico, com julgamento pelo critério de menor valor por grupos, conforme valores apurados na planilha de custos e formação de preço, e adjudicação conforme abaixo, atendidas as especiﬁcações e caracterís Ɵcas técnicas exigidas no presente documento.</t>
         </is>
       </c>
     </row>
@@ -9549,7 +9549,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>É vedada a par Ɵcipação de consórcio de empresas, qualquer que seja sua forma de cons Ɵtuição, face à divisão da licitação e contratação dos serviços por lote/item,</t>
+          <t>Para evitar conﬂitos de interesses, devido à separação das a Ɵvidades essenciais e crí Ɵcas de TI e em atenção ao art. 4º da IN nº 1 SGD/ME de 2019, segue abaixo vedações no que tange à adjudicação do objeto da presente contratação:</t>
         </is>
       </c>
     </row>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>É vedada a par Ɵcipação de sociedades coopera Ɵvas ou associa Ɵvas, em razão do Decreto 2271/97 e Termo de Ajustamento de Conduta ﬁrmado entre a União e o</t>
+          <t>É vedada a par Ɵcipação de consórcio de empresas, qualquer que seja sua forma de cons Ɵtuição, face à divisão da licitação e contratação dos serviços por lote/item, garanƟndo o maior número de licitantes, maior disputa entre os compe Ɵdores, a ﬁnalidade e segurança da contratação e a obtenção da proposta mais vantajosa para a ANS;</t>
         </is>
       </c>
     </row>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>JusƟﬁcaƟva para a Aplicação do Direito de Preferência e Margens de Preferência</t>
+          <t>É vedada a par Ɵcipação de sociedades coopera Ɵvas ou associa Ɵvas, em razão do Decreto 2271/97 e Termo de Ajustamento de Conduta ﬁrmado entre a União e o Ministério Público do Trabalho, nos autos da Ação Civil Pública no. 01082-2-2002-020-10-00 que tramitou perante a 20ª Vara do Trabalho do DF, e Acórdãos do TCU no. 1008/2003 – 2ª Câmara e 1937/2003 – Plenário, além da incompa Ɵbilidade entre a natureza das sociedades e a forma de organização do trabalho a ser executado.</t>
         </is>
       </c>
     </row>
@@ -9585,7 +9585,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Será exigido que a licitante comprove capacidade técnica nas tecnologias e/ou serviços previstas no presente termo e seus anexos, assim, devem apresentar, no ato da</t>
+          <t>JusƟﬁcaƟva para a Aplicação do Direito de Preferência e Margens de Preferência</t>
         </is>
       </c>
     </row>
@@ -9597,7 +9597,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Dever ser observado os art. 44 e 45 da lei complementar 123/2006.</t>
+          <t>Será exigido que a licitante comprove capacidade técnica nas tecnologias e/ou serviços previstas no presente termo e seus anexos, assim, devem apresentar, no ato da habilitação, o(s) atestado(s) de capacidade técnica para os Grupos.</t>
         </is>
       </c>
     </row>
@@ -9609,7 +9609,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Para a comprovação da capacidade técnico-operacional das empresas licitantes, e desde que limitada, simultaneamente, às parcelas de maior relevância e valor</t>
+          <t>Dever ser observado os art. 44 e 45 da lei complementar 123/2006.</t>
         </is>
       </c>
     </row>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Critérios de Habilitação – Qualiﬁcação Técnica (Art. 30 – Lei 8.666/93):</t>
+          <t>Para a comprovação da capacidade técnico-operacional das empresas licitantes, e desde que limitada, simultaneamente, às parcelas de maior relevância e valor signiﬁcaƟvo do objeto a ser contratado, é legal a exigência de comprovação da execução de quan ƟtaƟvos mínimos em obras ou serviços com caracterís Ɵcas semelhantes, devendo essa exigência guardar proporção com a dimensão e a complexidade do objeto a ser executado.</t>
         </is>
       </c>
     </row>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Poderá o pregoeiro ou a equipe técnica responsável sanar a ausência de informações nas declarações citadas no quadro acima por meio de diligências, quando</t>
+          <t>Critérios de Habilitação – Qualiﬁcação Técnica (Art. 30 – Lei 8.666/93): Id Critério Jus ƟﬁcaƟva 1Para o Grupo 1: Declarações emi Ɵdas por pessoa jurídica de direito público ou privado, nacionais ou internacionais (em português brasileiro), informando que a licitante prestou serviços nos quais u Ɵlizou os conhecimentos exigidos neste Termo de Referência, durante, no mínimo 50% do período de tempo da contratação es Ɵpulada neste TR em meses ou anos. Deverá constar: Razão social e demais dados de iden Ɵﬁcação do emitente; meio de comunicação (telefone, e-mail); endereço completo; período da prestação do serviço; breve resumo do escopo do serviço; local, data, iden Ɵﬁcação do emitente e assinatura; comentários sobre os trabalhos da licitante e resultados ob Ɵdos. Pode-se somar atestados de forma a completar o período de tempo.Comprovar que a empresa possui os conhecimentos necessários para prestar o suporte técnico e apoio no funcionamento das ferramentas da plataforma conforme os requisitos do Termo de Referência. 2Para o Grupo 1: Declarações emi Ɵdas por pessoas jurídicas de direito público ou privado, nacionais ou internacionais (em português brasileiro), no qual tenha implantado e administrado em nuvem a plataforma low-code, informando do sucesso da implantação e o tempo real de execução do projeto. Deverá constar as mesmas informações do item 1, acima.Comprovar que a empresa já executou a Ɵvidades semelhantes e possibilitar à contratante conhecer o serviço prestado contactando a declarante. 3Para o Grupo 2: Declarações emi Ɵdas por pessoa jurídica de direito público ou privado, nacionais ou internacionais (em português brasileiro), no qual tenha construído aplicações na plataforma, informando da qualidade das aplicações construídas e cumprimento de prazos, com pelo menos 50% do quan ƟtaƟvo de sprints executadas deﬁnido neste TR. Deverá constar as mesmas informações do item 1, acima. Pode-se somar atestados de forma a completar o quan ƟtaƟvo.Comprovar que a empresa já executou projetos semelhantes e possibilitar à contratante conhecer o serviço prestado contactando a declarante.</t>
         </is>
       </c>
     </row>
@@ -9645,7 +9645,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Devido aos riscos rela Ɵvos a esta contratação, citados na etapa de planejamento, recomenda-se a avaliação criteriosa das possibilidades da empresa em manter</t>
+          <t>Poderá o pregoeiro ou a equipe técnica responsável sanar a ausência de informações nas declarações citadas no quadro acima por meio de diligências, quando considerar per Ɵnente.</t>
         </is>
       </c>
     </row>
@@ -9657,7 +9657,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Caracterização da Solução</t>
+          <t>Devido aos riscos rela Ɵvos a esta contratação, citados na etapa de planejamento, recomenda-se a avaliação criteriosa das possibilidades da empresa em manter serviço deste porte por longo período de tempo e da conﬁabilidade da ferramenta de low-code oferecida. Recomenda-se, em caso de dúvidas, não contratar.</t>
         </is>
       </c>
     </row>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Aquisição de Bens e serviços comuns (conforme parágrafo único do art. 25 da IN SGD/ME nº 01 de 2019).SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w...</t>
+          <t>Caracterização da Solução</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>O objeto a ser contratado é serviço classiﬁcado como comum nos termos da Lei 10.520/2002.</t>
+          <t>Aquisição de Bens e serviços comuns (conforme parágrafo único do art. 25 da IN SGD/ME nº 01 de 2019).SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 25 of 46 07/08/2023 14:2612.5. Da Classiﬁcação dos Serviços</t>
         </is>
       </c>
     </row>
@@ -9693,7 +9693,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Os serviços a serem contratados enquadram-se nos pressupostos do Decreto 9.507, de 2018, cons Ɵtuindo-se em a Ɵvidades materiais acessórias, instrumentais ou</t>
+          <t>O objeto a ser contratado é serviço classiﬁcado como comum nos termos da Lei 10.520/2002.</t>
         </is>
       </c>
     </row>
@@ -9705,7 +9705,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>A prestação dos serviços não gera vínculo emprega Ɵcio entre os empregados da Contratada e a Administração, vedando-se qualquer relação entre estes que</t>
+          <t>Os serviços a serem contratados enquadram-se nos pressupostos do Decreto 9.507, de 2018, cons Ɵtuindo-se em a Ɵvidades materiais acessórias, instrumentais ou complementares à área de competência legal do órgão licitante, não inerentes às categorias funcionais abrangidas por seu respec Ɵvo plano de cargos.</t>
         </is>
       </c>
     </row>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Processo de Amostra da Ferramenta</t>
+          <t>A prestação dos serviços não gera vínculo emprega Ɵcio entre os empregados da Contratada e a Administração, vedando-se qualquer relação entre estes que caracterize pessoalidade e subordinação direta.</t>
         </is>
       </c>
     </row>
@@ -9729,7 +9729,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Atendidos os critérios da tabela acima, e os critérios de qualiﬁcação econômica deﬁnidos no edital, a licitante classiﬁcada em primeiro lugar no Grupo 1 deverá</t>
+          <t>Processo de Amostra da Ferramenta</t>
         </is>
       </c>
     </row>
@@ -9741,7 +9741,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Se a amostra não atender aos requisitos poderá ser chamada a próxima licitante por ordem de classiﬁcação no certame para fazer a amostra de sua ferramenta.</t>
+          <t>Atendidos os critérios da tabela acima, e os critérios de qualiﬁcação econômica deﬁnidos no edital, a licitante classiﬁcada em primeiro lugar no Grupo 1 deverá executar amostra da ferramenta com vistas a aferição no que tange ao atendimento às caracterís Ɵcas técnicas da plataforma.</t>
         </is>
       </c>
     </row>
@@ -9753,7 +9753,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>A contratante deﬁnirá a equipe que avaliará a amostra, que deverá conter, pelo menos, dois servidores da TI e mais um servidor.</t>
+          <t>Se a amostra não atender aos requisitos poderá ser chamada a próxima licitante por ordem de classiﬁcação no certame para fazer a amostra de sua ferramenta.</t>
         </is>
       </c>
     </row>
@@ -9765,7 +9765,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>A licitante deverá disponibilizar proﬁssionais técnicos capacitados, tanto para apresentar as funcionalidades e capacidades da ferramenta, quanto para responder</t>
+          <t>A contratante deﬁnirá a equipe que avaliará a amostra, que deverá conter, pelo menos, dois servidores da TI e mais um servidor.</t>
         </is>
       </c>
     </row>
@@ -9777,7 +9777,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>O processo de amostra deverá ser feito u Ɵlizando-se das funcionalidades da ferramenta, em tempo real, e também através de documentação da ferramenta no que</t>
+          <t>A licitante deverá disponibilizar proﬁssionais técnicos capacitados, tanto para apresentar as funcionalidades e capacidades da ferramenta, quanto para responder aos quesƟonamentos da equipe de avaliação da amostra.</t>
         </is>
       </c>
     </row>
@@ -9789,7 +9789,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>O processo de amostra envolverá também o desenvolvimento de uma aplicação simples (CRUD) conforme critérios deﬁnidos pela equipe de avaliação da amostra,</t>
+          <t>O processo de amostra deverá ser feito u Ɵlizando-se das funcionalidades da ferramenta, em tempo real, e também através de documentação da ferramenta no que for necessário e aplicável.</t>
         </is>
       </c>
     </row>
@@ -9801,7 +9801,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Não será permi Ɵdo o uso de ferramentas que não façam parte da plataforma para acelerar ou complementar a apresentação das capacidades da mesma.</t>
+          <t>O processo de amostra envolverá também o desenvolvimento de uma aplicação simples (CRUD) conforme critérios deﬁnidos pela equipe de avaliação da amostra, visando testar as caracterís Ɵcas de aceleração de desenvolvimento e de publicação de aplicações em diversos ambientes (por exemplo: desenvolvimento, homologação, produção etc.) fornecidos por este Ɵpo de plataforma.</t>
         </is>
       </c>
     </row>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Mais detalhes sobre o processo de amostra encontra-se no Anexo IV do Edital.</t>
+          <t>Não será permi Ɵdo o uso de ferramentas que não façam parte da plataforma para acelerar ou complementar a apresentação das capacidades da mesma.</t>
         </is>
       </c>
     </row>
@@ -9825,7 +9825,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>DA EQUIPE DE PLANEJAMENTO DA CONTRATAÇÃO E DA APROVAÇÃO</t>
+          <t>Mais detalhes sobre o processo de amostra encontra-se no Anexo IV do Edital.</t>
         </is>
       </c>
     </row>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>A Equipe de Planejamento da Contratação foi ins Ɵtuída pela PORTARIA Nº 20/2022/COLIC/GECOL/GGAFI/DIGES/ANS, de 17 de maio de 2022.</t>
+          <t>DA EQUIPE DE PLANEJAMENTO DA CONTRATAÇÃO E DA APROVAÇÃO</t>
         </is>
       </c>
     </row>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Conforme o §6º do art. 12 da IN SGD/ME nº 01, de 2019, o Termo de Referência será assinado pela Equipe de Planejamento da Contratação e pela autoridade máxima</t>
+          <t>A Equipe de Planejamento da Contratação foi ins Ɵtuída pela PORTARIA Nº 20/2022/COLIC/GECOL/GGAFI/DIGES/ANS, de 17 de maio de 2022.</t>
         </is>
       </c>
     </row>
@@ -9892,7 +9892,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Informações Básicas</t>
+          <t>Conforme o §6º do art. 12 da IN SGD/ME nº 01, de 2019, o Termo de Referência será assinado pela Equipe de Planejamento da Contratação e pela autoridade máxima da Área de TIC e aprovado pela autoridade competente. Nomes dos Integrantes Requisitantes SIAPE Bruno Conde de Miranda Costa 1556146 Regina Volpini Castanheiro de Carvalho Costa 2316998 Nome do Integrante Técnico SIAPE Sergio Oliveira Costa Junior 1527534 Nomes dos Integrantes Administra Ɵvos SIAPE Sergio de Souza Silveira 1727717 Jheronimo Anzolin Rodrigues 1506206 Nome da Gerente de Tecnologia da Informação SIAPE Luciene Pinheiro Capra 1538489 APÊNDICE DO ANEXO I – ESTUDO TÉCNICO PRELIMINAR Estudo Técnico Preliminar 38/2022</t>
         </is>
       </c>
     </row>
@@ -9904,7 +9904,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Descrição da necessidade</t>
+          <t>Informações Básicas Número do processo: 33910.012598/2022-90</t>
         </is>
       </c>
     </row>
@@ -9916,7 +9916,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Área requisitante</t>
+          <t>Descrição da necessidade Cenário Atual: Desde 2011 a ANS vem reestruturando seus processos e contratos na área de TI para adequação às normas e leis federais, e em busca de melhorar a qualidade dos sistemas de informação e agilizar o processo de desenvolvimento de aplicações, em vista da grande quan Ɵdade de demandas das áreas requisitantes. Inspirado no que vinha ocorrendo no mercado, há poucos anos foi adotada a metodologia ágil para melhorar os tempos de entrega das aplicações, mas chegou-se a um ponto em que não se consegue mais reduzir os prazos de desenvolvimento de aplicações (ver e-mails do anexo II). Em paralelo a isso, há alguns anos investe-se também na montagem de uma esteira de DevOps, usando tecnologias abertas como Jenkins, ZAP OWASP (segurança), Selenium (teste), Flyway (gerencia de banco de dados) etc. Porém, tem havido diﬁculdades técnicas em infraestrutura para conseguir fazer funcionar uma esteira completa de integração e entrega con ơnuas (ver e-mails do anexo III), que poderia agilizar o processo de entrega de so Ōware em termos de promoção e criação de ambientes (desenvolvimento, homologação e produção). De acordo com o Gartner (ver citação abaixo), plataformas low-code ajudam a reduzir o tempo de entrega em projetos de so Ōware, não apenas no que concerne ao DevOps (integração e entrega con ơnuas), mas também, e principalmente, por facilitar o desenvolvimento da aplicação. Portanto, a adoção de uma ferramenta deste Ɵpo, que propicia gestão automa Ɵzada e integrada das diversas fases de um projeto além de facilitar a construção do so Ōware, melhorará o tempo de entrega das aplicações aos seus usuários ﬁnais. Esta busca por melhorias encontra embasamento no art. 37 da Cons Ɵtuição Federal, cujos princípios deﬁnem que a administração deve primar pela eﬁciência em seus serviços, o que se aplica à área de TI em relação aos seus usuários. [Citação re Ɵrada de documento do Gartner na internet e traduzida para o português (h Ʃps://www.gartner.com/en/documents /4005973) - “As plataformas de aplica Ɵvos low-code (LCAPs) fornecem recursos de desenvolvimento, automação e governança abstratos e guiados, permi Ɵndo que desenvolvedores proﬁssionais e cidadãos desenvolvam rapidamente soluções digitais.”] Visão: EsƟma-se que, além de agilizar o desenvolvimento de novas aplicações, a u Ɵlização de ferramenta low-code para fazer a migração das aplicações an Ɵgas (legadas) para uma nova plataforma reduzirá a lista de pendências de manutenções, tanto evolu Ɵvas, quanto corre Ɵvas, e eliminará problemas em sistemas importantes, melhorando assim a automação dos processos atualmente impactados por eles. Analistas do Gartner, avaliando o caso especíﬁco da ANS, relataram que todas as ações para melhoria dos prazos de entrega de sistemas seguidos pelo órgão foram corretos,SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 26 of 46 07/08/2023 14:26e que o único passo agora seria a adoção de uma ferramenta low-code (ver e-mails do anexo IV). Além disso, ao adotar uma plataforma low-code e desenvolver as aplicações nela, a infraestrutura dos sistemas legados, que hoje é diversiﬁcada, poderá se tornar única. EsƟma-se ainda que, a médio e longo prazo, a necessidade de pessoal técnico para desenvolvimento de so Ōware se reduza, pois um único perﬁl proﬁssional atenderá à tecnologia de todas essas aplicações e com uma velocidade de desenvolvimento maior do que a de hoje. Uma caracterís Ɵca interessante das plataformas low-code é o que se chama de “desenvolvedor cidadão” (ci Ɵzen developer), que consiste na possibilidade do próprio usuário criar algumas das aplicações de que necessita, sendo capaz de atender, ele mesmo, algumas de suas necessidades de so Ōware. Ao permi Ɵr ao usuário criar aplicações e adequá-las ao seu dia a dia, alivia-se um pouco da carga de trabalho da área de informá Ɵca. Desta forma, a Organização pode elaborar um plano para adotar tal prá Ɵca, sem desconsiderar, no entanto, as limitações existentes. Riscos: De acordo com o Mapa dos Riscos (anexo I), elaborado pela equipe de planejamento da contratação, a maior preocupação é a dependência do órgão em relação à plataforma, pois não há como adotar qualquer plataforma sem se tornar dependente dela, ou seja, isso não é um risco realmente, mas um fato. Então, a avaliação do caso deve concentrar-se na relação entre a dependência e os bene İcios obƟdos. Tudo o que foi descrito acima, mostra os bene İcios na adoção deste Ɵpo de ferramenta. Assim como, ao adotar a linguagem Java, aceitou-se a dependência em relação a uma infraestrutura de servidores Java, ao adotar uma ferramenta low-code será aceita uma dependência rela Ɵva a ela. Devido a grande demanda por sistemas de informação, que é compar Ɵlhada por todas as ins Ɵtuições no mundo, torna-se tolerável tal dependência e procura-se "suavizar" os riscos a ela inerentes, conforme o mapa de riscos já citado. Algumas plataformas são capazes de exportar as aplicações para código Java (ou outra linguagem), possibilitando, no futuro (em caso de necessidade, ou decisão estratégica), implantar os aplica Ɵvos diretamente nos servidores web, independentes da plataforma low-code. Além disso, plataformas com tecnologias de contêineres permitem a migração da aplicação que está executando em produção diretamente para um gerenciador de contêineres, possibilitando que os serviços con Ɵnuem em execução. Mas essas caracterís Ɵcas dependem da plataforma adotada. As plataformas Outsystems, Mendix e Cronapp, foram as escolhidas para levantamento de caracterís Ɵcas e avaliação por esta EPC (equipe de planejamento da contratação) por serem completas em termos de funcionalidades de uma plataforma de desenvolvimento low-code com esteira DevOps (CI&amp;CD). As duas primeiras (Outsystems e Mendix) foram selecionadas com base no Quadrante Mágico do Gartner (anexo XII), e por serem consideradas as principais do mercado; e a terceira (Cronapp, anexo VI) foi selecionada por ser a única ferramenta brasileira, com todas essas caracterís Ɵcas, que se tem conhecimento, e que já possui contrato na administração pública. A empresa responsável pela Outsystems deixou claro que sua ferramenta exporta apenas para tecnologia “.NET” (anexo V), não sendo possível exportar a aplicação em execução. Durante o processo de planejamento a equipe conseguiu, através de reunião a distância, ver demonstração de geração de código fonte de uma aplicação feita por representantes desta ferramenta. A ferramenta Mendix, de acordo com a empresa representante, é capaz de exportar para código Java e também exporta o aplica Ɵvo em execução através da tecnologia de contêineres. A ferramenta Cronapp já cria as aplicações em código Java, e os representantes com os quais se conversou, até então não souberam informar se ela exporta a aplicação em execução através de contêineres ou outra forma. Uma outra questão de risco é a escolha da infraestrutura de implantação da plataforma, que pode ser em nuvem pública, privada ou on-premise. O risco R15 do mapa de riscos descreve a preocupação em relação a diﬁculdades na área de infraestrutura. Alguns problemas encontrados em projetos anteriores (esteira de DevOps e implantação da ferramenta de gestão de serviços e iden Ɵdade) demonstraram que pode haver grandes diﬁculdades em implantar uma plataforma deste Ɵpo em produção na infraestrutura da agência. Por isso, esta EPC considerou mais seguro vincular a prestação deste serviço a uma nuvem gerenciada pela contratada. Alguns outros riscos importantes são os relacionados ao acesso da plataforma ao ambiente de rede da agência. Estes riscos se referem à base de dados, mas também ao próprio link de acesso (R17 e R18). Uma estratégia pensada pela equipe é a de desenvolver os sistemas de forma autocon Ɵda na plataforma (banco de dados na nuvem da plataforma), assim, reduziria o acesso da plataforma ao banco corpora Ɵvo. Mas isso implicaria, na verdade, em criar outro banco corpora Ɵvo, aquele da nuvem, e, para sistemas legados reformulados na ferramenta poderia haver uma duplicidade de bases em determinado momento. Será necessário, a cada projeto de reformulação de sistema legado, fazer a avaliação e levantamento dos acessos à base de dados e deﬁnir a melhor estratégia para evitar a falta de acesso aos dados e também o acesso a dados desatualizados pelos sistemas que os u Ɵlizam. Uma boa solução seria a u Ɵlização de serviços web para acesso a dados dos principais sistemas da agência. Todas as decisões tomadas no processo de planejamento desta contratação basearam-se na premissa de que a ANS reconhece que os bene İcios trazidos por uma plataforma low-code (aumento da produ Ɵvidade no desenvolvimento de soluções de so Ōware, e consequentemente a melhoria na automação dos processos de trabalho), superam, em muito, os problemas que poderão ocorrer devido à dependência. As autoridades da ANS estão cientes deste fato, e poderão analisar os detalhes nos artefatos deste planejamento de contratação. Estratégia e jus ƟﬁcaƟva para contratação prolongada: Com base nos riscos relacionados à dependência da plataforma decidiu-se por fazer uma contratação dos serviços de licença e/ou subscrição pelo período prolongado de 5 anos (60 meses). Não se considera recomendável executar anualmente um processo que possa implicar na troca de tal ferramenta quando não haja a real necessidade técnica ou ﬁnanceira. O impacto em ter de migrar de plataforma a cada ano, ou mesmo em um período um pouco maior, traria à ins Ɵtuição um ônus muito grande, tanto em tempo, quanto em recursos humanos, pois é um trabalho que aumenta de tamanho conforme os sistemas são desenvolvidos na ferramenta. De fato, os bene İcios que a ferramenta traz, de melhorar o tempo de resposta da TI, seriam perdidos neste contexto. Além do que foi descrito acima, a experiência mostra que, em muitos casos, as empresas tendem a aumentar os valores de seus serviços nos momentos de repactuação contratual ao perceberem a relação de dependência da ins Ɵtuição para com suas ferramentas. A contratação por período prolongado reduz este Ɵpo de ocorrência de “empoderamento” da contratada, pois o valor pactuado será man Ɵdo por mais tempo. É preciso compreender que os bene İcios de uma contratação prolongada, garan Ɵndo um atendimento mais célere e qualita Ɵvo da TI a seus clientes, supera qualquer ganho que possa exis Ɵr em realizar novo processo de contratação. Além disso, essa estabilidade é importante para ajudar a alcançar as metas do: Planejamento Estratégico 2021/2024: Dimensão “Processos Internos” com Obje Ɵvo Estratégico “Aprimorar os processos crí Ɵcos de trabalho”; Dimensão “Infraestrutura e Aprendizagem” com Obje Ɵvo Estratégico “13 - Modernizar e ampliar os recursos de TIC com foco na transformação digital”. PDTI 2022/2023: ObjeƟvo "Aprimorar a eﬁciência das entregas de desenvolvimento e interoperabilidade com os sistemas GovBr e os regulados" com Ação "A6 - Elaboração de nova contratação de desenvolvimento: Estudo, planejamento e contratação" e Meta "M2 - Garan Ɵr a eﬁciência das entregas do desenvolvimento". A nova lei de licitações, 14.133/2021, em seu art. 106 aventa a possibilidade de contratações por períodos prolongados (até 5 anos) para situações em que isso seja o melhor para o interesse público. Inclusive, em seu parágrafo 2º deixa explícito a aplicação destes prazos para u Ɵlização de programas de informá Ɵca, que é o caso, pois uma plataforma low-code é um programa, ou um conjunto deles. Ou seja, até o legislador foi sensibilizado por estes casos especíﬁcos de informá Ɵca, reforçando o que foi dito nos parágrafos anteriores. Para ampliar ainda mais a avaliação deste caso foi realizada pesquisa de valores (preços) com fornecedores de diferentes ferramentas em um cenário no qual a plataforma é manƟda em nuvem pública gerenciada pela própria contratada (cenário deﬁnido para facilitar a avaliação). Nesta pesquisa pôde-se constatar que o valor anual das licenças e/ou subscrições tendem a cair quando a contratação é por um período mais longo, veja os valores no anexo XIV. A tabela do anexo mostra claramente a queda do valor anual, sendo que a diferença é maior para um contrato de 5 anos do que para um contrato de 3 anos. Como a intenção da pesquisa era apenas levantar a reação do mercado aos diferentes prazos de contratação, ela descreve apenas as caracterís Ɵcas técnicas comuns às ferramentas estudadas pela EPC em um cenário de fácil avaliação para as empresas. Por tudo que foi descrito, pode-se concluir que uma contratação anual de licença/subscrição, neste caso, teria o efeito contrário ao da Economicidade, e provavelmente prejudicaria a Eﬁciência do serviço frente aos obje Ɵvos que se deseja alcançar. Estratégia e jus ƟﬁcaƟva para contratação de desenvolvimento e metodologia de mensuração:SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 27 of 46 07/08/2023 14:26A ANS não possui proﬁssionais especializados em desenvolvimento em plataformas low-code, nem pode, antes do resultado desta contratação, solicitar o treinamento dos proﬁssionais existentes nas empresas que prestam serviço atualmente por não saber qual ferramenta será contratada. Em vista disso, faz-se necessária contratação de empresa que desenvolva as aplicações especiﬁcamente na plataforma contratada, e assim, não possibilitar que a ferramenta ﬁque ociosa após a contratação. Devido às diﬁculdades encontradas em contratos anteriores que u Ɵlizavam a metodologia de Pontos por Função para mensuração de sistemas, já citadas em contratações recentes, além da necessidade de possuir pessoal técnico especializado para avaliar a contagem realizada pela empresa de desenvolvimento, o que traz grande ônus para o órgão; devido à constatação de problemas relacionados a deﬁnições e formas de controle por órgãos que adotaram metodologias baseadas em UST (e similares), mo Ɵvos pelos quais existem os acórdãos 2.037/2019 e 1.508/2020 do Plenário do TCU; devido também a pouca quan Ɵdade de servidores na TI, que são responsáveis por, além de outras aƟvidades, ﬁscalizarem todos os contratos, e por isso disporem de pouco tempo para um acompanhamento mais detalhista requerido em uma contratação por Pontos de Função ou UST; é que esta EPC resolveu u Ɵlizar uma metodologia bem mais simples, baseada em objetos de aplicação (anexo VII), totalmente embasada naquela criada por uma das empresas de plataforma low-code (Outsystems) para mensurar as aplicações nos contratos com seus clientes privados. A empresa Outsystems, através de representante em contato com esta EPC, informou em reunião via TEAMS no dia 28/04/2022 que não havia qualquer restrição por parte da empresa à u Ɵlização de sua metodologia. Esta informação foi conﬁrmada nos emails dos dias 28/04/2022 e 29/04/2022 (anexo VIII). Desta forma, considera-se que a metodologia pode ser u Ɵlizada conforme as necessidades da administração. Ainda em conversas com representantes da empresa, a equipe recebeu a informação de que a metodologia vem sendo empregada a contento há vários anos. Ficou claro nas declarações dos representantes da empresa, tanto em reunião, quanto por e-mail (anexo IX), que eles não veem necessidade de entrar em maiores níveis de complexidade, pois seria algo mais di İcil de uƟlizar; além disso, a agilidade que uma ferramenta low-code oferece para o desenvolvimento de aplicações parece tornar desnecessário diferenciar mais níveis de complexidade do que aquele u Ɵlizado na metodologia empregada por eles, pois não haveria grandes acréscimos de esforço rela Ɵvo ao tamanho dos objetos da aplicação. Essa visão deverá ser comprovada na prá Ɵca, e a boa evolução deste contrato poderá servir de base para contratos futuros nesta área, em contraponto às diﬁculdades encontradas no uso de Pontos de Função e UST. Como a metodologia citada é baseada em itens comuns a qualquer ferramenta de desenvolvimento de so Ōware (telas, tabelas e serviços web), considera-se que ela se adéqua perfeitamente a qualquer plataforma low-code que seja contratada e, por sua simplicidade, a contagem realizada pode ser avaliada com mais facilidade pela ﬁscalização e mesmo por uma auditoria. Licitação: Considera-se essencial a exigência de comprovação de por ƞólio de clientes (iden Ɵﬁcação e endereço que possibilite diligência) e de saúde ﬁnanceira da empresa, no processo de licitação, devido ao grande impacto funcional e estratégico, dos serviços a serem contratados, para o dia a dia do órgão. A adoção de ferramenta low-code, como já foi dito, gera uma relação de dependência dos sistemas de informação, de tal forma que diversas a Ɵvidades ﬁnalís Ɵcas podem ser comprome Ɵdas caso haja algum problema com a plataforma ou o fornecedor. Desta forma, é essencial garan Ɵr que a contratada possua capacidade de se recuperar de possíveis problemas, tanto técnicos, quanto ﬁnanceiros, que possam comprometer a prestação destes serviços. Além disso, recomenda-se que, no caso de não ﬁcar comprovado que a ferramenta é robusta, e que a empresa possui liquidez suﬁciente para manter-se no contrato por diversos anos, que a contratação não seja ra Ɵﬁcada (ver risco R12 no mapa de riscos). A EPC recomenda, que, para esta contratação, não seja feito contrato com microempresas que possuam solução própria de ferramenta low-code devido ao impacto que a não prestação repen Ɵna do serviço pode causar ao órgão, ou com qualquer outra empresa para a qual não se consiga demonstrar conﬁabilidade neste sen Ɵdo. Estudo de Infraestrutura e Segurança da informação: Conforme informado no item 2.3, acima, devido às diﬁculdades encontradas na área de infraestrutura e à necessidade de manter a plataforma funcionando corretamente, independente destas diﬁculdades, é que esta EPC considerou mais adequada a u Ɵlização da ferramenta em nuvem gerenciada pela empresa contratada. Soma-se a isso o fato de que, em geral, estas ferramentas são desenvolvidas para trabalharem em nuvem. Além disso, em vista dos riscos citados anteriormente e do impacto que pode haver na infraestrutura e segurança da informação, foi solicitado às áreas de infraestrutura e segurança da informação da GETI para fazerem sua avaliação e fornecerem um parecer sobre o assunto, como mostra o e-mail do dia 11/03/2022 (anexo X). Assim, foi realizada a reunião do dia 30/03/2022 com alguns par Ɵcipantes presentes na sede da ANS e outros a distância através do TEAMS, entre eles os coordenadores das áreas interessadas COSAP (Sistemas), COSIT (Infraestrutura) e COMAG (Segurança). No dia 11/04/2022 foi encaminhado e-mail (anexo XI) para as áreas de Infraestrutura e Segurança sobre o posicionamento em relação ao assunto, mas não houve resposta até o momento.</t>
         </is>
       </c>
     </row>
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Necessidades de Negócio</t>
+          <t>Área requisitante Área Requisitante: COSAP Responsável: Bruno Conde de Miranda Costa</t>
         </is>
       </c>
     </row>
@@ -9940,7 +9940,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Necessidades Tecnológicas</t>
+          <t>Necessidades de Negócio Necessidade de automação e/ou melhoria na automação dos processo de trabalho das diversas áreas. Necessidade de melhoria na troca de informações com os entes regulados e a sociedade em geral u Ɵlizando-se de sistemas de informação. Desenvolvimento de diversas aplicações novas, além de manutenções evolu Ɵvas, corre Ɵvas e adapta Ɵvas para adequação aos processos das áreas de negócio e da TI.</t>
         </is>
       </c>
     </row>
@@ -9952,7 +9952,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Proﬁssionais com experiência em desenvolvimento ágil e na plataforma.</t>
+          <t>Necessidades Tecnológicas Requisitos Tecnológicos de Sistemas Desenvolvimento, disponibilização e administração de aplicações de forma simples e integrada. Aumento da capacidade da área de TI de promover a transformação digital da ANS. Administração de aplicações em ambiente de produção de forma a minimizar ao máximo o risco de indisponibilidade. Controle automa Ɵzado de todas as fases de desenvolvimento de aplicações (DevOps), incluindo os testes e até a publicação em ambiente de produção. Gestão de processos e regras de negócio de forma integrada em um mesmo ambiente de desenvolvimento. Possibilidade de desenvolvimento de aplicações por pessoas que não sejam proﬁssionais técnicos (ci Ɵzen developer), de forma visual e sem necessidade de alterações em código fonte. Facilidade para criação de aplicações web e móveis que sejam responsivas e se adaptem aos diversos Ɵpos de disposi Ɵvos, além de serem compa ơveis, no mínimo, com os navegadores Google Chrome e Mozilla Firefox. Facilidade para criação, consumo e exposição de serviços web nos padrões REST e SOAP, sem necessidade de alteração de código fonte. Criação, manutenção e versionamento de códigos fonte e artefatos de projetos e aplicações sem necessidade de ferramentas externas à plataforma. Facilidade na reu Ɵlização de componentes de aplicações (telas, tabelas de banco de dados, serviços web etc.) e catalogação dos mesmos para cada aplicação, indicando seus quanƟtaƟvos, em funcionalidade da própria ferramenta. Possibilidade de trabalho em equipe nos projetos, permi Ɵndo que dois ou mais desenvolvedores acessem e façam alterações ao mesmo tempo. Possibilidade de criar, de forma rápida e fácil, aplicações que u Ɵlizem cerƟﬁcação digital. Possibilidade de criar, de forma rápida e fácil, aplicações com controle de acesso, auten Ɵcação e autorização centralizados. Execução automá Ɵca de testes funcionais e de segurança (baseado em padrões internacionalmente reconhecidos como OWASP) de forma integrada à plataforma, a ﬁm de prevenir possíveis erros do desenvolvedor, tanto em relação a codiﬁcação, quanto à lógica de negócio e integridade de dados.SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 28 of 46 07/08/2023 14:26Ambiente fácil e intui Ɵvo para o desenvolvedor programar em código fonte, high code, se necessário. Passagem de conhecimento sobre funcionalidades e u Ɵlização das ferramentas da plataforma ao pessoal indicado pela ANS. Passagem de conhecimento sobre o desenvolvimento de aplicações (desenvolvimento de forma visual, edição de código fonte, criação de processos de negócio etc.) e a publicação nos diversos ambientes deﬁnidos na plataforma. A ferramenta pode ser uma plataforma completa ou ser integrada a outras ferramentas para fornecer todas as funcionalidades descritas neste documento. No caso de ferramenta que necessite ser integrada a outras, as ferramentas integradas deverão ser livres de licença, ou garan Ɵdas pela própria licença da contratada, não sendo a ANS responsável por qualquer ônus que não esteja elencado no contrato. Serviço de desenvolvimento de aplicações na plataforma, para que a mesma não ﬁque ociosa no início de sua adoção. Abrangendo:</t>
         </is>
       </c>
     </row>
@@ -9964,7 +9964,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Proﬁssionais capacitados em levantamento de requisitos.</t>
+          <t>Proﬁssionais com experiência em desenvolvimento ágil e na plataforma.</t>
         </is>
       </c>
     </row>
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Controle das demandas por proﬁssional com experiência em gestão de projeto, como preposto da empresa.</t>
+          <t>Proﬁssionais capacitados em levantamento de requisitos.</t>
         </is>
       </c>
     </row>
@@ -9988,7 +9988,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Se a migração for para infraestrutura on-premise ou para uma nuvem que a contratada não dê suporte, ou que a ANS já possua, o valor cotado para serviço de nuvem</t>
+          <t>Controle das demandas por proﬁssional com experiência em gestão de projeto, como preposto da empresa. Requisitos Tecnológicos de Infraestrutura Inicialmente a plataforma deve ser implantada em nuvem dedicada e controlada pela contratada. A plataforma deve ser capaz de funcionar em nuvem pública, privada ou on-premise e também de trabalhar de forma híbrida. A empresa contratada deve, a qualquer momento, dentro do período de vigência do contrato, apoiar e/ou realizar por completo a migração da plataforma para uma outra infraestrutura, seja nuvem ou on-premise, conforme decisão da ANS.</t>
         </is>
       </c>
     </row>
@@ -10000,7 +10000,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Se a migração for para uma nuvem a que a contratada dê suporte, e não sendo caso elencado no subitem anterior, a empresa poderá manter as condições contratuais de</t>
+          <t>Se a migração for para infraestrutura on-premise ou para uma nuvem que a contratada não dê suporte, ou que a ANS já possua, o valor cotado para serviço de nuvem deverá ser descontado do pagamento da contratada e esta não terá mais responsabilidade sobre a nuvem.</t>
         </is>
       </c>
     </row>
@@ -10012,7 +10012,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Poderá ser solicitado, a qualquer momento, a exportação de aplicações para código fonte, conforme decisão da ANS, devendo o prazo ser deﬁnido na solicitação, sem que</t>
+          <t>Se a migração for para uma nuvem a que a contratada dê suporte, e não sendo caso elencado no subitem anterior, a empresa poderá manter as condições contratuais de valor. Se a empresa não desejar manter as condições, a ANS deverá descontar do pagamento da contratada o valor cotado para a nuvem, assumirá sua contratação, e a contratada não terá mais responsabilidade sobre a nuvem. A plataforma deve ser man Ɵda atualizada sem impactar a ro Ɵna de trabalho da organização, e qualquer problema deve ser comunicado imediatamente à equipe de gestão do contrato. Capacidade de exportar os códigos fontes das aplicações, sem componentes proprietários, organizados e o Ɵmizados, em um linguagem de programação Java ou uma das uƟlizadas no framework .NET, podendo ser compilado e executado nos servidores de aplicação do órgão.</t>
         </is>
       </c>
     </row>
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Demais requisitos necessários e suﬁcientes à escolha da solução de TIC</t>
+          <t>Poderá ser solicitado, a qualquer momento, a exportação de aplicações para código fonte, conforme decisão da ANS, devendo o prazo ser deﬁnido na solicitação, sem que isso enseje o encerramento dos serviços contratados. Fornecimento de relatórios de execução e desempenho, tanto da plataforma, quanto das aplicações que estão rodando nos diversos ambientes, principalmente em produção. Possibilidade de desenvolvimento de aplicações fora das dependências do órgão, via browser, de forma segura e sem necessidade de VPN. Integração com os serviços do Ac Ɵve Directory para auten Ɵcação e autorização de aplicações e compa Ɵbilidade com os padrões Oauth 2.0 e OpenID-connect. CompaƟbilidade com diversos gerenciadores de banco de dados, sendo obrigatória com Oracle e MySQL. A plataforma deve ser independente de tecnologias proprietárias de terceiros, tais como, servidores de aplicações ou interpretadores. GaranƟa de segurança contra acessos indevidos, ﬁshing, malwares e qualquer outro Ɵpo de perigo que possa colocar em risco as aplicações implantadas na plataforma.</t>
         </is>
       </c>
     </row>
@@ -10036,7 +10036,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EsƟmaƟva da demanda - quan Ɵdade de bens e serviços</t>
+          <t>Demais requisitos necessários e suﬁcientes à escolha da solução de TIC Licenciamento A forma de licenciamento da plataforma deve possibilitar o acesso ilimitado de usuários, tanto internos, quanto externos, e sem dis Ɵnção para perﬁl de desenvolvedor. Ao ﬁm do contrato todas as aplicações que foram desenvolvidas devem con Ɵnuar funcionando, além disso, ainda deve ser possível realizar manutenções nelas e a criação de novas aplicações, mesmo não sendo possível atualizar a plataforma. O licenciamento deve ser de tal forma que a ANS possa contratar o fornecedor da infraestrutura de nuvem para manter a plataforma em funcionamento no caso da não conƟnuidade dos serviços de atualização da plataforma.</t>
         </is>
       </c>
     </row>
@@ -10048,7 +10048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A tabela abaixo mostra apenas alguns dos sistemas legados da ANS, muito u Ɵlizados pelas áreas de negócio, os quais precisam de melhoria e, por isso, se quer fazer a</t>
+          <t>EsƟmaƟva da demanda - quan Ɵdade de bens e serviços</t>
         </is>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Estes foram aqueles para os quais foi possível fazer um levantamento de telas e elementos de banco de dados para deﬁnir qual seria o tamanho em OAs, até o momento.</t>
+          <t>A tabela abaixo mostra apenas alguns dos sistemas legados da ANS, muito u Ɵlizados pelas áreas de negócio, os quais precisam de melhoria e, por isso, se quer fazer a migração para plataforma low-code.</t>
         </is>
       </c>
     </row>
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Por esta tabela percebe-se um total de 1630 OAs no total.</t>
+          <t>Estes foram aqueles para os quais foi possível fazer um levantamento de telas e elementos de banco de dados para deﬁnir qual seria o tamanho em OAs, até o momento.</t>
         </is>
       </c>
     </row>
@@ -10084,7 +10084,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A empresa Outsystems oferece uma quan Ɵdade de 750 OAs anuais para os clientes privados em seus contratos anuais, e, em contato com os representantes da empresa,</t>
+          <t>Por esta tabela percebe-se um total de 1630 OAs no total. Sistema Linguagem Telas Tabelas Visões Total Promoprev Delphi 28 1 29 RPS Delphi 181 359 39 579 RPS - Reajuste Oracle Forms 71 0 0 71 SCDA Oracle Forms 30 50 1 81 SCI/SGR Oracle Forms 169 32 1 202 SCPJ Oracle Forms 42 125 20 187 SIAR Oracle Forms 316 154 11 481 Total 809 748 73 1630</t>
         </is>
       </c>
     </row>
@@ -10096,7 +10096,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Assim, u Ɵlizando-se de uma correspondência, percebe-se que apenas nestas 7 aplicações a ANS teria um pouco mais de 2 anos de serviço na platarorma low-code.</t>
+          <t>A empresa Outsystems oferece uma quan Ɵdade de 750 OAs anuais para os clientes privados em seus contratos anuais, e, em contato com os representantes da empresa, eles informaram que, em geral, este quan ƟtaƟvo é o suﬁciente para o período.</t>
         </is>
       </c>
     </row>
@@ -10108,7 +10108,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Aproveitando-se ainda da correspondência, pode-se mul Ɵplicar os 750 por 5 para es Ɵmar o quan ƟtaƟvo de OAs para 5 anos, que seria de 3750.SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w...</t>
+          <t>Assim, u Ɵlizando-se de uma correspondência, percebe-se que apenas nestas 7 aplicações a ANS teria um pouco mais de 2 anos de serviço na platarorma low-code.</t>
         </is>
       </c>
     </row>
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Análise compara Ɵva de soluções</t>
+          <t>Aproveitando-se ainda da correspondência, pode-se mul Ɵplicar os 750 por 5 para es Ɵmar o quan ƟtaƟvo de OAs para 5 anos, que seria de 3750.SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 29 of 46 07/08/2023 14:268. Levantamento de soluções Os documentos referentes a estas alterna Ɵvas estão no anexo XIII. ID 01 Nome  da Solução:Aquisição de plataforma de desenvolvimento rápido de aplicações do Ɵpo low-code, incluindo instalação e operacionalização, capacitação operacional, desenvolvimento assis Ɵdo e, ainda, prestação de serviços de suporte técnico e garan Ɵa de funcionamento, pelo período de 12 (doze) meses. EnƟdade: Câmara dos Deputados Valor: R$ 3.180.000,00 Descrição:A ferramenta selecionada foi a Cronapp. A ferramenta é implantada no datacenter da contratante. Consiste nos serviços de implantação da plataforma low-code, capacitação da equipe de infraestrutura no suporte básico à plataforma, capacitação de desenvolvedores, desenvolvimento assis Ɵdo/mentoria e suporte técnico, que consiste em garan Ɵr a manutenção dos ambientes de desenvolvimento, teste, homologação e produção funcionando corretamente, assim como dirimir dúvidas sobre a u Ɵlização da ferramenta e do desenvolvimento. O pagamento é feito por fases, após aceite, sendo: Fase 1: fornecimento da licença, instalação e operacionalização da plataforma. Fase 2: capacitação da equipe de infraestrutura no suporte básico à plataforma. Fase 3: capacitação de desenvolvedores em nível básico. Fase 4: desenvolvimento assis Ɵdo ou mentoring. Fase 5: capacitação de desenvolvedores em nível intermediário. Fornecedor: TECHNE ENGENHARIA E SISTEMAS LTDA. ID 02 Nome  da Solução:Subscrição de so Ōware na modalidade SaaS, suporte remoto e serviços especializados em plataforma de desenvolvimento rápido de aplicações low-code. EnƟdade: Petróleo Brasileiro S.A. Valor: R$ 11.749.270,40 Descrição:A ferramenta selecionada foi a Outsystems, com prazo de vigência de 1095 dias, prorrogáveis por mais 730 dias. Item 1: Subscrição de licenças da plataforma pelo prazo estabelecido no contrato. Item 2: Serviço de desenho da arquitetura e implantação da plataforma. Item 3: Serviço de sustentação e monitoramento da plataforma. Cons Ɵtui-se de serviços para manter as ferramentas em bom funcionamento, monitorando, realizando manutenções e intervenções com auxílio de suporte especializado, e fornecimento de esclarecimentos sobre a plataforma. Item 4: Serviço de mentoria na plataforma. Cons Ɵtui-se de serviços para absorção de conhecimento pelas equipes técnicas da contratante, em especial da área de desenvolvimento de aplicações. Responsável por elaborar e implantar governança e processos para o desenvolvimento rápido das aplicações. Item 5: Serviço de treinamento e capacitação na plataforma. Cons Ɵtui-se de serviços de treinamento a distância. Fornecedor: SYS MANAGER INFORMATICA LTDA. ID 03 Nome  da Solução:Aquisição de solução integrada de tecnologia da informação low code com serviços de atualização, suporte técnico remoto e serviços técnicos especializados. EnƟdade: Serviço Federal de Processamento de Dados - SERPRO Valor:Item 1: R$ 3.842.000,00 Item 2: R$ 1.411.992,00 Item 3: R$ 1.745.040,00 Total: R$ 6.999.032,00 Descrição:A ferramenta selecionada foi a Outsystems. A ferramenta é implantada no datacenter da contratante. Esta solução possui três itens: Item 1: compreende a aquisição da licença de uso perpétuo da plataforma sem limites de usuário, assim como o serviço de instalação da mesma. Item 2: compreende serviços de atualização e suporte técnico remoto cujo propósito é manter a plataforma funcionando corretamente e atualizada com as novas releases, patchs etc. Este serviço é pago por valor mensal.SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 30 of 46 07/08/2023 14:26Item 3: compreende os serviços técnicos especializados cujas a Ɵvidades principais são: operação assis Ɵda, apoio no desenvolvimento de projetos, mentoring e apoio às melhores prá Ɵcas no uso da solução. Estes serviços são u Ɵlizados sobre demanda e mensurados através de USTs. Fornecedor: TRUE CHANGE TECNOLOGIA LTDA. ID 04 Nome da Solução: Subscrição da Plataforma Low Code Mendix EnƟdade: Credsystem Valor: R$ 8.000.000,00 Descrição:Licenciamento de plataforma com a CREDSYSTEM (ente privado) no modelo mul Ɵ-app, mendix for private cloud, Datahub. Tempo de Contrato: 3 anos. Foi desenvolvido app mobile na Ɵvo de onboarding para usuários de cartão de crédito e conta digital consumindo serviços de sistemas externos. Fornecedor: TRUE CHANGE TECNOLOGIA LTDA.</t>
         </is>
       </c>
     </row>
@@ -10132,7 +10132,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Registro de soluções consideradas inviáveis</t>
+          <t>Análise compara Ɵva de soluções Conforme descrito no item 2 deste documento, já se sabe que a solução para o problema (melhorar o tempo de resposta no desenvolvimento de aplicações) é a adoção de uma plataforma low-code, uma daquelas que possuem, além de ferramenta para desenvolvimento em low-code e no-code, uma esteira DevOps (CI&amp;CD). Esta questão já foi bem explicada no item citado. Sendo assim, o que faltaria deﬁnir seria a forma de contratação e os serviços a serem englobados. Nenhuma das soluções encontradas sa Ɵsfaz completamente as necessidades da ANS, pois necessita-se neste momento da aquisição de ferramenta, isso é encontrado nas soluções; de suporte para implantação e atualização da mesma, isso também é encontrado em todas as soluções; de auxílio para a u Ɵlização da ferramenta, seja por necessidades de infraestrutura, seja por necessidades de desenvolvimento de aplicações, e isso também é encontrado em todas as soluções. Mas, o que não é encontrado em nenhuma das soluções é um serviço de desenvolvimento de aplicações, ou seja, um serviço para que haja pessoal técnico especializado desenvolvendo as aplicações na ferramenta até que a equipe atual possua a exper Ɵse necessária para ser realmente ágil na plataforma. O mo Ɵvo disto é o fato de que a equipe técnica de sistemas da ANS hoje está voltada para a sustentação e manutenção dos sistemas em produção e nos projetos que estão em andamento e não podem parar. As soluções de ID 02 e 04 especiﬁcam serviços em nuvem, e, conforme citado no subitem 2.7 deste documento, considera-se que a melhor opção de infraestrutura para o caso da agência seja executar o serviço em nuvem gerenciada pela contratada; além disso, de acordo com o que foi descrito no subitem 2.4, considera-se essencial realizar a contratação por um período prolongado, e a solução 04 especiﬁca um período de 3 anos, diferente das demais que são de 1 ano; assim, teoricamente, esta seria a que mais se ajustaria às necessidades. Porém, nenhuma delas atende completamente, pois considera-se essencial contratar pelo maior período possível, que é de 5 anos, e a solução 04 ainda é bem especíﬁca em termos do produto desenvolvido e, por ser elaborado entre entes privados não foi possível obter todas as caracterís Ɵcas do mesmo. Em contrapar Ɵda, as soluções 01 e 03 possuem uma melhor deﬁnição de serviços, mas não atendem aos demais requisitos. Além de tudo o que foi dito, conforme descrito no subitem 2.5, é muito importante poder u Ɵlizar uma forma mais simples de mensuração do que Pontos de função e UST, como a metodologia de OAs (objetos de aplicação), para evitar problemas na gestão contratual.</t>
         </is>
       </c>
     </row>
@@ -10144,7 +10144,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Análise compara Ɵva de custos (TCO)</t>
+          <t>Registro de soluções consideradas inviáveis Não há soluções consideradas inviáveis, apenas incompletas para o que se pretende.</t>
         </is>
       </c>
     </row>
@@ -10156,7 +10156,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Descrição da solução de TIC a ser contratada</t>
+          <t>Análise compara Ɵva de custos (TCO) É possível perceber que há diferenças razoáveis nos valores dos contratos de ferramenta low-code citados no item 6 deste documento, mesmo que, aparentemente os serviços sejam similares. Em vista disso, e do fato de ter muito pouca informação de contratos na administração pública cujo objeto seja este Ɵpo de ferramenta, é di İcil prever um orçamento para esta contratação. Imagina-se que só será possível realmente chegar a um patamar de valor com a consulta de preços ao mercado. A pesquisa de valor citada no subitem 2.4 deste documento não está sendo usado como referência para deﬁnir um patamar de valor desta contratação pelo fato de descrever apenas caracterís Ɵcas técnicas, sem levar em consideração toda a parte administra Ɵva de um Termo de Referência, que pode suscitar mudança signiﬁcante de valor na avaliação das empresas, sendo u Ɵlizado apenas para a demonstração citada no subitem 2.4.</t>
         </is>
       </c>
     </row>
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Aquisição (licenciamento) com serviços de implantação e atualização da plataforma.</t>
+          <t>Descrição da solução de TIC a ser contratada A solução ideal deve englobar:</t>
         </is>
       </c>
     </row>
@@ -10180,7 +10180,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Capacitação / mentoring para auxiliar proﬁssionais de infraestrutura.</t>
+          <t>Aquisição (licenciamento) com serviços de implantação e atualização da plataforma.</t>
         </is>
       </c>
     </row>
@@ -10192,7 +10192,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Capacitação / mentoring para auxiliar a equipe de desenvolvimento de aplicações.</t>
+          <t>Capacitação / mentoring para auxiliar proﬁssionais de infraestrutura.</t>
         </is>
       </c>
     </row>
@@ -10204,7 +10204,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Serviço de desenvolvimento de aplicações na plataforma por algum período (um ano com possibilidade de prorrogação).</t>
+          <t>Capacitação / mentoring para auxiliar a equipe de desenvolvimento de aplicações.</t>
         </is>
       </c>
     </row>
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Serviço na nuvem gerenciada pela contratada, mas não proprietária (possibilitando migração).</t>
+          <t>Serviço de desenvolvimento de aplicações na plataforma por algum período (um ano com possibilidade de prorrogação).</t>
         </is>
       </c>
     </row>
@@ -10228,7 +10228,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Prazo de vigência de 5 anos para licenciamento e serviços de atualização da plataforma.</t>
+          <t>Serviço na nuvem gerenciada pela contratada, mas não proprietária (possibilitando migração).</t>
         </is>
       </c>
     </row>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mensuração através da metodologia de OAs (Objetos de Aplicação, documento SEI nº 23844404).</t>
+          <t>Prazo de vigência de 5 anos para licenciamento e serviços de atualização da plataforma.</t>
         </is>
       </c>
     </row>
@@ -10252,7 +10252,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>EsƟmaƟva de custo total da contratação</t>
+          <t>Mensuração através da metodologia de OAs (Objetos de Aplicação, documento SEI nº 23844404).</t>
         </is>
       </c>
     </row>
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>JusƟﬁcaƟva técnica da escolha da solução</t>
+          <t>EsƟmaƟva de custo total da contratação Valor (R$): 30.000.000,00 Os valores ob Ɵdos nas soluções são bem diferentes e não permitem uma avaliação apurada de es ƟmaƟva para a contratação, mas fazendo uma comparação com os valores da pesquisa de valor realizada junto a empresas de mercado, imagina-se que ﬁcaria entre R$ 3.000.000,00 e R$ 6.000.000,00 anuais, ou seja, até cerca de 30.000.000,00 em 5 anos.</t>
         </is>
       </c>
     </row>
@@ -10276,7 +10276,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Beneİcios a serem alcançados com a contratação</t>
+          <t>JusƟﬁcaƟva técnica da escolha da solução Nenhuma das soluções foi escolhida para o caso por não se adequarem às necessidades do órgão, maiores detalhes no item 9 deste documento.SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 31 of 46 07/08/2023 14:2615. JusƟﬁcaƟva econômica da escolha da solução Como não foi escolhida nenhuma das soluções elencadas, não há o que se jus Ɵﬁcar neste item.</t>
         </is>
       </c>
     </row>
@@ -10288,7 +10288,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Providências a serem Adotadas</t>
+          <t>Beneİcios a serem alcançados com a contratação Espera-se com essa contratação, que a ANS seja capaz de agilizar seu processo de transição digital, melhorando a automação dos processos existentes com o desenvolvimento rápido de aplicações novas e também com a capacidade de refazer rapidamente sistemas existentes que não se adequam mais às necessidades das áreas de negócio. Além disso, visa-se também a melhoria na comunicação entre a agência, os entes regulados e a sociedade em geral. Em termos de TI, espera-se que essa agilidade melhore sua imagem frente às demais áreas do órgão e que daqui há alguns anos a manutenção dos sistemas e toda a infraestrutura que os suporta se torne mais simples e mais bem controlada. Estas são metas ambiciosas, mas que são possíveis de a Ɵngir se forem planejados, realizados e executados projetos especíﬁcos para este propósito. Isto, é claro, depende do apoio de toda a administração do órgão e do empenho da TI. Além disso, espera-se também conseguir demonstrar a viabilidade de uma forma mais simples de mensurar o desenvolvimento de aplicações, conforme citado no subitem 8.1, acima, a ser u Ɵlizada em contratações de desenvolvimento e manutenção de sistemas. Talvez a metodologia possa ser, no futuro, extrapolada para desenvolvimento em ambientes não low-code.</t>
         </is>
       </c>
     </row>
@@ -10300,7 +10300,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Declaração de Viabilidade</t>
+          <t>Providências a serem Adotadas É preciso analisar os riscos elencados no mapa de riscos e procurar seguir as ações preven Ɵvas a ﬁm de evitar problemas, tanto com a contratação, quanto com a execução contratual e principalmente quanto à manutenção em funcionamento dos serviços de sistemas de informação responsáveis pela automação dos processos das áreas de negócio. Necessário se faz adotar as medidas na infraestrutura da ANS para permi Ɵr a conexão da ferramenta de low-code ao ambiente de rede e o acesso ao banco de dados, conforme necessidade das aplicações nela desenvolvidas. Informar a administração da ANS sobre o impacto e riscos desta contratação e estratégia. Seguir com o processo de contratação.</t>
         </is>
       </c>
     </row>
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>JusƟﬁcaƟva da Viabilidade com Restrições</t>
+          <t>Declaração de Viabilidade Esta equipe de planejamento declara viável com restrições esta contratação com base neste Estudo Técnico Preliminar.</t>
         </is>
       </c>
     </row>
@@ -10324,7 +10324,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Responsáveis</t>
+          <t>JusƟﬁcaƟva da Viabilidade com Restrições Esta contratação é considerada viável, e até mesmo de grande valia para a ins Ɵtuição, pois pode ajudar a melhorar a qualidade dos processos de trabalho das diversas áreas, através de sistemas de informação, de uma forma mais rápida do que ocorre atualmente. Entretanto deve-se considerar os riscos elencados no mapa de riscos, principalmente a questão da dependência tecnológica, pois, apesar de exis Ɵrem meios de contorno, no caso de ocorrência de problemas a solução pode ser bem custosa. Conforme descrito em diversas partes deste ETP, considerou-se que os bene İcios valem os riscos.</t>
         </is>
       </c>
     </row>
@@ -10367,7 +10367,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>INTRODUÇÃO</t>
+          <t>Responsáveis Todas as assinaturas eletrônicas seguem o horário oﬁcial de Brasília e fundamentam-se no §3º do Art. 4º do Decreto nº 10.543, de 13 de novembro de 2020 . Despacho: PORTARIA Nº 20/2022/COLIC/GECOL/GGAFI/DIGES/ANS, de 17 de maio DE 2022 SERGIO OLIVEIRA COSTA JUNIOR Integrante Técnico Despacho: PORTARIA Nº 20/2022/COLIC/GECOL/GGAFI/DIGES/ANS, de 17 de maio DE 2022 BRUNO CONDE DE MIRANDA COSTA Integrante Requisitante Despacho: PORTARIA Nº 20/2022/COLIC/GECOL/GGAFI/DIGES/ANS, de 17 de maio DE 2022 HEGMANN LIMA SAMUEL DE ALMEIDA Integrante Técnico ANEXO II - REMUNERAÇÃO BASEADA EM SPRINTS EM METODOLOGIA ÁGIL</t>
         </is>
       </c>
     </row>
@@ -10379,7 +10379,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Este anexo descreve os critérios para a remuneração baseada em sprints a serem u Ɵlizados nos contratos relacionados, baseando-se nas deﬁnições da portaria</t>
+          <t>INTRODUÇÃO</t>
         </is>
       </c>
     </row>
@@ -10391,7 +10391,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aplica-se em conjunto a metodologia de desenvolvimento de sistemas da ANS.</t>
+          <t>Este anexo descreve os critérios para a remuneração baseada em sprints a serem u Ɵlizados nos contratos relacionados, baseando-se nas deﬁnições da portaria 5.651/2022 SGD/ME.</t>
         </is>
       </c>
     </row>
@@ -10403,7 +10403,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CRITÉRIOS</t>
+          <t>Aplica-se em conjunto a metodologia de desenvolvimento de sistemas da ANS.</t>
         </is>
       </c>
     </row>
@@ -10415,7 +10415,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aplicam-se, em especial, os ar Ɵgo 4.5 e 5.3 da portaria 5.651/2022 SGD/ME.</t>
+          <t>CRITÉRIOS</t>
         </is>
       </c>
     </row>
@@ -10427,7 +10427,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Considera-se que cada sprint possui a duração de 2 (duas) semanas.</t>
+          <t>Aplicam-se, em especial, os ar Ɵgo 4.5 e 5.3 da portaria 5.651/2022 SGD/ME.</t>
         </is>
       </c>
     </row>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fase inicial - Planejamento do projeto: envolve a captura da visão do usuário, das necessidades e regras negociais, da deﬁnição do escopo do projeto e das principais</t>
+          <t>Considera-se que cada sprint possui a duração de 2 (duas) semanas.</t>
         </is>
       </c>
     </row>
@@ -10451,7 +10451,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Resultados a serem entregues: Documento de visão, Regras de negócio, Plano de releases e Sprints e Backlog do produto.</t>
+          <t>Fase inicial - Planejamento do projeto: envolve a captura da visão do usuário, das necessidades e regras negociais, da deﬁnição do escopo do projeto e das principais funcionalidades do produto a ser desenvolvido (backlog do produto).</t>
         </is>
       </c>
     </row>
@@ -10463,7 +10463,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Na deﬁnição do backlog da sprint, deve-se monitorar a relação quan ƟtaƟva entre itens planejados e itens não planejados, com vistas a assegurar que o maior esforço</t>
+          <t>Resultados a serem entregues: Documento de visão, Regras de negócio, Plano de releases e Sprints e Backlog do produto.</t>
         </is>
       </c>
     </row>
@@ -10475,7 +10475,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A execução dos serviços está condicionada à emissão de ordem de serviço, contendo, as informações que foram deﬁnidas na subseção "Considerações Gerais" da seção</t>
+          <t>Na deﬁnição do backlog da sprint, deve-se monitorar a relação quan ƟtaƟva entre itens planejados e itens não planejados, com vistas a assegurar que o maior esforço esteja sendo empreendido na entrega de valor.</t>
         </is>
       </c>
     </row>
@@ -10487,7 +10487,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Para ﬁns de gestão, cada Ɵpo de sprint deve estar associada a entrega de resultados aferidos por meio da métrica Pontos de história (Story Point).</t>
+          <t>A execução dos serviços está condicionada à emissão de ordem de serviço, contendo, as informações que foram deﬁnidas na subseção "Considerações Gerais" da seção "ESPECIFICAÇÕES TÉCNICAS".</t>
         </is>
       </c>
     </row>
@@ -10499,7 +10499,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>É vedada a previsão de sprints restritas a fases especíﬁcas do ciclo de desenvolvimento ou que caracterizem meros pontos de controle ou paradas ar Ɵﬁciais para reportar</t>
+          <t>Para ﬁns de gestão, cada Ɵpo de sprint deve estar associada a entrega de resultados aferidos por meio da métrica Pontos de história (Story Point).</t>
         </is>
       </c>
     </row>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A modalidade de remuneração por sprint baseia-se no pagamento por sprint executada.</t>
+          <t>É vedada a previsão de sprints restritas a fases especíﬁcas do ciclo de desenvolvimento ou que caracterizem meros pontos de controle ou paradas ar Ɵﬁciais para reportar a situação ou o andamento do projeto.SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 32 of 46 07/08/2023 14:263. FORMA DE MENSURAÇÃO POR SPRINTS</t>
         </is>
       </c>
     </row>
@@ -10523,7 +10523,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Considera-se uma sprint executada, quando o produto entregue ao ﬁnal da sprint corresponde ao conjunto de itens acordados no planejamento da sprint.</t>
+          <t>A modalidade de remuneração por sprint baseia-se no pagamento por sprint executada.</t>
         </is>
       </c>
     </row>
@@ -10535,7 +10535,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Admite-se diferentes Ɵpos de sprints, que podem variar em função da composição mínima do Ɵme (quan Ɵdade e perﬁs) e do Ɵpo de tecnologia (ambientes como web,</t>
+          <t>Considera-se uma sprint executada, quando o produto entregue ao ﬁnal da sprint corresponde ao conjunto de itens acordados no planejamento da sprint.</t>
         </is>
       </c>
     </row>
@@ -10547,7 +10547,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Para cada Ɵpo de sprint, o valor a ser remunerado por sprint deve variar conforme sua capacidade de execução, devendo ser calculado a par Ɵr da composição de equipe</t>
+          <t>Admite-se diferentes Ɵpos de sprints, que podem variar em função da composição mínima do Ɵme (quan Ɵdade e perﬁs) e do Ɵpo de tecnologia (ambientes como web, aplicaƟvos móveis etc.).</t>
         </is>
       </c>
     </row>
@@ -10559,7 +10559,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A capacidade alocada para um determinado Ɵpo de sprint é atribuída por meio da unidade de medida Hora de Serviço Técnico - HST.</t>
+          <t>Para cada Ɵpo de sprint, o valor a ser remunerado por sprint deve variar conforme sua capacidade de execução, devendo ser calculado a par Ɵr da composição de equipe mínima deﬁnida para o projeto e da duração da sprint ( Ɵmebox).</t>
         </is>
       </c>
     </row>
@@ -10571,7 +10571,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Para calcular a capacidade total alocada a um Ɵpo de sprint, deve-se deﬁnir a composição da equipe que atuará no projeto e atribuir a cada perﬁl a sua capacidade diária</t>
+          <t>A capacidade alocada para um determinado Ɵpo de sprint é atribuída por meio da unidade de medida Hora de Serviço Técnico - HST.</t>
         </is>
       </c>
     </row>
@@ -10583,7 +10583,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>COMPOSIÇÃO DE TIMES ÁGEIS E PREVISÃO DE CUSTOS POR SPRINT</t>
+          <t>Para calcular a capacidade total alocada a um Ɵpo de sprint, deve-se deﬁnir a composição da equipe que atuará no projeto e atribuir a cada perﬁl a sua capacidade diária em função da HST, a exemplo de: Sprint Tipo A Sprint Tipo B Composição da equipe1 SM (5 HST/dia) 1 DEV_SR (8 HST/dia) 1 DEV_PL (7 HST/dia) Total = 20 HST/dia1 SM (5 HST/dia) 1 DEV_SR (8 HST/dia) 2 DEV_PL (14 HST/dia) Total = 27 HST/dia Timebox 15 dias 15 dias Capacidade alocada por Sprint = 300 HST (15d * 20 HST) = 405 HST (15d * 27 HST)</t>
         </is>
       </c>
     </row>
@@ -10595,7 +10595,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Os Ɵmes ágeis deverão ser declarados no início do projeto e eventuais trocas de proﬁssionais deverão ser comunicadas à contratante.</t>
+          <t>COMPOSIÇÃO DE TIMES ÁGEIS E PREVISÃO DE CUSTOS POR SPRINT</t>
         </is>
       </c>
     </row>
@@ -10607,7 +10607,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Problemas ocorridos na alocação e manutenção da equipe poderão incorrer na aplicação do Indicador de desmobilização de equipe, conforme descrito na seção</t>
+          <t>Os Ɵmes ágeis deverão ser declarados no início do projeto e eventuais trocas de proﬁssionais deverão ser comunicadas à contratante.</t>
         </is>
       </c>
     </row>
@@ -10619,7 +10619,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Abaixo a descrição dos perﬁs proﬁssionais:</t>
+          <t>Problemas ocorridos na alocação e manutenção da equipe poderão incorrer na aplicação do Indicador de desmobilização de equipe, conforme descrito na seção "MODELO DE GESTÃO DO CONTRATO".</t>
         </is>
       </c>
     </row>
@@ -10631,7 +10631,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Abaixo a estrutura desejável para compar Ɵlhamento/alocação dos proﬁssionais:</t>
+          <t>Abaixo a descrição dos perﬁs proﬁssionais: Perﬁl Descrição Scrum MasterAtua na facilitação do processo de desenvolvimento ágil de so Ōware , orientando as equipes de desenvolvimento, acompanhando, iden Ɵﬁcando e eliminando impedimentos e promovendo o uso de padrões e melhores prá Ɵcas ágeis. O scrum master busca garan Ɵr o bom funcionamento de processos e aƟvidades ágeis e é responsável por liderar reuniões previstas no processo de desenvolvimento. DesenvolvedorAtua na codiﬁcação, design de componentes, testes unitários, construção de aplicações, implementação e manutenção de so Ōware em busca de alta qualidade na aplicação de técnicas, normas e procedimentos atualizados de codiﬁcação e construção de so Ōware . O desenvolvedor de so Ōware busca escrever códigos de alta qualidade para atender as funcionalidades das partes interessadas assegurando o Ɵmização de recursos computacionais, segurança e desempenho. ArquitetoAtua no apoio à tomada de decisão técnica em relação as diferentes arquiteturas de so Ōware , na análise e garan Ɵa do máximo de retorno esperado de uma arquitetura de so Ōware em termos de performance , segurança e relação custo/bene İcio, no acompanhamento da construção do so Ōware atuando proa Ɵvamente na proposição de soluções técnicas, no diagnós Ɵco de problemas e na superação de obstáculos relacionados à codiﬁcação e implementação dos frameworks e componentes. Analista  de Negócios/RequisitosAtua na iden Ɵﬁcação, deﬁnição e documentação de processos de negócios e de requisitos de so Ōware a serem implementados. O analista de negócio busca assegurar uma ligação consistente entre as equipes de negócios e a equipe de desenvolvedores, facilitando a comunicação e auxiliando no aprofundamento do domínio do negócio objeto da implementação. Atua, também, na propositura de funcionalidades e na organização das informações, no comportamento e ﬂuxo do processo da aplicação sa Ɵsfazendo as necessidades de negócio declaradas e não declaradas. Administrador/Proje Ɵsta de DadosAtua na garan Ɵa da qualidade das estruturas dos metadados das soluções alinhadas aos padrões de arquitetura de dados da organização, apoia na organização da informação corpora Ɵva objeto das aplicações em desenvolvimento, na garan Ɵa da integração e na aplicação das melhores prá Ɵcas de administração de dados corpora Ɵvos. Analista  de Testes/QualidadeAtua na garan Ɵa da entrega de so Ōware com alta qualidade, planejando, implementando e automaƟzando os testes de so Ōware e de garan Ɵa de qualidade de so Ōware . O analista de Teste e Qualidade busca desenvolver planos de teste, criar casos de teste, escrever código de automação de teste e relatar resultados, avaliar a qualidade técnica e funcional dos produtos, iden Ɵﬁcar riscos e possíveis falhas relacionadas aos códigos e funcionalidades entregues. Líder  Técnico  de DesenvolvimentoAtua na organização da entrega con ơnua dos produtos de so Ōware , conduzindo os Ɵmes de desenvolvedores na aplicação das melhores prá Ɵcas e técnicas de codiﬁcação, observando os padrões de projetos de so Ōware e metas a serem alcançadas na execução das sprints .</t>
         </is>
       </c>
     </row>
@@ -10643,7 +10643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A previsão de custos mensais (e consequentemente os custos anuais) das sprints foi feito com base nas deﬁnições da portaria citada na introdução deste apêndice,</t>
+          <t>Abaixo a estrutura desejável para compar Ɵlhamento/alocação dos proﬁssionais: Código Perﬁl Perﬁs Proﬁssionais Quan Ɵdade Compar Ɵlhamento / Alocação SCRUM Scrum Master 1 Até 3 projetos DESENV-02 Desenvolvedor Pleno 2 Não pode ser compar Ɵlhado entre projetos DESENV-03 Desenvolvedor Sênior 1 Não pode ser compar Ɵlhado entre projetos ARQSOF-02 Arquiteto Sênior 1 Até 3 projetosSEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 33 of 46 07/08/2023 14:26ANR-03 Analista de Negócios/Requisitos Sênior 1 Não pode ser compar Ɵlhado entre projetos ADADOS-03 Administrador/Proje Ɵsta de Dados Sênior 1 Até 3 projetos ATQ-03 Analista de Testes/Qualidade Sênior 1 Até 3 projetos</t>
         </is>
       </c>
     </row>
@@ -10686,7 +10686,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>QUANTITATIVOS DE USUÁRIOS</t>
+          <t>A previsão de custos mensais (e consequentemente os custos anuais) das sprints foi feito com base nas deﬁnições da portaria citada na introdução deste apêndice, considerando Fator-k = 2,35. Os valores podem ser encontrados na seção "ESTIMATIVA DE PREÇO" deste TR. O cálculo foi feito com os seguintes valores de salário: Código Perﬁl Perﬁs Proﬁssionais Salário SCRUM Scrum Master R$ 11.488,00 DESENV-02 Desenvolvedor Pleno R$ 8.622,30 DESENV-03 Desenvolvedor Sênior R$ 11.669,09 ARQSOF-02 Arquiteto Sênior R$ 15.779,17 ANR-03 Analista de Negócios/Requisitos Sênior R$ 9.664,58 ADADOS-03 Administrador/Proje Ɵsta de Dados Sênior R$ 9.946,67 ATQ-03 Analista de Testes/Qualidade Sênior R$ 9.671,80 ANEXO III - INFORMAÇÕES PARA DIMENSIONAMENTO DE INFRAESTRUTURA Este apêndice descreve informações relevantes para o dimensionamento da necessidade de infraestrutura, pelo mercado, em relação às demandas da contratante. São descritas aqui informações consideradas relevantes para deﬁnir, tanto a infraestrutura inicial, quanto o crescimento nos próximos dois anos.</t>
         </is>
       </c>
     </row>
@@ -10698,7 +10698,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>De acordo com as informações levantadas frente ao mercado, existem dois Ɵpos de usuários iden Ɵﬁcados na u Ɵlização de aplicações, que são chamados de usuários</t>
+          <t>QUANTITATIVOS DE USUÁRIOS</t>
         </is>
       </c>
     </row>
@@ -10710,7 +10710,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Usuários internos: aqueles cujo acesso ao sistema é realizado através de conta associada ao e-mail da ins Ɵtuição. Entre estes enquadram-se os funcionários da agência.</t>
+          <t>De acordo com as informações levantadas frente ao mercado, existem dois Ɵpos de usuários iden Ɵﬁcados na u Ɵlização de aplicações, que são chamados de usuários internos e usuários externos, além dos usuários não iden Ɵﬁcados.</t>
         </is>
       </c>
     </row>
@@ -10722,7 +10722,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Usuários externos: aqueles cujo acesso ao sistema é realizado através de conta associada a e-mail fora do domínio da ins Ɵtuição. Entre estes enquadram-se</t>
+          <t>Usuários internos: aqueles cujo acesso ao sistema é realizado através de conta associada ao e-mail da ins Ɵtuição. Entre estes enquadram-se os funcionários da agência. EsƟma-se um quan ƟtaƟvo de 1.500 usuários.</t>
         </is>
       </c>
     </row>
@@ -10734,7 +10734,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Usuários não iden Ɵﬁcados: aqueles que u Ɵlizam os sistemas sem necessidade de uma conta. Geralmente relacionados a aplicações para uso do cidadão em geral. Não</t>
+          <t>Usuários externos: aqueles cujo acesso ao sistema é realizado através de conta associada a e-mail fora do domínio da ins Ɵtuição. Entre estes enquadram-se representantes das operadoras de plano de saúde. Es Ɵma-se um quan ƟtaƟvo de 10.000 usuários.</t>
         </is>
       </c>
     </row>
@@ -10746,7 +10746,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>APLICAÇÕES LEGADAS A SEREM DESENVOLVIDAS NA PLATAFORMA</t>
+          <t>Usuários não iden Ɵﬁcados: aqueles que u Ɵlizam os sistemas sem necessidade de uma conta. Geralmente relacionados a aplicações para uso do cidadão em geral. Não há delimitação destes usuários.</t>
         </is>
       </c>
     </row>
@@ -10758,7 +10758,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A tabela abaixo lista as aplicações/sistemas legados que a agência pretende modernizar desenvolvendo na plataforma em um período de dois anos. Para dimensionar a</t>
+          <t>APLICAÇÕES LEGADAS A SEREM DESENVOLVIDAS NA PLATAFORMA</t>
         </is>
       </c>
     </row>
@@ -10770,7 +10770,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Foram contados estes elementos nos sistemas atuais apenas para fornecer uma noção de dimensão, pois, para modernizá-los, deverá ser feito o processo de análise do</t>
+          <t>A tabela abaixo lista as aplicações/sistemas legados que a agência pretende modernizar desenvolvendo na plataforma em um período de dois anos. Para dimensionar a necessidade de forma genérica foi u Ɵlizado um conceito de objetos de aplicação que se baseia na quan Ɵdade dos seguintes elementos: Telas, Tabelas (de banco de dados), Visões (views em banco de dados) e serviços web (não há nessas aplicações atualmente). Aplicação Linguagem Telas Tabelas Visões Total de Objetos Dimensão Promoprev Delphi - 28 1 29 Pequeno RPS Delphi 181 359 39 579 Grande RPS-Reajuste Oracle Forms 71 0 0 71 Pequeno SCDA Oracle Forms 30 50 1 81 Pequeno SCI/SGR Oracle Forms 169 32 1 202 Médio SCPJ Oracle Forms 42 125 20 187 Médio SIAR Oracle Forms 316 154 11 481 Grande Total - 809 748 73 1630 -</t>
         </is>
       </c>
     </row>
@@ -10782,7 +10782,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Em vista a fazer uma classiﬁcação dessas aplicações, deﬁniu-se a informação Dimensão na tabela acima, cujos valores são Pequeno, Médio e Grande, que são deﬁnidas</t>
+          <t>Foram contados estes elementos nos sistemas atuais apenas para fornecer uma noção de dimensão, pois, para modernizá-los, deverá ser feito o processo de análise do novo com as áreas de negócio.</t>
         </is>
       </c>
     </row>
@@ -10794,7 +10794,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pequeno: 1 a 150</t>
+          <t>Em vista a fazer uma classiﬁcação dessas aplicações, deﬁniu-se a informação Dimensão na tabela acima, cujos valores são Pequeno, Médio e Grande, que são deﬁnidas através de intervalos de valor do número Total de Objetos da seguinte forma:</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10806,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Médio: 151 a 350</t>
+          <t>Pequeno: 1 a 150</t>
         </is>
       </c>
     </row>
@@ -10818,7 +10818,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Grande: 351 a 750</t>
+          <t>Médio: 151 a 350</t>
         </is>
       </c>
     </row>
@@ -10830,7 +10830,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pode haver algumas mudanças de necessidade durante o período citado, e, além disso, algumas intervenções menores, como integração com serviços de governo, por</t>
+          <t>Grande: 351 a 750</t>
         </is>
       </c>
     </row>
@@ -10845,7 +10845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B157"/>
+  <dimension ref="A1:B158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DAS CARACTERÍSTICAS DA PLATAFORMA</t>
+          <t>Pode haver algumas mudanças de necessidade durante o período citado, e, além disso, algumas intervenções menores, como integração com serviços de governo, por exemplo, podem entrar nesta lista. ANEXO IV - PROCESSO DE AMOSTRA DA FERRAMENTA Nas próximas seções serão descritos os critérios para a avaliação da adequação da plataforma às necessidades da contratante, conforme os requisitos deﬁnidos neste TR. A contratante deﬁnirá uma equipe de avaliação da amostra (chamada no decorrer deste apêndice apenas de equipe), que terá a prerroga Ɵva de aceitar ou rejeitar a plataforma oferecida pela licitante. O não aceite da plataforma desqualiﬁca a licitante. O processo consis Ɵrá em duas etapas, sendo a primeira para avaliar os requisitos deﬁnidos na seção "ESPECIFICAÇÕES TÉCNICAS" e a segunda para avaliar se a plataforma éSEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 34 of 46 07/08/2023 14:26realmente ágil para desenvolver aplicações e para publicá-las em diversos ambientes (por exemplo: desenvolvimento, homologação e produção). Este processo é essencial para veriﬁcar se a plataforma a capaz de cumprir as caracterís Ɵcas esperadas deste Ɵpo de ferramenta, que são: agilidade, robustez e performance. O processo será todo feito via web, u Ɵlizando-se como ferramenta de comunicação o aplica Ɵvo TEAMS, por ser o padrão u Ɵlizado na ANS. Todo o processo será gravado no TEAMS para posterior análise, se necessário. Para este processo a licitante deverá dispor da plataforma em funcionamento em sua própria nuvem, e mostrar via TEAMS sua u Ɵlização em tempo real compar Ɵlhando a tela do computador em que a ferramenta estará sendo executada.</t>
         </is>
       </c>
     </row>
@@ -10885,7 +10885,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nesta etapa, os proﬁssionais da licitante terão de demonstrar como a plataforma atende às caracterís Ɵcas listadas neste TR. Algumas caracterís Ɵcas deverão ser</t>
+          <t>AVALIAÇÃO DAS CARACTERÍSTICAS DA PLATAFORMA</t>
         </is>
       </c>
     </row>
@@ -10897,7 +10897,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A equipe de avaliação da amostra poderá fazer perguntas sobre cada caracterís Ɵca apresentada, que deverão ser respondidas pela licitante.</t>
+          <t>Nesta etapa, os proﬁssionais da licitante terão de demonstrar como a plataforma atende às caracterís Ɵcas listadas neste TR. Algumas caracterís Ɵcas deverão ser demonstradas u Ɵlizando a plataforma em execução, enquanto outras poderão ser demonstradas através de documentação técnica da plataforma.</t>
         </is>
       </c>
     </row>
@@ -10909,7 +10909,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A recusa, ou a incapacidade, em responder a algum dos ques Ɵonamentos sujeitará à reprovação da licitante.</t>
+          <t>A equipe de avaliação da amostra poderá fazer perguntas sobre cada caracterís Ɵca apresentada, que deverão ser respondidas pela licitante.</t>
         </is>
       </c>
     </row>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Caso haja mo Ɵvo para crer que algum ques Ɵonamento feito por algum dos membros da equipe seja irrelevante para a avaliação em questão, os demais membros da</t>
+          <t>A recusa, ou a incapacidade, em responder a algum dos ques Ɵonamentos sujeitará à reprovação da licitante.</t>
         </is>
       </c>
     </row>
@@ -10933,7 +10933,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A licitante poderá u Ɵlizar-se da internet para pesquisar algum documento ou informação que es Ɵver faltando, não podendo esta pesquisa demorar mais de  5 minutos . A</t>
+          <t>Caso haja mo Ɵvo para crer que algum ques Ɵonamento feito por algum dos membros da equipe seja irrelevante para a avaliação em questão, os demais membros da equipe deverão decidir sobre o assunto.</t>
         </is>
       </c>
     </row>
@@ -10945,7 +10945,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A plataforma deve ser integrada, como se fosse uma coisa única, assim, ela será considerada inapta se houver necessidade de sair da plataforma para entrar em outra</t>
+          <t>A licitante poderá u Ɵlizar-se da internet para pesquisar algum documento ou informação que es Ɵver faltando, não podendo esta pesquisa demorar mais de  5 minutos . A demora poderá ensejar na reprovação, conforme avaliação da equipe.</t>
         </is>
       </c>
     </row>
@@ -10957,7 +10957,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Será permi Ɵdo deslogar e logar com usuários diferentes na página da plataforma para apresentação de funcionalidades que requeiram perﬁs dis Ɵntos, desde que o</t>
+          <t>A plataforma deve ser integrada, como se fosse uma coisa única, assim, ela será considerada inapta se houver necessidade de sair da plataforma para entrar em outra ferramenta, ou seja, todas as ferramentas da plataforma devem ser possíveis de ser acessadas através do logon do usuário em uma única página (site).</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Abaixo a tabela com as caracterís Ɵcas a serem avaliadas:</t>
+          <t>Será permi Ɵdo deslogar e logar com usuários diferentes na página da plataforma para apresentação de funcionalidades que requeiram perﬁs dis Ɵntos, desde que o logon seja na mesma página.</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DESENVOLVIMENTO, EXECUÇÃO E PUBLICAÇÃO DE APLICAÇÃO</t>
+          <t>Abaixo a tabela com as caracterís Ɵcas a serem avaliadas: Id Item Descrição Forma de Demonstração 12.3.2.40 2.3.2.41Apresentar as cer Ɵﬁcações ISO 27001, 27017 e 27018, e CSA STAR (ou documento de membro da CSA).Através de documentação. 22.3.2.2 2.3.2.3 2.3.2.7 2.3.2.8Demonstrar que a plataforma é integrada, que cobre todas as funcionalidades: deﬁnição de processo, desenvolvimento de aplicação, testes, versionamento, CI&amp;CD (DevOps) etc. sem necessidade de sair da plataforma.Apresentando  na  ferramenta  e/ou desenvolvendo aplicação. 3 2.3.2.4Demonstrar  que  é  possível  ter  diversos  ambientes  como,  por  exemplo: desenvolvimento, homologação, produção etc.Criando e mostrando os ambientes em funcionamento. 4 2.3.2.5Demonstrar que a plataforma permite diferentes perﬁs de usuários com diferentes níveis de acesso.Apresentando na ferramenta. 5 2.3.2.6Demonstrar o gerenciamento do por ƞólio de aplicações e suas funcionalidades para cada ambiente (ex.: desenvolvimento, homologação, produção etc.).Apresentando na ferramenta. 6 2.3.2.9Demonstrar o quão fácil é desenvolver uma aplicação u Ɵlizando drag-and-drop (no- code) e também fazendo pouca alteração de código (low-code).Desenvolvendo aplicação. 72.3.2.7 2.3.2.24 2.3.2.27Demonstrar os Ɵpos de teste existentes (unitário, funcional, segurança etc.) e como a ferramenta  os  executa  no  momento  do  desenvolvimento  de  uma  aplicação. Demonstrar também como a Inteligência Ar Ɵﬁcial auxilia no desenvolvimento.Simulando  em  aplicação  e documentação (se necessário). 8 2.3.2.10Mostrar modelos de layout, que visam a usabilidade e experiência do usuário, e facilitam o desenvolvimento de aplicações, e como são u Ɵlizados.Demonstrando  na  ferramenta  (pelo menos 3). 9 2.3.2.11Demonstrar capacidade de criar aplicações que podem ser u Ɵlizadas em disposi Ɵvos diferentes (PWA), como em browser no computador e também em  smartphone, tanto Android, quanto iOS e acessar os recursos destes (câmera, geolocalização, microfone etc.).Desenvolvendo aplicação e acessando nos disposi Ɵvos. 102.3.2.13 2.3.2.14Demonstrar que a plataforma segue padrões atuais como HTML5/REACT JS, CSS3/SASS e tecnologias padronizadas pelo W3C.Através de Documentação. 112.3.2.15 2.3.2.16Demonstrar as funcionalidades de manipulação de bancos de dados e seus objetos, através de ferramenta visual com seus aceleradores, e através de scripts. E também, demonstrar a possibilidade de importação de planilha com dados para criar aplicação de forma visual, sem necessidade de alteração de código ou banco.Apresentando na ferramenta. 12 2.3.2.17Simular a execução de um aplica Ɵvo móvel em um browser, possibilitando simular gestos e ações realizadas nos disposi Ɵvos.Desenvolvendo  aplicação  e demonstrando no browser. 13 2.3.2.18Demonstrar o desenvolvimento, exposição e consumo de serviços nos padrões REST e SOAP, sem alteração de código fonte, e com alteração de código fonte.Desenvolvendo aplicação e executando. 14 2.3.2.19Demonstrar a possibilidade de reu Ɵlização de componentes de aplicação (telas, tabelas de banco de dados, serviços web etc.) e como é sua catalogação.Apresentando na ferramenta. 15 2.3.2.20Demonstrar como é a funcionalidade de versionamento dos artefatos, aplicações, componentes etc., as informações mostradas das versões (usuário, data, hora etc.), se um usuário tem acesso à versões de outros usuários, e a realização de rollback de versão (inclusive de aplicação em execução).Apresentando na ferramenta.SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 35 of 46 07/08/2023 14:2616 2.3.2.21Demonstrar como a plataforma gera documentação das aplicações web e móveis, inclusive descri Ɵvo de processo de negócio, en Ɵdades de banco de dados e seus relacionamentos, e como é man Ɵda a rastreabilidade.Apresentando na ferramenta. 172.3.2.22 2.3.2.23Demonstrar que é possível o trabalho em equipe com dois ou mais desenvolvedores alterando artefatos e aplicações ao mesmo tempo. E também, demonstrar que a depuração da mesma aplicação ocorre de forma independente, sem que um impacte o outro.Apresentando na ferramenta. 18 2.3.2.25Demonstrar como é feita a criação de aplicação com cer Ɵﬁcação digital, e de aplicação que envia e-mail e sms.Desenvolvendo aplicação e executando. 19 2.3.2.26Demonstrar a criação e execução de regras de negócio de forma assíncrona através de agendamento.Desenvolvendo aplicação e executando. 20 2.3.2.28 Demonstrar como se pode desenvolver em high-code na plataforma. Apresentando na ferramenta. 21 2.3.2.29Demonstrar a capacidade de  exportar  os códigos fontes das aplicações,  sem componentes proprietários, organizados e o Ɵmizados, em linguagem de programação Java ou uma das u Ɵlizadas no framework .NET.Apresentando  na  ferramenta (mostrando  o  resultado)  ou documentação. 222.3.2.30 2.3.2.31Demonstrar a capacidade de monitorar e administrar as aplicações nos ambientes, principalmente produção, com emissão de relatórios de execução e desempenho, seja de telas, consultas a banco de dados, serviços web, e envio de mensagens como sms e e-mail etc. Além disso, mostrar o dash board que permite a análise visual, e com capacidade de detalhamento.Apresentando na ferramenta. 23 2.3.2.33Demonstrar que a plataforma se integra com os serviços do Ac Ɵve Directory para autenƟcação e autorização de aplicações e possui compa Ɵbilidade com os padrões Oauth 2.0 e OpenID-connect.Através  de  Documentação  ou apresentando na ferramenta. 24 2.3.2.34Demonstrar que a plataforma é compa ơvel com os gerenciadores de banco de dados Oracle e MySQL, para uso das aplicações criadas na plataforma.Através  de  Documentação  ou apresentando na ferramenta. 25 2.3.2.35Demonstrar que a plataforma roda independente de tecnologias proprietárias como servidores de aplicação ou interpretadores, que cumpre requisitos de segurança da plataforma e das aplicações conforme deﬁnições OWASP, e que permite a deﬁnição de nível de segurança de páginas por meio do uso de HTTPS e SSL, assim como é capaz de alertar sobre possíveis vulnerabilidades.Através  de  Documentação  ou apresentando na ferramenta. 26 2.3.2.36 Demonstrar a capacidade de feedback do usuário da área de negócio nas aplicações. Apresentando na ferramenta.</t>
         </is>
       </c>
     </row>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Esta etapa visa veriﬁcar se a plataforma realmente permite um desenvolvimento ágil e, também, se é robusta e ágil para publicar e executar as aplicações.</t>
+          <t>DESENVOLVIMENTO, EXECUÇÃO E PUBLICAÇÃO DE APLICAÇÃO</t>
         </is>
       </c>
     </row>
@@ -11005,7 +11005,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Para a realização desta etapa a contratada precisará ter a versão mais recente da plataforma implantada em sua nuvem com três ambientes de publicação das aplicações,</t>
+          <t>Esta etapa visa veriﬁcar se a plataforma realmente permite um desenvolvimento ágil e, também, se é robusta e ágil para publicar e executar as aplicações.</t>
         </is>
       </c>
     </row>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>São mo Ɵvos para desqualiﬁcar a plataforma e a licitante:</t>
+          <t>Para a realização desta etapa a contratada precisará ter a versão mais recente da plataforma implantada em sua nuvem com três ambientes de publicação das aplicações, são eles: desenvolvimento, homologação e produção, podendo u Ɵlizar o banco de dados que desejar. Será necessário a capacidade de veriﬁcar se um CPF é válido, e ter cerca de 15 números de CPF válidos para u Ɵlizar (alguns destes CPFs serão u Ɵlizados pela equipe de avaliação).</t>
         </is>
       </c>
     </row>
@@ -11029,7 +11029,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A licitante ultrapassar o tempo deﬁnido para todo o processo desta etapa.</t>
+          <t>São mo Ɵvos para desqualiﬁcar a plataforma e a licitante:</t>
         </is>
       </c>
     </row>
@@ -11041,7 +11041,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A plataforma não conseguir promover de forma simples e transparente a aplicação desenvolvida entre os ambientes. A não transparência pode ser: necessitar</t>
+          <t>A licitante ultrapassar o tempo deﬁnido para todo o processo desta etapa.</t>
         </is>
       </c>
     </row>
@@ -11053,7 +11053,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A não validação de campos ao inserir ou alterar os dados, como CPF, data, números etc.</t>
+          <t>A plataforma não conseguir promover de forma simples e transparente a aplicação desenvolvida entre os ambientes. A não transparência pode ser: necessitar desenvolver ou alterar algum código, entrar no banco de dados para fazer alguma alteração ou vínculo, ter que desenvolver ou alterar algum script etc.</t>
         </is>
       </c>
     </row>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ocorrência de erro na aplicação, em qualquer das funcionalidades, quando a equipe de avaliação realizar seus testes.</t>
+          <t>A não validação de campos ao inserir ou alterar os dados, como CPF, data, números etc.</t>
         </is>
       </c>
     </row>
@@ -11077,7 +11077,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Não conseguir liberar a aplicação desenvolvida para a equipe de avaliação testar em qualquer um dos três ambientes, seja para teste no computador, seja para teste</t>
+          <t>Ocorrência de erro na aplicação, em qualquer das funcionalidades, quando a equipe de avaliação realizar seus testes.</t>
         </is>
       </c>
     </row>
@@ -11089,7 +11089,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>É responsabilidade da licitante que a plataforma possua performance adequada para a realização das tarefas citadas, pois, não haverá paralisação do tempo até o ﬁm</t>
+          <t>Não conseguir liberar a aplicação desenvolvida para a equipe de avaliação testar em qualquer um dos três ambientes, seja para teste no computador, seja para teste no smartphone. Isso quer dizer que a equipe deve conseguir testar a aplicação em qualquer dos três ambiente, usando o computador e o disposi Ɵvo móvel.</t>
         </is>
       </c>
     </row>
@@ -11101,7 +11101,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A aplicação deverá funcionar em computador através de browser, Mozilla Firefox e Google Chrome (em suas versões recentes) e também em smartphone Android e iOS</t>
+          <t>É responsabilidade da licitante que a plataforma possua performance adequada para a realização das tarefas citadas, pois, não haverá paralisação do tempo até o ﬁm das tarefas no ambiente de produção.</t>
         </is>
       </c>
     </row>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Todo o processo de desenvolvimento, teste, inclusão de dados e publicação da aplicação será acompanhado pela equipe de avaliação via web.</t>
+          <t>A aplicação deverá funcionar em computador através de browser, Mozilla Firefox e Google Chrome (em suas versões recentes) e também em smartphone Android e iOS (em suas versões recentes). A licitante deverá fornecer alguma forma transparente de acesso à aplicação, tanto para a equipe poder testar em seus computadores, quanto em seus smartphones.</t>
         </is>
       </c>
     </row>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>O tempo para todo o processo será de  40 minutos , e não poderá ser interrompido, nem pela equipe de avaliação, nem pela licitante, e compreenderá:</t>
+          <t>Todo o processo de desenvolvimento, teste, inclusão de dados e publicação da aplicação será acompanhado pela equipe de avaliação via web.</t>
         </is>
       </c>
     </row>
@@ -11137,7 +11137,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Construção da aplicação em ambiente de desenvolvimento.</t>
+          <t>O tempo para todo o processo será de  40 minutos , e não poderá ser interrompido, nem pela equipe de avaliação, nem pela licitante, e compreenderá:</t>
         </is>
       </c>
     </row>
@@ -11149,7 +11149,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Inclusão de dois ou três registros completos para teste, e avaliação da validação de campos.</t>
+          <t>Construção da aplicação em ambiente de desenvolvimento.</t>
         </is>
       </c>
     </row>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Teste de alteração e exclusão de registros, mantendo pelo menos dois registros na base.</t>
+          <t>Inclusão de dois ou três registros completos para teste, e avaliação da validação de campos.</t>
         </is>
       </c>
     </row>
@@ -11173,7 +11173,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Promoção da aplicação para ambiente de homologação.</t>
+          <t>Teste de alteração e exclusão de registros, mantendo pelo menos dois registros na base.</t>
         </is>
       </c>
     </row>
@@ -11185,7 +11185,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Inclusão de outros dois ou três registros completos e diferentes daqueles incluídos em desenvolvimento. Deverá ser feito fora da plataforma, em um browser em</t>
+          <t>Promoção da aplicação para ambiente de homologação.</t>
         </is>
       </c>
     </row>
@@ -11197,7 +11197,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Promoção para o ambiente de produção.</t>
+          <t>Inclusão de outros dois ou três registros completos e diferentes daqueles incluídos em desenvolvimento. Deverá ser feito fora da plataforma, em um browser em computador diferente daquele em que a plataforma está implantada, para demonstrar que a aplicação está implantada e é acessível fora da plataforma.</t>
         </is>
       </c>
     </row>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Inclusão de outros dois ou três registros completos e diferentes daqueles incluídos em desenvolvimento e homologação. Deverá ser feito fora da plataforma, de duas</t>
+          <t>Promoção para o ambiente de produção.</t>
         </is>
       </c>
     </row>
@@ -11221,7 +11221,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Não excedendo o limite de tempo, após a publicação e inclusão dos dados em produção a contagem de tempo é encerrada, e a equipe de avaliação irá testar a aplicação</t>
+          <t>Inclusão de outros dois ou três registros completos e diferentes daqueles incluídos em desenvolvimento e homologação. Deverá ser feito fora da plataforma, de duas maneiras, em browser no computador e em smartphone, para demonstrar que a aplicação está implantada e é acessível fora da plataforma e que se adequa a disposi Ɵvos móveis.</t>
         </is>
       </c>
     </row>
@@ -11233,7 +11233,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Deverá ser possível o teste dos três ambientes, para poder avaliar a independência da aplicação e seus dados em cada ambiente e a acessibilidade dos ambientes de</t>
+          <t>Não excedendo o limite de tempo, após a publicação e inclusão dos dados em produção a contagem de tempo é encerrada, e a equipe de avaliação irá testar a aplicação em seus computadores e disposi Ɵvos móveis.</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Os requisitos da aplicação serão entregues ao licitante no dia da amostra.</t>
+          <t>Deverá ser possível o teste dos três ambientes, para poder avaliar a independência da aplicação e seus dados em cada ambiente e a acessibilidade dos ambientes de qualquer lugar via internet.SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 36 of 46 07/08/2023 14:262.6.2. Excetuando-se os números de CPF que precisarão ser validados através do algoritmo especíﬁco, para o correto funcionamento da aplicação, os demais dados da aplicação não precisarão de algoritmo de validação, mas poderão exigir formatos especíﬁcos e válidos, como número inteiro, data, hora etc.</t>
         </is>
       </c>
     </row>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Conhecer e cumprir o disposto na Resolução Administra Ɵva – RA nº 62, de junho de 2015,  que dispõe sobre a Polí Ɵca de Segurança da Informação da ANS;</t>
+          <t>Os requisitos da aplicação serão entregues ao licitante no dia da amostra. ANEXO V - MODELO DE PROPOSTA DE PREÇO (GRUPO 1) PROPOSTA DE PREÇO (Em papel personalizado da empresa)  À AGÊNCIA NACIONAL DE SAÚDE SUPLEMENTAR  A/C: Sr. Pregoeiro (a)  PREGÃO Nº 13/2023 PROCESSO Nº 33910.012598/2022-90 Prezado Senhor (a), Tendo examinado minuciosamente as normas especíﬁcas do Termo de Referência para prestação dos serviços de solução para desenvolvimento e gestão de aplicações baseada em ferramenta low-code, com esteira DevOps (CI&amp;CD), que possua todas as ferramentas necessárias, integradas na plataforma, e que possa ser implantada em nuvem pública, privada e/ou on-premise. Assim como serviços para manutenção de seu funcionamento e para desenvolvimento de aplicações, conforme condições, quanƟdades e exigências estabelecidas neste Edital e seus anexos., conforme tabela abaixo:  . GRUPO 1 ITEM CATSER DESCRIÇÃO / ESPECIFICAÇÃO QUANTIDADE VALOR UNITÁRIO VALOR TOTAL 1 27502 Disponibilização, conﬁguração, manutenção e atualização da plataforma 60 R$ R$  2 27332 Apoio especializado na u Ɵlização da plataforma 195 R$ R$  3 27332 Serviço de migração da plataforma e aplicações 2 R$ R$  TOTAL - - R$ Planilha de Formação de Preços [Grupo 1 - Item 1] Disponibilização, conﬁguração, manutenção e atualização da plataforma. Descrição Valor Unitário Qtde (Meses) Valor Total Disponibilização e Manutenção da Plataforma R$ 60 R$  Disponibilização e Manutenção da Nuvem - 60 - Total - 60 R$  [Grupo 1 - Item 2] Apoio especializado na u Ɵlização da plataforma. Tipo Descrição Valor Unitário Qtde. (OS) Valor Total 1 Informações pontuais sobre u Ɵlização da plataforma e desenvolvimento de aplicações R$ 120 R$  2 Informações detalhadas sobre u Ɵlização da plataforma e desenvolvimento de aplicações R$ 60 R$  3 Exportação de aplicação para código fonte R$ 15 R$  Total - - 195 R$  [Grupo 1 - Item 3] Serviço de migração da plataforma e aplicações. Tipo Descrição Valor Unitário Qtde (unidade) Valor Total 1 Migração para serviço de nuvem comercial (na internet) R$ 1 R$ 2 Migração para serviço de nuvem em infraestrutura própria da contratante (no datacenter) ou on-premise R$ 1 R$ Total - - 2 R$ Outrossim, declaramos que:  Recebemos todos os documentos e informações necessárias à elaboração da proposta de preços;  Concordamos, sem qualquer restrição, com as condições ﬁxadas no Edital e seus anexos, comprometendo-nos a prestar os serviços de suporte padrão rigorosamente de acordo com o estabelecido;  Atendemos a todas as caracterís Ɵcas e especiﬁcações do objeto desta licitação, inclusive quanto aos prazos e quan Ɵdades constantes deste Edital e seus anexos;  Comunicaremos a ANS eventual superveniência de qualquer fato que implique em alteração da habilitação e qualiﬁcação desta ﬁrma.  Propomos fornecer, sob nossa integral responsabilidade, os serviços do Termo de Referência supracitado, pelo valor unitário es Ɵmado de R$ ________________ (por extenso), perfazendo o total es Ɵmado de R$ ____________ (valor por extenso). Declaro que no preço acima proposto, estão inclusos todos os custos necessários para a prestação dos serviços, objeto do Pregão em referência, como todas as despesas com a mão-de-obra a ser u Ɵlizada, bem como todos os tributos, fretes, seguros, encargos trabalhistas, previdenciários, ﬁscais, comerciais, taxas ou quaisquer outras despesas que incidam ou venham a incidir sobre o objeto desta licitação, e que inﬂuenciem na formação dos preços desta Proposta. O prazo de validade desta proposta de preço é de 60 (sessenta) dias corridos, a contar da data de sua apresentação. Caso nos seja adjudicado o objeto da licitação, comprometemo-nos a assinar o contrato no prazo determinado no Edital, e para esse ﬁm fornecemos os seguintes dados:  DADOS DA EMPRESA DADOS DO REPRESENTANTE LEGAL DA EMPRESA PARA ASSINATURA DO CONTRATO: SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 37 of 46 07/08/2023 14:26Razão Social: CNPJ:  Endereço:  Bairro:  Cidade:  UF:  CEP:  Fone Comercial: ( )  Fax: ( )  Celular: ( )  Endereço Eletrônico:  Responsável para contato:  Banco:  Agência:  C/C: Nome:  Naturalidade:  Nacionalidade:  Cargo/Função:  Endereço Comercial:  Bairro:  Cidade:  UF:  CEP:  Fone Comercial: ( )  Fax: ( )  Celular: ( )  Endereço Eletrônico:  _____________________________________________________________________ Assinatura do Representante da empresa ANEXO VI - MODELO DE PROPOSTA DE PREÇO (GRUPO 2) PROPOSTA DE PREÇO (Em papel personalizado da empresa)  À AGÊNCIA NACIONAL DE SAÚDE SUPLEMENTAR  A/C: Sr. Pregoeiro (a)  PREGÃO Nº 13/2023 PROCESSO Nº 33910.012598/2022-90 Prezado Senhor (a), Tendo examinado minuciosamente as normas especíﬁcas do Termo de Referência para prestação dos serviços de solução para desenvolvimento e gestão de aplicações baseada em ferramenta low-code, com esteira DevOps (CI&amp;CD), que possua todas as ferramentas necessárias, integradas na plataforma, e que possa ser implantada em nuvem pública, privada e/ou on-premise. Assim como serviços para manutenção de seu funcionamento e para desenvolvimento de aplicações, conforme condições, quanƟdades e exigências estabelecidas neste Edital e seus anexos., conforme tabela abaixo:  . GRUPO 2 Descrição Valor Unitário Qtde (unidade) Valor Total Serviço de desenvolvimento de aplicações na plataforma R$ 24 R$ Outrossim, declaramos que:  Recebemos todos os documentos e informações necessárias à elaboração da proposta de preços;  Concordamos, sem qualquer restrição, com as condições ﬁxadas no Edital e seus anexos, comprometendo-nos a prestar os serviços de suporte padrão rigorosamente de acordo com o estabelecido;  Atendemos a todas as caracterís Ɵcas e especiﬁcações do objeto desta licitação, inclusive quanto aos prazos e quan Ɵdades constantes deste Edital e seus anexos;  Comunicaremos a ANS eventual superveniência de qualquer fato que implique em alteração da habilitação e qualiﬁcação desta ﬁrma.  Propomos fornecer, sob nossa integral responsabilidade, os serviços do Termo de Referência supracitado, pelo valor unitário es Ɵmado de R$ ________________ (por extenso), perfazendo o total es Ɵmado de R$ ____________ (valor por extenso). Declaro que no preço acima proposto, estão inclusos todos os custos necessários para a prestação dos serviços, objeto do Pregão em referência, como todas as despesas com a mão-de-obra a ser u Ɵlizada, bem como todos os tributos, fretes, seguros, encargos trabalhistas, previdenciários, ﬁscais, comerciais, taxas ou quaisquer outras despesas que incidam ou venham a incidir sobre o objeto desta licitação, e que inﬂuenciem na formação dos preços desta Proposta. O prazo de validade desta proposta de preço é de 60 (sessenta) dias corridos, a contar da data de sua apresentação. Caso nos seja adjudicado o objeto da licitação, comprometemo-nos a assinar o contrato no prazo determinado no Edital, e para esse ﬁm fornecemos os seguintes dados:  DADOS DA EMPRESA DADOS DO REPRESENTANTE LEGAL DA EMPRESA PARA ASSINATURA DO CONTRATO:  Razão Social: CNPJ:  Endereço:  Bairro:  Cidade:  UF:  CEP:  Fone Comercial: ( )  Fax: ( )  Celular: ( )  Endereço Eletrônico:  Responsável para contato:  Banco:  Agência:  C/C: Nome:  Naturalidade:  Nacionalidade:  Cargo/Função:  Endereço Comercial:  Bairro:  Cidade:  UF:  CEP:  Fone Comercial: ( )  Fax: ( )  Celular: ( )  Endereço Eletrônico: SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 38 of 46 07/08/2023 14:26_____________________________________________________________________ Assinatura do Representante da empresa ANEXO VII - DECLARAÇÃO DE PLENO CONHECIMENTO DOS TERMOS E CONDIÇÕES DA LICITAÇÃO  AGÊNCIA NACIONAL DE SAÚDE SUPLEMENTAR - ANS PROCESSO Nº: 33910.012598/2022-90 PREGÃO ELETRÔNICO Nº 13/2023 À AGÊNCIA NACIONAL DE SAÚDE SUPLEMENTAR A/C: Sr. Pregoeiro (a) (nome da empresa), inscrita no CNPJ sob o nº ........, com sede à ........, em cumprimento ao Pregão nº 13/2023, DECLARA que conheceu os documentos per Ɵnentes ao processo  licitatório  a  que  se  refere,  condições  dos  locais  do  serviço,  os  esforços  e  inves Ɵmentos  necessários  para  execução  de  serviços  de ____________________________________________ para o atendimento à demanda da Agência Nacional de Saúde Suplementar. (Cidade), ________ de ______________________ de 2023. __________________________________________ (assinatura e carimbo) (nome do representante) (cargo) (nome da empresa) ANEXO VIII - TERMO DE RESPONSABILIDADE E SIGILO DA AGÊNCIA NACIONAL DE SAÚDE SUPLEMENTAR.  Eu, _________________________________________________________, pelo presente instrumento, comprometo-me perante a Agência Nacional de Saúde Suplementar, doravante denominada ANS, na qualidade de usuário do ambiente computacional de propriedade da Agência, ao seguinte:</t>
         </is>
       </c>
     </row>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tratar a informação como patrimônio e recurso que tem valor para a ANS, de modo a não pra Ɵcar quaisquer atos que possam afetar a conﬁdencialidade ou a</t>
+          <t>Conhecer e cumprir o disposto na Resolução Administra Ɵva – RA nº 62, de junho de 2015,  que dispõe sobre a Polí Ɵca de Segurança da Informação da ANS;</t>
         </is>
       </c>
     </row>
@@ -11281,7 +11281,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Guardar sigilo e zelar pela privacidade das informações conﬁdenciais a que Ɵver acesso, sem divulgá-las para pessoas não autorizadas;</t>
+          <t>Tratar a informação como patrimônio e recurso que tem valor para a ANS, de modo a não pra Ɵcar quaisquer atos que possam afetar a conﬁdencialidade ou a integridade dessas informações;</t>
         </is>
       </c>
     </row>
@@ -11293,7 +11293,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Em casos em que haja dúvida acerca da natureza conﬁdencial ou não de uma informação, sempre tratá-la como sigilosa, até que venha a ser expressamente autorizado</t>
+          <t>Guardar sigilo e zelar pela privacidade das informações conﬁdenciais a que Ɵver acesso, sem divulgá-las para pessoas não autorizadas;</t>
         </is>
       </c>
     </row>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>UƟlizar com responsabilidade e devida cautela os dados e informações impressas ou nos sistemas informa Ɵzados da ANS, cer Ɵﬁcando-me de bloquear minha estação</t>
+          <t>Em casos em que haja dúvida acerca da natureza conﬁdencial ou não de uma informação, sempre tratá-la como sigilosa, até que venha a ser expressamente autorizado pelo representante legal da ANS a proceder de maneira diferente;</t>
         </is>
       </c>
     </row>
@@ -11317,7 +11317,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Acessar somente as informações disponibilizadas pela ANS às quais estou autorizado, podendo responder, perante esta agência, auditorias ou autoridades do país, por</t>
+          <t>UƟlizar com responsabilidade e devida cautela os dados e informações impressas ou nos sistemas informa Ɵzados da ANS, cer Ɵﬁcando-me de bloquear minha estação de trabalho e guardar documentos que exigem sigilo sempre que me ausentar do local de trabalho, bem como, não transferir nenhum Ɵpo de arquivo ou dado que pertença à ANS para outro local ou mídia, salvo quando expressamente autorizado, de forma a evitar sua exposição a pessoas não autorizadas;</t>
         </is>
       </c>
     </row>
@@ -11329,7 +11329,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>UƟlizar, exclusivamente para o desempenho das minhas a Ɵvidades proﬁssionais junto à ANS, as informações disponibilizadas e os sistemas/produtos cuja propriedade</t>
+          <t>Acessar somente as informações disponibilizadas pela ANS às quais estou autorizado, podendo responder, perante esta agência, auditorias ou autoridades do país, por acessos ou tenta Ɵvas de acessos indevidos realizados com a minha iden Ɵﬁcação/auten Ɵcação e por uso indevido da informação;</t>
         </is>
       </c>
     </row>
@@ -11341,7 +11341,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Estar ciente de que toda informação armazenada e processada no ambiente computacional da ANS pode ser monitorada, registrada e u Ɵlizada em procedimentos de</t>
+          <t>UƟlizar, exclusivamente para o desempenho das minhas a Ɵvidades proﬁssionais junto à ANS, as informações disponibilizadas e os sistemas/produtos cuja propriedade ou direito de uso foram adquiridos por esta agência;</t>
         </is>
       </c>
     </row>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Guardar segredo de minha auten Ɵcação de acesso (senha) ao ambiente computacional, não cedendo, não transferindo, não divulgando e nem permi Ɵndo o seu</t>
+          <t>Estar ciente de que toda informação armazenada e processada no ambiente computacional da ANS pode ser monitorada, registrada e u Ɵlizada em procedimentos de auditoria;</t>
         </is>
       </c>
     </row>
@@ -11365,7 +11365,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Informar à ANS sempre que exista a suposição de revelação da minha auten Ɵcação de acesso (senha) a terceiros;</t>
+          <t>Guardar segredo de minha auten Ɵcação de acesso (senha) ao ambiente computacional, não cedendo, não transferindo, não divulgando e nem permi Ɵndo o seu conhecimento por terceiros, sendo responsável por todas as ações realizadas através desse acesso;</t>
         </is>
       </c>
     </row>
@@ -11377,7 +11377,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>UƟlizar apenas produtos fornecidos pela ANS, com cópias originais e contratados/adquiridos oﬁcialmente e autorizados para o meu uso;</t>
+          <t>Informar à ANS sempre que exista a suposição de revelação da minha auten Ɵcação de acesso (senha) a terceiros;</t>
         </is>
       </c>
     </row>
@@ -11389,7 +11389,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Seguir as orientações da GETI – Gerência de Tecnologia e Informação - rela Ɵvas à instalação, manutenção e uso adequado dos equipamentos;</t>
+          <t>UƟlizar apenas produtos fornecidos pela ANS, com cópias originais e contratados/adquiridos oﬁcialmente e autorizados para o meu uso;</t>
         </is>
       </c>
     </row>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Comunicar ao meu superior hierárquico a ocorrência de qualquer violação das regras acima, ainda que não intencional, bem como qualquer evento que implique em</t>
+          <t>Seguir as orientações da GETI – Gerência de Tecnologia e Informação - rela Ɵvas à instalação, manutenção e uso adequado dos equipamentos;</t>
         </is>
       </c>
     </row>
@@ -11413,7 +11413,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Estar ciente de que todas as responsabilidades dispostas neste documento se aplicam igualmente a todos os recursos providos pela ANS, independentemente do local</t>
+          <t>Comunicar ao meu superior hierárquico a ocorrência de qualquer violação das regras acima, ainda que não intencional, bem como qualquer evento que implique em possível impedimento de cumprir os procedimentos de segurança estabelecidos;</t>
         </is>
       </c>
     </row>
@@ -11425,7 +11425,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Estar ciente de que as responsabilidades dispostas neste documento perdurarão inclusive após a cessação do meu vínculo contratual com a ANS e abrangem as atuais</t>
+          <t>Estar ciente de que todas as responsabilidades dispostas neste documento se aplicam igualmente a todos os recursos providos pela ANS, independentemente do local de trabalho, incluindo o trabalho remoto, realizado fora das dependências desta agência. E que a não observância dessas regras pode resultar na suspensão dos recursos de acesso remoto à rede da ANS de forma temporária ou permanente, sem prejuízo da apuração de responsabilidade criminal, civil e administra Ɵva eventualmente existente, em decorrência das ações ou omissões que possam pôr em risco ou comprometer a rede desta agência;</t>
         </is>
       </c>
     </row>
@@ -11437,7 +11437,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CLÁUSULA PRIMEIRA - OBJETO</t>
+          <t>Estar ciente de que as responsabilidades dispostas neste documento perdurarão inclusive após a cessação do meu vínculo contratual com a ANS e abrangem as atuais informações e as que venham a ser de propriedade desta agência futuramente. Desta forma, assumo inteira responsabilidade pelas consequências legais, inclusive por danos materiais ou ﬁnanceiros, devidamente comprovados, em virtude da não observância do acima exposto. O presente termo é ﬁrmado em 02 (duas) vias, de igual teor e forma, para um só efeito, perante testemunha. (Local, data e assinatura)SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 39 of 46 07/08/2023 14:26CPF: ________________________ (Assinatura da testemunha)  CPF: ________________________ ANEXO IX - TERMO DE RECEBIMENTO PROVISÓRIO IDENTIFICAÇÃO Contrato: Período: Objeto: Contratante: ANS - Agência Nacional de Saúde Suplementar Contratada: Por este instrumento, atestamos, para ﬁns de cumprimento do disposto na alínea "a", do inciso II, do art. 33, da Instrução Norma Ɵva n° 01 do Ministério da Economia, de 04/04/2019, alterada pela Instrução Norma Ɵva n° 31/2021, que os serviços e/ou bens fornecidos no período acima iden Ɵﬁcado, ou conforme deﬁnido no Modelo de Execução do contrato supracitado, foram recebidos nesta data e serão objetos de avaliação quanto à adequação da Solução de Tecnologia da Informação e à conformidade de qualidade, de acordo com os Critérios de Aceitação previamente deﬁnidos no Modelo de Gestão do contrato pela Contratante. Ressaltamos que o recebimento deﬁni Ɵvo destes serviços e/ou bens ocorrerá nos prazos determinados no Termo de Referência da contratação, desde que não ocorram problemas técnicos ou divergências. DE ACORDO CONTRATANTE Fiscal TécnicoCONTRATADA Preposto _________________________ Nome: Matrícula:________________________ Nome: RG/CPF: Data: Data: ANEXO X - TERMO DE RECEBIMENTO DEFINITIVO IDENTIFICAÇÃO Contrato: Período: Objeto: Contratante: ANS - Agência Nacional de Saúde Suplementar Contratada: Por este instrumento, atestamos, para ﬁns de cumprimento do disposto na alínea "f", do inciso II, do art. 33, da Instrução Norma Ɵva n° 01 do Ministério da Economia, de 04/04/2019, alterada pela Instrução Norma Ɵva n° 31/2021, que os serviços prestados e/ou bens fornecidos no mês de competência acima iden Ɵﬁcado, ou conforme deﬁnido no Modelo de Execução do contrato supracitado, atendem às exigências especiﬁcadas no Termo de Referência do Contrato acima referenciado. DE ACORDO Fiscal Técnico do Contrato Fiscal Requisitante do Contrato ______________________________ Nome: Matrícula:______________________________ Nome: Matrícula: Data: Data: ANEXO XI - TERMO DE COMPROMISSO (Apresentar no momento da assinatura do contrato) __________________________________, por intermédio de seus representantes legais, doravante designada simplesmente  RESPONSÁVEL , se compromete, por intermédio do presente TERMO DE COMPROMISSO E CIÊNCIA , a não divulgar sem autorização quaisquer informações de propriedade da Agência Nacional de Saúde Suplementar - ANS, doravante simplesmente designada como ANS, e respeitar as normas de segurança vigentes, em conformidade com as seguintes cláusulas e condições: CLÁUSULA PRIMEIRA O RESPONSÁVEL  reconhece que, em razão da sua prestação de serviços à ANS – CONTRATO Nº ____/2023 , celebrado em ___/___/___, tem acesso a informações privadas da ANS, que podem e devem ser conceituadas como segredo de indústria ou de negócio. Estas informações devem ser tratadas conﬁdencialmente sob qualquer condição e não podem ser divulgadas a terceiros não autorizados, aí se incluindo os próprios empregados da ANS e do RESPONSÁVEL , sem a expressa e escrita autorização do representante legal da ANS, signatário do Contrato ora referido. CLÁUSULA SEGUNDA As informações a serem tratadas conﬁdencialmente são aquelas assim consideradas no âmbito da ANS e que, por sua natureza, não são ou não deveriam ser de conhecimento de terceiros, tais como: I. Listagens e documentações com informações conﬁdenciais a que venha a ter acesso enquanto contratado pela ANS; II. Documentos rela Ɵvos a saúde suplementar, armazenadas sob qualquer forma, inclusive informa Ɵzadas; III. Metodologias e Ferramentas de desenvolvimento de produtos e serviços, desenvolvidas pela ANS, ou para a ANS por terceiros, que estejam em u Ɵlização; IV. Valores e informações de natureza operacional, ﬁnanceira, administra Ɵva, contábil e jurídica; V. Documentos e informações u Ɵlizados na execução dos serviços do CONTRATO Nº ____/2023. CLÁUSULA TERCEIRASEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 40 of 46 07/08/2023 14:26O RESPONSÁVEL  reconhece que as referências dos incisos I a V da CLÁUSULA SEGUNDA  deste Termo são meramente exempliﬁca Ɵvas, e que outras hipóteses de conﬁdencialidade que já existam ou venham ser como tal deﬁnidas no futuro devem ser man Ɵdas sob sigilo. Parágrafo Único Em caso de dúvida acerca da natureza conﬁdencial de determinada informação, o RESPONSÁVEL  deverá mantê-la sob sigilo até que venha a ser autorizado expressamente pelo representante legal d a ANS, signatário do CONTRATO Nº ____/2023 , a tratá-la diferentemente. Em hipótese alguma a ausência de manifestação expressa da ANS poderá ser interpretada como liberação de qualquer dos compromissos ora assumidos. CLÁUSULA QUARTA O RESPONSÁVEL  recolherá, ao término do CONTRATO Nº ____/2023 , para imediata devolução a ANS, todo e qualquer material de propriedade deste, inclusive notas pessoais envolvendo matéria sigilosa a este relacionada, registro de documentos de qualquer natureza que tenham sido criados, usados ou man Ɵdos sob seu controle ou posse seja de seus empregados, prepostos, prestadores de serviço seja de fornecedores, com vínculo emprega ơcio ou eventual com o RESPONSÁVEL , assumindo o compromisso de não u Ɵlizar qualquer informação sigilosa ou conﬁdencial a que teve acesso enquanto contratado pela ANS. Parágrafo Único O RESPONSÁVEL  determinará a todos os seus empregados, prepostos e prestadores de serviço que estejam, direta ou indiretamente, envolvidos com a prestação de serviços objeto do CONTRATO Nº ____/2023 , a observância do presente Termo, adotando todas as precauções e medidas para que as obrigações oriundas do presente instrumento sejam efe Ɵvamente observadas. CLÁUSULA QUINTA O RESPONSÁVEL  obriga-se a informar imediatamente a ANS qualquer violação das regras de sigilo ora estabelecidas que tenha ocorrido por sua ação ou omissão, independentemente da existência de dolo, bem como de seus empregados, prepostos e prestadores de serviço. CLÁUSULA SEXTA O descumprimento de quaisquer das cláusulas do presente Termo acarretará a responsabilidade civil e criminal dos que, comprovadamente, es Ɵverem envolvidos no descumprimento ou violação. CLÁUSULA SÉTIMA As obrigações a que alude este instrumento perdurarão inclusive após a cessação do vínculo contratual entre o RESPONSÁVEL  e a ANS e abrangem as informações presentes e futuras. CLÁUSULA OITAVA O RESPONSÁVEL  se compromete no âmbito do Contrato objeto do presente Termo, a apresentar a ANS declaração individual de adesão e aceitação das presentes cláusulas, de cada integrante ou par Ɵcipante da equipe que prestar ou vier a prestar os serviços especiﬁcados no CONTRATO Nº ____/2023. Rio de Janeiro, ____ de _______________ de 20___. Responsável Legal: _________________________________ Nome: _________________________________ Cargo/Função: _________________________________ CPF: _________________________________ Telefone: _________________________________ E-mail: _________________________________ Documento de Iden Ɵdade (número, data, emissor): _________________________________ ANEXO XII - TERMO DE CIÊNCIA Contrato N°: Objeto: Contratante: Gestor do Contrato: Matr.: Contratada: CNPJ: Preposto da Contratada: Por este instrumento, os funcionários abaixo-assinados declaram ter ciência e conhecer o teor do Termo de Compromisso de Manutenção de Sigilo e as normas de segurança vigentes no Contrato. _______________________________,______ de _____________________ de 20_____. Ciência CONTRATADA Funcionários ______________________ &lt;Nome&gt; Matrícula: &lt;Matr.&gt; ______________________ &lt;Nome&gt; Matrícula: &lt;Matr.&gt; ANEXO XIII – MINUTA DE TERMO DE CONTRATO (GRUPO 1)SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 41 of 46 07/08/2023 14:26TERMO DE CONTRATO DE PRESTAÇÃO DE SERVIÇOS Nº XX/2023, QUE FAZEM ENTRE SI A AGÊNCIA NACIONAL DE SAÚDE SUPLEMENTAR - ANS E A EMPRESA XXX. A AGÊNCIA NACIONAL DE SAÚDE SUPLEMENTAR – ANS , Autarquia Especial, vinculada ao Ministério da Saúde, criada pela Lei nº 9.961, de 28 de janeiro de 2.000, com sede na Avenida Augusto Severo, n.° 84, Edi İcio Barão de Mauá, Glória, na cidade do Rio de Janeiro – RJ, inscrita no CNPJ sob o nº 03.589.068/0001- 46, neste ato representado pelo Gerente Geral de Administração e Finanças, Sr. Washington Pereira Da Cunha, RG n° 106910656-IFP/RJ, inscrito no CPF sob o nº 073.160.047-97 residente e domiciliado nesta cidade, nomeado pela Portaria nº 8.490, de 14 de outubro de 2016, publicada no Diário Oﬁcial da União de 17 de outubro de 2016, Seção II, página 39, consoante a competência que lhe foi delegada pela Portaria nº 150, de 12 de maio de 2021, publicada no Diário Oﬁcial da União - DOU, de 19 de maio de 2021, Seção II, páginas 42 e 43, do Diretor-Presidente Subs Ɵtuto da ANS, doravante denominada CONTRATANTE , e a XXXX, inscrita no CNPJ/MF sob o nº XXXXX, sediada na XXXX, CEP: XXXXXXXXX , em XXXXXX doravante designada CONTRATADA , neste ato representada por XXXXXXXXX , tendo em vista o que consta no Processo nº  33910.012598/2022-90 e em observância às disposições da Lei nº 8.666, de 21 de junho de 1993, da Lei nº 10.520, de 17 de julho de 2002, do Decreto nº 9.507, de 21 de setembro de 2018 e da Instrução Norma Ɵva SEGES/MP nº 5, de 26 de maio de 2017 e suas alterações, resolvem celebrar o presente Termo de Contrato, decorrente do Pregão nº 13/2023, mediante as cláusulas e condições a seguir enunciadas.</t>
         </is>
       </c>
     </row>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>O objeto do presente instrumento é a contratação de serviços de comunicação de dados, interligando a Sede da ANS com todos os núcleos regionais, em território</t>
+          <t>CLÁUSULA PRIMEIRA - OBJETO</t>
         </is>
       </c>
     </row>
@@ -11461,7 +11461,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Este Termo de Contrato vincula-se ao Edital do Pregão, iden Ɵﬁcado no preâmbulo e à proposta vencedora, independentemente de transcrição.</t>
+          <t>O objeto do presente instrumento é a contratação de serviços de comunicação de dados, interligando a Sede da ANS com todos os núcleos regionais, em território nacional, por meio de uma solução de tecnologia MPLS, que serão prestados nas condições estabelecidas no Termo de Referência, anexo do Edital.</t>
         </is>
       </c>
     </row>
@@ -11473,7 +11473,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objeto da contratação:                             </t>
+          <t>Este Termo de Contrato vincula-se ao Edital do Pregão, iden Ɵﬁcado no preâmbulo e à proposta vencedora, independentemente de transcrição.</t>
         </is>
       </c>
     </row>
@@ -11485,7 +11485,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CLÁUSULA SEGUNDA - VIGÊNCIA</t>
+          <t>Objeto da contratação:                              GRUPO 1 ITEM CATSER DESCRIÇÃO / ESPECIFICAÇÃO QUANTIDADE VALOR UNITÁRIO VALOR TOTAL 1 27502 Disponibilização, conﬁguração, manutenção e atualização da plataforma 60 R$ R$  2 27332 Apoio especializado na u Ɵlização da plataforma 195 R$ R$  3 27332 Serviço de migração da plataforma e aplicações 2 R$ R$  TOTAL - - R$</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">O prazo de vigência deste Termo de Contrato é aquele ﬁxado no Edital, com início na data de .........../......../........ e encerramento em .........../........./........... </t>
+          <t>CLÁUSULA SEGUNDA - VIGÊNCIA</t>
         </is>
       </c>
     </row>
@@ -11509,7 +11509,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>A CONTRATADA não tem direito subje Ɵvo à prorrogação contratual.</t>
+          <t xml:space="preserve">O prazo de vigência deste Termo de Contrato é aquele ﬁxado no Edital, com início na data de .........../......../........ e encerramento em .........../........./........... </t>
         </is>
       </c>
     </row>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CLÁUSULA TERCEIRA - PREÇO</t>
+          <t>A CONTRATADA não tem direito subje Ɵvo à prorrogação contratual.</t>
         </is>
       </c>
     </row>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>O valor mensal da contratação é de R$ ............ (......), perfazendo o valor total de R$ .......... (.....).</t>
+          <t>CLÁUSULA TERCEIRA - PREÇO</t>
         </is>
       </c>
     </row>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>No valor acima estão incluídas todas as despesas ordinárias diretas e indiretas decorrentes da execução do objeto, inclusive tributos e/ou impostos, encargos sociais,</t>
+          <t>O valor mensal da contratação é de R$ ............ (......), perfazendo o valor total de R$ .......... (.....).</t>
         </is>
       </c>
     </row>
@@ -11557,7 +11557,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>O valor acima é meramente es ƟmaƟvo, de forma que os pagamentos devidos à CONTRATADA dependerão dos quan ƟtaƟvos de serviços efe Ɵvamente prestados.</t>
+          <t>No valor acima estão incluídas todas as despesas ordinárias diretas e indiretas decorrentes da execução do objeto, inclusive tributos e/ou impostos, encargos sociais, trabalhistas, previdenciários, ﬁscais e comerciais incidentes, taxa de administração, frete, seguro e outros necessários ao cumprimento integral do objeto da contratação.</t>
         </is>
       </c>
     </row>
@@ -11569,7 +11569,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CLÁUSULA QUARTA - DOTAÇÃO ORÇAMENTÁRIA</t>
+          <t>O valor acima é meramente es ƟmaƟvo, de forma que os pagamentos devidos à CONTRATADA dependerão dos quan ƟtaƟvos de serviços efe Ɵvamente prestados.</t>
         </is>
       </c>
     </row>
@@ -11581,7 +11581,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>As despesas decorrentes desta contratação estão programadas em dotação orçamentária própria, prevista no orçamento da União, para o exercício de 2023 a 2028, na</t>
+          <t>CLÁUSULA QUARTA - DOTAÇÃO ORÇAMENTÁRIA</t>
         </is>
       </c>
     </row>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>No(s) exercício(s) seguinte(s), as despesas correspondentes correrão à conta dos recursos próprios para atender às despesas da mesma natureza, cuja alocação será feita</t>
+          <t>As despesas decorrentes desta contratação estão programadas em dotação orçamentária própria, prevista no orçamento da União, para o exercício de 2023 a 2028, na classiﬁcação abaixo: Gestão/Unidade:  36213/253003 Fonte: 1003 Programa de Trabalho:  10.126.5021.8727.0001 Elemento de Despesa:  33903504, 33904001 e 33904006</t>
         </is>
       </c>
     </row>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CLÁUSULA QUINTA - PAGAMENTO</t>
+          <t>No(s) exercício(s) seguinte(s), as despesas correspondentes correrão à conta dos recursos próprios para atender às despesas da mesma natureza, cuja alocação será feita no início de cada exercício ﬁnanceiro.</t>
         </is>
       </c>
     </row>
@@ -11617,7 +11617,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>O prazo para pagamento à CONTRATADA e demais condições a ele referentes encontram-se deﬁnidos no Termo de Referência e no Anexo XI da IN SEGES/MP n. 5/2017.</t>
+          <t>CLÁUSULA QUINTA - PAGAMENTO</t>
         </is>
       </c>
     </row>
@@ -11629,7 +11629,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CLÁUSULA SEXTA - REAJUSTE DE PREÇOS EM SENTIDO AMPLO</t>
+          <t>O prazo para pagamento à CONTRATADA e demais condições a ele referentes encontram-se deﬁnidos no Termo de Referência e no Anexo XI da IN SEGES/MP n. 5/2017.</t>
         </is>
       </c>
     </row>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>As regras acerca do reajuste do valor contratual são as estabelecidas no Termo de Referência, anexo a este Contrato.</t>
+          <t>CLÁUSULA SEXTA - REAJUSTE DE PREÇOS EM SENTIDO AMPLO</t>
         </is>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CLÁUSULA SÉTIMA - GARANTIA DE EXECUÇÃO</t>
+          <t>As regras acerca do reajuste do valor contratual são as estabelecidas no Termo de Referência, anexo a este Contrato.</t>
         </is>
       </c>
     </row>
@@ -11665,7 +11665,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Será exigida a prestação de garan Ɵa na presente contratação, conforme regras constantes do Termo de Referência.</t>
+          <t>CLÁUSULA SÉTIMA - GARANTIA DE EXECUÇÃO</t>
         </is>
       </c>
     </row>
@@ -11677,7 +11677,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CLÁUSULA OITAVA - REGIME DE EXECUÇÃO DOS SERVIÇOS E FISCALIZAÇÃO</t>
+          <t>Será exigida a prestação de garan Ɵa na presente contratação, conforme regras constantes do Termo de Referência.</t>
         </is>
       </c>
     </row>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>O regime de execução dos serviços a serem executados pela CONTRATADA, os materiais que serão empregados e a ﬁscalização pela CONTRATANTE são aqueles previstos</t>
+          <t>CLÁUSULA OITAVA - REGIME DE EXECUÇÃO DOS SERVIÇOS E FISCALIZAÇÃO</t>
         </is>
       </c>
     </row>
@@ -11701,7 +11701,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CLÁUSULA NONA - OBRIGAÇÕES DA CONTRATANTE E DA CONTRATADA</t>
+          <t>O regime de execução dos serviços a serem executados pela CONTRATADA, os materiais que serão empregados e a ﬁscalização pela CONTRATANTE são aqueles previstos no Termo de Referência, anexo do Edital.</t>
         </is>
       </c>
     </row>
@@ -11713,7 +11713,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>As obrigações da CONTRATANTE e da CONTRATADA (deveres e responsabilidades) são aquelas previstas no Termo de Referência, anexo do Edital.SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w...</t>
+          <t>CLÁUSULA NONA - OBRIGAÇÕES DA CONTRATANTE E DA CONTRATADA</t>
         </is>
       </c>
     </row>
@@ -11725,7 +11725,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Os serviços em nuvem a serem contratados permi Ɵrão a portabilidade de dados e so Ōwares e que as informações do contratante estarão disponíveis para transferência</t>
+          <t>As obrigações da CONTRATANTE e da CONTRATADA (deveres e responsabilidades) são aquelas previstas no Termo de Referência, anexo do Edital.SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 42 of 46 07/08/2023 14:269.2. Os direitos rela Ɵvos aos so Ōwares desenvolvidos em decorrência deste contrato, ou de vínculo trabalhista, pertencem ao CONTRATANTE.</t>
         </is>
       </c>
     </row>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CLÁUSULA DÉCIMA - SANÇÕES ADMINISTRATIVAS</t>
+          <t>Os serviços em nuvem a serem contratados permi Ɵrão a portabilidade de dados e so Ōwares e que as informações do contratante estarão disponíveis para transferência de localização, na forma disciplinada no Termo de Referência.</t>
         </is>
       </c>
     </row>
@@ -11749,7 +11749,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>As sanções relacionadas à execução do contrato são aquelas previstas no Edital e no Termo de Referência, que cons Ɵtui seu anexo.</t>
+          <t>CLÁUSULA DÉCIMA - SANÇÕES ADMINISTRATIVAS</t>
         </is>
       </c>
     </row>
@@ -11761,7 +11761,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CLÁUSULA DÉCIMA PRIMEIRA - RESCISÃO</t>
+          <t>As sanções relacionadas à execução do contrato são aquelas previstas no Edital e no Termo de Referência, que cons Ɵtui seu anexo.</t>
         </is>
       </c>
     </row>
@@ -11773,7 +11773,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>O presente Termo de Contrato poderá ser rescindido:</t>
+          <t>CLÁUSULA DÉCIMA PRIMEIRA - RESCISÃO</t>
         </is>
       </c>
     </row>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>por ato unilateral e escrito da Administração, nas situações previstas nos incisos I a XII e XVII do art. 78 da Lei nº 8.666, de 1993, e com as consequências indicadas no</t>
+          <t>O presente Termo de Contrato poderá ser rescindido:</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>amigavelmente, nos termos do art. 79, inciso II, da Lei nº 8.666, de 1993.</t>
+          <t>por ato unilateral e escrito da Administração, nas situações previstas nos incisos I a XII e XVII do art. 78 da Lei nº 8.666, de 1993, e com as consequências indicadas no art. 80 da mesma Lei, sem prejuízo da aplicação das sanções previstas no Termo de Referência, anexo ao Edital;</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Os casos de rescisão contratual serão formalmente mo Ɵvados, assegurando-se à CONTRATADA o direito à prévia e ampla defesa.</t>
+          <t>amigavelmente, nos termos do art. 79, inciso II, da Lei nº 8.666, de 1993.</t>
         </is>
       </c>
     </row>
@@ -11821,7 +11821,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>A CONTRATADA reconhece os direitos da CONTRATANTE em caso de rescisão administra Ɵva prevista no art. 77 da Lei nº 8.666, de 1993.</t>
+          <t>Os casos de rescisão contratual serão formalmente mo Ɵvados, assegurando-se à CONTRATADA o direito à prévia e ampla defesa.</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>O termo de rescisão, sempre que possível, será precedido de Relatório indica Ɵvo dos seguintes aspectos, conforme o caso:</t>
+          <t>A CONTRATADA reconhece os direitos da CONTRATANTE em caso de rescisão administra Ɵva prevista no art. 77 da Lei nº 8.666, de 1993.</t>
         </is>
       </c>
     </row>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Balanço dos eventos contratuais já cumpridos ou parcialmente cumpridos;</t>
+          <t>O termo de rescisão, sempre que possível, será precedido de Relatório indica Ɵvo dos seguintes aspectos, conforme o caso:</t>
         </is>
       </c>
     </row>
@@ -11857,7 +11857,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Relação dos pagamentos já efetuados e ainda devidos;</t>
+          <t>Balanço dos eventos contratuais já cumpridos ou parcialmente cumpridos;</t>
         </is>
       </c>
     </row>
@@ -11869,7 +11869,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Indenizações e multas.</t>
+          <t>Relação dos pagamentos já efetuados e ainda devidos;</t>
         </is>
       </c>
     </row>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CLÁUSULA DÉCIMA SEGUNDA - VEDAÇÕES E PERMISSÕES</t>
+          <t>Indenizações e multas.</t>
         </is>
       </c>
     </row>
@@ -11893,7 +11893,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>É vedado à CONTRATADA interromper a execução dos serviços sob alegação de inadimplemento por parte da CONTRATANTE, salvo nos casos previstos em lei.</t>
+          <t>CLÁUSULA DÉCIMA SEGUNDA - VEDAÇÕES E PERMISSÕES</t>
         </is>
       </c>
     </row>
@@ -11905,7 +11905,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>É permi Ɵdo à CONTRATADA caucionar ou u Ɵlizar este Termo de Contrato para qualquer operação ﬁnanceira, nos termos e de acordo com os procedimentos previstos na</t>
+          <t>É vedado à CONTRATADA interromper a execução dos serviços sob alegação de inadimplemento por parte da CONTRATANTE, salvo nos casos previstos em lei.</t>
         </is>
       </c>
     </row>
@@ -11917,7 +11917,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>A cessão de crédito, a ser feita mediante celebração de termo adi Ɵvo, dependerá de comprovação da regularidade ﬁscal e trabalhista da cessionária, bem como da</t>
+          <t>É permi Ɵdo à CONTRATADA caucionar ou u Ɵlizar este Termo de Contrato para qualquer operação ﬁnanceira, nos termos e de acordo com os procedimentos previstos na Instrução Norma Ɵva SEGES/ME nº 53, de 8 de Julho de 2020.</t>
         </is>
       </c>
     </row>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>A crédito a ser pago à cessionária é exatamente aquele que seria des Ɵnado à cedente (contratada) pela execução do objeto contratual, com o desconto de eventuais</t>
+          <t>A cessão de crédito, a ser feita mediante celebração de termo adi Ɵvo, dependerá de comprovação da regularidade ﬁscal e trabalhista da cessionária, bem como da cerƟﬁcação de que a cessionária não se encontra impedida de licitar e contratar com o Poder Público, conforme a legislação em vigor, nos termos do Parecer JL-01, de 18 de maio de 2020.</t>
         </is>
       </c>
     </row>
@@ -11941,7 +11941,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CLÁUSULA DÉCIMA TERCEIRA - ALTERAÇÕES</t>
+          <t>A crédito a ser pago à cessionária é exatamente aquele que seria des Ɵnado à cedente (contratada) pela execução do objeto contratual, com o desconto de eventuais multas, glosas e prejuízos causados à Administração, sem prejuízo da u Ɵlização de ins Ɵtutos tais como os da conta vinculada e do pagamento direto previstos na IN SEGES/ME nº 5, de 2017, caso aplicáveis.</t>
         </is>
       </c>
     </row>
@@ -11953,7 +11953,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Eventuais alterações contratuais reger-se-ão pela disciplina do art. 65 da Lei nº 8.666, de 1993.</t>
+          <t>CLÁUSULA DÉCIMA TERCEIRA - ALTERAÇÕES</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>A CONTRATADA é obrigada a aceitar, nas mesmas condições contratuais, os acréscimos ou supressões que se ﬁzerem necessários, até o limite de 25% (vinte e cinco por</t>
+          <t>Eventuais alterações contratuais reger-se-ão pela disciplina do art. 65 da Lei nº 8.666, de 1993.</t>
         </is>
       </c>
     </row>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>As supressões resultantes de acordo celebrado entre as partes contratantes poderão exceder o limite de 25% (vinte e cinco por cento) do valor inicial atualizado do</t>
+          <t>A CONTRATADA é obrigada a aceitar, nas mesmas condições contratuais, os acréscimos ou supressões que se ﬁzerem necessários, até o limite de 25% (vinte e cinco por cento) do valor inicial atualizado do contrato.</t>
         </is>
       </c>
     </row>
@@ -11989,7 +11989,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CLÁUSULA DÉCIMA QUARTA - DOS CASOS OMISSOS</t>
+          <t>As supressões resultantes de acordo celebrado entre as partes contratantes poderão exceder o limite de 25% (vinte e cinco por cento) do valor inicial atualizado do contrato.</t>
         </is>
       </c>
     </row>
@@ -12001,7 +12001,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Os casos omissos serão decididos pela CONTRATANTE, segundo as disposições con Ɵdas na Lei nº 8.666, de 1993, na Lei nº 10.520, de 2002 e demais normas federais</t>
+          <t>CLÁUSULA DÉCIMA QUARTA - DOS CASOS OMISSOS</t>
         </is>
       </c>
     </row>
@@ -12013,7 +12013,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CLÁUSULA DÉCIMA QUINTA - PUBLICAÇÃO</t>
+          <t>Os casos omissos serão decididos pela CONTRATANTE, segundo as disposições con Ɵdas na Lei nº 8.666, de 1993, na Lei nº 10.520, de 2002 e demais normas federais aplicáveis e, subsidiariamente, segundo as disposições con Ɵdas na Lei nº 8.078, de 1990 – Código de Defesa do Consumidor – e normas e princípios gerais dos contratos.</t>
         </is>
       </c>
     </row>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Incumbirá à CONTRATANTE providenciar a publicação deste instrumento, por extrato, no Diário Oﬁcial da União, no prazo previsto na Lei nº 8.666, de 1993.</t>
+          <t>CLÁUSULA DÉCIMA QUINTA - PUBLICAÇÃO</t>
         </is>
       </c>
     </row>
@@ -12037,7 +12037,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CLÁUSULA DÉCIMA SEXTA - FORO</t>
+          <t>Incumbirá à CONTRATANTE providenciar a publicação deste instrumento, por extrato, no Diário Oﬁcial da União, no prazo previsto na Lei nº 8.666, de 1993.</t>
         </is>
       </c>
     </row>
@@ -12049,7 +12049,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CLÁUSULA PRIMEIRA - OBJETO</t>
+          <t>CLÁUSULA DÉCIMA SEXTA - FORO 16.1 É eleito o Foro da Seção Judiciária do Rio de janeiro - Jus Ɵça Federal para dirimir os li ơgios que decorrerem da execução deste Termo de Contrato que não possam ser compostos pela conciliação, conforme art. 55, § 2º da Lei nº 8.666/93. Para ﬁrmeza e validade do pactuado, o presente Termo de Contrato foi lavrado em duas (duas) vias de igual teor, que, depois de lido e achado em ordem, vai assinado pelos contraentes. Rio de Janeiro,  .......... de ...............de 2023. ___________________________________________________ Representante Legal da CONTRATANTE ___________________________________________________ Representante legal da CONTRATADA TESTEMUNHAS: 1 -  2 -  ANEXO XIV – MINUTA DE TERMO DE CONTRATO (GRUPO 2)SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 43 of 46 07/08/2023 14:26TERMO DE CONTRATO DE PRESTAÇÃO DE SERVIÇOS Nº XX/2023, QUE FAZEM ENTRE  SI  A  AGÊNCIA  NACIONAL  DE  SAÚDE  SUPLEMENTAR  -  ANS  E  A EMPRESA XXX. A AGÊNCIA NACIONAL DE SAÚDE SUPLEMENTAR – ANS , Autarquia Especial, vinculada ao Ministério da Saúde, criada pela Lei nº 9.961, de 28 de janeiro de 2.000, com sede na Avenida Augusto Severo, n.° 84, Edi İcio Barão de Mauá, Glória, na cidade do Rio de Janeiro – RJ, inscrita no CNPJ sob o nº 03.589.068/0001- 46, neste ato representado pelo Gerente Geral de Administração e Finanças, Sr. Washington Pereira Da Cunha, RG n° 106910656-IFP/RJ, inscrito no CPF sob o nº 073.160.047-97 residente e domiciliado nesta cidade, nomeado pela Portaria nº 8.490, de 14 de outubro de 2016, publicada no Diário Oﬁcial da União de 17 de outubro de 2016, Seção II, página 39, consoante a competência que lhe foi delegada pela Portaria nº 150, de 12 de maio de 2021, publicada no Diário Oﬁcial da União - DOU, de 19 de maio de 2021, Seção II, páginas 42 e 43, do Diretor-Presidente Subs Ɵtuto da ANS, doravante denominada CONTRATANTE , e a XXXX, inscrita no CNPJ/MF sob o nº XXXXX, sediada na XXXX, CEP: XXXXXXXXX , em XXXXXX doravante designada CONTRATADA , neste ato representada por XXXXXXXXX , portador  da Carteira de Iden Ɵdade nº XXXXX, expedida pela XXXXXXX , e CPF nº XXXXXX, tendo em vista o que consta no Processo nº  33910.019262/2022-58 e em observância às disposições da Lei nº 8.666, de 21 de junho de 1993, da Lei nº 10.520, de 17 de julho de 2002, do Decreto nº 9.507, de 21 de setembro de 2018 e da Instrução Norma Ɵva SEGES/MP nº 5, de 26 de maio de 2017 e suas alterações, resolvem celebrar o presente Termo de Contrato, decorrente do Pregão nº 13/2023, mediante as cláusulas e condições a seguir enunciadas.</t>
         </is>
       </c>
     </row>
@@ -12061,7 +12061,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>O objeto do presente instrumento é a contratação de serviços de comunicação de dados, interligando a Sede da ANS com todos os núcleos regionais, em território</t>
+          <t>CLÁUSULA PRIMEIRA - OBJETO</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Este Termo de Contrato vincula-se ao Edital do Pregão, iden Ɵﬁcado no preâmbulo e à proposta vencedora, independentemente de transcrição.</t>
+          <t>O objeto do presente instrumento é a contratação de serviços de comunicação de dados, interligando a Sede da ANS com todos os núcleos regionais, em território nacional, por meio de uma solução de tecnologia MPLS, que serão prestados nas condições estabelecidas no Termo de Referência, anexo do Edital.</t>
         </is>
       </c>
     </row>
@@ -12085,7 +12085,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objeto da contratação:                             </t>
+          <t>Este Termo de Contrato vincula-se ao Edital do Pregão, iden Ɵﬁcado no preâmbulo e à proposta vencedora, independentemente de transcrição.</t>
         </is>
       </c>
     </row>
@@ -12097,7 +12097,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CLÁUSULA SEGUNDA - VIGÊNCIA</t>
+          <t>Objeto da contratação:                              GRUPO 2 Descrição Valor Unitário Qtde (unidade) Valor Total Serviço de desenvolvimento de aplicações na plataforma R$ 24 R$</t>
         </is>
       </c>
     </row>
@@ -12109,7 +12109,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>O prazo de vigência deste Termo de Contrato é aquele ﬁxado no Edital, com início na data de .........../......../........ e encerramento em .........../........./.........., podendo ser</t>
+          <t>CLÁUSULA SEGUNDA - VIGÊNCIA</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Esteja formalmente demonstrado que a forma de prestação dos serviços tem natureza con Ɵnuada;</t>
+          <t>O prazo de vigência deste Termo de Contrato é aquele ﬁxado no Edital, com início na data de .........../......../........ e encerramento em .........../........./.........., podendo ser prorrogado por interesse das partes até o limite de 60 (sessenta) meses, desde que haja autorização formal da autoridade competente e seja observado o disposto no Anexo IX da IN SEGES/MP nº 05/2017, atentando, em especial para o cumprimento dos seguintes requisitos:</t>
         </is>
       </c>
     </row>
@@ -12133,7 +12133,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seja juntado relatório que discorra sobre a execução do contrato, com informações de que os serviços tenham sido prestados regularmente;    </t>
+          <t>Esteja formalmente demonstrado que a forma de prestação dos serviços tem natureza con Ɵnuada;</t>
         </is>
       </c>
     </row>
@@ -12145,7 +12145,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seja juntada jus ƟﬁcaƟva e moƟvo, por escrito, de que a Administração mantém interesse na realização do serviço;  </t>
+          <t xml:space="preserve">Seja juntado relatório que discorra sobre a execução do contrato, com informações de que os serviços tenham sido prestados regularmente;    </t>
         </is>
       </c>
     </row>
@@ -12157,7 +12157,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seja comprovado que o valor do contrato permanece economicamente vantajoso para a Administração;     </t>
+          <t xml:space="preserve">Seja juntada jus ƟﬁcaƟva e moƟvo, por escrito, de que a Administração mantém interesse na realização do serviço;  </t>
         </is>
       </c>
     </row>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Haja manifestação expressa da contratada informando o interesse na prorrogação;</t>
+          <t xml:space="preserve">Seja comprovado que o valor do contrato permanece economicamente vantajoso para a Administração;     </t>
         </is>
       </c>
     </row>
@@ -12181,7 +12181,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seja comprovado que o contratado mantém as condições iniciais de habilitação.  </t>
+          <t>Haja manifestação expressa da contratada informando o interesse na prorrogação;</t>
         </is>
       </c>
     </row>
@@ -12193,7 +12193,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>A CONTRATADA não tem direito subje Ɵvo à prorrogação contratual.</t>
+          <t xml:space="preserve">Seja comprovado que o contratado mantém as condições iniciais de habilitação.  </t>
         </is>
       </c>
     </row>
@@ -12205,7 +12205,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>A prorrogação de contrato deverá ser promovida mediante celebração de termo adi Ɵvo.</t>
+          <t>A CONTRATADA não tem direito subje Ɵvo à prorrogação contratual.</t>
         </is>
       </c>
     </row>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CLÁUSULA TERCEIRA - PREÇO</t>
+          <t>A prorrogação de contrato deverá ser promovida mediante celebração de termo adi Ɵvo.</t>
         </is>
       </c>
     </row>
@@ -12229,7 +12229,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>O valor mensal da contratação é de R$ ............ (......), perfazendo o valor total de R$ .......... (.....).</t>
+          <t>CLÁUSULA TERCEIRA - PREÇO</t>
         </is>
       </c>
     </row>
@@ -12241,7 +12241,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>No valor acima estão incluídas todas as despesas ordinárias diretas e indiretas decorrentes da execução do objeto, inclusive tributos e/ou impostos, encargos sociais,</t>
+          <t>O valor mensal da contratação é de R$ ............ (......), perfazendo o valor total de R$ .......... (.....).</t>
         </is>
       </c>
     </row>
@@ -12253,7 +12253,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>O valor acima é meramente es ƟmaƟvo, de forma que os pagamentos devidos à CONTRATADA dependerão dos quan ƟtaƟvos de serviços efe Ɵvamente prestados.</t>
+          <t>No valor acima estão incluídas todas as despesas ordinárias diretas e indiretas decorrentes da execução do objeto, inclusive tributos e/ou impostos, encargos sociais, trabalhistas, previdenciários, ﬁscais e comerciais incidentes, taxa de administração, frete, seguro e outros necessários ao cumprimento integral do objeto da contratação.</t>
         </is>
       </c>
     </row>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CLÁUSULA QUARTA - DOTAÇÃO ORÇAMENTÁRIA</t>
+          <t>O valor acima é meramente es ƟmaƟvo, de forma que os pagamentos devidos à CONTRATADA dependerão dos quan ƟtaƟvos de serviços efe Ɵvamente prestados.</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>As despesas decorrentes desta contratação estão programadas em dotação orçamentária própria, prevista no orçamento da União, para o exercício de 2023, na</t>
+          <t>CLÁUSULA QUARTA - DOTAÇÃO ORÇAMENTÁRIA</t>
         </is>
       </c>
     </row>
@@ -12289,7 +12289,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>No(s) exercício(s) seguinte(s), as despesas correspondentes correrão à conta dos recursos próprios para atender às despesas da mesma natureza, cuja alocação será feita</t>
+          <t>As despesas decorrentes desta contratação estão programadas em dotação orçamentária própria, prevista no orçamento da União, para o exercício de 2023, na classiﬁcação abaixo: Gestão/Unidade:  36213/253003 Fonte: 1003 Programa de Trabalho:  10.126.5021.8727.0001 Elemento de Despesa:  33903504, 33904001 e 33904006</t>
         </is>
       </c>
     </row>
@@ -12301,7 +12301,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CLÁUSULA QUINTA - PAGAMENTO</t>
+          <t>No(s) exercício(s) seguinte(s), as despesas correspondentes correrão à conta dos recursos próprios para atender às despesas da mesma natureza, cuja alocação será feita no início de cada exercício ﬁnanceiro.</t>
         </is>
       </c>
     </row>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>O prazo para pagamento à CONTRATADA e demais condições a ele referentes encontram-se deﬁnidos no Termo de Referência e no Anexo XI da IN SEGES/MP n. 5/2017.</t>
+          <t>CLÁUSULA QUINTA - PAGAMENTO</t>
         </is>
       </c>
     </row>
@@ -12325,7 +12325,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CLÁUSULA SEXTA - REAJUSTE DE PREÇOS EM SENTIDO AMPLO</t>
+          <t>O prazo para pagamento à CONTRATADA e demais condições a ele referentes encontram-se deﬁnidos no Termo de Referência e no Anexo XI da IN SEGES/MP n. 5/2017.</t>
         </is>
       </c>
     </row>
@@ -12337,7 +12337,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>As regras acerca do reajuste do valor contratual são as estabelecidas no Termo de Referência, anexo a este Contrato.</t>
+          <t>CLÁUSULA SEXTA - REAJUSTE DE PREÇOS EM SENTIDO AMPLO</t>
         </is>
       </c>
     </row>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>CLÁUSULA SÉTIMA - GARANTIA DE EXECUÇÃO</t>
+          <t>As regras acerca do reajuste do valor contratual são as estabelecidas no Termo de Referência, anexo a este Contrato.</t>
         </is>
       </c>
     </row>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Será exigida a prestação de garan Ɵa na presente contratação, conforme regras constantes do Termo de Referência.</t>
+          <t>CLÁUSULA SÉTIMA - GARANTIA DE EXECUÇÃO</t>
         </is>
       </c>
     </row>
@@ -12373,7 +12373,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CLÁUSULA OITAVA - REGIME DE EXECUÇÃO DOS SERVIÇOS E FISCALIZAÇÃO</t>
+          <t>Será exigida a prestação de garan Ɵa na presente contratação, conforme regras constantes do Termo de Referência.</t>
         </is>
       </c>
     </row>
@@ -12385,7 +12385,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>O regime de execução dos serviços a serem executados pela CONTRATADA, os materiais que serão empregados e a ﬁscalização pela CONTRATANTE são aqueles previstos</t>
+          <t>CLÁUSULA OITAVA - REGIME DE EXECUÇÃO DOS SERVIÇOS E FISCALIZAÇÃO</t>
         </is>
       </c>
     </row>
@@ -12397,7 +12397,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>As obrigações da CONTRATANTE e da CONTRATADA (deveres e responsabilidades) são aquelas previstas no Termo de Referência, anexo do Edital.</t>
+          <t>O regime de execução dos serviços a serem executados pela CONTRATADA, os materiais que serão empregados e a ﬁscalização pela CONTRATANTE são aqueles previstos no Termo de Referência, anexo do Edital.SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 44 of 46 07/08/2023 14:269. CLÁUSULA NONA - OBRIGAÇÕES DA CONTRATANTE E DA CONTRATADA</t>
         </is>
       </c>
     </row>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Os direitos rela Ɵvos aos so Ōwares desenvolvidos em decorrência deste contrato, ou de vínculo trabalhista, pertencem ao CONTRATANTE.</t>
+          <t>As obrigações da CONTRATANTE e da CONTRATADA (deveres e responsabilidades) são aquelas previstas no Termo de Referência, anexo do Edital.</t>
         </is>
       </c>
     </row>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Os serviços em nuvem a serem contratados permi Ɵrão a portabilidade de dados e so Ōwares e que as informações do contratante estarão disponíveis para transferência</t>
+          <t>Os direitos rela Ɵvos aos so Ōwares desenvolvidos em decorrência deste contrato, ou de vínculo trabalhista, pertencem ao CONTRATANTE.</t>
         </is>
       </c>
     </row>
@@ -12433,7 +12433,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CLÁUSULA DÉCIMA - SANÇÕES ADMINISTRATIVAS</t>
+          <t>Os serviços em nuvem a serem contratados permi Ɵrão a portabilidade de dados e so Ōwares e que as informações do contratante estarão disponíveis para transferência de localização, na forma disciplinada no Termo de Referência.</t>
         </is>
       </c>
     </row>
@@ -12445,7 +12445,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>As sanções relacionadas à execução do contrato são aquelas previstas no Edital e no Termo de Referência, que cons Ɵtui seu anexo.</t>
+          <t>CLÁUSULA DÉCIMA - SANÇÕES ADMINISTRATIVAS</t>
         </is>
       </c>
     </row>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CLÁUSULA DÉCIMA PRIMEIRA - RESCISÃO</t>
+          <t>As sanções relacionadas à execução do contrato são aquelas previstas no Edital e no Termo de Referência, que cons Ɵtui seu anexo.</t>
         </is>
       </c>
     </row>
@@ -12469,7 +12469,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>O presente Termo de Contrato poderá ser rescindido:</t>
+          <t>CLÁUSULA DÉCIMA PRIMEIRA - RESCISÃO</t>
         </is>
       </c>
     </row>
@@ -12481,7 +12481,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>por ato unilateral e escrito da Administração, nas situações previstas nos incisos I a XII e XVII do art. 78 da Lei nº 8.666, de 1993, e com as consequências indicadas no</t>
+          <t>O presente Termo de Contrato poderá ser rescindido:</t>
         </is>
       </c>
     </row>
@@ -12493,7 +12493,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>amigavelmente, nos termos do art. 79, inciso II, da Lei nº 8.666, de 1993.</t>
+          <t>por ato unilateral e escrito da Administração, nas situações previstas nos incisos I a XII e XVII do art. 78 da Lei nº 8.666, de 1993, e com as consequências indicadas no art. 80 da mesma Lei, sem prejuízo da aplicação das sanções previstas no Termo de Referência, anexo ao Edital;</t>
         </is>
       </c>
     </row>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Os casos de rescisão contratual serão formalmente mo Ɵvados, assegurando-se à CONTRATADA o direito à prévia e ampla defesa.</t>
+          <t>amigavelmente, nos termos do art. 79, inciso II, da Lei nº 8.666, de 1993.</t>
         </is>
       </c>
     </row>
@@ -12517,7 +12517,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>A CONTRATADA reconhece os direitos da CONTRATANTE em caso de rescisão administra Ɵva prevista no art. 77 da Lei nº 8.666, de 1993.</t>
+          <t>Os casos de rescisão contratual serão formalmente mo Ɵvados, assegurando-se à CONTRATADA o direito à prévia e ampla defesa.</t>
         </is>
       </c>
     </row>
@@ -12529,7 +12529,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>O termo de rescisão, sempre que possível, será precedido de Relatório indica Ɵvo dos seguintes aspectos, conforme o caso:</t>
+          <t>A CONTRATADA reconhece os direitos da CONTRATANTE em caso de rescisão administra Ɵva prevista no art. 77 da Lei nº 8.666, de 1993.</t>
         </is>
       </c>
     </row>
@@ -12541,7 +12541,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Balanço dos eventos contratuais já cumpridos ou parcialmente cumpridos;</t>
+          <t>O termo de rescisão, sempre que possível, será precedido de Relatório indica Ɵvo dos seguintes aspectos, conforme o caso:</t>
         </is>
       </c>
     </row>
@@ -12553,7 +12553,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Relação dos pagamentos já efetuados e ainda devidos;</t>
+          <t>Balanço dos eventos contratuais já cumpridos ou parcialmente cumpridos;</t>
         </is>
       </c>
     </row>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Indenizações e multas.</t>
+          <t>Relação dos pagamentos já efetuados e ainda devidos;</t>
         </is>
       </c>
     </row>
@@ -12577,7 +12577,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CLÁUSULA DÉCIMA SEGUNDA - VEDAÇÕES E PERMISSÕES</t>
+          <t>Indenizações e multas.</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>É vedado à CONTRATADA interromper a execução dos serviços sob alegação de inadimplemento por parte da CONTRATANTE, salvo nos casos previstos em lei.</t>
+          <t>CLÁUSULA DÉCIMA SEGUNDA - VEDAÇÕES E PERMISSÕES</t>
         </is>
       </c>
     </row>
@@ -12601,7 +12601,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>É permi Ɵdo à CONTRATADA caucionar ou u Ɵlizar este Termo de Contrato para qualquer operação ﬁnanceira, nos termos e de acordo com os procedimentos previstos na</t>
+          <t>É vedado à CONTRATADA interromper a execução dos serviços sob alegação de inadimplemento por parte da CONTRATANTE, salvo nos casos previstos em lei.</t>
         </is>
       </c>
     </row>
@@ -12613,7 +12613,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>A cessão de crédito, a ser feita mediante celebração de termo adi Ɵvo, dependerá de comprovação da regularidade ﬁscal e trabalhista da cessionária, bem como da</t>
+          <t>É permi Ɵdo à CONTRATADA caucionar ou u Ɵlizar este Termo de Contrato para qualquer operação ﬁnanceira, nos termos e de acordo com os procedimentos previstos na Instrução Norma Ɵva SEGES/ME nº 53, de 8 de Julho de 2020.</t>
         </is>
       </c>
     </row>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>A crédito a ser pago à cessionária é exatamente aquele que seria des Ɵnado à cedente (contratada) pela execução do objeto contratual, com o desconto de eventuais</t>
+          <t>A cessão de crédito, a ser feita mediante celebração de termo adi Ɵvo, dependerá de comprovação da regularidade ﬁscal e trabalhista da cessionária, bem como da cerƟﬁcação de que a cessionária não se encontra impedida de licitar e contratar com o Poder Público, conforme a legislação em vigor, nos termos do Parecer JL-01, de 18 de maio de 2020.</t>
         </is>
       </c>
     </row>
@@ -12637,7 +12637,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CLÁUSULA DÉCIMA TERCEIRA - ALTERAÇÕES</t>
+          <t>A crédito a ser pago à cessionária é exatamente aquele que seria des Ɵnado à cedente (contratada) pela execução do objeto contratual, com o desconto de eventuais multas, glosas e prejuízos causados à Administração, sem prejuízo da u Ɵlização de ins Ɵtutos tais como os da conta vinculada e do pagamento direto previstos na IN SEGES/ME nº 5, de 2017, caso aplicáveis.</t>
         </is>
       </c>
     </row>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Eventuais alterações contratuais reger-se-ão pela disciplina do art. 65 da Lei nº 8.666, de 1993.</t>
+          <t>CLÁUSULA DÉCIMA TERCEIRA - ALTERAÇÕES</t>
         </is>
       </c>
     </row>
@@ -12661,7 +12661,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>A CONTRATADA é obrigada a aceitar, nas mesmas condições contratuais, os acréscimos ou supressões que se ﬁzerem necessários, até o limite de 25% (vinte e cinco por</t>
+          <t>Eventuais alterações contratuais reger-se-ão pela disciplina do art. 65 da Lei nº 8.666, de 1993.</t>
         </is>
       </c>
     </row>
@@ -12673,7 +12673,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>As supressões resultantes de acordo celebrado entre as partes contratantes poderão exceder o limite de 25% (vinte e cinco por cento) do valor inicial atualizado do</t>
+          <t>A CONTRATADA é obrigada a aceitar, nas mesmas condições contratuais, os acréscimos ou supressões que se ﬁzerem necessários, até o limite de 25% (vinte e cinco por cento) do valor inicial atualizado do contrato.</t>
         </is>
       </c>
     </row>
@@ -12685,7 +12685,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CLÁUSULA DÉCIMA QUARTA - DOS CASOS OMISSOS</t>
+          <t>As supressões resultantes de acordo celebrado entre as partes contratantes poderão exceder o limite de 25% (vinte e cinco por cento) do valor inicial atualizado do contrato.</t>
         </is>
       </c>
     </row>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Os casos omissos serão decididos pela CONTRATANTE, segundo as disposições con Ɵdas na Lei nº 8.666, de 1993, na Lei nº 10.520, de 2002 e demais normas federais</t>
+          <t>CLÁUSULA DÉCIMA QUARTA - DOS CASOS OMISSOS</t>
         </is>
       </c>
     </row>
@@ -12709,7 +12709,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CLÁUSULA DÉCIMA QUINTA - PUBLICAÇÃO</t>
+          <t>Os casos omissos serão decididos pela CONTRATANTE, segundo as disposições con Ɵdas na Lei nº 8.666, de 1993, na Lei nº 10.520, de 2002 e demais normas federais aplicáveis e, subsidiariamente, segundo as disposições con Ɵdas na Lei nº 8.078, de 1990 – Código de Defesa do Consumidor – e normas e princípios gerais dos contratos.</t>
         </is>
       </c>
     </row>
@@ -12721,7 +12721,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Incumbirá à CONTRATANTE providenciar a publicação deste instrumento, por extrato, no Diário Oﬁcial da União, no prazo previsto na Lei nº 8.666, de 1993.</t>
+          <t>CLÁUSULA DÉCIMA QUINTA - PUBLICAÇÃO</t>
         </is>
       </c>
     </row>
@@ -12733,7 +12733,19 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>CLÁUSULA DÉCIMA SEXTA - FORO</t>
+          <t>Incumbirá à CONTRATANTE providenciar a publicação deste instrumento, por extrato, no Diário Oﬁcial da União, no prazo previsto na Lei nº 8.666, de 1993.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>CLÁUSULA DÉCIMA SEXTA - FORO 16.1 É eleito o Foro da Seção Judiciária do Rio de janeiro - Jus Ɵça Federal para dirimir os li ơgios que decorrerem da execução deste Termo de Contrato que não possam ser compostos pela conciliação, conforme art. 55, § 2º da Lei nº 8.666/93. Para ﬁrmeza e validade do pactuado, o presente Termo de Contrato foi lavrado em duas (duas) vias de igual teor, que, depois de lido e achado em ordem, vai assinado pelos contraentes. Rio de Janeiro,  .......... de ........... de 2023. ___________________________________________________ Representante Legal da CONTRATANTE ___________________________________________________ Representante Legal da CONTRATADA TESTEMUNHAS: 1 -  2 - SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 45 of 46 07/08/2023 14:26Referência:  Processo nº 33910.012598/2022-90 SEI nº 27143694SEI/ANS - 27143694 - Edital de Licitação https://sei.ans.gov.br/controlador.php?acao=documento_imprimir_w... 46 of 46 07/08/2023 14:26</t>
         </is>
       </c>
     </row>
